--- a/Experimentos2/BA.xlsx
+++ b/Experimentos2/BA.xlsx
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -448,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -456,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -472,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -480,7 +480,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -722,19 +722,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.106</v>
+        <v>0.441</v>
       </c>
       <c r="C11">
-        <v>0.123</v>
+        <v>0.021</v>
       </c>
       <c r="D11">
-        <v>0.733</v>
+        <v>0.824</v>
       </c>
       <c r="E11">
-        <v>0.645</v>
+        <v>0.739</v>
       </c>
       <c r="F11">
-        <v>0.766</v>
+        <v>1.082</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -742,19 +742,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.896</v>
+        <v>0.301</v>
       </c>
       <c r="C12">
-        <v>0.398</v>
+        <v>0.505</v>
       </c>
       <c r="D12">
-        <v>0.472</v>
+        <v>1.026</v>
       </c>
       <c r="E12">
-        <v>0.893</v>
+        <v>0.131</v>
       </c>
       <c r="F12">
-        <v>1.054</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -762,19 +762,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.45</v>
+        <v>0.757</v>
       </c>
       <c r="C13">
-        <v>0.851</v>
+        <v>0.262</v>
       </c>
       <c r="D13">
-        <v>1.037</v>
+        <v>0.668</v>
       </c>
       <c r="E13">
-        <v>0.509</v>
+        <v>0.457</v>
       </c>
       <c r="F13">
-        <v>0.4</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -782,19 +782,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.847</v>
+        <v>0.626</v>
       </c>
       <c r="C14">
-        <v>0.217</v>
+        <v>0.368</v>
       </c>
       <c r="D14">
-        <v>1.056</v>
+        <v>0.091</v>
       </c>
       <c r="E14">
-        <v>0.362</v>
+        <v>0.261</v>
       </c>
       <c r="F14">
-        <v>0.043</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -802,19 +802,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.623</v>
+        <v>0.835</v>
       </c>
       <c r="C15">
-        <v>0.078</v>
+        <v>0.331</v>
       </c>
       <c r="D15">
-        <v>0.5600000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="E15">
-        <v>0.837</v>
+        <v>0.298</v>
       </c>
       <c r="F15">
-        <v>0.288</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -822,19 +822,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.591</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="C16">
-        <v>0.6909999999999999</v>
+        <v>0.945</v>
       </c>
       <c r="D16">
-        <v>0.267</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="E16">
-        <v>0.448</v>
+        <v>0.844</v>
       </c>
       <c r="F16">
-        <v>0.466</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -842,19 +842,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.492</v>
+        <v>0.894</v>
       </c>
       <c r="C17">
-        <v>0.388</v>
+        <v>0.589</v>
       </c>
       <c r="D17">
-        <v>1.015</v>
+        <v>0.602</v>
       </c>
       <c r="E17">
-        <v>0.972</v>
+        <v>0.984</v>
       </c>
       <c r="F17">
-        <v>0.864</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -862,19 +862,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.232</v>
+        <v>1.054</v>
       </c>
       <c r="C18">
-        <v>0.231</v>
+        <v>0.122</v>
       </c>
       <c r="D18">
-        <v>0.06900000000000001</v>
+        <v>0.243</v>
       </c>
       <c r="E18">
-        <v>0.324</v>
+        <v>0.234</v>
       </c>
       <c r="F18">
-        <v>0.136</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -882,19 +882,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.271</v>
+        <v>0.391</v>
       </c>
       <c r="C19">
-        <v>0.537</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="D19">
-        <v>0.259</v>
+        <v>0.455</v>
       </c>
       <c r="E19">
-        <v>0.057</v>
+        <v>0.554</v>
       </c>
       <c r="F19">
-        <v>0.073</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -902,19 +902,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.184</v>
+        <v>1.002</v>
       </c>
       <c r="C20">
-        <v>0.235</v>
+        <v>-0.053</v>
       </c>
       <c r="D20">
-        <v>1.692</v>
+        <v>1.968</v>
       </c>
       <c r="E20">
-        <v>1.795</v>
+        <v>1.62</v>
       </c>
       <c r="F20">
-        <v>1.422</v>
+        <v>2.725</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -922,19 +922,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.44</v>
+        <v>0.651</v>
       </c>
       <c r="C21">
-        <v>1.024</v>
+        <v>1.288</v>
       </c>
       <c r="D21">
-        <v>1.058</v>
+        <v>2.48</v>
       </c>
       <c r="E21">
-        <v>2.544</v>
+        <v>0.208</v>
       </c>
       <c r="F21">
-        <v>2.16</v>
+        <v>2.485</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -942,19 +942,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.159</v>
+        <v>1.773</v>
       </c>
       <c r="C22">
-        <v>2.328</v>
+        <v>0.607</v>
       </c>
       <c r="D22">
-        <v>2.439</v>
+        <v>1.58</v>
       </c>
       <c r="E22">
-        <v>1.399</v>
+        <v>0.973</v>
       </c>
       <c r="F22">
-        <v>0.82</v>
+        <v>1.505</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -962,19 +962,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.291</v>
+        <v>1.445</v>
       </c>
       <c r="C23">
-        <v>0.491</v>
+        <v>0.897</v>
       </c>
       <c r="D23">
-        <v>2.489</v>
+        <v>0.132</v>
       </c>
       <c r="E23">
-        <v>0.976</v>
+        <v>0.534</v>
       </c>
       <c r="F23">
-        <v>0.083</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -982,19 +982,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.645</v>
+        <v>1.957</v>
       </c>
       <c r="C24">
-        <v>0.08599999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="D24">
-        <v>1.269</v>
+        <v>2.235</v>
       </c>
       <c r="E24">
-        <v>2.373</v>
+        <v>0.593</v>
       </c>
       <c r="F24">
-        <v>0.602</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1002,19 +1002,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.55</v>
+        <v>2.219</v>
       </c>
       <c r="C25">
-        <v>1.852</v>
+        <v>2.492</v>
       </c>
       <c r="D25">
-        <v>0.5570000000000001</v>
+        <v>2.257</v>
       </c>
       <c r="E25">
-        <v>1.234</v>
+        <v>1.894</v>
       </c>
       <c r="F25">
-        <v>0.977</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1022,19 +1022,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.262</v>
+        <v>2.093</v>
       </c>
       <c r="C26">
-        <v>0.972</v>
+        <v>1.498</v>
       </c>
       <c r="D26">
-        <v>2.385</v>
+        <v>1.414</v>
       </c>
       <c r="E26">
-        <v>2.815</v>
+        <v>2.232</v>
       </c>
       <c r="F26">
-        <v>1.816</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1042,19 +1042,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.513</v>
+        <v>2.484</v>
       </c>
       <c r="C27">
-        <v>0.515</v>
+        <v>0.195</v>
       </c>
       <c r="D27">
-        <v>0.073</v>
+        <v>0.511</v>
       </c>
       <c r="E27">
-        <v>0.885</v>
+        <v>0.494</v>
       </c>
       <c r="F27">
-        <v>0.284</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1062,19 +1062,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.621</v>
+        <v>0.843</v>
       </c>
       <c r="C28">
-        <v>1.395</v>
+        <v>2.116</v>
       </c>
       <c r="D28">
-        <v>0.538</v>
+        <v>1.044</v>
       </c>
       <c r="E28">
-        <v>0.06900000000000001</v>
+        <v>1.224</v>
       </c>
       <c r="F28">
-        <v>0.154</v>
+        <v>1.657</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1082,19 +1082,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.283</v>
+        <v>1.676</v>
       </c>
       <c r="C29">
-        <v>0.387</v>
+        <v>-0.186</v>
       </c>
       <c r="D29">
-        <v>3.669</v>
+        <v>3.672</v>
       </c>
       <c r="E29">
-        <v>4.443</v>
+        <v>2.8</v>
       </c>
       <c r="F29">
-        <v>2.372</v>
+        <v>6.206</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1102,19 +1102,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>4.438</v>
+        <v>1.072</v>
       </c>
       <c r="C30">
-        <v>1.887</v>
+        <v>2.797</v>
       </c>
       <c r="D30">
-        <v>2.265</v>
+        <v>4.645</v>
       </c>
       <c r="E30">
-        <v>6.335</v>
+        <v>0.309</v>
       </c>
       <c r="F30">
-        <v>3.713</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1122,19 +1122,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.076</v>
+        <v>2.993</v>
       </c>
       <c r="C31">
-        <v>4.368</v>
+        <v>1.28</v>
       </c>
       <c r="D31">
-        <v>5.326</v>
+        <v>2.937</v>
       </c>
       <c r="E31">
-        <v>3.448</v>
+        <v>1.662</v>
       </c>
       <c r="F31">
-        <v>1.409</v>
+        <v>3.396</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1142,19 +1142,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4.16</v>
+        <v>2.429</v>
       </c>
       <c r="C32">
-        <v>0.869</v>
+        <v>1.923</v>
       </c>
       <c r="D32">
-        <v>5.439</v>
+        <v>0.191</v>
       </c>
       <c r="E32">
-        <v>2.386</v>
+        <v>0.894</v>
       </c>
       <c r="F32">
-        <v>0.14</v>
+        <v>1.157</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1162,19 +1162,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.968</v>
+        <v>3.304</v>
       </c>
       <c r="C33">
-        <v>0.097</v>
+        <v>1.684</v>
       </c>
       <c r="D33">
-        <v>2.731</v>
+        <v>4.179</v>
       </c>
       <c r="E33">
-        <v>5.902</v>
+        <v>0.987</v>
       </c>
       <c r="F33">
-        <v>1.04</v>
+        <v>1.652</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1182,19 +1182,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.792</v>
+        <v>3.751</v>
       </c>
       <c r="C34">
-        <v>3.457</v>
+        <v>5.469</v>
       </c>
       <c r="D34">
-        <v>1.154</v>
+        <v>4.222</v>
       </c>
       <c r="E34">
-        <v>3.037</v>
+        <v>3.296</v>
       </c>
       <c r="F34">
-        <v>1.69</v>
+        <v>1.617</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1202,19 +1202,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.26</v>
+        <v>3.533</v>
       </c>
       <c r="C35">
-        <v>1.78</v>
+        <v>3.256</v>
       </c>
       <c r="D35">
-        <v>5.207</v>
+        <v>2.622</v>
       </c>
       <c r="E35">
-        <v>7.03</v>
+        <v>3.898</v>
       </c>
       <c r="F35">
-        <v>3.143</v>
+        <v>4.263</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1222,19 +1222,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.878</v>
+        <v>4.201</v>
       </c>
       <c r="C36">
+        <v>0.355</v>
+      </c>
+      <c r="D36">
         <v>0.909</v>
       </c>
-      <c r="D36">
-        <v>0.081</v>
-      </c>
       <c r="E36">
-        <v>2.164</v>
+        <v>0.833</v>
       </c>
       <c r="F36">
-        <v>0.49</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1242,19 +1242,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.076</v>
+        <v>1.389</v>
       </c>
       <c r="C37">
-        <v>2.583</v>
+        <v>4.628</v>
       </c>
       <c r="D37">
-        <v>1.112</v>
+        <v>1.92</v>
       </c>
       <c r="E37">
-        <v>0.1</v>
+        <v>2.116</v>
       </c>
       <c r="F37">
-        <v>0.266</v>
+        <v>3.763</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1262,19 +1262,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.422</v>
+        <v>2.542</v>
       </c>
       <c r="C38">
-        <v>0.617</v>
+        <v>-0.455</v>
       </c>
       <c r="D38">
-        <v>7.901</v>
+        <v>6.439</v>
       </c>
       <c r="E38">
-        <v>10.858</v>
+        <v>4.509</v>
       </c>
       <c r="F38">
-        <v>3.813</v>
+        <v>14.049</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1282,19 +1282,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7.274</v>
+        <v>1.614</v>
       </c>
       <c r="C39">
-        <v>3.203</v>
+        <v>5.915</v>
       </c>
       <c r="D39">
-        <v>4.849</v>
+        <v>8.16</v>
       </c>
       <c r="E39">
-        <v>15.515</v>
+        <v>0.453</v>
       </c>
       <c r="F39">
-        <v>6.034</v>
+        <v>12.882</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1302,19 +1302,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.377</v>
+        <v>4.561</v>
       </c>
       <c r="C40">
-        <v>7.481</v>
+        <v>2.674</v>
       </c>
       <c r="D40">
-        <v>11.506</v>
+        <v>5.14</v>
       </c>
       <c r="E40">
-        <v>8.412000000000001</v>
+        <v>2.658</v>
       </c>
       <c r="F40">
-        <v>2.289</v>
+        <v>7.611</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1322,19 +1322,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6.813</v>
+        <v>3.694</v>
       </c>
       <c r="C41">
-        <v>1.446</v>
+        <v>4.046</v>
       </c>
       <c r="D41">
-        <v>11.752</v>
+        <v>0.286</v>
       </c>
       <c r="E41">
-        <v>5.801</v>
+        <v>1.411</v>
       </c>
       <c r="F41">
-        <v>0.226</v>
+        <v>2.464</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1342,19 +1342,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4.846</v>
+        <v>5.035</v>
       </c>
       <c r="C42">
-        <v>0.114</v>
+        <v>3.536</v>
       </c>
       <c r="D42">
-        <v>5.861</v>
+        <v>7.335</v>
       </c>
       <c r="E42">
-        <v>14.449</v>
+        <v>1.557</v>
       </c>
       <c r="F42">
-        <v>1.693</v>
+        <v>3.603</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1362,19 +1362,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4.556</v>
+        <v>5.72</v>
       </c>
       <c r="C43">
-        <v>5.907</v>
+        <v>11.618</v>
       </c>
       <c r="D43">
-        <v>2.432</v>
+        <v>7.412</v>
       </c>
       <c r="E43">
-        <v>7.402</v>
+        <v>5.324</v>
       </c>
       <c r="F43">
-        <v>2.752</v>
+        <v>3.523</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1382,19 +1382,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.678</v>
+        <v>5.384</v>
       </c>
       <c r="C44">
-        <v>3.014</v>
+        <v>6.891</v>
       </c>
       <c r="D44">
-        <v>11.247</v>
+        <v>4.583</v>
       </c>
       <c r="E44">
-        <v>17.229</v>
+        <v>6.307</v>
       </c>
       <c r="F44">
-        <v>5.12</v>
+        <v>9.609</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1402,19 +1402,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.397</v>
+        <v>6.408</v>
       </c>
       <c r="C45">
-        <v>1.512</v>
+        <v>0.695</v>
       </c>
       <c r="D45">
-        <v>0.098</v>
+        <v>1.555</v>
       </c>
       <c r="E45">
-        <v>5.257</v>
+        <v>1.317</v>
       </c>
       <c r="F45">
-        <v>0.797</v>
+        <v>1.558</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1422,19 +1422,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.723</v>
+        <v>2.093</v>
       </c>
       <c r="C46">
-        <v>4.398</v>
+        <v>9.82</v>
       </c>
       <c r="D46">
-        <v>2.341</v>
+        <v>3.342</v>
       </c>
       <c r="E46">
-        <v>0.176</v>
+        <v>3.404</v>
       </c>
       <c r="F46">
-        <v>0.433</v>
+        <v>8.459</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1442,19 +1442,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.871</v>
+        <v>3.632</v>
       </c>
       <c r="C47">
-        <v>1.042</v>
+        <v>-1.213</v>
       </c>
       <c r="D47">
-        <v>18.526</v>
+        <v>14.881</v>
       </c>
       <c r="E47">
-        <v>25.327</v>
+        <v>6.519</v>
       </c>
       <c r="F47">
-        <v>7.815</v>
+        <v>32.411</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1462,19 +1462,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>16.539</v>
+        <v>2.297</v>
       </c>
       <c r="C48">
-        <v>5.642</v>
+        <v>14.748</v>
       </c>
       <c r="D48">
-        <v>11.336</v>
+        <v>18.883</v>
       </c>
       <c r="E48">
-        <v>36.219</v>
+        <v>0.622</v>
       </c>
       <c r="F48">
-        <v>12.409</v>
+        <v>29.707</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1482,19 +1482,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7.627</v>
+        <v>6.535</v>
       </c>
       <c r="C49">
-        <v>13.253</v>
+        <v>6.627</v>
       </c>
       <c r="D49">
-        <v>27.021</v>
+        <v>11.86</v>
       </c>
       <c r="E49">
-        <v>19.608</v>
+        <v>3.829</v>
       </c>
       <c r="F49">
-        <v>4.706</v>
+        <v>17.459</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1502,19 +1502,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>15.483</v>
+        <v>5.287</v>
       </c>
       <c r="C50">
-        <v>2.515</v>
+        <v>10.064</v>
       </c>
       <c r="D50">
-        <v>27.601</v>
+        <v>0.573</v>
       </c>
       <c r="E50">
-        <v>13.503</v>
+        <v>2.018</v>
       </c>
       <c r="F50">
-        <v>0.463</v>
+        <v>5.497</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1522,19 +1522,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>10.985</v>
+        <v>7.215</v>
       </c>
       <c r="C51">
-        <v>0.145</v>
+        <v>8.786</v>
       </c>
       <c r="D51">
-        <v>13.72</v>
+        <v>16.964</v>
       </c>
       <c r="E51">
-        <v>33.725</v>
+        <v>2.227</v>
       </c>
       <c r="F51">
-        <v>3.482</v>
+        <v>8.144</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1542,19 +1542,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>10.322</v>
+        <v>8.199</v>
       </c>
       <c r="C52">
-        <v>10.451</v>
+        <v>29.037</v>
       </c>
       <c r="D52">
-        <v>5.641</v>
+        <v>17.144</v>
       </c>
       <c r="E52">
-        <v>17.246</v>
+        <v>7.708</v>
       </c>
       <c r="F52">
-        <v>5.662</v>
+        <v>7.959</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1562,19 +1562,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>8.313000000000001</v>
+        <v>7.715</v>
       </c>
       <c r="C53">
-        <v>5.303</v>
+        <v>17.192</v>
       </c>
       <c r="D53">
-        <v>26.411</v>
+        <v>10.565</v>
       </c>
       <c r="E53">
-        <v>40.229</v>
+        <v>9.138999999999999</v>
       </c>
       <c r="F53">
-        <v>10.536</v>
+        <v>22.104</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1582,19 +1582,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.097</v>
+        <v>9.186999999999999</v>
       </c>
       <c r="C54">
-        <v>2.631</v>
+        <v>1.666</v>
       </c>
       <c r="D54">
-        <v>0.141</v>
+        <v>3.524</v>
       </c>
       <c r="E54">
-        <v>12.231</v>
+        <v>1.885</v>
       </c>
       <c r="F54">
-        <v>1.638</v>
+        <v>3.391</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1602,19 +1602,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3.842</v>
+        <v>2.981</v>
       </c>
       <c r="C55">
-        <v>7.765</v>
+        <v>24.531</v>
       </c>
       <c r="D55">
-        <v>5.426</v>
+        <v>7.679</v>
       </c>
       <c r="E55">
-        <v>0.348</v>
+        <v>4.918</v>
       </c>
       <c r="F55">
-        <v>0.89</v>
+        <v>19.431</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1622,19 +1622,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2.031</v>
+        <v>5.045</v>
       </c>
       <c r="C56">
-        <v>1.814</v>
+        <v>-3.198</v>
       </c>
       <c r="D56">
-        <v>44.214</v>
+        <v>36.52</v>
       </c>
       <c r="E56">
-        <v>58.63</v>
+        <v>8.965999999999999</v>
       </c>
       <c r="F56">
-        <v>17.067</v>
+        <v>75.229</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1642,19 +1642,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>40.506</v>
+        <v>3.182</v>
       </c>
       <c r="C57">
-        <v>10.08</v>
+        <v>37.9</v>
       </c>
       <c r="D57">
-        <v>27.019</v>
+        <v>46.368</v>
       </c>
       <c r="E57">
-        <v>83.871</v>
+        <v>0.827</v>
       </c>
       <c r="F57">
-        <v>27.122</v>
+        <v>68.935</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1662,19 +1662,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>18.621</v>
+        <v>9.093</v>
       </c>
       <c r="C58">
-        <v>23.756</v>
+        <v>16.989</v>
       </c>
       <c r="D58">
-        <v>64.53100000000001</v>
+        <v>29.085</v>
       </c>
       <c r="E58">
-        <v>45.377</v>
+        <v>5.254</v>
       </c>
       <c r="F58">
-        <v>10.284</v>
+        <v>40.414</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1682,19 +1682,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>37.912</v>
+        <v>7.352</v>
       </c>
       <c r="C59">
-        <v>4.46</v>
+        <v>25.839</v>
       </c>
       <c r="D59">
-        <v>65.919</v>
+        <v>1.308</v>
       </c>
       <c r="E59">
-        <v>31.23</v>
+        <v>2.756</v>
       </c>
       <c r="F59">
-        <v>1.01</v>
+        <v>12.558</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1702,19 +1702,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>26.867</v>
+        <v>10.04</v>
       </c>
       <c r="C60">
-        <v>0.201</v>
+        <v>22.548</v>
       </c>
       <c r="D60">
-        <v>32.721</v>
+        <v>41.646</v>
       </c>
       <c r="E60">
-        <v>78.09099999999999</v>
+        <v>3.043</v>
       </c>
       <c r="F60">
-        <v>7.61</v>
+        <v>18.722</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1722,19 +1722,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>25.239</v>
+        <v>11.412</v>
       </c>
       <c r="C61">
-        <v>18.72</v>
+        <v>74.69199999999999</v>
       </c>
       <c r="D61">
-        <v>13.399</v>
+        <v>42.089</v>
       </c>
       <c r="E61">
-        <v>39.903</v>
+        <v>10.61</v>
       </c>
       <c r="F61">
-        <v>12.376</v>
+        <v>18.292</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1742,19 +1742,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>20.305</v>
+        <v>10.736</v>
       </c>
       <c r="C62">
-        <v>9.468999999999999</v>
+        <v>44.192</v>
       </c>
       <c r="D62">
-        <v>63.073</v>
+        <v>25.898</v>
       </c>
       <c r="E62">
-        <v>93.16500000000001</v>
+        <v>12.587</v>
       </c>
       <c r="F62">
-        <v>23.031</v>
+        <v>51.232</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1762,19 +1762,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7.496</v>
+        <v>12.789</v>
       </c>
       <c r="C63">
-        <v>4.668</v>
+        <v>4.214</v>
       </c>
       <c r="D63">
-        <v>0.245</v>
+        <v>8.571</v>
       </c>
       <c r="E63">
-        <v>28.282</v>
+        <v>2.575</v>
       </c>
       <c r="F63">
-        <v>3.578</v>
+        <v>7.654</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1782,19 +1782,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>9.324999999999999</v>
+        <v>4.133</v>
       </c>
       <c r="C64">
-        <v>13.893</v>
+        <v>63.089</v>
       </c>
       <c r="D64">
-        <v>12.885</v>
+        <v>18.796</v>
       </c>
       <c r="E64">
-        <v>0.744</v>
+        <v>6.761</v>
       </c>
       <c r="F64">
-        <v>1.944</v>
+        <v>45.007</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1802,19 +1802,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3.866</v>
+        <v>7.562</v>
       </c>
       <c r="C65">
-        <v>3.809</v>
+        <v>-5.949</v>
       </c>
       <c r="D65">
-        <v>77.804</v>
+        <v>62.387</v>
       </c>
       <c r="E65">
-        <v>150.34</v>
+        <v>16.696</v>
       </c>
       <c r="F65">
-        <v>40.619</v>
+        <v>163.596</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1822,19 +1822,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>78.422</v>
+        <v>4.76</v>
       </c>
       <c r="C66">
-        <v>21.552</v>
+        <v>69.985</v>
       </c>
       <c r="D66">
-        <v>47.527</v>
+        <v>79.224</v>
       </c>
       <c r="E66">
-        <v>215.096</v>
+        <v>1.472</v>
       </c>
       <c r="F66">
-        <v>64.562</v>
+        <v>149.891</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1842,19 +1842,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>36.013</v>
+        <v>13.65</v>
       </c>
       <c r="C67">
-        <v>50.907</v>
+        <v>31.349</v>
       </c>
       <c r="D67">
-        <v>113.58</v>
+        <v>49.676</v>
       </c>
       <c r="E67">
-        <v>116.34</v>
+        <v>9.753</v>
       </c>
       <c r="F67">
-        <v>24.478</v>
+        <v>87.785</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1862,19 +1862,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>73.395</v>
+        <v>11.031</v>
       </c>
       <c r="C68">
-        <v>9.488</v>
+        <v>47.701</v>
       </c>
       <c r="D68">
-        <v>116.025</v>
+        <v>2.187</v>
       </c>
       <c r="E68">
-        <v>80.04600000000001</v>
+        <v>5.082</v>
       </c>
       <c r="F68">
-        <v>2.402</v>
+        <v>27.126</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1882,19 +1882,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>51.992</v>
+        <v>15.073</v>
       </c>
       <c r="C69">
-        <v>0.346</v>
+        <v>41.62</v>
       </c>
       <c r="D69">
-        <v>57.567</v>
+        <v>71.151</v>
       </c>
       <c r="E69">
-        <v>200.267</v>
+        <v>5.618</v>
       </c>
       <c r="F69">
-        <v>18.114</v>
+        <v>40.549</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1902,19 +1902,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>48.838</v>
+        <v>17.136</v>
       </c>
       <c r="C70">
-        <v>40.096</v>
+        <v>137.963</v>
       </c>
       <c r="D70">
-        <v>23.544</v>
+        <v>71.908</v>
       </c>
       <c r="E70">
-        <v>102.296</v>
+        <v>19.773</v>
       </c>
       <c r="F70">
-        <v>29.459</v>
+        <v>39.613</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1922,19 +1922,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>39.276</v>
+        <v>16.119</v>
       </c>
       <c r="C71">
-        <v>20.239</v>
+        <v>81.61</v>
       </c>
       <c r="D71">
-        <v>111.013</v>
+        <v>44.227</v>
       </c>
       <c r="E71">
-        <v>238.94</v>
+        <v>23.473</v>
       </c>
       <c r="F71">
-        <v>54.824</v>
+        <v>111.342</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1942,19 +1942,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>14.455</v>
+        <v>19.207</v>
       </c>
       <c r="C72">
-        <v>9.933999999999999</v>
+        <v>7.745</v>
       </c>
       <c r="D72">
-        <v>0.381</v>
+        <v>14.604</v>
       </c>
       <c r="E72">
-        <v>72.483</v>
+        <v>4.745</v>
       </c>
       <c r="F72">
-        <v>8.515000000000001</v>
+        <v>16.448</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1962,19 +1962,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>17.999</v>
+        <v>6.188</v>
       </c>
       <c r="C73">
-        <v>29.735</v>
+        <v>116.525</v>
       </c>
       <c r="D73">
-        <v>22.639</v>
+        <v>32.085</v>
       </c>
       <c r="E73">
-        <v>1.835</v>
+        <v>12.575</v>
       </c>
       <c r="F73">
-        <v>4.625</v>
+        <v>97.78700000000001</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1982,19 +1982,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7.009</v>
+        <v>11.74</v>
       </c>
       <c r="C74">
-        <v>8.429</v>
+        <v>-10.115</v>
       </c>
       <c r="D74">
-        <v>125.309</v>
+        <v>95.483</v>
       </c>
       <c r="E74">
-        <v>391.892</v>
+        <v>34.308</v>
       </c>
       <c r="F74">
-        <v>98.208</v>
+        <v>351.15</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2002,19 +2002,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>143.368</v>
+        <v>7.379</v>
       </c>
       <c r="C75">
-        <v>48.122</v>
+        <v>118.575</v>
       </c>
       <c r="D75">
-        <v>76.53100000000001</v>
+        <v>121.262</v>
       </c>
       <c r="E75">
-        <v>560.725</v>
+        <v>2.941</v>
       </c>
       <c r="F75">
-        <v>156.103</v>
+        <v>321.716</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2022,19 +2022,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>65.804</v>
+        <v>21.213</v>
       </c>
       <c r="C76">
-        <v>113.793</v>
+        <v>53.096</v>
       </c>
       <c r="D76">
-        <v>182.948</v>
+        <v>76.021</v>
       </c>
       <c r="E76">
-        <v>303.247</v>
+        <v>20.003</v>
       </c>
       <c r="F76">
-        <v>59.183</v>
+        <v>188.326</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2042,19 +2042,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>134.173</v>
+        <v>17.137</v>
       </c>
       <c r="C77">
-        <v>21.133</v>
+        <v>80.809</v>
       </c>
       <c r="D77">
-        <v>186.888</v>
+        <v>3.312</v>
       </c>
       <c r="E77">
-        <v>208.621</v>
+        <v>10.38</v>
       </c>
       <c r="F77">
-        <v>5.805</v>
+        <v>58.044</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2062,19 +2062,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>95.02800000000001</v>
+        <v>23.427</v>
       </c>
       <c r="C78">
-        <v>0.6820000000000001</v>
+        <v>70.503</v>
       </c>
       <c r="D78">
-        <v>92.706</v>
+        <v>108.901</v>
       </c>
       <c r="E78">
-        <v>522.062</v>
+        <v>11.484</v>
       </c>
       <c r="F78">
-        <v>43.796</v>
+        <v>86.874</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2082,19 +2082,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>89.26000000000001</v>
+        <v>26.636</v>
       </c>
       <c r="C79">
-        <v>89.607</v>
+        <v>233.782</v>
       </c>
       <c r="D79">
-        <v>37.892</v>
+        <v>110.06</v>
       </c>
       <c r="E79">
-        <v>266.631</v>
+        <v>40.649</v>
       </c>
       <c r="F79">
-        <v>71.227</v>
+        <v>84.864</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2102,19 +2102,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>71.771</v>
+        <v>25.054</v>
       </c>
       <c r="C80">
-        <v>45.184</v>
+        <v>138.277</v>
       </c>
       <c r="D80">
-        <v>178.813</v>
+        <v>67.678</v>
       </c>
       <c r="E80">
-        <v>622.891</v>
+        <v>48.274</v>
       </c>
       <c r="F80">
-        <v>132.558</v>
+        <v>238.921</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2122,19 +2122,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>26.375</v>
+        <v>29.859</v>
       </c>
       <c r="C81">
-        <v>22.131</v>
+        <v>13.093</v>
       </c>
       <c r="D81">
-        <v>0.573</v>
+        <v>22.323</v>
       </c>
       <c r="E81">
-        <v>188.903</v>
+        <v>9.686999999999999</v>
       </c>
       <c r="F81">
-        <v>20.586</v>
+        <v>35.111</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2142,19 +2142,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>32.857</v>
+        <v>9.6</v>
       </c>
       <c r="C82">
-        <v>66.428</v>
+        <v>197.45</v>
       </c>
       <c r="D82">
-        <v>36.434</v>
+        <v>49.088</v>
       </c>
       <c r="E82">
-        <v>4.709</v>
+        <v>25.819</v>
       </c>
       <c r="F82">
-        <v>11.18</v>
+        <v>209.808</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2162,19 +2162,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>16.434</v>
+        <v>19.04</v>
       </c>
       <c r="C83">
-        <v>20.86</v>
+        <v>-21.283</v>
       </c>
       <c r="D83">
-        <v>216.023</v>
+        <v>148.425</v>
       </c>
       <c r="E83">
-        <v>837.595</v>
+        <v>78.715</v>
       </c>
       <c r="F83">
-        <v>157.761</v>
+        <v>545.372</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2182,19 +2182,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>338.137</v>
+        <v>11.955</v>
       </c>
       <c r="C84">
-        <v>119.616</v>
+        <v>248.831</v>
       </c>
       <c r="D84">
-        <v>131.915</v>
+        <v>188.508</v>
       </c>
       <c r="E84">
-        <v>1198.467</v>
+        <v>6.645</v>
       </c>
       <c r="F84">
-        <v>250.766</v>
+        <v>499.65</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2202,19 +2202,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>155.145</v>
+        <v>34.427</v>
       </c>
       <c r="C85">
-        <v>283.005</v>
+        <v>111.394</v>
       </c>
       <c r="D85">
-        <v>315.41</v>
+        <v>118.164</v>
       </c>
       <c r="E85">
-        <v>648.121</v>
+        <v>45.847</v>
       </c>
       <c r="F85">
-        <v>95.072</v>
+        <v>292.442</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2222,19 +2222,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>316.444</v>
+        <v>27.806</v>
       </c>
       <c r="C86">
-        <v>52.467</v>
+        <v>169.562</v>
       </c>
       <c r="D86">
-        <v>322.205</v>
+        <v>5.111</v>
       </c>
       <c r="E86">
-        <v>445.863</v>
+        <v>23.737</v>
       </c>
       <c r="F86">
-        <v>9.324</v>
+        <v>90.06100000000001</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2242,19 +2242,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>224.091</v>
+        <v>38.023</v>
       </c>
       <c r="C87">
-        <v>1.586</v>
+        <v>147.93</v>
       </c>
       <c r="D87">
-        <v>159.806</v>
+        <v>169.288</v>
       </c>
       <c r="E87">
-        <v>1115.827</v>
+        <v>26.274</v>
       </c>
       <c r="F87">
-        <v>70.354</v>
+        <v>134.846</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2262,19 +2262,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>210.484</v>
+        <v>43.235</v>
       </c>
       <c r="C88">
-        <v>222.83</v>
+        <v>490.644</v>
       </c>
       <c r="D88">
-        <v>65.29000000000001</v>
+        <v>171.09</v>
       </c>
       <c r="E88">
-        <v>569.856</v>
+        <v>93.285</v>
       </c>
       <c r="F88">
-        <v>114.42</v>
+        <v>131.724</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2282,19 +2282,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>169.223</v>
+        <v>40.666</v>
       </c>
       <c r="C89">
-        <v>112.306</v>
+        <v>290.184</v>
       </c>
       <c r="D89">
-        <v>308.281</v>
+        <v>105.191</v>
       </c>
       <c r="E89">
-        <v>1331.344</v>
+        <v>110.805</v>
       </c>
       <c r="F89">
-        <v>212.943</v>
+        <v>371.036</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2302,19 +2302,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>62.123</v>
+        <v>48.471</v>
       </c>
       <c r="C90">
-        <v>54.95</v>
+        <v>27.43</v>
       </c>
       <c r="D90">
-        <v>0.9399999999999999</v>
+        <v>34.671</v>
       </c>
       <c r="E90">
-        <v>403.717</v>
+        <v>22.146</v>
       </c>
       <c r="F90">
-        <v>33.069</v>
+        <v>54.437</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2322,19 +2322,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>77.41500000000001</v>
+        <v>15.562</v>
       </c>
       <c r="C91">
-        <v>165.161</v>
+        <v>414.386</v>
       </c>
       <c r="D91">
-        <v>62.776</v>
+        <v>76.28700000000001</v>
       </c>
       <c r="E91">
-        <v>10.012</v>
+        <v>59.211</v>
       </c>
       <c r="F91">
-        <v>17.959</v>
+        <v>325.812</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2342,19 +2342,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>40.68</v>
+        <v>31.411</v>
       </c>
       <c r="C92">
-        <v>52.725</v>
+        <v>-47.147</v>
       </c>
       <c r="D92">
-        <v>381.242</v>
+        <v>232.225</v>
       </c>
       <c r="E92">
-        <v>1719.661</v>
+        <v>184.688</v>
       </c>
       <c r="F92">
-        <v>220.469</v>
+        <v>749.952</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2362,19 +2362,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>839.1900000000001</v>
+        <v>19.71</v>
       </c>
       <c r="C93">
-        <v>302.881</v>
+        <v>550.499</v>
       </c>
       <c r="D93">
-        <v>232.787</v>
+        <v>294.949</v>
       </c>
       <c r="E93">
-        <v>2460.586</v>
+        <v>15.484</v>
       </c>
       <c r="F93">
-        <v>350.444</v>
+        <v>687.074</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2382,19 +2382,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>384.979</v>
+        <v>56.82</v>
       </c>
       <c r="C94">
-        <v>716.7569999999999</v>
+        <v>246.41</v>
       </c>
       <c r="D94">
-        <v>556.6660000000001</v>
+        <v>184.871</v>
       </c>
       <c r="E94">
-        <v>1330.642</v>
+        <v>107.521</v>
       </c>
       <c r="F94">
-        <v>132.862</v>
+        <v>402.111</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2402,19 +2402,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>785.345</v>
+        <v>45.886</v>
       </c>
       <c r="C95">
-        <v>132.788</v>
+        <v>375.111</v>
       </c>
       <c r="D95">
-        <v>568.66</v>
+        <v>7.959</v>
       </c>
       <c r="E95">
-        <v>915.375</v>
+        <v>55.612</v>
       </c>
       <c r="F95">
-        <v>13.029</v>
+        <v>123.786</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2422,19 +2422,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>556.112</v>
+        <v>62.758</v>
       </c>
       <c r="C96">
-        <v>3.903</v>
+        <v>327.248</v>
       </c>
       <c r="D96">
-        <v>282.016</v>
+        <v>264.872</v>
       </c>
       <c r="E96">
-        <v>2290.913</v>
+        <v>61.568</v>
       </c>
       <c r="F96">
-        <v>98.319</v>
+        <v>185.376</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2442,19 +2442,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>522.3390000000001</v>
+        <v>71.36499999999999</v>
       </c>
       <c r="C97">
-        <v>564.329</v>
+        <v>1085.527</v>
       </c>
       <c r="D97">
-        <v>115.19</v>
+        <v>267.692</v>
       </c>
       <c r="E97">
-        <v>1169.951</v>
+        <v>218.895</v>
       </c>
       <c r="F97">
-        <v>159.901</v>
+        <v>181.083</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2462,19 +2462,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>419.923</v>
+        <v>67.123</v>
       </c>
       <c r="C98">
-        <v>284.364</v>
+        <v>641.995</v>
       </c>
       <c r="D98">
-        <v>544.083</v>
+        <v>164.569</v>
       </c>
       <c r="E98">
-        <v>2733.403</v>
+        <v>260.028</v>
       </c>
       <c r="F98">
-        <v>297.587</v>
+        <v>510.197</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2482,19 +2482,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>154.086</v>
+        <v>80.012</v>
       </c>
       <c r="C99">
-        <v>139.077</v>
+        <v>60.634</v>
       </c>
       <c r="D99">
-        <v>1.609</v>
+        <v>54.216</v>
       </c>
       <c r="E99">
-        <v>828.843</v>
+        <v>51.877</v>
       </c>
       <c r="F99">
-        <v>46.213</v>
+        <v>74.794</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2502,19 +2502,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>192.043</v>
+        <v>25.666</v>
       </c>
       <c r="C100">
-        <v>418.249</v>
+        <v>916.802</v>
       </c>
       <c r="D100">
-        <v>110.753</v>
+        <v>119.339</v>
       </c>
       <c r="E100">
-        <v>20.507</v>
+        <v>138.897</v>
       </c>
       <c r="F100">
-        <v>25.097</v>
+        <v>448.003</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2522,19 +2522,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>88.477</v>
+        <v>58.669</v>
       </c>
       <c r="C101">
-        <v>115.653</v>
+        <v>-115.743</v>
       </c>
       <c r="D101">
-        <v>745.4349999999999</v>
+        <v>410.746</v>
       </c>
       <c r="E101">
-        <v>3134.807</v>
+        <v>310.97</v>
       </c>
       <c r="F101">
-        <v>449.409</v>
+        <v>1311.508</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2542,19 +2542,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1826.93</v>
+        <v>36.794</v>
       </c>
       <c r="C102">
-        <v>664.802</v>
+        <v>1350.304</v>
       </c>
       <c r="D102">
-        <v>455.139</v>
+        <v>521.702</v>
       </c>
       <c r="E102">
-        <v>4485.472</v>
+        <v>26.02</v>
       </c>
       <c r="F102">
-        <v>714.355</v>
+        <v>1201.544</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2562,19 +2562,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>838.057</v>
+        <v>106.169</v>
       </c>
       <c r="C103">
-        <v>1573.351</v>
+        <v>604.3630000000001</v>
       </c>
       <c r="D103">
-        <v>1088.467</v>
+        <v>326.978</v>
       </c>
       <c r="E103">
-        <v>2425.647</v>
+        <v>181.016</v>
       </c>
       <c r="F103">
-        <v>270.828</v>
+        <v>703.183</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2582,19 +2582,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1709.703</v>
+        <v>85.729</v>
       </c>
       <c r="C104">
-        <v>291.41</v>
+        <v>920.071</v>
       </c>
       <c r="D104">
-        <v>1111.921</v>
+        <v>14.027</v>
       </c>
       <c r="E104">
-        <v>1668.639</v>
+        <v>93.598</v>
       </c>
       <c r="F104">
-        <v>26.556</v>
+        <v>216.432</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2602,19 +2602,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1210.634</v>
+        <v>117.27</v>
       </c>
       <c r="C105">
-        <v>8.478999999999999</v>
+        <v>802.6609999999999</v>
       </c>
       <c r="D105">
-        <v>551.404</v>
+        <v>468.497</v>
       </c>
       <c r="E105">
-        <v>4176.167</v>
+        <v>103.628</v>
       </c>
       <c r="F105">
-        <v>200.415</v>
+        <v>324.144</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2622,19 +2622,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1137.107</v>
+        <v>133.36</v>
       </c>
       <c r="C106">
-        <v>1238.738</v>
+        <v>2662.748</v>
       </c>
       <c r="D106">
-        <v>225.185</v>
+        <v>473.485</v>
       </c>
       <c r="E106">
-        <v>2132.716</v>
+        <v>368.577</v>
       </c>
       <c r="F106">
-        <v>325.946</v>
+        <v>316.636</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2642,19 +2642,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>914.135</v>
+        <v>125.43</v>
       </c>
       <c r="C107">
-        <v>624.153</v>
+        <v>1574.747</v>
       </c>
       <c r="D107">
-        <v>1063.862</v>
+        <v>291.064</v>
       </c>
       <c r="E107">
-        <v>4982.802</v>
+        <v>437.848</v>
       </c>
       <c r="F107">
-        <v>606.61</v>
+        <v>892.21</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2662,19 +2662,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>335.375</v>
+        <v>149.525</v>
       </c>
       <c r="C108">
-        <v>305.215</v>
+        <v>148.648</v>
       </c>
       <c r="D108">
-        <v>3.083</v>
+        <v>95.854</v>
       </c>
       <c r="E108">
-        <v>1510.896</v>
+        <v>87.30800000000001</v>
       </c>
       <c r="F108">
-        <v>94.2</v>
+        <v>130.752</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2682,19 +2682,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>418.012</v>
+        <v>47.928</v>
       </c>
       <c r="C109">
-        <v>918.0599999999999</v>
+        <v>2248.86</v>
       </c>
       <c r="D109">
-        <v>216.509</v>
+        <v>211.054</v>
       </c>
       <c r="E109">
-        <v>37.345</v>
+        <v>233.855</v>
       </c>
       <c r="F109">
-        <v>51.157</v>
+        <v>783.442</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2702,19 +2702,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>187.547</v>
+        <v>113.762</v>
       </c>
       <c r="C110">
-        <v>246.772</v>
+        <v>-289.151</v>
       </c>
       <c r="D110">
-        <v>1498.711</v>
+        <v>756.824</v>
       </c>
       <c r="E110">
-        <v>5521.729</v>
+        <v>471.452</v>
       </c>
       <c r="F110">
-        <v>1017.202</v>
+        <v>2497.34</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2722,19 +2722,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>3874.246</v>
+        <v>71.322</v>
       </c>
       <c r="C111">
-        <v>1418.912</v>
+        <v>3372.07</v>
       </c>
       <c r="D111">
-        <v>915.039</v>
+        <v>961.282</v>
       </c>
       <c r="E111">
-        <v>7900.84</v>
+        <v>39.412</v>
       </c>
       <c r="F111">
-        <v>1616.888</v>
+        <v>2287.948</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2742,19 +2742,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1777.165</v>
+        <v>205.915</v>
       </c>
       <c r="C112">
-        <v>3358.178</v>
+        <v>1509.2</v>
       </c>
       <c r="D112">
-        <v>2188.413</v>
+        <v>602.465</v>
       </c>
       <c r="E112">
-        <v>4272.588</v>
+        <v>274.416</v>
       </c>
       <c r="F112">
-        <v>612.997</v>
+        <v>1338.969</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2762,19 +2762,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>3625.645</v>
+        <v>166.26</v>
       </c>
       <c r="C113">
-        <v>621.92</v>
+        <v>2297.631</v>
       </c>
       <c r="D113">
-        <v>2235.57</v>
+        <v>25.791</v>
       </c>
       <c r="E113">
-        <v>2939.167</v>
+        <v>141.873</v>
       </c>
       <c r="F113">
-        <v>60.105</v>
+        <v>412.098</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2782,19 +2782,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>2567.28</v>
+        <v>227.452</v>
       </c>
       <c r="C114">
-        <v>18.013</v>
+        <v>2004.418</v>
       </c>
       <c r="D114">
-        <v>1108.59</v>
+        <v>863.242</v>
       </c>
       <c r="E114">
-        <v>7356.018</v>
+        <v>157.081</v>
       </c>
       <c r="F114">
-        <v>453.622</v>
+        <v>617.203</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2802,19 +2802,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>2411.354</v>
+        <v>258.668</v>
       </c>
       <c r="C115">
-        <v>2643.958</v>
+        <v>6649.692</v>
       </c>
       <c r="D115">
-        <v>452.692</v>
+        <v>872.433</v>
       </c>
       <c r="E115">
-        <v>3756.608</v>
+        <v>558.796</v>
       </c>
       <c r="F115">
-        <v>737.753</v>
+        <v>602.9059999999999</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2822,19 +2822,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1938.502</v>
+        <v>243.283</v>
       </c>
       <c r="C116">
-        <v>1332.148</v>
+        <v>3932.581</v>
       </c>
       <c r="D116">
-        <v>2138.943</v>
+        <v>536.2859999999999</v>
       </c>
       <c r="E116">
-        <v>8776.855</v>
+        <v>663.825</v>
       </c>
       <c r="F116">
-        <v>1373.015</v>
+        <v>1698.914</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2842,19 +2842,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>711.138</v>
+        <v>290.029</v>
       </c>
       <c r="C117">
-        <v>651.386</v>
+        <v>371.124</v>
       </c>
       <c r="D117">
-        <v>6.132</v>
+        <v>176.574</v>
       </c>
       <c r="E117">
-        <v>2661.312</v>
+        <v>132.336</v>
       </c>
       <c r="F117">
-        <v>213.212</v>
+        <v>248.947</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2862,19 +2862,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>886.384</v>
+        <v>92.923</v>
       </c>
       <c r="C118">
-        <v>1959.482</v>
+        <v>5616.072</v>
       </c>
       <c r="D118">
-        <v>435.248</v>
+        <v>388.852</v>
       </c>
       <c r="E118">
-        <v>65.745</v>
+        <v>354.531</v>
       </c>
       <c r="F118">
-        <v>115.788</v>
+        <v>1491.798</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2882,19 +2882,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>361.793</v>
+        <v>267.653</v>
       </c>
       <c r="C119">
-        <v>440.305</v>
+        <v>-670.799</v>
       </c>
       <c r="D119">
-        <v>3374.472</v>
+        <v>1110.47</v>
       </c>
       <c r="E119">
-        <v>8085.345</v>
+        <v>979.823</v>
       </c>
       <c r="F119">
-        <v>2358.067</v>
+        <v>4801.979</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2902,19 +2902,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7475.105</v>
+        <v>167.768</v>
       </c>
       <c r="C120">
-        <v>2531.988</v>
+        <v>7821.675</v>
       </c>
       <c r="D120">
-        <v>2060.254</v>
+        <v>1410.474</v>
       </c>
       <c r="E120">
-        <v>11569.033</v>
+        <v>81.84699999999999</v>
       </c>
       <c r="F120">
-        <v>3748.254</v>
+        <v>4399.351</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2922,19 +2922,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>3428.886</v>
+        <v>484.54</v>
       </c>
       <c r="C121">
-        <v>5992.605</v>
+        <v>3500.61</v>
       </c>
       <c r="D121">
-        <v>4927.431</v>
+        <v>883.976</v>
       </c>
       <c r="E121">
-        <v>6256.25</v>
+        <v>570.292</v>
       </c>
       <c r="F121">
-        <v>1421.042</v>
+        <v>2574.612</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2942,19 +2942,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6995.441</v>
+        <v>391.21</v>
       </c>
       <c r="C122">
-        <v>1109.757</v>
+        <v>5329.434</v>
       </c>
       <c r="D122">
-        <v>5033.611</v>
+        <v>37.812</v>
       </c>
       <c r="E122">
-        <v>4303.747</v>
+        <v>294.807</v>
       </c>
       <c r="F122">
-        <v>139.332</v>
+        <v>792.383</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2962,19 +2962,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>4953.375</v>
+        <v>535.229</v>
       </c>
       <c r="C123">
-        <v>32.085</v>
+        <v>4649.305</v>
       </c>
       <c r="D123">
-        <v>2496.06</v>
+        <v>1266.619</v>
       </c>
       <c r="E123">
-        <v>10771.26</v>
+        <v>326.417</v>
       </c>
       <c r="F123">
-        <v>1051.58</v>
+        <v>1186.768</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2982,19 +2982,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>4652.524</v>
+        <v>608.698</v>
       </c>
       <c r="C124">
-        <v>4718.08</v>
+        <v>15424.363</v>
       </c>
       <c r="D124">
-        <v>1019.216</v>
+        <v>1280.105</v>
       </c>
       <c r="E124">
-        <v>5500.71</v>
+        <v>1161.364</v>
       </c>
       <c r="F124">
-        <v>1710.251</v>
+        <v>1159.277</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3002,19 +3002,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>3740.178</v>
+        <v>572.4880000000001</v>
       </c>
       <c r="C125">
-        <v>2377.157</v>
+        <v>9121.822</v>
       </c>
       <c r="D125">
-        <v>4816.043</v>
+        <v>786.87</v>
       </c>
       <c r="E125">
-        <v>12851.766</v>
+        <v>1379.662</v>
       </c>
       <c r="F125">
-        <v>3182.91</v>
+        <v>3266.73</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3022,19 +3022,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1372.037</v>
+        <v>682.5069999999999</v>
       </c>
       <c r="C126">
-        <v>1162.339</v>
+        <v>860.758</v>
       </c>
       <c r="D126">
-        <v>13.724</v>
+        <v>259.059</v>
       </c>
       <c r="E126">
-        <v>3896.888</v>
+        <v>274.985</v>
       </c>
       <c r="F126">
-        <v>494.264</v>
+        <v>478.669</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3042,19 +3042,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1710.166</v>
+        <v>218.607</v>
       </c>
       <c r="C127">
-        <v>3496.634</v>
+        <v>13026.805</v>
       </c>
       <c r="D127">
-        <v>979.938</v>
+        <v>570.538</v>
       </c>
       <c r="E127">
-        <v>96.247</v>
+        <v>736.808</v>
       </c>
       <c r="F127">
-        <v>268.416</v>
+        <v>2868.478</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3062,19 +3062,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>361.776</v>
+        <v>654.074</v>
       </c>
       <c r="C128">
-        <v>440.686</v>
+        <v>-1535.473</v>
       </c>
       <c r="D128">
-        <v>3375.179</v>
+        <v>1475.22</v>
       </c>
       <c r="E128">
-        <v>8085.994</v>
+        <v>2211.261</v>
       </c>
       <c r="F128">
-        <v>2357.862</v>
+        <v>9257.903</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3082,19 +3082,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7475.139</v>
+        <v>409.944</v>
       </c>
       <c r="C129">
-        <v>2532.802</v>
+        <v>17902.835</v>
       </c>
       <c r="D129">
-        <v>2059.889</v>
+        <v>1873.77</v>
       </c>
       <c r="E129">
-        <v>11568.311</v>
+        <v>184.642</v>
       </c>
       <c r="F129">
-        <v>3747.542</v>
+        <v>8481.662</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3102,19 +3102,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>3428.946</v>
+        <v>1184.169</v>
       </c>
       <c r="C130">
-        <v>5992.61</v>
+        <v>8012.408</v>
       </c>
       <c r="D130">
-        <v>4926.803</v>
+        <v>1174.326</v>
       </c>
       <c r="E130">
-        <v>6255.822</v>
+        <v>1287.001</v>
       </c>
       <c r="F130">
-        <v>1420.295</v>
+        <v>4963.68</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3122,19 +3122,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6995.976</v>
+        <v>956.061</v>
       </c>
       <c r="C131">
-        <v>1108.894</v>
+        <v>12198.378</v>
       </c>
       <c r="D131">
-        <v>5033.237</v>
+        <v>50.21</v>
       </c>
       <c r="E131">
-        <v>4303.886</v>
+        <v>665.266</v>
       </c>
       <c r="F131">
-        <v>140.104</v>
+        <v>1527.654</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3142,19 +3142,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>4953.524</v>
+        <v>1308.059</v>
       </c>
       <c r="C132">
-        <v>32.568</v>
+        <v>10641.64</v>
       </c>
       <c r="D132">
-        <v>2496.83</v>
+        <v>1682.662</v>
       </c>
       <c r="E132">
-        <v>10770.943</v>
+        <v>736.606</v>
       </c>
       <c r="F132">
-        <v>1052.267</v>
+        <v>2288.004</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3162,19 +3162,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>4651.859</v>
+        <v>1487.626</v>
       </c>
       <c r="C133">
-        <v>4718.384</v>
+        <v>35304.524</v>
       </c>
       <c r="D133">
-        <v>1019.922</v>
+        <v>1700.577</v>
       </c>
       <c r="E133">
-        <v>5500.484</v>
+        <v>2620.976</v>
       </c>
       <c r="F133">
-        <v>1709.402</v>
+        <v>2235.003</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3182,19 +3182,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>3740.864</v>
+        <v>1399.124</v>
       </c>
       <c r="C134">
-        <v>2377.782</v>
+        <v>20878.724</v>
       </c>
       <c r="D134">
-        <v>4815.651</v>
+        <v>1045.322</v>
       </c>
       <c r="E134">
-        <v>12851.692</v>
+        <v>3113.647</v>
       </c>
       <c r="F134">
-        <v>3183.614</v>
+        <v>6298.04</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3202,19 +3202,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1371.901</v>
+        <v>1668.023</v>
       </c>
       <c r="C135">
-        <v>1162.069</v>
+        <v>1970.087</v>
       </c>
       <c r="D135">
-        <v>12.859</v>
+        <v>344.134</v>
       </c>
       <c r="E135">
-        <v>3897.131</v>
+        <v>620.53</v>
       </c>
       <c r="F135">
-        <v>494.833</v>
+        <v>922.833</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3222,19 +3222,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1709.713</v>
+        <v>534.2</v>
       </c>
       <c r="C136">
-        <v>3497.487</v>
+        <v>29816.786</v>
       </c>
       <c r="D136">
-        <v>979.1900000000001</v>
+        <v>757.929</v>
       </c>
       <c r="E136">
-        <v>95.492</v>
+        <v>1662.806</v>
       </c>
       <c r="F136">
-        <v>267.752</v>
+        <v>5530.235</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3242,19 +3242,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>836.234</v>
+        <v>1349.839</v>
       </c>
       <c r="C137">
-        <v>1061.171</v>
+        <v>-3026.649</v>
       </c>
       <c r="D137">
-        <v>7097.127</v>
+        <v>2037.641</v>
       </c>
       <c r="E137">
-        <v>17223.485</v>
+        <v>4515.132</v>
       </c>
       <c r="F137">
-        <v>5485.985</v>
+        <v>18944.54</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3262,19 +3262,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>17280.301</v>
+        <v>845.99</v>
       </c>
       <c r="C138">
-        <v>6100.09</v>
+        <v>35288.323</v>
       </c>
       <c r="D138">
-        <v>4331.827</v>
+        <v>2588.142</v>
       </c>
       <c r="E138">
-        <v>24641.503</v>
+        <v>376.96</v>
       </c>
       <c r="F138">
-        <v>8719.543</v>
+        <v>17356.11</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3282,19 +3282,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7926.63</v>
+        <v>2443.877</v>
       </c>
       <c r="C139">
-        <v>14433.803</v>
+        <v>15793.239</v>
       </c>
       <c r="D139">
-        <v>10360.746</v>
+        <v>1622.027</v>
       </c>
       <c r="E139">
-        <v>13325.429</v>
+        <v>2627.877</v>
       </c>
       <c r="F139">
-        <v>3304.922</v>
+        <v>10157.226</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3302,19 +3302,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>16172.37</v>
+        <v>1973.096</v>
       </c>
       <c r="C140">
-        <v>2671.177</v>
+        <v>24044.231</v>
       </c>
       <c r="D140">
-        <v>10584.423</v>
+        <v>69.327</v>
       </c>
       <c r="E140">
-        <v>9167.486999999999</v>
+        <v>1358.351</v>
       </c>
       <c r="F140">
-        <v>325.528</v>
+        <v>3126.048</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3322,19 +3322,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>11450.982</v>
+        <v>2699.568</v>
       </c>
       <c r="C141">
-        <v>78.126</v>
+        <v>20975.735</v>
       </c>
       <c r="D141">
-        <v>5250.03</v>
+        <v>2324.173</v>
       </c>
       <c r="E141">
-        <v>22942.923</v>
+        <v>1504.021</v>
       </c>
       <c r="F141">
-        <v>2447.842</v>
+        <v>4681.961</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3342,19 +3342,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>10754.01</v>
+        <v>3070.168</v>
       </c>
       <c r="C142">
-        <v>11364.547</v>
+        <v>69588.902</v>
       </c>
       <c r="D142">
-        <v>2144.307</v>
+        <v>2348.917</v>
       </c>
       <c r="E142">
-        <v>11716.441</v>
+        <v>5351.733</v>
       </c>
       <c r="F142">
-        <v>3977.625</v>
+        <v>4573.504</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3362,19 +3362,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>8647.395</v>
+        <v>2887.513</v>
       </c>
       <c r="C143">
-        <v>5726.789</v>
+        <v>41154.116</v>
       </c>
       <c r="D143">
-        <v>10126.876</v>
+        <v>1443.838</v>
       </c>
       <c r="E143">
-        <v>27374.99</v>
+        <v>6357.723</v>
       </c>
       <c r="F143">
-        <v>7406.687</v>
+        <v>12887.741</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3382,19 +3382,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>3171.416</v>
+        <v>3442.481</v>
       </c>
       <c r="C144">
-        <v>2798.994</v>
+        <v>3883.183</v>
       </c>
       <c r="D144">
-        <v>27.449</v>
+        <v>475.314</v>
       </c>
       <c r="E144">
-        <v>8301.036</v>
+        <v>1267.004</v>
       </c>
       <c r="F144">
-        <v>1150.967</v>
+        <v>1888.396</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3402,19 +3402,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>3952.495</v>
+        <v>1102.436</v>
       </c>
       <c r="C145">
-        <v>8423.630999999999</v>
+        <v>58771.987</v>
       </c>
       <c r="D145">
-        <v>2059.461</v>
+        <v>1046.874</v>
       </c>
       <c r="E145">
-        <v>203.591</v>
+        <v>3395.237</v>
       </c>
       <c r="F145">
-        <v>623.3339999999999</v>
+        <v>11316.573</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3422,19 +3422,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>836.866</v>
+        <v>2684.045</v>
       </c>
       <c r="C146">
-        <v>1061.879</v>
+        <v>-5752.727</v>
       </c>
       <c r="D146">
-        <v>7096.884</v>
+        <v>2873.097</v>
       </c>
       <c r="E146">
-        <v>17222.723</v>
+        <v>9008.814</v>
       </c>
       <c r="F146">
-        <v>5486.261</v>
+        <v>39334.84</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3442,19 +3442,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>17280.667</v>
+        <v>1682.156</v>
       </c>
       <c r="C147">
-        <v>6100.474</v>
+        <v>67071.41800000001</v>
       </c>
       <c r="D147">
-        <v>4331.768</v>
+        <v>3649.316</v>
       </c>
       <c r="E147">
-        <v>24641.917</v>
+        <v>752.075</v>
       </c>
       <c r="F147">
-        <v>8719.447</v>
+        <v>36036.758</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3462,19 +3462,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7925.928</v>
+        <v>4859.506</v>
       </c>
       <c r="C148">
-        <v>14432.987</v>
+        <v>30017.683</v>
       </c>
       <c r="D148">
-        <v>10360.526</v>
+        <v>2287.071</v>
       </c>
       <c r="E148">
-        <v>13325.292</v>
+        <v>5243.245</v>
       </c>
       <c r="F148">
-        <v>3304.19</v>
+        <v>21089.603</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3482,19 +3482,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>16172.115</v>
+        <v>3923.372</v>
       </c>
       <c r="C149">
-        <v>2671.822</v>
+        <v>45700.101</v>
       </c>
       <c r="D149">
-        <v>10583.641</v>
+        <v>97.72499999999999</v>
       </c>
       <c r="E149">
-        <v>9168.134</v>
+        <v>2710.208</v>
       </c>
       <c r="F149">
-        <v>325.054</v>
+        <v>6490.657</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3502,19 +3502,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>11451.036</v>
+        <v>5367.94</v>
       </c>
       <c r="C150">
-        <v>78.907</v>
+        <v>39867.901</v>
       </c>
       <c r="D150">
-        <v>5249.488</v>
+        <v>3277.114</v>
       </c>
       <c r="E150">
-        <v>22943.236</v>
+        <v>3000.858</v>
       </c>
       <c r="F150">
-        <v>2447.036</v>
+        <v>9721.224</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3522,19 +3522,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>10754.535</v>
+        <v>6104.866</v>
       </c>
       <c r="C151">
-        <v>11364.105</v>
+        <v>132265.523</v>
       </c>
       <c r="D151">
-        <v>2144.247</v>
+        <v>3312.003</v>
       </c>
       <c r="E151">
-        <v>11717.181</v>
+        <v>10678.052</v>
       </c>
       <c r="F151">
-        <v>3977.033</v>
+        <v>9496.032999999999</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3542,19 +3542,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>8646.609</v>
+        <v>5741.663</v>
       </c>
       <c r="C152">
-        <v>5727.57</v>
+        <v>78220.35799999999</v>
       </c>
       <c r="D152">
-        <v>10126.663</v>
+        <v>2035.819</v>
       </c>
       <c r="E152">
-        <v>27374.574</v>
+        <v>12685.267</v>
       </c>
       <c r="F152">
-        <v>7406.448</v>
+        <v>26759.014</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3562,19 +3562,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>3171.423</v>
+        <v>6845.199</v>
       </c>
       <c r="C153">
-        <v>2798.943</v>
+        <v>7380.589</v>
       </c>
       <c r="D153">
-        <v>26.906</v>
+        <v>670.177</v>
       </c>
       <c r="E153">
-        <v>8301.184999999999</v>
+        <v>2527.947</v>
       </c>
       <c r="F153">
-        <v>1150.553</v>
+        <v>3920.901</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3582,19 +3582,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>3951.855</v>
+        <v>2192.091</v>
       </c>
       <c r="C154">
-        <v>8424.098</v>
+        <v>111706.13</v>
       </c>
       <c r="D154">
-        <v>2059</v>
+        <v>1476.091</v>
       </c>
       <c r="E154">
-        <v>203.191</v>
+        <v>6774.33</v>
       </c>
       <c r="F154">
-        <v>623.836</v>
+        <v>23496.773</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3602,19 +3602,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1574.913</v>
+        <v>6597.551</v>
       </c>
       <c r="C155">
-        <v>2553.043</v>
+        <v>-12166.349</v>
       </c>
       <c r="D155">
-        <v>14431.112</v>
+        <v>5831.723</v>
       </c>
       <c r="E155">
-        <v>30218.093</v>
+        <v>21268.044</v>
       </c>
       <c r="F155">
-        <v>9267.249</v>
+        <v>85253.44899999999</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3622,19 +3622,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>32529.215</v>
+        <v>4134.807</v>
       </c>
       <c r="C156">
-        <v>14670.089</v>
+        <v>141847.246</v>
       </c>
       <c r="D156">
-        <v>8808.541999999999</v>
+        <v>7407.286</v>
       </c>
       <c r="E156">
-        <v>43234.888</v>
+        <v>1775.429</v>
       </c>
       <c r="F156">
-        <v>14729.062</v>
+        <v>78105.25999999999</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3642,19 +3642,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>14920.256</v>
+        <v>11945.053</v>
       </c>
       <c r="C157">
-        <v>34709.168</v>
+        <v>63483.416</v>
       </c>
       <c r="D157">
-        <v>21067.943</v>
+        <v>4642.212</v>
       </c>
       <c r="E157">
-        <v>23379.754</v>
+        <v>12378.24</v>
       </c>
       <c r="F157">
-        <v>5582.015</v>
+        <v>45709.13</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3662,19 +3662,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>30442.702</v>
+        <v>9643.941000000001</v>
       </c>
       <c r="C158">
-        <v>6424.938</v>
+        <v>96649.69</v>
       </c>
       <c r="D158">
-        <v>21521.867</v>
+        <v>198.293</v>
       </c>
       <c r="E158">
-        <v>16085.386</v>
+        <v>6398.214</v>
       </c>
       <c r="F158">
-        <v>549.159</v>
+        <v>14067.7</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3682,19 +3682,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>21555.547</v>
+        <v>13194.835</v>
       </c>
       <c r="C159">
-        <v>189.107</v>
+        <v>84315.34600000001</v>
       </c>
       <c r="D159">
-        <v>10674.644</v>
+        <v>6651.793</v>
       </c>
       <c r="E159">
-        <v>40254.49</v>
+        <v>7084.385</v>
       </c>
       <c r="F159">
-        <v>4133.808</v>
+        <v>21069.559</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3702,19 +3702,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>20244.341</v>
+        <v>15006.273</v>
       </c>
       <c r="C160">
-        <v>27328.773</v>
+        <v>279724.299</v>
       </c>
       <c r="D160">
-        <v>4360.02</v>
+        <v>6722.61</v>
       </c>
       <c r="E160">
-        <v>20557.776</v>
+        <v>25208.802</v>
       </c>
       <c r="F160">
-        <v>6718.523</v>
+        <v>20581.485</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3722,19 +3722,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>16276.798</v>
+        <v>14113.484</v>
       </c>
       <c r="C161">
-        <v>13773.123</v>
+        <v>165425.804</v>
       </c>
       <c r="D161">
-        <v>20592.326</v>
+        <v>4132.221</v>
       </c>
       <c r="E161">
-        <v>48029.766</v>
+        <v>29947.461</v>
       </c>
       <c r="F161">
-        <v>12510.888</v>
+        <v>57996.885</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3742,19 +3742,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5969.913</v>
+        <v>16826.086</v>
       </c>
       <c r="C162">
-        <v>6730.94</v>
+        <v>15608.907</v>
       </c>
       <c r="D162">
-        <v>55.158</v>
+        <v>1360.252</v>
       </c>
       <c r="E162">
-        <v>14564.545</v>
+        <v>5967.93</v>
       </c>
       <c r="F162">
-        <v>1943.603</v>
+        <v>8498.069</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3762,19 +3762,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7439.448</v>
+        <v>5388.278</v>
       </c>
       <c r="C163">
-        <v>20257.941</v>
+        <v>236243.857</v>
       </c>
       <c r="D163">
-        <v>4187.268</v>
+        <v>2996.09</v>
       </c>
       <c r="E163">
-        <v>356.794</v>
+        <v>15992.845</v>
       </c>
       <c r="F163">
-        <v>1053.654</v>
+        <v>50926.377</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3782,19 +3782,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1575.232</v>
+        <v>16851.236</v>
       </c>
       <c r="C164">
-        <v>2552.923</v>
+        <v>-26378.646</v>
       </c>
       <c r="D164">
-        <v>14431.478</v>
+        <v>13099.944</v>
       </c>
       <c r="E164">
-        <v>30217.491</v>
+        <v>51860.278</v>
       </c>
       <c r="F164">
-        <v>9267.768</v>
+        <v>186501.544</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3802,19 +3802,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>32529.739</v>
+        <v>10560.94</v>
       </c>
       <c r="C165">
-        <v>14669.625</v>
+        <v>307547.113</v>
       </c>
       <c r="D165">
-        <v>8809.159</v>
+        <v>16639.192</v>
       </c>
       <c r="E165">
-        <v>43234.768</v>
+        <v>4329.153</v>
       </c>
       <c r="F165">
-        <v>14729.456</v>
+        <v>170864.074</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3822,19 +3822,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>14920.617</v>
+        <v>30509.729</v>
       </c>
       <c r="C166">
-        <v>34709.412</v>
+        <v>137641.973</v>
       </c>
       <c r="D166">
-        <v>21067.28</v>
+        <v>10427.899</v>
       </c>
       <c r="E166">
-        <v>23379.842</v>
+        <v>30183.228</v>
       </c>
       <c r="F166">
-        <v>5582.678</v>
+        <v>99993.88</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3842,19 +3842,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>30442.995</v>
+        <v>24632.27</v>
       </c>
       <c r="C167">
-        <v>6424.775</v>
+        <v>209551.685</v>
       </c>
       <c r="D167">
-        <v>21521.331</v>
+        <v>445.351</v>
       </c>
       <c r="E167">
-        <v>16084.788</v>
+        <v>15601.43</v>
       </c>
       <c r="F167">
-        <v>549.491</v>
+        <v>30774.678</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3862,19 +3862,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>21555.216</v>
+        <v>33701.899</v>
       </c>
       <c r="C168">
-        <v>189.185</v>
+        <v>182808.882</v>
       </c>
       <c r="D168">
-        <v>10675.229</v>
+        <v>14942.098</v>
       </c>
       <c r="E168">
-        <v>40253.92</v>
+        <v>17274.602</v>
       </c>
       <c r="F168">
-        <v>4134.067</v>
+        <v>46092.036</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3882,19 +3882,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>20244.236</v>
+        <v>38328.641</v>
       </c>
       <c r="C169">
-        <v>27328.731</v>
+        <v>606486.3050000001</v>
       </c>
       <c r="D169">
-        <v>4360.627</v>
+        <v>15101.177</v>
       </c>
       <c r="E169">
-        <v>20558.333</v>
+        <v>61469.489</v>
       </c>
       <c r="F169">
-        <v>6718.415</v>
+        <v>45024.319</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3902,19 +3902,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>16276.339</v>
+        <v>36048.296</v>
       </c>
       <c r="C170">
-        <v>13773.623</v>
+        <v>358669.145</v>
       </c>
       <c r="D170">
-        <v>20591.926</v>
+        <v>9282.286</v>
       </c>
       <c r="E170">
-        <v>48029.695</v>
+        <v>73024.31600000001</v>
       </c>
       <c r="F170">
-        <v>12510.292</v>
+        <v>126874.732</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3922,19 +3922,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>5970.527</v>
+        <v>42976.774</v>
       </c>
       <c r="C171">
-        <v>6730.71</v>
+        <v>33842.489</v>
       </c>
       <c r="D171">
-        <v>54.558</v>
+        <v>3055.504</v>
       </c>
       <c r="E171">
-        <v>14564.897</v>
+        <v>14552.219</v>
       </c>
       <c r="F171">
-        <v>1943.488</v>
+        <v>18590.482</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3942,19 +3942,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7439.634</v>
+        <v>13762.533</v>
       </c>
       <c r="C172">
-        <v>20257.475</v>
+        <v>512213.851</v>
       </c>
       <c r="D172">
-        <v>4186.558</v>
+        <v>6730.151</v>
       </c>
       <c r="E172">
-        <v>356.115</v>
+        <v>38997.142</v>
       </c>
       <c r="F172">
-        <v>1053.829</v>
+        <v>111407.198</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3962,19 +3962,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>3341.857</v>
+        <v>42523.738</v>
       </c>
       <c r="C173">
-        <v>4669.535</v>
+        <v>-41224.032</v>
       </c>
       <c r="D173">
-        <v>31391.458</v>
+        <v>29852.477</v>
       </c>
       <c r="E173">
-        <v>56720.058</v>
+        <v>123733.247</v>
       </c>
       <c r="F173">
-        <v>21463.888</v>
+        <v>420165.733</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3982,19 +3982,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>69020.158</v>
+        <v>26650.269</v>
       </c>
       <c r="C174">
-        <v>26833.28</v>
+        <v>480628.109</v>
       </c>
       <c r="D174">
-        <v>19161.598</v>
+        <v>37917.825</v>
       </c>
       <c r="E174">
-        <v>81153.659</v>
+        <v>10328.837</v>
       </c>
       <c r="F174">
-        <v>34113.415</v>
+        <v>384936.378</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4002,19 +4002,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>31658.059</v>
+        <v>76990.743</v>
       </c>
       <c r="C175">
-        <v>63489.381</v>
+        <v>215103.936</v>
       </c>
       <c r="D175">
-        <v>45826.529</v>
+        <v>23763.337</v>
       </c>
       <c r="E175">
-        <v>43885.072</v>
+        <v>72014.019</v>
       </c>
       <c r="F175">
-        <v>12929.573</v>
+        <v>225274.283</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4022,19 +4022,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>64592.809</v>
+        <v>62159.062</v>
       </c>
       <c r="C176">
-        <v>11751.942</v>
+        <v>327482.919</v>
       </c>
       <c r="D176">
-        <v>46814.241</v>
+        <v>1014.795</v>
       </c>
       <c r="E176">
-        <v>30191.919</v>
+        <v>37223.338</v>
       </c>
       <c r="F176">
-        <v>1272.532</v>
+        <v>69331.675</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4042,19 +4042,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>45735.234</v>
+        <v>85046.137</v>
       </c>
       <c r="C177">
-        <v>345.717</v>
+        <v>285689.829</v>
       </c>
       <c r="D177">
-        <v>23220.719</v>
+        <v>34050.434</v>
       </c>
       <c r="E177">
-        <v>75558.655</v>
+        <v>41215.356</v>
       </c>
       <c r="F177">
-        <v>9574.57</v>
+        <v>103839.856</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4062,19 +4062,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>42953.479</v>
+        <v>96721.651</v>
       </c>
       <c r="C178">
-        <v>49988.92</v>
+        <v>947803.981</v>
       </c>
       <c r="D178">
-        <v>9484.894</v>
+        <v>34412.948</v>
       </c>
       <c r="E178">
-        <v>38588.482</v>
+        <v>146659.843</v>
       </c>
       <c r="F178">
-        <v>15560.224</v>
+        <v>101434.417</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4082,19 +4082,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>34534.928</v>
+        <v>90967.235</v>
       </c>
       <c r="C179">
-        <v>25193.695</v>
+        <v>560520.544</v>
       </c>
       <c r="D179">
-        <v>44792.36</v>
+        <v>21152.678</v>
       </c>
       <c r="E179">
-        <v>90154.14</v>
+        <v>174228.48</v>
       </c>
       <c r="F179">
-        <v>28974.075</v>
+        <v>285833.637</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4102,19 +4102,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>12667.722</v>
+        <v>108451.146</v>
       </c>
       <c r="C180">
-        <v>12311.713</v>
+        <v>52888.289</v>
       </c>
       <c r="D180">
-        <v>119.156</v>
+        <v>6962.893</v>
       </c>
       <c r="E180">
-        <v>27338.745</v>
+        <v>34720.028</v>
       </c>
       <c r="F180">
-        <v>4501.223</v>
+        <v>41882.135</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4122,19 +4122,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>15785.259</v>
+        <v>34729.442</v>
       </c>
       <c r="C181">
-        <v>37054.381</v>
+        <v>800476.976</v>
       </c>
       <c r="D181">
-        <v>9107.216</v>
+        <v>15336.794</v>
       </c>
       <c r="E181">
-        <v>668.88</v>
+        <v>93043.118</v>
       </c>
       <c r="F181">
-        <v>2440.522</v>
+        <v>250987.127</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4142,19 +4142,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>3341.892</v>
+        <v>107105.396</v>
       </c>
       <c r="C182">
-        <v>4669.145</v>
+        <v>-57058.796</v>
       </c>
       <c r="D182">
-        <v>31391.112</v>
+        <v>68218.156</v>
       </c>
       <c r="E182">
-        <v>56719.767</v>
+        <v>294097.834</v>
       </c>
       <c r="F182">
-        <v>21464.365</v>
+        <v>952147.59</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4162,19 +4162,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>69020.072</v>
+        <v>67124.53</v>
       </c>
       <c r="C183">
-        <v>26833.804</v>
+        <v>665244.178</v>
       </c>
       <c r="D183">
-        <v>19161.484</v>
+        <v>86648.916</v>
       </c>
       <c r="E183">
-        <v>81153.13</v>
+        <v>24550.229</v>
       </c>
       <c r="F183">
-        <v>34113.824</v>
+        <v>872313.508</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4182,19 +4182,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>31658.384</v>
+        <v>193918.223</v>
       </c>
       <c r="C184">
-        <v>63488.871</v>
+        <v>297728.392</v>
       </c>
       <c r="D184">
-        <v>45826.673</v>
+        <v>54303.383</v>
       </c>
       <c r="E184">
-        <v>43885.087</v>
+        <v>171167.923</v>
       </c>
       <c r="F184">
-        <v>12930.135</v>
+        <v>510499.425</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4202,19 +4202,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>64592.425</v>
+        <v>156561.332</v>
       </c>
       <c r="C185">
-        <v>11752.243</v>
+        <v>453273.741</v>
       </c>
       <c r="D185">
-        <v>46814.508</v>
+        <v>2318.903</v>
       </c>
       <c r="E185">
-        <v>30191.333</v>
+        <v>88474.977</v>
       </c>
       <c r="F185">
-        <v>1272.295</v>
+        <v>157114.159</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4222,19 +4222,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>45734.959</v>
+        <v>214207.526</v>
       </c>
       <c r="C186">
-        <v>346.006</v>
+        <v>395427.33</v>
       </c>
       <c r="D186">
-        <v>23220.577</v>
+        <v>77811.236</v>
       </c>
       <c r="E186">
-        <v>75558.698</v>
+        <v>97963.48699999999</v>
       </c>
       <c r="F186">
-        <v>9574.825000000001</v>
+        <v>235313.972</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4242,19 +4242,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>42953.502</v>
+        <v>243614.908</v>
       </c>
       <c r="C187">
-        <v>49988.461</v>
+        <v>1311868.951</v>
       </c>
       <c r="D187">
-        <v>9485.538</v>
+        <v>78639.64599999999</v>
       </c>
       <c r="E187">
-        <v>38588.311</v>
+        <v>348591.386</v>
       </c>
       <c r="F187">
-        <v>15560.329</v>
+        <v>229862.949</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4262,19 +4262,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>34534.302</v>
+        <v>229121.13</v>
       </c>
       <c r="C188">
-        <v>25193.256</v>
+        <v>775824.434</v>
       </c>
       <c r="D188">
-        <v>44792.884</v>
+        <v>48337.561</v>
       </c>
       <c r="E188">
-        <v>90154.69899999999</v>
+        <v>414118.468</v>
       </c>
       <c r="F188">
-        <v>28974.24</v>
+        <v>647734.422</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4282,19 +4282,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>12667.162</v>
+        <v>273158.253</v>
       </c>
       <c r="C189">
-        <v>12311.766</v>
+        <v>73203.406</v>
       </c>
       <c r="D189">
-        <v>118.602</v>
+        <v>15911.369</v>
       </c>
       <c r="E189">
-        <v>27339.092</v>
+        <v>82524.933</v>
       </c>
       <c r="F189">
-        <v>4501.165</v>
+        <v>94910.102</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4302,19 +4302,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>15784.943</v>
+        <v>87473.726</v>
       </c>
       <c r="C190">
-        <v>37053.903</v>
+        <v>1107951.547</v>
       </c>
       <c r="D190">
-        <v>9107.389999999999</v>
+        <v>35047.228</v>
       </c>
       <c r="E190">
-        <v>669.225</v>
+        <v>221151.37</v>
       </c>
       <c r="F190">
-        <v>2440.122</v>
+        <v>568767.914</v>
       </c>
     </row>
   </sheetData>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0004179754149380888</v>
+        <v>0.2171180539984884</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0007149815340614747</v>
+        <v>0.03117596359258873</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4412,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.001784734731079065</v>
+        <v>0.07193918542965723</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4420,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00513300788958978</v>
+        <v>0.0005515612695370706</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4428,7 +4428,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.003998661797047993</v>
+        <v>0.006977540085693898</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4436,7 +4436,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.006449314425939713</v>
+        <v>0.01893325373462972</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4444,7 +4444,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.008971236429830822</v>
+        <v>0.006073567414402897</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4452,7 +4452,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0005532689918870399</v>
+        <v>0.01565053698192044</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4460,7 +4460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.009031603335991671</v>
+        <v>0.005526898470910232</v>
       </c>
     </row>
   </sheetData>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0004179754149380888</v>
+        <v>0.2171180539984884</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0007149815340614747</v>
+        <v>0.03117596359258873</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.001784734731079065</v>
+        <v>0.07193918542965723</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.00513300788958978</v>
+        <v>0.0005515612695370706</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.003998661797047993</v>
+        <v>0.006977540085693898</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.006449314425939713</v>
+        <v>0.01893325373462972</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.008971236429830822</v>
+        <v>0.006073567414402897</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0005532689918870399</v>
+        <v>0.01565053698192044</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.009031603335991671</v>
+        <v>0.005526898470910232</v>
       </c>
     </row>
   </sheetData>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.466484620161456</v>
+        <v>0.8171163223041643</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6847903037634281</v>
+        <v>0.8048706268705591</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4505775806772729</v>
+        <v>0.7680305772436408</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5985840456756439</v>
+        <v>0.778693532154636</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.606378308243983</v>
+        <v>0.7458766551160979</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6425050444239669</v>
+        <v>0.8184844746220115</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7308502601605955</v>
+        <v>0.7642473717581348</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5867744227196683</v>
+        <v>0.809598590333346</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6481749705760104</v>
+        <v>0.7850820655741124</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.466484620161456</v>
+        <v>0.8171163223041643</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6847903037634281</v>
+        <v>0.8048706268705591</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4505775806772729</v>
+        <v>0.7680305772436408</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5985840456756439</v>
+        <v>0.778693532154636</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.606378308243983</v>
+        <v>0.7458766551160979</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6425050444239669</v>
+        <v>0.8184844746220115</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7308502601605955</v>
+        <v>0.7642473717581348</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5867744227196683</v>
+        <v>0.809598590333346</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6481749705760104</v>
+        <v>0.7850820655741124</v>
       </c>
     </row>
   </sheetData>
@@ -4788,19 +4788,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.862</v>
+        <v>0.469</v>
       </c>
       <c r="C3">
-        <v>0.889</v>
+        <v>0.781</v>
       </c>
       <c r="D3">
-        <v>0.444</v>
+        <v>0.515</v>
       </c>
       <c r="E3">
-        <v>0.997</v>
+        <v>0.333</v>
       </c>
       <c r="F3">
-        <v>0.104</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4808,19 +4808,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.192</v>
+        <v>0.118</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <v>0.585</v>
       </c>
       <c r="D4">
-        <v>0.626</v>
+        <v>0.295</v>
       </c>
       <c r="E4">
-        <v>0.857</v>
+        <v>0.195</v>
       </c>
       <c r="F4">
-        <v>0.207</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4828,19 +4828,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.893</v>
+        <v>0.09</v>
       </c>
       <c r="C5">
-        <v>0.359</v>
+        <v>0.974</v>
       </c>
       <c r="D5">
-        <v>0.8159999999999999</v>
+        <v>0.891</v>
       </c>
       <c r="E5">
-        <v>0.745</v>
+        <v>0.068</v>
       </c>
       <c r="F5">
-        <v>0.672</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4848,19 +4848,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.345</v>
+        <v>0.221</v>
       </c>
       <c r="C6">
-        <v>0.703</v>
+        <v>0.236</v>
       </c>
       <c r="D6">
-        <v>0.179</v>
+        <v>0.116</v>
       </c>
       <c r="E6">
-        <v>0.997</v>
+        <v>0.595</v>
       </c>
       <c r="F6">
-        <v>0.838</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4868,19 +4868,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.906</v>
+        <v>0.267</v>
       </c>
       <c r="C7">
-        <v>0.9350000000000001</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="D7">
-        <v>0.345</v>
+        <v>0.208</v>
       </c>
       <c r="E7">
-        <v>0.521</v>
+        <v>0.783</v>
       </c>
       <c r="F7">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4888,19 +4888,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.58</v>
+        <v>0.475</v>
       </c>
       <c r="C8">
-        <v>0.59</v>
+        <v>0.905</v>
       </c>
       <c r="D8">
-        <v>0.522</v>
+        <v>0.408</v>
       </c>
       <c r="E8">
-        <v>0.31</v>
+        <v>0.11</v>
       </c>
       <c r="F8">
-        <v>0.754</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4908,19 +4908,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.401</v>
+        <v>0.869</v>
       </c>
       <c r="C9">
-        <v>0.253</v>
+        <v>0.72</v>
       </c>
       <c r="D9">
-        <v>0.749</v>
+        <v>0.01</v>
       </c>
       <c r="E9">
-        <v>0.032</v>
+        <v>0.738</v>
       </c>
       <c r="F9">
-        <v>0.76</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4928,19 +4928,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.83</v>
+        <v>0.473</v>
       </c>
       <c r="C10">
-        <v>0.969</v>
+        <v>0.408</v>
       </c>
       <c r="D10">
-        <v>0.547</v>
+        <v>0.134</v>
       </c>
       <c r="E10">
-        <v>0.8129999999999999</v>
+        <v>0.485</v>
       </c>
       <c r="F10">
-        <v>0.758</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4948,19 +4948,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.315</v>
+        <v>0.961</v>
       </c>
       <c r="C11">
-        <v>0.82</v>
+        <v>0.641</v>
       </c>
       <c r="D11">
-        <v>0.509</v>
+        <v>0.739</v>
       </c>
       <c r="E11">
-        <v>0.224</v>
+        <v>0.862</v>
       </c>
       <c r="F11">
-        <v>0.119</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4968,19 +4968,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.653</v>
+        <v>0.915</v>
       </c>
       <c r="C12">
-        <v>0.245</v>
+        <v>0.024</v>
       </c>
       <c r="D12">
-        <v>0.667</v>
+        <v>0.724</v>
       </c>
       <c r="E12">
-        <v>0.447</v>
+        <v>0.796</v>
       </c>
       <c r="F12">
-        <v>0.908</v>
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3024302626328238</v>
+        <v>0.8190959880206483</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2910822244514785</v>
+        <v>0.2760432959463709</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4523562971322015</v>
+        <v>0.6784543873709259</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4981554717674311</v>
+        <v>0.976617491600117</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3006805330941185</v>
+        <v>0.003242359522663274</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9296529636781855</v>
+        <v>0.2363263765614712</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09378696256863939</v>
+        <v>0.2468036513309348</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8645357418849158</v>
+        <v>0.1777491019400448</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.428166420027423</v>
+        <v>0.1527617421524529</v>
       </c>
     </row>
   </sheetData>
@@ -5080,7 +5080,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5108,19 +5108,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08799999999999999</v>
+        <v>0.409</v>
       </c>
       <c r="C2">
-        <v>0.108</v>
+        <v>0.002</v>
       </c>
       <c r="D2">
-        <v>0.661</v>
+        <v>0.752</v>
       </c>
       <c r="E2">
-        <v>0.522</v>
+        <v>0.64</v>
       </c>
       <c r="F2">
-        <v>0.556</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5128,19 +5128,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.869</v>
+        <v>0.262</v>
       </c>
       <c r="C3">
-        <v>0.374</v>
+        <v>0.477</v>
       </c>
       <c r="D3">
-        <v>0.406</v>
+        <v>0.96</v>
       </c>
       <c r="E3">
-        <v>0.782</v>
+        <v>0.04</v>
       </c>
       <c r="F3">
-        <v>0.99</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5148,19 +5148,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.415</v>
+        <v>0.712</v>
       </c>
       <c r="C4">
-        <v>0.8169999999999999</v>
+        <v>0.225</v>
       </c>
       <c r="D4">
-        <v>0.971</v>
+        <v>0.602</v>
       </c>
       <c r="E4">
-        <v>0.408</v>
+        <v>0.373</v>
       </c>
       <c r="F4">
-        <v>0.376</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5168,19 +5168,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.803</v>
+        <v>0.574</v>
       </c>
       <c r="C5">
-        <v>0.174</v>
+        <v>0.322</v>
       </c>
       <c r="D5">
-        <v>0.994</v>
+        <v>0.03</v>
       </c>
       <c r="E5">
-        <v>0.297</v>
+        <v>0.201</v>
       </c>
       <c r="F5">
-        <v>0.035</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5188,19 +5188,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.572</v>
+        <v>0.777</v>
       </c>
       <c r="C6">
-        <v>0.027</v>
+        <v>0.278</v>
       </c>
       <c r="D6">
-        <v>0.488</v>
+        <v>0.858</v>
       </c>
       <c r="E6">
-        <v>0.718</v>
+        <v>0.202</v>
       </c>
       <c r="F6">
-        <v>0.284</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5208,19 +5208,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.532</v>
+        <v>0.879</v>
       </c>
       <c r="C7">
-        <v>0.631</v>
+        <v>0.883</v>
       </c>
       <c r="D7">
-        <v>0.201</v>
+        <v>0.871</v>
       </c>
       <c r="E7">
-        <v>0.383</v>
+        <v>0.784</v>
       </c>
       <c r="F7">
-        <v>0.463</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5228,19 +5228,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.424</v>
+        <v>0.823</v>
       </c>
       <c r="C8">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
       <c r="D8">
-        <v>0.949</v>
+        <v>0.536</v>
       </c>
       <c r="E8">
-        <v>0.929</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="F8">
-        <v>0.862</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5248,19 +5248,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.156</v>
+        <v>0.977</v>
       </c>
       <c r="C9">
-        <v>0.156</v>
+        <v>0.046</v>
       </c>
       <c r="D9">
-        <v>0.003</v>
+        <v>0.177</v>
       </c>
       <c r="E9">
-        <v>0.305</v>
+        <v>0.204</v>
       </c>
       <c r="F9">
-        <v>0.134</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5268,19 +5268,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.188</v>
+        <v>0.308</v>
       </c>
       <c r="C10">
-        <v>0.454</v>
+        <v>0.731</v>
       </c>
       <c r="D10">
-        <v>0.193</v>
+        <v>0.389</v>
       </c>
       <c r="E10">
-        <v>0.006</v>
+        <v>0.503</v>
       </c>
       <c r="F10">
-        <v>0.073</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5288,19 +5288,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.058</v>
+        <v>0.393</v>
       </c>
       <c r="C11">
-        <v>0.076</v>
+        <v>-0.026</v>
       </c>
       <c r="D11">
-        <v>0.663</v>
+        <v>0.754</v>
       </c>
       <c r="E11">
-        <v>0.5580000000000001</v>
+        <v>0.652</v>
       </c>
       <c r="F11">
-        <v>0.576</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5308,19 +5308,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.843</v>
+        <v>0.248</v>
       </c>
       <c r="C12">
-        <v>0.346</v>
+        <v>0.453</v>
       </c>
       <c r="D12">
-        <v>0.406</v>
+        <v>0.96</v>
       </c>
       <c r="E12">
-        <v>0.8120000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F12">
-        <v>0.996</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5328,19 +5328,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.393</v>
+        <v>0.7</v>
       </c>
       <c r="C13">
-        <v>0.794</v>
+        <v>0.205</v>
       </c>
       <c r="D13">
-        <v>0.971</v>
+        <v>0.602</v>
       </c>
       <c r="E13">
-        <v>0.433</v>
+        <v>0.381</v>
       </c>
       <c r="F13">
-        <v>0.378</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5348,19 +5348,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.785</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="C14">
-        <v>0.155</v>
+        <v>0.306</v>
       </c>
       <c r="D14">
-        <v>0.993</v>
+        <v>0.028</v>
       </c>
       <c r="E14">
-        <v>0.304</v>
+        <v>0.203</v>
       </c>
       <c r="F14">
-        <v>0.036</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5368,19 +5368,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5570000000000001</v>
+        <v>0.769</v>
       </c>
       <c r="C15">
-        <v>0.012</v>
+        <v>0.265</v>
       </c>
       <c r="D15">
-        <v>0.49</v>
+        <v>0.86</v>
       </c>
       <c r="E15">
-        <v>0.752</v>
+        <v>0.213</v>
       </c>
       <c r="F15">
-        <v>0.284</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5388,19 +5388,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.521</v>
+        <v>0.873</v>
       </c>
       <c r="C16">
-        <v>0.62</v>
+        <v>0.874</v>
       </c>
       <c r="D16">
-        <v>0.201</v>
+        <v>0.871</v>
       </c>
       <c r="E16">
-        <v>0.39</v>
+        <v>0.786</v>
       </c>
       <c r="F16">
-        <v>0.463</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5408,19 +5408,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.417</v>
+        <v>0.819</v>
       </c>
       <c r="C17">
-        <v>0.313</v>
+        <v>0.514</v>
       </c>
       <c r="D17">
-        <v>0.949</v>
+        <v>0.536</v>
       </c>
       <c r="E17">
-        <v>0.925</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="F17">
-        <v>0.862</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5428,19 +5428,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.153</v>
+        <v>0.975</v>
       </c>
       <c r="C18">
-        <v>0.152</v>
+        <v>0.043</v>
       </c>
       <c r="D18">
-        <v>0.003</v>
+        <v>0.177</v>
       </c>
       <c r="E18">
-        <v>0.289</v>
+        <v>0.199</v>
       </c>
       <c r="F18">
-        <v>0.134</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5448,19 +5448,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.188</v>
+        <v>0.308</v>
       </c>
       <c r="C19">
-        <v>0.454</v>
+        <v>0.731</v>
       </c>
       <c r="D19">
-        <v>0.193</v>
+        <v>0.389</v>
       </c>
       <c r="E19">
-        <v>0.006</v>
+        <v>0.503</v>
       </c>
       <c r="F19">
-        <v>0.073</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5468,19 +5468,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.078</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="C20">
-        <v>0.112</v>
+        <v>-0.074</v>
       </c>
       <c r="D20">
-        <v>0.959</v>
+        <v>1.144</v>
       </c>
       <c r="E20">
-        <v>1.15</v>
+        <v>0.881</v>
       </c>
       <c r="F20">
-        <v>0.656</v>
+        <v>1.643</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5488,19 +5488,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.544</v>
+        <v>0.35</v>
       </c>
       <c r="C21">
-        <v>0.626</v>
+        <v>0.783</v>
       </c>
       <c r="D21">
-        <v>0.586</v>
+        <v>1.454</v>
       </c>
       <c r="E21">
-        <v>1.651</v>
+        <v>0.077</v>
       </c>
       <c r="F21">
-        <v>1.106</v>
+        <v>1.541</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5508,19 +5508,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.709</v>
+        <v>1.016</v>
       </c>
       <c r="C22">
-        <v>1.477</v>
+        <v>0.345</v>
       </c>
       <c r="D22">
-        <v>1.402</v>
+        <v>0.912</v>
       </c>
       <c r="E22">
-        <v>0.89</v>
+        <v>0.516</v>
       </c>
       <c r="F22">
-        <v>0.42</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5528,19 +5528,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.444</v>
+        <v>0.819</v>
       </c>
       <c r="C23">
-        <v>0.274</v>
+        <v>0.529</v>
       </c>
       <c r="D23">
-        <v>1.433</v>
+        <v>0.041</v>
       </c>
       <c r="E23">
-        <v>0.614</v>
+        <v>0.273</v>
       </c>
       <c r="F23">
-        <v>0.04</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5548,19 +5548,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.022</v>
+        <v>1.122</v>
       </c>
       <c r="C24">
-        <v>0.008</v>
+        <v>0.459</v>
       </c>
       <c r="D24">
-        <v>0.709</v>
+        <v>1.305</v>
       </c>
       <c r="E24">
-        <v>1.536</v>
+        <v>0.295</v>
       </c>
       <c r="F24">
-        <v>0.314</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5568,19 +5568,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.959</v>
+        <v>1.276</v>
       </c>
       <c r="C25">
-        <v>1.161</v>
+        <v>1.547</v>
       </c>
       <c r="D25">
-        <v>0.29</v>
+        <v>1.32</v>
       </c>
       <c r="E25">
-        <v>0.786</v>
+        <v>1.05</v>
       </c>
       <c r="F25">
-        <v>0.511</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5588,19 +5588,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.77</v>
+        <v>1.199</v>
       </c>
       <c r="C26">
-        <v>0.584</v>
+        <v>0.909</v>
       </c>
       <c r="D26">
-        <v>1.37</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="E26">
-        <v>1.843</v>
+        <v>1.248</v>
       </c>
       <c r="F26">
-        <v>0.952</v>
+        <v>1.175</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5608,19 +5608,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.281</v>
+        <v>1.43</v>
       </c>
       <c r="C27">
-        <v>0.284</v>
+        <v>0.073</v>
       </c>
       <c r="D27">
-        <v>0.004</v>
+        <v>0.268</v>
       </c>
       <c r="E27">
-        <v>0.5610000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="F27">
-        <v>0.148</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5628,19 +5628,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.35</v>
+        <v>0.452</v>
       </c>
       <c r="C28">
-        <v>0.858</v>
+        <v>1.302</v>
       </c>
       <c r="D28">
-        <v>0.279</v>
+        <v>0.589</v>
       </c>
       <c r="E28">
-        <v>0.012</v>
+        <v>0.67</v>
       </c>
       <c r="F28">
-        <v>0.081</v>
+        <v>1.042</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5648,19 +5648,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.099</v>
+        <v>0.674</v>
       </c>
       <c r="C29">
-        <v>0.152</v>
+        <v>-0.133</v>
       </c>
       <c r="D29">
-        <v>1.977</v>
+        <v>1.704</v>
       </c>
       <c r="E29">
-        <v>2.648</v>
+        <v>1.18</v>
       </c>
       <c r="F29">
-        <v>0.95</v>
+        <v>3.481</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5668,19 +5668,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.998</v>
+        <v>0.421</v>
       </c>
       <c r="C30">
-        <v>0.863</v>
+        <v>1.509</v>
       </c>
       <c r="D30">
-        <v>1.207</v>
+        <v>2.165</v>
       </c>
       <c r="E30">
-        <v>3.791</v>
+        <v>0.101</v>
       </c>
       <c r="F30">
-        <v>1.553</v>
+        <v>3.205</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5688,19 +5688,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.917</v>
+        <v>1.22</v>
       </c>
       <c r="C31">
-        <v>2.04</v>
+        <v>0.673</v>
       </c>
       <c r="D31">
-        <v>2.887</v>
+        <v>1.357</v>
       </c>
       <c r="E31">
-        <v>2.049</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="F31">
-        <v>0.589</v>
+        <v>1.891</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5708,19 +5708,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.869</v>
+        <v>0.984</v>
       </c>
       <c r="C32">
-        <v>0.378</v>
+        <v>1.026</v>
       </c>
       <c r="D32">
-        <v>2.95</v>
+        <v>0.059</v>
       </c>
       <c r="E32">
-        <v>1.41</v>
+        <v>0.36</v>
       </c>
       <c r="F32">
-        <v>0.057</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5728,19 +5728,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.323</v>
+        <v>1.347</v>
       </c>
       <c r="C33">
-        <v>0.011</v>
+        <v>0.894</v>
       </c>
       <c r="D33">
-        <v>1.462</v>
+        <v>1.944</v>
       </c>
       <c r="E33">
-        <v>3.529</v>
+        <v>0.394</v>
       </c>
       <c r="F33">
-        <v>0.438</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5748,19 +5748,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.242</v>
+        <v>1.532</v>
       </c>
       <c r="C34">
-        <v>1.605</v>
+        <v>2.977</v>
       </c>
       <c r="D34">
-        <v>0.597</v>
+        <v>1.965</v>
       </c>
       <c r="E34">
-        <v>1.803</v>
+        <v>1.402</v>
       </c>
       <c r="F34">
-        <v>0.713</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5768,19 +5768,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.998</v>
+        <v>1.44</v>
       </c>
       <c r="C35">
-        <v>0.8080000000000001</v>
+        <v>1.758</v>
       </c>
       <c r="D35">
-        <v>2.822</v>
+        <v>1.208</v>
       </c>
       <c r="E35">
-        <v>4.215</v>
+        <v>1.666</v>
       </c>
       <c r="F35">
-        <v>1.327</v>
+        <v>2.393</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5788,19 +5788,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.365</v>
+        <v>1.717</v>
       </c>
       <c r="C36">
-        <v>0.394</v>
+        <v>0.16</v>
       </c>
       <c r="D36">
-        <v>0.008</v>
+        <v>0.398</v>
       </c>
       <c r="E36">
-        <v>1.279</v>
+        <v>0.339</v>
       </c>
       <c r="F36">
-        <v>0.206</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5808,19 +5808,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.455</v>
+        <v>0.546</v>
       </c>
       <c r="C37">
-        <v>1.188</v>
+        <v>2.512</v>
       </c>
       <c r="D37">
-        <v>0.574</v>
+        <v>0.876</v>
       </c>
       <c r="E37">
-        <v>0.031</v>
+        <v>0.892</v>
       </c>
       <c r="F37">
-        <v>0.112</v>
+        <v>2.106</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5828,19 +5828,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.139</v>
+        <v>0.866</v>
       </c>
       <c r="C38">
-        <v>0.23</v>
+        <v>-0.269</v>
       </c>
       <c r="D38">
-        <v>4.232</v>
+        <v>2.767</v>
       </c>
       <c r="E38">
-        <v>6.415</v>
+        <v>1.709</v>
       </c>
       <c r="F38">
-        <v>1.441</v>
+        <v>7.843</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5848,19 +5848,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.836</v>
+        <v>0.542</v>
       </c>
       <c r="C39">
-        <v>1.316</v>
+        <v>3.118</v>
       </c>
       <c r="D39">
-        <v>2.584</v>
+        <v>3.515</v>
       </c>
       <c r="E39">
-        <v>9.18</v>
+        <v>0.144</v>
       </c>
       <c r="F39">
-        <v>2.321</v>
+        <v>7.192</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5868,19 +5868,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.301</v>
+        <v>1.568</v>
       </c>
       <c r="C40">
-        <v>3.113</v>
+        <v>1.394</v>
       </c>
       <c r="D40">
-        <v>6.18</v>
+        <v>2.203</v>
       </c>
       <c r="E40">
-        <v>4.964</v>
+        <v>0.996</v>
       </c>
       <c r="F40">
-        <v>0.88</v>
+        <v>4.215</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5888,19 +5888,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.653</v>
+        <v>1.265</v>
       </c>
       <c r="C41">
-        <v>0.577</v>
+        <v>2.123</v>
       </c>
       <c r="D41">
-        <v>6.313</v>
+        <v>0.095</v>
       </c>
       <c r="E41">
-        <v>3.415</v>
+        <v>0.517</v>
       </c>
       <c r="F41">
-        <v>0.08599999999999999</v>
+        <v>1.307</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5908,19 +5908,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.878</v>
+        <v>1.731</v>
       </c>
       <c r="C42">
-        <v>0.017</v>
+        <v>1.852</v>
       </c>
       <c r="D42">
-        <v>3.13</v>
+        <v>3.156</v>
       </c>
       <c r="E42">
-        <v>8.547000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="F42">
-        <v>0.653</v>
+        <v>1.951</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5928,19 +5928,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.764</v>
+        <v>1.969</v>
       </c>
       <c r="C43">
-        <v>2.45</v>
+        <v>6.149</v>
       </c>
       <c r="D43">
-        <v>1.278</v>
+        <v>3.19</v>
       </c>
       <c r="E43">
-        <v>4.365</v>
+        <v>2.028</v>
       </c>
       <c r="F43">
-        <v>1.062</v>
+        <v>1.906</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5948,19 +5948,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.418</v>
+        <v>1.851</v>
       </c>
       <c r="C44">
-        <v>1.234</v>
+        <v>3.635</v>
       </c>
       <c r="D44">
-        <v>6.04</v>
+        <v>1.961</v>
       </c>
       <c r="E44">
-        <v>10.199</v>
+        <v>2.409</v>
       </c>
       <c r="F44">
-        <v>1.977</v>
+        <v>5.346</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5968,19 +5968,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.519</v>
+        <v>2.207</v>
       </c>
       <c r="C45">
-        <v>0.603</v>
+        <v>0.34</v>
       </c>
       <c r="D45">
-        <v>0.017</v>
+        <v>0.646</v>
       </c>
       <c r="E45">
-        <v>3.093</v>
+        <v>0.484</v>
       </c>
       <c r="F45">
-        <v>0.307</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5988,19 +5988,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.647</v>
+        <v>0.704</v>
       </c>
       <c r="C46">
-        <v>1.815</v>
+        <v>5.192</v>
       </c>
       <c r="D46">
-        <v>1.229</v>
+        <v>1.422</v>
       </c>
       <c r="E46">
-        <v>0.076</v>
+        <v>1.288</v>
       </c>
       <c r="F46">
-        <v>0.167</v>
+        <v>4.696</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6008,19 +6008,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.449</v>
+        <v>1.09</v>
       </c>
       <c r="C47">
-        <v>0.425</v>
+        <v>-0.758</v>
       </c>
       <c r="D47">
-        <v>10.625</v>
+        <v>8.442</v>
       </c>
       <c r="E47">
-        <v>14.469</v>
+        <v>2.01</v>
       </c>
       <c r="F47">
-        <v>4.002</v>
+        <v>18.362</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6028,19 +6028,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>9.265000000000001</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="C48">
-        <v>2.439</v>
+        <v>8.833</v>
       </c>
       <c r="D48">
-        <v>6.487</v>
+        <v>10.723</v>
       </c>
       <c r="E48">
-        <v>20.704</v>
+        <v>0.169</v>
       </c>
       <c r="F48">
-        <v>6.375</v>
+        <v>16.825</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6048,19 +6048,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>4.25</v>
+        <v>1.974</v>
       </c>
       <c r="C49">
-        <v>5.772</v>
+        <v>3.953</v>
       </c>
       <c r="D49">
-        <v>15.515</v>
+        <v>6.72</v>
       </c>
       <c r="E49">
-        <v>11.196</v>
+        <v>1.171</v>
       </c>
       <c r="F49">
-        <v>2.417</v>
+        <v>9.848000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6068,19 +6068,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>8.67</v>
+        <v>1.593</v>
       </c>
       <c r="C50">
-        <v>1.069</v>
+        <v>6.018</v>
       </c>
       <c r="D50">
-        <v>15.849</v>
+        <v>0.287</v>
       </c>
       <c r="E50">
-        <v>7.702</v>
+        <v>0.607</v>
       </c>
       <c r="F50">
-        <v>0.237</v>
+        <v>3.033</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6088,19 +6088,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6.139</v>
+        <v>2.18</v>
       </c>
       <c r="C51">
-        <v>0.031</v>
+        <v>5.25</v>
       </c>
       <c r="D51">
-        <v>7.859</v>
+        <v>9.629</v>
       </c>
       <c r="E51">
-        <v>19.276</v>
+        <v>0.67</v>
       </c>
       <c r="F51">
-        <v>1.789</v>
+        <v>4.541</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6108,19 +6108,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.766</v>
+        <v>2.479</v>
       </c>
       <c r="C52">
-        <v>4.544</v>
+        <v>17.419</v>
       </c>
       <c r="D52">
-        <v>3.209</v>
+        <v>9.731999999999999</v>
       </c>
       <c r="E52">
-        <v>9.843999999999999</v>
+        <v>2.384</v>
       </c>
       <c r="F52">
-        <v>2.91</v>
+        <v>4.436</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6128,19 +6128,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>4.635</v>
+        <v>2.331</v>
       </c>
       <c r="C53">
-        <v>2.289</v>
+        <v>10.301</v>
       </c>
       <c r="D53">
-        <v>15.164</v>
+        <v>5.982</v>
       </c>
       <c r="E53">
-        <v>23</v>
+        <v>2.832</v>
       </c>
       <c r="F53">
-        <v>5.416</v>
+        <v>12.495</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6148,19 +6148,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.7</v>
+        <v>2.779</v>
       </c>
       <c r="C54">
-        <v>1.119</v>
+        <v>0.971</v>
       </c>
       <c r="D54">
-        <v>0.043</v>
+        <v>1.969</v>
       </c>
       <c r="E54">
-        <v>6.974</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="F54">
-        <v>0.841</v>
+        <v>1.833</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6168,19 +6168,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.119</v>
+        <v>0.888</v>
       </c>
       <c r="C55">
-        <v>3.367</v>
+        <v>14.711</v>
       </c>
       <c r="D55">
-        <v>3.085</v>
+        <v>4.337</v>
       </c>
       <c r="E55">
-        <v>0.172</v>
+        <v>1.514</v>
       </c>
       <c r="F55">
-        <v>0.457</v>
+        <v>10.972</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6188,19 +6188,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.16</v>
+        <v>1.413</v>
       </c>
       <c r="C56">
-        <v>0.772</v>
+        <v>-1.985</v>
       </c>
       <c r="D56">
-        <v>25.688</v>
+        <v>21.639</v>
       </c>
       <c r="E56">
-        <v>33.303</v>
+        <v>2.447</v>
       </c>
       <c r="F56">
-        <v>9.252000000000001</v>
+        <v>42.818</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6208,19 +6208,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>23.967</v>
+        <v>0.885</v>
       </c>
       <c r="C57">
-        <v>4.438</v>
+        <v>23.152</v>
       </c>
       <c r="D57">
-        <v>15.683</v>
+        <v>27.485</v>
       </c>
       <c r="E57">
-        <v>47.652</v>
+        <v>0.205</v>
       </c>
       <c r="F57">
-        <v>14.713</v>
+        <v>39.228</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6228,19 +6228,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>10.994</v>
+        <v>2.558</v>
       </c>
       <c r="C58">
-        <v>10.503</v>
+        <v>10.362</v>
       </c>
       <c r="D58">
-        <v>37.51</v>
+        <v>17.225</v>
       </c>
       <c r="E58">
-        <v>25.769</v>
+        <v>1.425</v>
       </c>
       <c r="F58">
-        <v>5.578</v>
+        <v>22.955</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6248,19 +6248,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>22.429</v>
+        <v>2.065</v>
       </c>
       <c r="C59">
-        <v>1.945</v>
+        <v>15.775</v>
       </c>
       <c r="D59">
-        <v>38.318</v>
+        <v>0.735</v>
       </c>
       <c r="E59">
-        <v>17.727</v>
+        <v>0.738</v>
       </c>
       <c r="F59">
-        <v>0.547</v>
+        <v>7.061</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6268,19 +6268,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>15.882</v>
+        <v>2.825</v>
       </c>
       <c r="C60">
-        <v>0.056</v>
+        <v>13.762</v>
       </c>
       <c r="D60">
-        <v>19.001</v>
+        <v>24.682</v>
       </c>
       <c r="E60">
-        <v>44.366</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="F60">
-        <v>4.128</v>
+        <v>10.578</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6288,19 +6288,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>14.917</v>
+        <v>3.213</v>
       </c>
       <c r="C61">
-        <v>8.269</v>
+        <v>45.655</v>
       </c>
       <c r="D61">
-        <v>7.758</v>
+        <v>24.945</v>
       </c>
       <c r="E61">
-        <v>22.657</v>
+        <v>2.902</v>
       </c>
       <c r="F61">
-        <v>6.714</v>
+        <v>10.333</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6308,19 +6308,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>11.992</v>
+        <v>3.021</v>
       </c>
       <c r="C62">
-        <v>4.166</v>
+        <v>27</v>
       </c>
       <c r="D62">
-        <v>36.662</v>
+        <v>15.333</v>
       </c>
       <c r="E62">
-        <v>52.936</v>
+        <v>3.448</v>
       </c>
       <c r="F62">
-        <v>12.495</v>
+        <v>29.128</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6328,19 +6328,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4.399</v>
+        <v>3.602</v>
       </c>
       <c r="C63">
-        <v>2.037</v>
+        <v>2.548</v>
       </c>
       <c r="D63">
-        <v>0.104</v>
+        <v>5.047</v>
       </c>
       <c r="E63">
-        <v>16.051</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F63">
-        <v>1.94</v>
+        <v>4.263</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6348,19 +6348,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5.483</v>
+        <v>1.152</v>
       </c>
       <c r="C64">
-        <v>6.128</v>
+        <v>38.558</v>
       </c>
       <c r="D64">
-        <v>7.459</v>
+        <v>11.117</v>
       </c>
       <c r="E64">
-        <v>0.396</v>
+        <v>1.843</v>
       </c>
       <c r="F64">
-        <v>1.054</v>
+        <v>25.576</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6368,19 +6368,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.835</v>
+        <v>2.517</v>
       </c>
       <c r="C65">
-        <v>1.995</v>
+        <v>-2.751</v>
       </c>
       <c r="D65">
-        <v>33.59</v>
+        <v>25.867</v>
       </c>
       <c r="E65">
-        <v>91.70999999999999</v>
+        <v>7.73</v>
       </c>
       <c r="F65">
-        <v>23.552</v>
+        <v>88.367</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6388,19 +6388,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>37.916</v>
+        <v>1.578</v>
       </c>
       <c r="C66">
-        <v>11.472</v>
+        <v>32.085</v>
       </c>
       <c r="D66">
-        <v>20.508</v>
+        <v>32.856</v>
       </c>
       <c r="E66">
-        <v>131.225</v>
+        <v>0.645</v>
       </c>
       <c r="F66">
-        <v>37.44</v>
+        <v>80.956</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6408,19 +6408,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>17.392</v>
+        <v>4.557</v>
       </c>
       <c r="C67">
-        <v>27.151</v>
+        <v>14.36</v>
       </c>
       <c r="D67">
-        <v>49.049</v>
+        <v>20.591</v>
       </c>
       <c r="E67">
-        <v>70.96299999999999</v>
+        <v>4.499</v>
       </c>
       <c r="F67">
-        <v>14.194</v>
+        <v>47.371</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6428,19 +6428,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>35.483</v>
+        <v>3.679</v>
       </c>
       <c r="C68">
-        <v>5.028</v>
+        <v>21.862</v>
       </c>
       <c r="D68">
-        <v>50.106</v>
+        <v>0.879</v>
       </c>
       <c r="E68">
-        <v>48.816</v>
+        <v>2.326</v>
       </c>
       <c r="F68">
-        <v>1.392</v>
+        <v>14.568</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6448,19 +6448,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>25.125</v>
+        <v>5.033</v>
       </c>
       <c r="C69">
-        <v>0.145</v>
+        <v>19.072</v>
       </c>
       <c r="D69">
-        <v>24.846</v>
+        <v>29.505</v>
       </c>
       <c r="E69">
-        <v>122.176</v>
+        <v>2.575</v>
       </c>
       <c r="F69">
-        <v>10.504</v>
+        <v>21.827</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6468,19 +6468,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>23.599</v>
+        <v>5.724</v>
       </c>
       <c r="C70">
-        <v>21.376</v>
+        <v>63.271</v>
       </c>
       <c r="D70">
-        <v>10.145</v>
+        <v>29.819</v>
       </c>
       <c r="E70">
-        <v>62.393</v>
+        <v>9.163</v>
       </c>
       <c r="F70">
-        <v>17.083</v>
+        <v>21.321</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6488,19 +6488,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>18.971</v>
+        <v>5.383</v>
       </c>
       <c r="C71">
-        <v>10.77</v>
+        <v>37.418</v>
       </c>
       <c r="D71">
-        <v>47.94</v>
+        <v>18.329</v>
       </c>
       <c r="E71">
-        <v>145.775</v>
+        <v>10.886</v>
       </c>
       <c r="F71">
-        <v>31.793</v>
+        <v>60.11</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6508,19 +6508,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6.959</v>
+        <v>6.418</v>
       </c>
       <c r="C72">
-        <v>5.266</v>
+        <v>3.531</v>
       </c>
       <c r="D72">
-        <v>0.136</v>
+        <v>6.033</v>
       </c>
       <c r="E72">
-        <v>44.201</v>
+        <v>2.17</v>
       </c>
       <c r="F72">
-        <v>4.937</v>
+        <v>8.794</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6528,19 +6528,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>8.673999999999999</v>
+        <v>2.055</v>
       </c>
       <c r="C73">
-        <v>15.842</v>
+        <v>53.436</v>
       </c>
       <c r="D73">
-        <v>9.754</v>
+        <v>13.289</v>
       </c>
       <c r="E73">
-        <v>1.091</v>
+        <v>5.814</v>
       </c>
       <c r="F73">
-        <v>2.681</v>
+        <v>52.78</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6548,19 +6548,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3.143</v>
+        <v>4.178</v>
       </c>
       <c r="C74">
-        <v>4.62</v>
+        <v>-4.166</v>
       </c>
       <c r="D74">
-        <v>47.505</v>
+        <v>33.096</v>
       </c>
       <c r="E74">
-        <v>241.552</v>
+        <v>17.612</v>
       </c>
       <c r="F74">
-        <v>57.589</v>
+        <v>187.554</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6568,19 +6568,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>64.946</v>
+        <v>2.619</v>
       </c>
       <c r="C75">
-        <v>26.57</v>
+        <v>48.59</v>
       </c>
       <c r="D75">
-        <v>29.004</v>
+        <v>42.038</v>
       </c>
       <c r="E75">
-        <v>345.629</v>
+        <v>1.469</v>
       </c>
       <c r="F75">
-        <v>91.541</v>
+        <v>171.825</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6588,19 +6588,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>29.791</v>
+        <v>7.563</v>
       </c>
       <c r="C76">
-        <v>62.886</v>
+        <v>21.747</v>
       </c>
       <c r="D76">
-        <v>69.36799999999999</v>
+        <v>26.345</v>
       </c>
       <c r="E76">
-        <v>186.907</v>
+        <v>10.25</v>
       </c>
       <c r="F76">
-        <v>34.705</v>
+        <v>100.541</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6608,19 +6608,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>60.778</v>
+        <v>6.106</v>
       </c>
       <c r="C77">
-        <v>11.645</v>
+        <v>33.108</v>
       </c>
       <c r="D77">
-        <v>70.863</v>
+        <v>1.125</v>
       </c>
       <c r="E77">
-        <v>128.575</v>
+        <v>5.298</v>
       </c>
       <c r="F77">
-        <v>3.403</v>
+        <v>30.918</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6628,19 +6628,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>43.036</v>
+        <v>8.353999999999999</v>
       </c>
       <c r="C78">
-        <v>0.336</v>
+        <v>28.883</v>
       </c>
       <c r="D78">
-        <v>35.139</v>
+        <v>37.75</v>
       </c>
       <c r="E78">
-        <v>321.795</v>
+        <v>5.866</v>
       </c>
       <c r="F78">
-        <v>25.682</v>
+        <v>46.325</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6648,19 +6648,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>40.422</v>
+        <v>9.5</v>
       </c>
       <c r="C79">
-        <v>49.511</v>
+        <v>95.819</v>
       </c>
       <c r="D79">
-        <v>14.348</v>
+        <v>38.152</v>
       </c>
       <c r="E79">
-        <v>164.335</v>
+        <v>20.876</v>
       </c>
       <c r="F79">
-        <v>41.768</v>
+        <v>45.251</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6668,19 +6668,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>32.495</v>
+        <v>8.935</v>
       </c>
       <c r="C80">
-        <v>24.945</v>
+        <v>56.667</v>
       </c>
       <c r="D80">
-        <v>67.8</v>
+        <v>23.451</v>
       </c>
       <c r="E80">
-        <v>383.951</v>
+        <v>24.801</v>
       </c>
       <c r="F80">
-        <v>77.73399999999999</v>
+        <v>127.579</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6688,19 +6688,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>11.92</v>
+        <v>10.652</v>
       </c>
       <c r="C81">
-        <v>12.197</v>
+        <v>5.348</v>
       </c>
       <c r="D81">
-        <v>0.192</v>
+        <v>7.719</v>
       </c>
       <c r="E81">
-        <v>116.42</v>
+        <v>4.942</v>
       </c>
       <c r="F81">
-        <v>12.071</v>
+        <v>18.663</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6708,19 +6708,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>14.858</v>
+        <v>3.412</v>
       </c>
       <c r="C82">
-        <v>36.693</v>
+        <v>80.925</v>
       </c>
       <c r="D82">
-        <v>13.795</v>
+        <v>17.003</v>
       </c>
       <c r="E82">
-        <v>2.874</v>
+        <v>13.244</v>
       </c>
       <c r="F82">
-        <v>6.555</v>
+        <v>112.021</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6728,19 +6728,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>9.425000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="C83">
-        <v>12.431</v>
+        <v>-11.168</v>
       </c>
       <c r="D83">
-        <v>90.714</v>
+        <v>52.942</v>
       </c>
       <c r="E83">
-        <v>445.703</v>
+        <v>44.407</v>
       </c>
       <c r="F83">
-        <v>59.553</v>
+        <v>194.222</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6748,19 +6748,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>194.769</v>
+        <v>4.576</v>
       </c>
       <c r="C84">
-        <v>71.494</v>
+        <v>130.256</v>
       </c>
       <c r="D84">
-        <v>55.384</v>
+        <v>67.246</v>
       </c>
       <c r="E84">
-        <v>637.742</v>
+        <v>3.704</v>
       </c>
       <c r="F84">
-        <v>94.663</v>
+        <v>177.934</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6768,19 +6768,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>89.34099999999999</v>
+        <v>13.214</v>
       </c>
       <c r="C85">
-        <v>169.212</v>
+        <v>58.298</v>
       </c>
       <c r="D85">
-        <v>132.462</v>
+        <v>42.143</v>
       </c>
       <c r="E85">
-        <v>344.874</v>
+        <v>25.844</v>
       </c>
       <c r="F85">
-        <v>35.889</v>
+        <v>104.116</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6788,19 +6788,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>182.271</v>
+        <v>10.669</v>
       </c>
       <c r="C86">
-        <v>31.334</v>
+        <v>88.753</v>
       </c>
       <c r="D86">
-        <v>135.317</v>
+        <v>1.799</v>
       </c>
       <c r="E86">
-        <v>237.242</v>
+        <v>13.357</v>
       </c>
       <c r="F86">
-        <v>3.519</v>
+        <v>32.017</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6808,19 +6808,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>129.063</v>
+        <v>14.596</v>
       </c>
       <c r="C87">
-        <v>0.904</v>
+        <v>77.42700000000001</v>
       </c>
       <c r="D87">
-        <v>67.09999999999999</v>
+        <v>60.387</v>
       </c>
       <c r="E87">
-        <v>593.765</v>
+        <v>14.79</v>
       </c>
       <c r="F87">
-        <v>26.558</v>
+        <v>47.972</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6828,19 +6828,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>121.224</v>
+        <v>16.599</v>
       </c>
       <c r="C88">
-        <v>133.223</v>
+        <v>256.862</v>
       </c>
       <c r="D88">
-        <v>27.398</v>
+        <v>61.03</v>
       </c>
       <c r="E88">
-        <v>303.225</v>
+        <v>52.636</v>
       </c>
       <c r="F88">
-        <v>43.193</v>
+        <v>46.86</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6848,19 +6848,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>97.452</v>
+        <v>15.612</v>
       </c>
       <c r="C89">
-        <v>67.122</v>
+        <v>151.907</v>
       </c>
       <c r="D89">
-        <v>129.468</v>
+        <v>37.513</v>
       </c>
       <c r="E89">
-        <v>708.453</v>
+        <v>62.531</v>
       </c>
       <c r="F89">
-        <v>80.38500000000001</v>
+        <v>132.115</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6868,19 +6868,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>35.748</v>
+        <v>18.612</v>
       </c>
       <c r="C90">
-        <v>32.819</v>
+        <v>14.337</v>
       </c>
       <c r="D90">
-        <v>0.367</v>
+        <v>12.348</v>
       </c>
       <c r="E90">
-        <v>214.814</v>
+        <v>12.459</v>
       </c>
       <c r="F90">
-        <v>12.483</v>
+        <v>19.326</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6888,19 +6888,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>44.558</v>
+        <v>5.962</v>
       </c>
       <c r="C91">
-        <v>98.733</v>
+        <v>216.936</v>
       </c>
       <c r="D91">
-        <v>26.342</v>
+        <v>27.199</v>
       </c>
       <c r="E91">
-        <v>5.303</v>
+        <v>33.392</v>
       </c>
       <c r="F91">
-        <v>6.779</v>
+        <v>116.004</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6908,19 +6908,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>24.246</v>
+        <v>12.371</v>
       </c>
       <c r="C92">
-        <v>31.865</v>
+        <v>-25.864</v>
       </c>
       <c r="D92">
-        <v>165.219</v>
+        <v>83.8</v>
       </c>
       <c r="E92">
-        <v>882.066</v>
+        <v>105.973</v>
       </c>
       <c r="F92">
-        <v>62.708</v>
+        <v>204.58</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6928,19 +6928,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>501.053</v>
+        <v>7.755</v>
       </c>
       <c r="C93">
-        <v>183.265</v>
+        <v>301.668</v>
       </c>
       <c r="D93">
-        <v>100.872</v>
+        <v>106.441</v>
       </c>
       <c r="E93">
-        <v>1262.119</v>
+        <v>8.839</v>
       </c>
       <c r="F93">
-        <v>99.678</v>
+        <v>187.424</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6948,19 +6948,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>229.834</v>
+        <v>22.393</v>
       </c>
       <c r="C94">
-        <v>433.752</v>
+        <v>135.016</v>
       </c>
       <c r="D94">
-        <v>241.256</v>
+        <v>66.70699999999999</v>
       </c>
       <c r="E94">
-        <v>682.521</v>
+        <v>61.674</v>
       </c>
       <c r="F94">
-        <v>37.79</v>
+        <v>109.669</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6968,19 +6968,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>468.901</v>
+        <v>18.08</v>
       </c>
       <c r="C95">
-        <v>80.321</v>
+        <v>205.549</v>
       </c>
       <c r="D95">
-        <v>246.455</v>
+        <v>2.848</v>
       </c>
       <c r="E95">
-        <v>469.512</v>
+        <v>31.875</v>
       </c>
       <c r="F95">
-        <v>3.705</v>
+        <v>33.725</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6988,19 +6988,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>332.021</v>
+        <v>24.735</v>
       </c>
       <c r="C96">
-        <v>2.317</v>
+        <v>179.318</v>
       </c>
       <c r="D96">
-        <v>122.21</v>
+        <v>95.584</v>
       </c>
       <c r="E96">
-        <v>1175.086</v>
+        <v>35.294</v>
       </c>
       <c r="F96">
-        <v>27.965</v>
+        <v>50.53</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -7008,19 +7008,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>311.855</v>
+        <v>28.13</v>
       </c>
       <c r="C97">
-        <v>341.499</v>
+        <v>594.883</v>
       </c>
       <c r="D97">
-        <v>49.9</v>
+        <v>96.602</v>
       </c>
       <c r="E97">
-        <v>600.095</v>
+        <v>125.61</v>
       </c>
       <c r="F97">
-        <v>45.481</v>
+        <v>49.359</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -7028,19 +7028,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>250.7</v>
+        <v>26.457</v>
       </c>
       <c r="C98">
-        <v>172.058</v>
+        <v>351.811</v>
       </c>
       <c r="D98">
-        <v>235.802</v>
+        <v>59.378</v>
       </c>
       <c r="E98">
-        <v>1402.059</v>
+        <v>149.223</v>
       </c>
       <c r="F98">
-        <v>84.64400000000001</v>
+        <v>139.161</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7048,19 +7048,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>91.96299999999999</v>
+        <v>31.541</v>
       </c>
       <c r="C99">
-        <v>84.127</v>
+        <v>33.204</v>
       </c>
       <c r="D99">
-        <v>0.669</v>
+        <v>19.545</v>
       </c>
       <c r="E99">
-        <v>425.126</v>
+        <v>29.731</v>
       </c>
       <c r="F99">
-        <v>13.144</v>
+        <v>20.357</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7068,19 +7068,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>114.628</v>
+        <v>10.104</v>
       </c>
       <c r="C100">
-        <v>253.088</v>
+        <v>502.416</v>
       </c>
       <c r="D100">
-        <v>47.977</v>
+        <v>43.052</v>
       </c>
       <c r="E100">
-        <v>10.495</v>
+        <v>79.68600000000001</v>
       </c>
       <c r="F100">
-        <v>7.138</v>
+        <v>122.191</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7088,19 +7088,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>47.797</v>
+        <v>27.258</v>
       </c>
       <c r="C101">
-        <v>62.928</v>
+        <v>-68.596</v>
       </c>
       <c r="D101">
-        <v>364.193</v>
+        <v>178.521</v>
       </c>
       <c r="E101">
-        <v>1415.146</v>
+        <v>126.282</v>
       </c>
       <c r="F101">
-        <v>228.94</v>
+        <v>561.556</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -7108,19 +7108,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>987.74</v>
+        <v>17.084</v>
       </c>
       <c r="C102">
-        <v>361.921</v>
+        <v>799.8049999999999</v>
       </c>
       <c r="D102">
-        <v>222.352</v>
+        <v>226.753</v>
       </c>
       <c r="E102">
-        <v>2024.886</v>
+        <v>10.536</v>
       </c>
       <c r="F102">
-        <v>363.911</v>
+        <v>514.47</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7128,19 +7128,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>453.078</v>
+        <v>49.349</v>
       </c>
       <c r="C103">
-        <v>856.5940000000001</v>
+        <v>357.953</v>
       </c>
       <c r="D103">
-        <v>531.801</v>
+        <v>142.107</v>
       </c>
       <c r="E103">
-        <v>1095.005</v>
+        <v>73.495</v>
       </c>
       <c r="F103">
-        <v>137.966</v>
+        <v>301.072</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -7148,19 +7148,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>924.3579999999999</v>
+        <v>39.843</v>
       </c>
       <c r="C104">
-        <v>158.622</v>
+        <v>544.96</v>
       </c>
       <c r="D104">
-        <v>543.261</v>
+        <v>6.068</v>
       </c>
       <c r="E104">
-        <v>753.264</v>
+        <v>37.986</v>
       </c>
       <c r="F104">
-        <v>13.527</v>
+        <v>92.646</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -7168,19 +7168,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>654.522</v>
+        <v>54.512</v>
       </c>
       <c r="C105">
-        <v>4.576</v>
+        <v>475.413</v>
       </c>
       <c r="D105">
-        <v>269.388</v>
+        <v>203.625</v>
       </c>
       <c r="E105">
-        <v>1885.254</v>
+        <v>42.06</v>
       </c>
       <c r="F105">
-        <v>102.096</v>
+        <v>138.768</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -7188,19 +7188,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>614.768</v>
+        <v>61.995</v>
       </c>
       <c r="C106">
-        <v>674.409</v>
+        <v>1577.221</v>
       </c>
       <c r="D106">
-        <v>109.995</v>
+        <v>205.793</v>
       </c>
       <c r="E106">
-        <v>962.765</v>
+        <v>149.682</v>
       </c>
       <c r="F106">
-        <v>166.045</v>
+        <v>135.553</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -7208,19 +7208,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>494.212</v>
+        <v>58.307</v>
       </c>
       <c r="C107">
-        <v>339.789</v>
+        <v>932.752</v>
       </c>
       <c r="D107">
-        <v>519.779</v>
+        <v>126.495</v>
       </c>
       <c r="E107">
-        <v>2249.399</v>
+        <v>177.82</v>
       </c>
       <c r="F107">
-        <v>309.023</v>
+        <v>382.013</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -7228,19 +7228,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>181.289</v>
+        <v>69.51300000000001</v>
       </c>
       <c r="C108">
-        <v>166.138</v>
+        <v>88.014</v>
       </c>
       <c r="D108">
-        <v>1.474</v>
+        <v>41.638</v>
       </c>
       <c r="E108">
-        <v>682.053</v>
+        <v>35.431</v>
       </c>
       <c r="F108">
-        <v>47.987</v>
+        <v>55.958</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -7248,19 +7248,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>225.969</v>
+        <v>22.262</v>
       </c>
       <c r="C109">
-        <v>499.811</v>
+        <v>1332.058</v>
       </c>
       <c r="D109">
-        <v>105.756</v>
+        <v>91.715</v>
       </c>
       <c r="E109">
-        <v>16.838</v>
+        <v>94.958</v>
       </c>
       <c r="F109">
-        <v>26.06</v>
+        <v>335.439</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -7268,19 +7268,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>99.06999999999999</v>
+        <v>55.093</v>
       </c>
       <c r="C110">
-        <v>131.119</v>
+        <v>-173.408</v>
       </c>
       <c r="D110">
-        <v>753.276</v>
+        <v>346.078</v>
       </c>
       <c r="E110">
-        <v>2386.922</v>
+        <v>160.482</v>
       </c>
       <c r="F110">
-        <v>567.793</v>
+        <v>1185.832</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -7288,19 +7288,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>2047.316</v>
+        <v>34.528</v>
       </c>
       <c r="C111">
-        <v>754.11</v>
+        <v>2021.766</v>
       </c>
       <c r="D111">
-        <v>459.9</v>
+        <v>439.58</v>
       </c>
       <c r="E111">
-        <v>3415.368</v>
+        <v>13.392</v>
       </c>
       <c r="F111">
-        <v>902.533</v>
+        <v>1086.404</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -7308,19 +7308,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>939.1079999999999</v>
+        <v>99.746</v>
       </c>
       <c r="C112">
-        <v>1784.827</v>
+        <v>904.837</v>
       </c>
       <c r="D112">
-        <v>1099.946</v>
+        <v>275.487</v>
       </c>
       <c r="E112">
-        <v>1846.941</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F112">
-        <v>342.169</v>
+        <v>635.7859999999999</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -7328,19 +7328,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1915.942</v>
+        <v>80.53100000000001</v>
       </c>
       <c r="C113">
-        <v>330.51</v>
+        <v>1377.56</v>
       </c>
       <c r="D113">
-        <v>1123.649</v>
+        <v>11.764</v>
       </c>
       <c r="E113">
-        <v>1270.528</v>
+        <v>48.275</v>
       </c>
       <c r="F113">
-        <v>33.549</v>
+        <v>195.666</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -7348,19 +7348,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1356.646</v>
+        <v>110.182</v>
       </c>
       <c r="C114">
-        <v>9.534000000000001</v>
+        <v>1201.757</v>
       </c>
       <c r="D114">
-        <v>557.186</v>
+        <v>394.745</v>
       </c>
       <c r="E114">
-        <v>3179.851</v>
+        <v>53.453</v>
       </c>
       <c r="F114">
-        <v>253.207</v>
+        <v>293.059</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -7368,19 +7368,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1274.247</v>
+        <v>125.308</v>
       </c>
       <c r="C115">
-        <v>1405.22</v>
+        <v>3986.944</v>
       </c>
       <c r="D115">
-        <v>227.507</v>
+        <v>398.948</v>
       </c>
       <c r="E115">
-        <v>1623.892</v>
+        <v>190.219</v>
       </c>
       <c r="F115">
-        <v>411.807</v>
+        <v>286.27</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7388,19 +7388,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1024.367</v>
+        <v>117.853</v>
       </c>
       <c r="C116">
-        <v>707.995</v>
+        <v>2357.834</v>
       </c>
       <c r="D116">
-        <v>1075.081</v>
+        <v>245.222</v>
       </c>
       <c r="E116">
-        <v>3794.053</v>
+        <v>225.977</v>
       </c>
       <c r="F116">
-        <v>766.405</v>
+        <v>806.704</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -7408,19 +7408,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>375.763</v>
+        <v>140.504</v>
       </c>
       <c r="C117">
-        <v>346.171</v>
+        <v>222.476</v>
       </c>
       <c r="D117">
-        <v>3.049</v>
+        <v>80.72</v>
       </c>
       <c r="E117">
-        <v>1150.416</v>
+        <v>45.028</v>
       </c>
       <c r="F117">
-        <v>119.012</v>
+        <v>118.195</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -7428,19 +7428,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>468.372</v>
+        <v>44.995</v>
       </c>
       <c r="C118">
-        <v>1041.422</v>
+        <v>3367.212</v>
       </c>
       <c r="D118">
-        <v>218.739</v>
+        <v>177.798</v>
       </c>
       <c r="E118">
-        <v>28.4</v>
+        <v>120.676</v>
       </c>
       <c r="F118">
-        <v>64.631</v>
+        <v>708.356</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -7448,19 +7448,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>174.246</v>
+        <v>153.891</v>
       </c>
       <c r="C119">
-        <v>193.533</v>
+        <v>-381.648</v>
       </c>
       <c r="D119">
-        <v>1875.761</v>
+        <v>353.646</v>
       </c>
       <c r="E119">
-        <v>2563.616</v>
+        <v>508.371</v>
       </c>
       <c r="F119">
-        <v>1340.865</v>
+        <v>2304.639</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7468,19 +7468,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>3600.859</v>
+        <v>96.446</v>
       </c>
       <c r="C120">
-        <v>1113.076</v>
+        <v>4449.605</v>
       </c>
       <c r="D120">
-        <v>1145.215</v>
+        <v>449.192</v>
       </c>
       <c r="E120">
-        <v>3668.193</v>
+        <v>42.435</v>
       </c>
       <c r="F120">
-        <v>2131.366</v>
+        <v>2111.403</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -7488,19 +7488,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1651.721</v>
+        <v>278.625</v>
       </c>
       <c r="C121">
-        <v>2634.427</v>
+        <v>1991.41</v>
       </c>
       <c r="D121">
-        <v>2739.018</v>
+        <v>281.511</v>
       </c>
       <c r="E121">
-        <v>1983.662</v>
+        <v>295.876</v>
       </c>
       <c r="F121">
-        <v>808.045</v>
+        <v>1235.643</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -7508,19 +7508,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>3369.796</v>
+        <v>224.95</v>
       </c>
       <c r="C122">
-        <v>487.837</v>
+        <v>3031.803</v>
       </c>
       <c r="D122">
-        <v>2798.041</v>
+        <v>12.021</v>
       </c>
       <c r="E122">
-        <v>1364.58</v>
+        <v>152.934</v>
       </c>
       <c r="F122">
-        <v>79.227</v>
+        <v>380.285</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -7528,19 +7528,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>2386.095</v>
+        <v>307.777</v>
       </c>
       <c r="C123">
-        <v>14.072</v>
+        <v>2644.887</v>
       </c>
       <c r="D123">
-        <v>1387.47</v>
+        <v>403.377</v>
       </c>
       <c r="E123">
-        <v>3415.242</v>
+        <v>169.336</v>
       </c>
       <c r="F123">
-        <v>597.958</v>
+        <v>569.5650000000001</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -7548,19 +7548,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>2241.17</v>
+        <v>350.03</v>
       </c>
       <c r="C124">
-        <v>2074.122</v>
+        <v>8774.671</v>
       </c>
       <c r="D124">
-        <v>566.524</v>
+        <v>407.672</v>
       </c>
       <c r="E124">
-        <v>1744.102</v>
+        <v>602.568</v>
       </c>
       <c r="F124">
-        <v>972.498</v>
+        <v>556.371</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -7568,19 +7568,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1801.676</v>
+        <v>329.205</v>
       </c>
       <c r="C125">
-        <v>1045.009</v>
+        <v>5189.241</v>
       </c>
       <c r="D125">
-        <v>2677.1</v>
+        <v>250.584</v>
       </c>
       <c r="E125">
-        <v>4074.911</v>
+        <v>715.837</v>
       </c>
       <c r="F125">
-        <v>1809.895</v>
+        <v>1567.816</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -7588,19 +7588,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>660.899</v>
+        <v>392.478</v>
       </c>
       <c r="C126">
-        <v>510.953</v>
+        <v>489.634</v>
       </c>
       <c r="D126">
-        <v>7.592</v>
+        <v>82.485</v>
       </c>
       <c r="E126">
-        <v>1235.576</v>
+        <v>142.649</v>
       </c>
       <c r="F126">
-        <v>281.052</v>
+        <v>229.722</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -7608,19 +7608,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>823.782</v>
+        <v>125.684</v>
       </c>
       <c r="C127">
-        <v>1537.152</v>
+        <v>7410.733</v>
       </c>
       <c r="D127">
-        <v>544.6900000000001</v>
+        <v>181.686</v>
       </c>
       <c r="E127">
-        <v>30.502</v>
+        <v>382.277</v>
       </c>
       <c r="F127">
-        <v>152.628</v>
+        <v>1376.68</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -7628,19 +7628,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>474.458</v>
+        <v>386.421</v>
       </c>
       <c r="C128">
-        <v>620.485</v>
+        <v>-864.674</v>
       </c>
       <c r="D128">
-        <v>3721.948</v>
+        <v>364.75</v>
       </c>
       <c r="E128">
-        <v>9137.491</v>
+        <v>1231.438</v>
       </c>
       <c r="F128">
-        <v>3128.123</v>
+        <v>4455.924</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -7648,19 +7648,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>9805.162</v>
+        <v>242.176</v>
       </c>
       <c r="C129">
-        <v>3567.288</v>
+        <v>10081.16</v>
       </c>
       <c r="D129">
-        <v>2271.938</v>
+        <v>463.296</v>
       </c>
       <c r="E129">
-        <v>13073.192</v>
+        <v>102.795</v>
       </c>
       <c r="F129">
-        <v>4972.001</v>
+        <v>4082.311</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -7668,19 +7668,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>4497.684</v>
+        <v>699.629</v>
       </c>
       <c r="C130">
-        <v>8441.192999999999</v>
+        <v>4511.798</v>
       </c>
       <c r="D130">
-        <v>5433.943</v>
+        <v>290.35</v>
       </c>
       <c r="E130">
-        <v>7069.607</v>
+        <v>716.7089999999999</v>
       </c>
       <c r="F130">
-        <v>1884.627</v>
+        <v>2389.068</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7688,19 +7688,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>9176.394</v>
+        <v>564.851</v>
       </c>
       <c r="C131">
-        <v>1562.283</v>
+        <v>6868.944</v>
       </c>
       <c r="D131">
-        <v>5551.186</v>
+        <v>12.398</v>
       </c>
       <c r="E131">
-        <v>4863.601</v>
+        <v>370.459</v>
       </c>
       <c r="F131">
-        <v>185.424</v>
+        <v>735.271</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -7708,19 +7708,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6497.458</v>
+        <v>772.83</v>
       </c>
       <c r="C132">
-        <v>45.558</v>
+        <v>5992.335</v>
       </c>
       <c r="D132">
-        <v>2753.2</v>
+        <v>416.043</v>
       </c>
       <c r="E132">
-        <v>12171.98</v>
+        <v>410.189</v>
       </c>
       <c r="F132">
-        <v>1395.575</v>
+        <v>1101.236</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -7728,19 +7728,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6102.151</v>
+        <v>878.928</v>
       </c>
       <c r="C133">
-        <v>6646.163</v>
+        <v>19880.161</v>
       </c>
       <c r="D133">
-        <v>1124.385</v>
+        <v>420.472</v>
       </c>
       <c r="E133">
-        <v>6215.957</v>
+        <v>1459.612</v>
       </c>
       <c r="F133">
-        <v>2268.223</v>
+        <v>1075.726</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -7748,19 +7748,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>4906.531</v>
+        <v>826.636</v>
       </c>
       <c r="C134">
-        <v>3349.007</v>
+        <v>11756.902</v>
       </c>
       <c r="D134">
-        <v>5311.225</v>
+        <v>258.452</v>
       </c>
       <c r="E134">
-        <v>14523.298</v>
+        <v>1733.985</v>
       </c>
       <c r="F134">
-        <v>4223.073</v>
+        <v>3031.31</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7768,19 +7768,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1799.515</v>
+        <v>985.516</v>
       </c>
       <c r="C135">
-        <v>1636.925</v>
+        <v>1109.329</v>
       </c>
       <c r="D135">
-        <v>14.59</v>
+        <v>85.075</v>
       </c>
       <c r="E135">
-        <v>4403.905</v>
+        <v>345.545</v>
       </c>
       <c r="F135">
-        <v>656.134</v>
+        <v>444.164</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -7788,19 +7788,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>2242.782</v>
+        <v>315.593</v>
       </c>
       <c r="C136">
-        <v>4926.144</v>
+        <v>16789.981</v>
       </c>
       <c r="D136">
-        <v>1080.271</v>
+        <v>187.391</v>
       </c>
       <c r="E136">
-        <v>108.099</v>
+        <v>925.998</v>
       </c>
       <c r="F136">
-        <v>355.582</v>
+        <v>2661.757</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -7808,19 +7808,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>738.047</v>
+        <v>695.765</v>
       </c>
       <c r="C137">
-        <v>1491.164</v>
+        <v>-1491.176</v>
       </c>
       <c r="D137">
-        <v>7334.228</v>
+        <v>562.421</v>
       </c>
       <c r="E137">
-        <v>12995.37</v>
+        <v>2303.871</v>
       </c>
       <c r="F137">
-        <v>3780.988</v>
+        <v>9686.637000000001</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -7828,19 +7828,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>15248.548</v>
+        <v>436.046</v>
       </c>
       <c r="C138">
-        <v>8569.615</v>
+        <v>17385.488</v>
       </c>
       <c r="D138">
-        <v>4476.774</v>
+        <v>714.372</v>
       </c>
       <c r="E138">
-        <v>18592.971</v>
+        <v>192.318</v>
       </c>
       <c r="F138">
-        <v>6009.615</v>
+        <v>8874.448</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -7848,19 +7848,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6994.328</v>
+        <v>1259.708</v>
       </c>
       <c r="C139">
-        <v>20276.181</v>
+        <v>7780.831</v>
       </c>
       <c r="D139">
-        <v>10707.417</v>
+        <v>447.701</v>
       </c>
       <c r="E139">
-        <v>10054.462</v>
+        <v>1340.876</v>
       </c>
       <c r="F139">
-        <v>2277.825</v>
+        <v>5193.546</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -7868,19 +7868,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>14270.587</v>
+        <v>1017.035</v>
       </c>
       <c r="C140">
-        <v>3753.116</v>
+        <v>11845.853</v>
       </c>
       <c r="D140">
-        <v>10938.226</v>
+        <v>19.117</v>
       </c>
       <c r="E140">
-        <v>6917.252</v>
+        <v>693.085</v>
       </c>
       <c r="F140">
-        <v>224.105</v>
+        <v>1598.394</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -7888,19 +7888,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>10104.511</v>
+        <v>1391.509</v>
       </c>
       <c r="C141">
-        <v>110.2</v>
+        <v>10334.095</v>
       </c>
       <c r="D141">
-        <v>5425.156</v>
+        <v>641.511</v>
       </c>
       <c r="E141">
-        <v>17311.254</v>
+        <v>767.415</v>
       </c>
       <c r="F141">
-        <v>1686.772</v>
+        <v>2393.957</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -7908,19 +7908,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>9489.806</v>
+        <v>1582.542</v>
       </c>
       <c r="C142">
-        <v>15964.668</v>
+        <v>34284.378</v>
       </c>
       <c r="D142">
-        <v>2215.773</v>
+        <v>648.34</v>
       </c>
       <c r="E142">
-        <v>8840.594999999999</v>
+        <v>2730.757</v>
       </c>
       <c r="F142">
-        <v>2741.49</v>
+        <v>2338.501</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7928,19 +7928,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7630.189</v>
+        <v>1488.389</v>
       </c>
       <c r="C143">
-        <v>8045.553</v>
+        <v>20275.392</v>
       </c>
       <c r="D143">
-        <v>10465.663</v>
+        <v>398.516</v>
       </c>
       <c r="E143">
-        <v>20655.192</v>
+        <v>3244.076</v>
       </c>
       <c r="F143">
-        <v>5104.44</v>
+        <v>6589.701</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7948,19 +7948,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>2798.49</v>
+        <v>1774.458</v>
       </c>
       <c r="C144">
-        <v>3931.997</v>
+        <v>1913.096</v>
       </c>
       <c r="D144">
-        <v>28.252</v>
+        <v>131.18</v>
       </c>
       <c r="E144">
-        <v>6263.36</v>
+        <v>646.474</v>
       </c>
       <c r="F144">
-        <v>793.05</v>
+        <v>965.563</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7968,19 +7968,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>3487.593</v>
+        <v>568.236</v>
       </c>
       <c r="C145">
-        <v>11833.843</v>
+        <v>28955.201</v>
       </c>
       <c r="D145">
-        <v>2128.268</v>
+        <v>288.945</v>
       </c>
       <c r="E145">
-        <v>153.603</v>
+        <v>1732.431</v>
       </c>
       <c r="F145">
-        <v>429.818</v>
+        <v>5786.338</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -7988,19 +7988,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1766.625</v>
+        <v>1334.206</v>
       </c>
       <c r="C146">
-        <v>2116.612</v>
+        <v>-2726.078</v>
       </c>
       <c r="D146">
-        <v>16959.98</v>
+        <v>835.456</v>
       </c>
       <c r="E146">
-        <v>26502.567</v>
+        <v>4493.682</v>
       </c>
       <c r="F146">
-        <v>12196.12</v>
+        <v>20390.3</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -8008,19 +8008,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>36490.419</v>
+        <v>836.1660000000001</v>
       </c>
       <c r="C147">
-        <v>12163.655</v>
+        <v>31783.095</v>
       </c>
       <c r="D147">
-        <v>10352.439</v>
+        <v>1061.174</v>
       </c>
       <c r="E147">
-        <v>37918.891</v>
+        <v>375.115</v>
       </c>
       <c r="F147">
-        <v>19383.959</v>
+        <v>18680.648</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -8028,19 +8028,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>16737.442</v>
+        <v>2415.629</v>
       </c>
       <c r="C148">
-        <v>28779.969</v>
+        <v>14224.444</v>
       </c>
       <c r="D148">
-        <v>24759.249</v>
+        <v>665.044</v>
       </c>
       <c r="E148">
-        <v>20505.23</v>
+        <v>2615.368</v>
       </c>
       <c r="F148">
-        <v>7346.895</v>
+        <v>10932.377</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -8048,19 +8048,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>34149.814</v>
+        <v>1950.276</v>
       </c>
       <c r="C149">
-        <v>5327.167</v>
+        <v>21655.87</v>
       </c>
       <c r="D149">
-        <v>25292.91</v>
+        <v>28.398</v>
       </c>
       <c r="E149">
-        <v>14107.131</v>
+        <v>1351.857</v>
       </c>
       <c r="F149">
-        <v>723.0410000000001</v>
+        <v>3364.609</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -8068,19 +8068,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>24180.018</v>
+        <v>2668.372</v>
       </c>
       <c r="C150">
-        <v>156.532</v>
+        <v>18892.166</v>
       </c>
       <c r="D150">
-        <v>12545.49</v>
+        <v>952.941</v>
       </c>
       <c r="E150">
-        <v>35304.735</v>
+        <v>1496.837</v>
       </c>
       <c r="F150">
-        <v>5440.503</v>
+        <v>5039.263</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -8088,19 +8088,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>22709.243</v>
+        <v>3034.698</v>
       </c>
       <c r="C151">
-        <v>22660.189</v>
+        <v>62676.621</v>
       </c>
       <c r="D151">
-        <v>5124.267</v>
+        <v>963.086</v>
       </c>
       <c r="E151">
-        <v>18030.149</v>
+        <v>5326.319</v>
       </c>
       <c r="F151">
-        <v>8841.808999999999</v>
+        <v>4922.529</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -8108,19 +8108,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>18258.589</v>
+        <v>2854.15</v>
       </c>
       <c r="C152">
-        <v>11420.072</v>
+        <v>37066.242</v>
       </c>
       <c r="D152">
-        <v>24200.434</v>
+        <v>591.981</v>
       </c>
       <c r="E152">
-        <v>42124.445</v>
+        <v>6327.544</v>
       </c>
       <c r="F152">
-        <v>16463.783</v>
+        <v>13871.273</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -8128,19 +8128,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6697.195</v>
+        <v>3402.718</v>
       </c>
       <c r="C153">
-        <v>5581.003</v>
+        <v>3497.406</v>
       </c>
       <c r="D153">
-        <v>64.598</v>
+        <v>194.863</v>
       </c>
       <c r="E153">
-        <v>12773.848</v>
+        <v>1260.943</v>
       </c>
       <c r="F153">
-        <v>2557.735</v>
+        <v>2032.505</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -8148,19 +8148,739 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>8345.625</v>
+        <v>1089.655</v>
       </c>
       <c r="C154">
-        <v>16796.906</v>
+        <v>52934.143</v>
       </c>
       <c r="D154">
-        <v>4920.658</v>
+        <v>429.217</v>
       </c>
       <c r="E154">
-        <v>312.765</v>
+        <v>3379.093</v>
       </c>
       <c r="F154">
-        <v>1386.693</v>
+        <v>12180.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>3913.506</v>
+      </c>
+      <c r="C155">
+        <v>-6413.622</v>
+      </c>
+      <c r="D155">
+        <v>2958.626</v>
+      </c>
+      <c r="E155">
+        <v>12259.23</v>
+      </c>
+      <c r="F155">
+        <v>45918.609</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>2452.651</v>
+      </c>
+      <c r="C156">
+        <v>74775.82799999999</v>
+      </c>
+      <c r="D156">
+        <v>3757.97</v>
+      </c>
+      <c r="E156">
+        <v>1023.354</v>
+      </c>
+      <c r="F156">
+        <v>42068.502</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>7085.547</v>
+      </c>
+      <c r="C157">
+        <v>33465.733</v>
+      </c>
+      <c r="D157">
+        <v>2355.141</v>
+      </c>
+      <c r="E157">
+        <v>7134.995</v>
+      </c>
+      <c r="F157">
+        <v>24619.527</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>5720.569</v>
+      </c>
+      <c r="C158">
+        <v>50949.589</v>
+      </c>
+      <c r="D158">
+        <v>100.568</v>
+      </c>
+      <c r="E158">
+        <v>3688.006</v>
+      </c>
+      <c r="F158">
+        <v>7577.043</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>7826.895</v>
+      </c>
+      <c r="C159">
+        <v>44447.445</v>
+      </c>
+      <c r="D159">
+        <v>3374.679</v>
+      </c>
+      <c r="E159">
+        <v>4083.527</v>
+      </c>
+      <c r="F159">
+        <v>11348.335</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>8901.406999999999</v>
+      </c>
+      <c r="C160">
+        <v>147458.776</v>
+      </c>
+      <c r="D160">
+        <v>3410.607</v>
+      </c>
+      <c r="E160">
+        <v>14530.75</v>
+      </c>
+      <c r="F160">
+        <v>11085.452</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>8371.821</v>
+      </c>
+      <c r="C161">
+        <v>87205.446</v>
+      </c>
+      <c r="D161">
+        <v>2096.402</v>
+      </c>
+      <c r="E161">
+        <v>17262.194</v>
+      </c>
+      <c r="F161">
+        <v>31237.871</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>9980.887000000001</v>
+      </c>
+      <c r="C162">
+        <v>8228.317999999999</v>
+      </c>
+      <c r="D162">
+        <v>690.075</v>
+      </c>
+      <c r="E162">
+        <v>3439.983</v>
+      </c>
+      <c r="F162">
+        <v>4577.168</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>3196.187</v>
+      </c>
+      <c r="C163">
+        <v>124537.727</v>
+      </c>
+      <c r="D163">
+        <v>1519.999</v>
+      </c>
+      <c r="E163">
+        <v>9218.514999999999</v>
+      </c>
+      <c r="F163">
+        <v>27429.604</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>10253.685</v>
+      </c>
+      <c r="C164">
+        <v>-14212.297</v>
+      </c>
+      <c r="D164">
+        <v>7268.221</v>
+      </c>
+      <c r="E164">
+        <v>30592.234</v>
+      </c>
+      <c r="F164">
+        <v>101248.095</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>6426.133</v>
+      </c>
+      <c r="C165">
+        <v>165699.867</v>
+      </c>
+      <c r="D165">
+        <v>9231.906000000001</v>
+      </c>
+      <c r="E165">
+        <v>2553.724</v>
+      </c>
+      <c r="F165">
+        <v>92758.814</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>18564.676</v>
+      </c>
+      <c r="C166">
+        <v>74158.557</v>
+      </c>
+      <c r="D166">
+        <v>5785.687</v>
+      </c>
+      <c r="E166">
+        <v>17804.988</v>
+      </c>
+      <c r="F166">
+        <v>54284.75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>14988.329</v>
+      </c>
+      <c r="C167">
+        <v>112901.995</v>
+      </c>
+      <c r="D167">
+        <v>247.058</v>
+      </c>
+      <c r="E167">
+        <v>9203.216</v>
+      </c>
+      <c r="F167">
+        <v>16706.978</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>20507.064</v>
+      </c>
+      <c r="C168">
+        <v>98493.53599999999</v>
+      </c>
+      <c r="D168">
+        <v>8290.305</v>
+      </c>
+      <c r="E168">
+        <v>10190.217</v>
+      </c>
+      <c r="F168">
+        <v>25022.477</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>23322.368</v>
+      </c>
+      <c r="C169">
+        <v>326762.006</v>
+      </c>
+      <c r="D169">
+        <v>8378.566999999999</v>
+      </c>
+      <c r="E169">
+        <v>36260.687</v>
+      </c>
+      <c r="F169">
+        <v>24442.834</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>21934.812</v>
+      </c>
+      <c r="C170">
+        <v>193243.341</v>
+      </c>
+      <c r="D170">
+        <v>5150.065</v>
+      </c>
+      <c r="E170">
+        <v>43076.855</v>
+      </c>
+      <c r="F170">
+        <v>68877.84699999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>26150.688</v>
+      </c>
+      <c r="C171">
+        <v>18233.582</v>
+      </c>
+      <c r="D171">
+        <v>1695.252</v>
+      </c>
+      <c r="E171">
+        <v>8584.289000000001</v>
+      </c>
+      <c r="F171">
+        <v>10092.413</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>8374.254999999999</v>
+      </c>
+      <c r="C172">
+        <v>275969.994</v>
+      </c>
+      <c r="D172">
+        <v>3734.061</v>
+      </c>
+      <c r="E172">
+        <v>23004.297</v>
+      </c>
+      <c r="F172">
+        <v>60480.821</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>25672.502</v>
+      </c>
+      <c r="C173">
+        <v>-14845.386</v>
+      </c>
+      <c r="D173">
+        <v>16752.533</v>
+      </c>
+      <c r="E173">
+        <v>71872.969</v>
+      </c>
+      <c r="F173">
+        <v>233664.189</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>16089.329</v>
+      </c>
+      <c r="C174">
+        <v>173080.996</v>
+      </c>
+      <c r="D174">
+        <v>21278.633</v>
+      </c>
+      <c r="E174">
+        <v>5999.684</v>
+      </c>
+      <c r="F174">
+        <v>214072.304</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>46481.014</v>
+      </c>
+      <c r="C175">
+        <v>77461.963</v>
+      </c>
+      <c r="D175">
+        <v>13335.438</v>
+      </c>
+      <c r="E175">
+        <v>41830.791</v>
+      </c>
+      <c r="F175">
+        <v>125280.403</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>37526.792</v>
+      </c>
+      <c r="C176">
+        <v>117931.234</v>
+      </c>
+      <c r="D176">
+        <v>569.444</v>
+      </c>
+      <c r="E176">
+        <v>21621.908</v>
+      </c>
+      <c r="F176">
+        <v>38556.997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>51344.238</v>
+      </c>
+      <c r="C177">
+        <v>102880.947</v>
+      </c>
+      <c r="D177">
+        <v>19108.336</v>
+      </c>
+      <c r="E177">
+        <v>23940.754</v>
+      </c>
+      <c r="F177">
+        <v>57747.82</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>58393.01</v>
+      </c>
+      <c r="C178">
+        <v>341317.676</v>
+      </c>
+      <c r="D178">
+        <v>19311.771</v>
+      </c>
+      <c r="E178">
+        <v>85190.35400000001</v>
+      </c>
+      <c r="F178">
+        <v>56410.098</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>54918.939</v>
+      </c>
+      <c r="C179">
+        <v>201851.399</v>
+      </c>
+      <c r="D179">
+        <v>11870.392</v>
+      </c>
+      <c r="E179">
+        <v>101204.164</v>
+      </c>
+      <c r="F179">
+        <v>158958.905</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>65474.372</v>
+      </c>
+      <c r="C180">
+        <v>19045.8</v>
+      </c>
+      <c r="D180">
+        <v>3907.389</v>
+      </c>
+      <c r="E180">
+        <v>20167.809</v>
+      </c>
+      <c r="F180">
+        <v>23291.653</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>20966.909</v>
+      </c>
+      <c r="C181">
+        <v>288263.125</v>
+      </c>
+      <c r="D181">
+        <v>8606.643</v>
+      </c>
+      <c r="E181">
+        <v>54045.976</v>
+      </c>
+      <c r="F181">
+        <v>139579.929</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>64581.658</v>
+      </c>
+      <c r="C182">
+        <v>-15834.764</v>
+      </c>
+      <c r="D182">
+        <v>38365.679</v>
+      </c>
+      <c r="E182">
+        <v>170364.587</v>
+      </c>
+      <c r="F182">
+        <v>531981.857</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>40474.261</v>
+      </c>
+      <c r="C183">
+        <v>184616.069</v>
+      </c>
+      <c r="D183">
+        <v>48731.091</v>
+      </c>
+      <c r="E183">
+        <v>14221.392</v>
+      </c>
+      <c r="F183">
+        <v>487377.13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>116927.48</v>
+      </c>
+      <c r="C184">
+        <v>82624.45600000001</v>
+      </c>
+      <c r="D184">
+        <v>30540.046</v>
+      </c>
+      <c r="E184">
+        <v>99153.90399999999</v>
+      </c>
+      <c r="F184">
+        <v>285225.142</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>94402.27</v>
+      </c>
+      <c r="C185">
+        <v>125790.822</v>
+      </c>
+      <c r="D185">
+        <v>1304.108</v>
+      </c>
+      <c r="E185">
+        <v>51251.639</v>
+      </c>
+      <c r="F185">
+        <v>87782.484</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>129161.389</v>
+      </c>
+      <c r="C186">
+        <v>109737.501</v>
+      </c>
+      <c r="D186">
+        <v>43760.802</v>
+      </c>
+      <c r="E186">
+        <v>56748.131</v>
+      </c>
+      <c r="F186">
+        <v>131474.116</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>146893.257</v>
+      </c>
+      <c r="C187">
+        <v>364064.97</v>
+      </c>
+      <c r="D187">
+        <v>44226.698</v>
+      </c>
+      <c r="E187">
+        <v>201931.543</v>
+      </c>
+      <c r="F187">
+        <v>128428.532</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>138153.895</v>
+      </c>
+      <c r="C188">
+        <v>215303.89</v>
+      </c>
+      <c r="D188">
+        <v>27184.883</v>
+      </c>
+      <c r="E188">
+        <v>239889.988</v>
+      </c>
+      <c r="F188">
+        <v>361900.785</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>164707.107</v>
+      </c>
+      <c r="C189">
+        <v>20315.117</v>
+      </c>
+      <c r="D189">
+        <v>8948.476000000001</v>
+      </c>
+      <c r="E189">
+        <v>47804.905</v>
+      </c>
+      <c r="F189">
+        <v>53027.967</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>52744.284</v>
+      </c>
+      <c r="C190">
+        <v>307474.571</v>
+      </c>
+      <c r="D190">
+        <v>19710.434</v>
+      </c>
+      <c r="E190">
+        <v>128108.252</v>
+      </c>
+      <c r="F190">
+        <v>317780.787</v>
       </c>
     </row>
   </sheetData>

--- a/Experimentos2/BA.xlsx
+++ b/Experimentos2/BA.xlsx
@@ -472,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -480,7 +480,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -496,7 +496,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -722,19 +722,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.441</v>
+        <v>0.945</v>
       </c>
       <c r="C11">
-        <v>0.021</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="D11">
-        <v>0.824</v>
+        <v>0.95</v>
       </c>
       <c r="E11">
-        <v>0.739</v>
+        <v>1.096</v>
       </c>
       <c r="F11">
-        <v>1.082</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -742,19 +742,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.301</v>
+        <v>0.745</v>
       </c>
       <c r="C12">
-        <v>0.505</v>
+        <v>0.338</v>
       </c>
       <c r="D12">
-        <v>1.026</v>
+        <v>0.316</v>
       </c>
       <c r="E12">
-        <v>0.131</v>
+        <v>0.507</v>
       </c>
       <c r="F12">
-        <v>0.944</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -762,19 +762,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.757</v>
+        <v>0.496</v>
       </c>
       <c r="C13">
-        <v>0.262</v>
+        <v>0.726</v>
       </c>
       <c r="D13">
-        <v>0.668</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="E13">
-        <v>0.457</v>
+        <v>0.417</v>
       </c>
       <c r="F13">
-        <v>0.5669999999999999</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -782,19 +782,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.626</v>
+        <v>0.876</v>
       </c>
       <c r="C14">
-        <v>0.368</v>
+        <v>1.032</v>
       </c>
       <c r="D14">
-        <v>0.091</v>
+        <v>0.319</v>
       </c>
       <c r="E14">
-        <v>0.261</v>
+        <v>0.301</v>
       </c>
       <c r="F14">
-        <v>0.207</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -802,19 +802,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.835</v>
+        <v>0.539</v>
       </c>
       <c r="C15">
-        <v>0.331</v>
+        <v>0.718</v>
       </c>
       <c r="D15">
-        <v>0.93</v>
+        <v>1.002</v>
       </c>
       <c r="E15">
-        <v>0.298</v>
+        <v>0.953</v>
       </c>
       <c r="F15">
-        <v>0.284</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -822,19 +822,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9429999999999999</v>
+        <v>0.227</v>
       </c>
       <c r="C16">
-        <v>0.945</v>
+        <v>0.138</v>
       </c>
       <c r="D16">
-        <v>0.9370000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="E16">
-        <v>0.844</v>
+        <v>1.036</v>
       </c>
       <c r="F16">
-        <v>0.278</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -842,19 +842,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.894</v>
+        <v>0.108</v>
       </c>
       <c r="C17">
-        <v>0.589</v>
+        <v>0.178</v>
       </c>
       <c r="D17">
-        <v>0.602</v>
+        <v>1.019</v>
       </c>
       <c r="E17">
-        <v>0.984</v>
+        <v>0.777</v>
       </c>
       <c r="F17">
-        <v>0.695</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -862,19 +862,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.054</v>
+        <v>0.162</v>
       </c>
       <c r="C18">
-        <v>0.122</v>
+        <v>0.673</v>
       </c>
       <c r="D18">
-        <v>0.243</v>
+        <v>0.204</v>
       </c>
       <c r="E18">
-        <v>0.234</v>
+        <v>0.044</v>
       </c>
       <c r="F18">
-        <v>0.143</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -882,19 +882,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.391</v>
+        <v>0.124</v>
       </c>
       <c r="C19">
-        <v>0.8139999999999999</v>
+        <v>0.378</v>
       </c>
       <c r="D19">
-        <v>0.455</v>
+        <v>0.971</v>
       </c>
       <c r="E19">
-        <v>0.554</v>
+        <v>0.579</v>
       </c>
       <c r="F19">
-        <v>0.615</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -902,19 +902,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.002</v>
+        <v>2.577</v>
       </c>
       <c r="C20">
-        <v>-0.053</v>
+        <v>1.779</v>
       </c>
       <c r="D20">
-        <v>1.968</v>
+        <v>2.033</v>
       </c>
       <c r="E20">
-        <v>1.62</v>
+        <v>3.034</v>
       </c>
       <c r="F20">
-        <v>2.725</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -922,19 +922,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.651</v>
+        <v>2.002</v>
       </c>
       <c r="C21">
-        <v>1.288</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D21">
-        <v>2.48</v>
+        <v>0.623</v>
       </c>
       <c r="E21">
-        <v>0.208</v>
+        <v>1.338</v>
       </c>
       <c r="F21">
-        <v>2.485</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -942,19 +942,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.773</v>
+        <v>1.287</v>
       </c>
       <c r="C22">
-        <v>0.607</v>
+        <v>1.865</v>
       </c>
       <c r="D22">
-        <v>1.58</v>
+        <v>1.172</v>
       </c>
       <c r="E22">
-        <v>0.973</v>
+        <v>1.083</v>
       </c>
       <c r="F22">
-        <v>1.505</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -962,19 +962,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.445</v>
+        <v>2.366</v>
       </c>
       <c r="C23">
-        <v>0.897</v>
+        <v>2.696</v>
       </c>
       <c r="D23">
-        <v>0.132</v>
+        <v>0.633</v>
       </c>
       <c r="E23">
-        <v>0.534</v>
+        <v>0.766</v>
       </c>
       <c r="F23">
-        <v>0.551</v>
+        <v>1.157</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -982,19 +982,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.957</v>
+        <v>1.401</v>
       </c>
       <c r="C24">
-        <v>0.79</v>
+        <v>1.834</v>
       </c>
       <c r="D24">
-        <v>2.235</v>
+        <v>2.149</v>
       </c>
       <c r="E24">
-        <v>0.593</v>
+        <v>2.623</v>
       </c>
       <c r="F24">
-        <v>0.761</v>
+        <v>1.873</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1002,19 +1002,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.219</v>
+        <v>0.507</v>
       </c>
       <c r="C25">
-        <v>2.492</v>
+        <v>0.245</v>
       </c>
       <c r="D25">
-        <v>2.257</v>
+        <v>2.104</v>
       </c>
       <c r="E25">
-        <v>1.894</v>
+        <v>2.89</v>
       </c>
       <c r="F25">
-        <v>0.746</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1022,19 +1022,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.093</v>
+        <v>0.162</v>
       </c>
       <c r="C26">
-        <v>1.498</v>
+        <v>0.35</v>
       </c>
       <c r="D26">
-        <v>1.414</v>
+        <v>2.191</v>
       </c>
       <c r="E26">
-        <v>2.232</v>
+        <v>2.152</v>
       </c>
       <c r="F26">
-        <v>1.87</v>
+        <v>1.739</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1042,19 +1042,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.484</v>
+        <v>0.312</v>
       </c>
       <c r="C27">
-        <v>0.195</v>
+        <v>1.698</v>
       </c>
       <c r="D27">
-        <v>0.511</v>
+        <v>0.374</v>
       </c>
       <c r="E27">
-        <v>0.494</v>
+        <v>0.047</v>
       </c>
       <c r="F27">
-        <v>0.383</v>
+        <v>2.198</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1062,19 +1062,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.843</v>
+        <v>0.2</v>
       </c>
       <c r="C28">
-        <v>2.116</v>
+        <v>0.889</v>
       </c>
       <c r="D28">
-        <v>1.044</v>
+        <v>2.084</v>
       </c>
       <c r="E28">
-        <v>1.224</v>
+        <v>1.576</v>
       </c>
       <c r="F28">
-        <v>1.657</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1082,19 +1082,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.676</v>
+        <v>6.51</v>
       </c>
       <c r="C29">
-        <v>-0.186</v>
+        <v>2.902</v>
       </c>
       <c r="D29">
-        <v>3.672</v>
+        <v>4.247</v>
       </c>
       <c r="E29">
-        <v>2.8</v>
+        <v>6.366</v>
       </c>
       <c r="F29">
-        <v>6.206</v>
+        <v>1.587</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1102,19 +1102,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.072</v>
+        <v>5.037</v>
       </c>
       <c r="C30">
-        <v>2.797</v>
+        <v>1.297</v>
       </c>
       <c r="D30">
-        <v>4.645</v>
+        <v>1.249</v>
       </c>
       <c r="E30">
-        <v>0.309</v>
+        <v>2.761</v>
       </c>
       <c r="F30">
-        <v>5.69</v>
+        <v>1.612</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1122,19 +1122,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.993</v>
+        <v>3.205</v>
       </c>
       <c r="C31">
-        <v>1.28</v>
+        <v>3.04</v>
       </c>
       <c r="D31">
-        <v>2.937</v>
+        <v>2.417</v>
       </c>
       <c r="E31">
-        <v>1.662</v>
+        <v>2.22</v>
       </c>
       <c r="F31">
-        <v>3.396</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1142,19 +1142,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.429</v>
+        <v>5.965</v>
       </c>
       <c r="C32">
-        <v>1.923</v>
+        <v>4.413</v>
       </c>
       <c r="D32">
-        <v>0.191</v>
+        <v>1.271</v>
       </c>
       <c r="E32">
-        <v>0.894</v>
+        <v>1.552</v>
       </c>
       <c r="F32">
-        <v>1.157</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1162,19 +1162,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.304</v>
+        <v>3.494</v>
       </c>
       <c r="C33">
-        <v>1.684</v>
+        <v>2.986</v>
       </c>
       <c r="D33">
-        <v>4.179</v>
+        <v>4.494</v>
       </c>
       <c r="E33">
-        <v>0.987</v>
+        <v>5.493</v>
       </c>
       <c r="F33">
-        <v>1.652</v>
+        <v>3.392</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1182,19 +1182,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.751</v>
+        <v>1.205</v>
       </c>
       <c r="C34">
-        <v>5.469</v>
+        <v>0.356</v>
       </c>
       <c r="D34">
-        <v>4.222</v>
+        <v>4.4</v>
       </c>
       <c r="E34">
-        <v>3.296</v>
+        <v>6.07</v>
       </c>
       <c r="F34">
-        <v>1.617</v>
+        <v>1.521</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1202,19 +1202,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3.533</v>
+        <v>0.32</v>
       </c>
       <c r="C35">
-        <v>3.256</v>
+        <v>0.528</v>
       </c>
       <c r="D35">
-        <v>2.622</v>
+        <v>4.585</v>
       </c>
       <c r="E35">
-        <v>3.898</v>
+        <v>4.504</v>
       </c>
       <c r="F35">
-        <v>4.263</v>
+        <v>3.147</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1222,19 +1222,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4.201</v>
+        <v>0.702</v>
       </c>
       <c r="C36">
-        <v>0.355</v>
+        <v>2.756</v>
       </c>
       <c r="D36">
-        <v>0.909</v>
+        <v>0.719</v>
       </c>
       <c r="E36">
-        <v>0.833</v>
+        <v>0.031</v>
       </c>
       <c r="F36">
-        <v>0.763</v>
+        <v>3.988</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1242,19 +1242,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.389</v>
+        <v>0.414</v>
       </c>
       <c r="C37">
-        <v>4.628</v>
+        <v>1.417</v>
       </c>
       <c r="D37">
-        <v>1.92</v>
+        <v>4.357</v>
       </c>
       <c r="E37">
-        <v>2.116</v>
+        <v>3.277</v>
       </c>
       <c r="F37">
-        <v>3.763</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1262,19 +1262,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.542</v>
+        <v>16.323</v>
       </c>
       <c r="C38">
-        <v>-0.455</v>
+        <v>4.082</v>
       </c>
       <c r="D38">
-        <v>6.439</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="E38">
-        <v>4.509</v>
+        <v>12.668</v>
       </c>
       <c r="F38">
-        <v>14.049</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1282,19 +1282,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.614</v>
+        <v>12.612</v>
       </c>
       <c r="C39">
-        <v>5.915</v>
+        <v>1.809</v>
       </c>
       <c r="D39">
-        <v>8.16</v>
+        <v>2.554</v>
       </c>
       <c r="E39">
-        <v>0.453</v>
+        <v>5.449</v>
       </c>
       <c r="F39">
-        <v>12.882</v>
+        <v>2.586</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1302,19 +1302,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.561</v>
+        <v>7.996</v>
       </c>
       <c r="C40">
-        <v>2.674</v>
+        <v>4.275</v>
       </c>
       <c r="D40">
-        <v>5.14</v>
+        <v>5.014</v>
       </c>
       <c r="E40">
-        <v>2.658</v>
+        <v>4.366</v>
       </c>
       <c r="F40">
-        <v>7.611</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1322,19 +1322,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.694</v>
+        <v>14.948</v>
       </c>
       <c r="C41">
-        <v>4.046</v>
+        <v>6.217</v>
       </c>
       <c r="D41">
-        <v>0.286</v>
+        <v>2.601</v>
       </c>
       <c r="E41">
-        <v>1.411</v>
+        <v>3.031</v>
       </c>
       <c r="F41">
-        <v>2.464</v>
+        <v>3.368</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1342,19 +1342,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.035</v>
+        <v>8.723000000000001</v>
       </c>
       <c r="C42">
-        <v>3.536</v>
+        <v>4.197</v>
       </c>
       <c r="D42">
-        <v>7.335</v>
+        <v>9.387</v>
       </c>
       <c r="E42">
-        <v>1.557</v>
+        <v>10.92</v>
       </c>
       <c r="F42">
-        <v>3.603</v>
+        <v>5.529</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1362,19 +1362,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5.72</v>
+        <v>2.956</v>
       </c>
       <c r="C43">
-        <v>11.618</v>
+        <v>0.473</v>
       </c>
       <c r="D43">
-        <v>7.412</v>
+        <v>9.19</v>
       </c>
       <c r="E43">
-        <v>5.324</v>
+        <v>12.08</v>
       </c>
       <c r="F43">
-        <v>3.523</v>
+        <v>2.448</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1382,19 +1382,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.384</v>
+        <v>0.726</v>
       </c>
       <c r="C44">
-        <v>6.891</v>
+        <v>0.716</v>
       </c>
       <c r="D44">
-        <v>4.583</v>
+        <v>9.58</v>
       </c>
       <c r="E44">
-        <v>6.307</v>
+        <v>8.945</v>
       </c>
       <c r="F44">
-        <v>9.609</v>
+        <v>5.126</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1402,19 +1402,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6.408</v>
+        <v>1.687</v>
       </c>
       <c r="C45">
-        <v>0.695</v>
+        <v>3.868</v>
       </c>
       <c r="D45">
-        <v>1.555</v>
+        <v>1.438</v>
       </c>
       <c r="E45">
-        <v>1.317</v>
+        <v>-0.011</v>
       </c>
       <c r="F45">
-        <v>1.558</v>
+        <v>6.511</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1422,19 +1422,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.093</v>
+        <v>0.961</v>
       </c>
       <c r="C46">
-        <v>9.82</v>
+        <v>1.972</v>
       </c>
       <c r="D46">
-        <v>3.342</v>
+        <v>9.099</v>
       </c>
       <c r="E46">
-        <v>3.404</v>
+        <v>6.487</v>
       </c>
       <c r="F46">
-        <v>8.459</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1442,19 +1442,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>3.632</v>
+        <v>32.841</v>
       </c>
       <c r="C47">
-        <v>-1.213</v>
+        <v>8.747999999999999</v>
       </c>
       <c r="D47">
-        <v>14.881</v>
+        <v>16.575</v>
       </c>
       <c r="E47">
-        <v>6.519</v>
+        <v>25.713</v>
       </c>
       <c r="F47">
-        <v>32.411</v>
+        <v>4.264</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1462,19 +1462,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.297</v>
+        <v>25.363</v>
       </c>
       <c r="C48">
-        <v>14.748</v>
+        <v>3.843</v>
       </c>
       <c r="D48">
-        <v>18.883</v>
+        <v>4.731</v>
       </c>
       <c r="E48">
-        <v>0.622</v>
+        <v>11.011</v>
       </c>
       <c r="F48">
-        <v>29.707</v>
+        <v>4.394</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1482,19 +1482,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6.535</v>
+        <v>16.062</v>
       </c>
       <c r="C49">
-        <v>6.627</v>
+        <v>9.163</v>
       </c>
       <c r="D49">
-        <v>11.86</v>
+        <v>9.346</v>
       </c>
       <c r="E49">
-        <v>3.829</v>
+        <v>8.805999999999999</v>
       </c>
       <c r="F49">
-        <v>17.459</v>
+        <v>1.258</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1502,19 +1502,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5.287</v>
+        <v>30.07</v>
       </c>
       <c r="C50">
-        <v>10.064</v>
+        <v>13.352</v>
       </c>
       <c r="D50">
-        <v>0.573</v>
+        <v>4.819</v>
       </c>
       <c r="E50">
-        <v>2.018</v>
+        <v>6.088</v>
       </c>
       <c r="F50">
-        <v>5.497</v>
+        <v>5.762</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1522,19 +1522,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7.215</v>
+        <v>17.526</v>
       </c>
       <c r="C51">
-        <v>8.786</v>
+        <v>8.994</v>
       </c>
       <c r="D51">
-        <v>16.964</v>
+        <v>17.55</v>
       </c>
       <c r="E51">
-        <v>2.227</v>
+        <v>22.153</v>
       </c>
       <c r="F51">
-        <v>8.144</v>
+        <v>9.523999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1542,19 +1542,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>8.199</v>
+        <v>5.905</v>
       </c>
       <c r="C52">
-        <v>29.037</v>
+        <v>0.958</v>
       </c>
       <c r="D52">
-        <v>17.144</v>
+        <v>17.181</v>
       </c>
       <c r="E52">
-        <v>7.708</v>
+        <v>24.518</v>
       </c>
       <c r="F52">
-        <v>7.959</v>
+        <v>4.161</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1562,19 +1562,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7.715</v>
+        <v>1.411</v>
       </c>
       <c r="C53">
-        <v>17.192</v>
+        <v>1.482</v>
       </c>
       <c r="D53">
-        <v>10.565</v>
+        <v>17.913</v>
       </c>
       <c r="E53">
-        <v>9.138999999999999</v>
+        <v>18.134</v>
       </c>
       <c r="F53">
-        <v>22.104</v>
+        <v>8.823</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1582,19 +1582,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>9.186999999999999</v>
+        <v>3.347</v>
       </c>
       <c r="C54">
-        <v>1.666</v>
+        <v>8.281000000000001</v>
       </c>
       <c r="D54">
-        <v>3.524</v>
+        <v>2.637</v>
       </c>
       <c r="E54">
-        <v>1.885</v>
+        <v>-0.106</v>
       </c>
       <c r="F54">
-        <v>3.391</v>
+        <v>11.234</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1602,19 +1602,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2.981</v>
+        <v>1.884</v>
       </c>
       <c r="C55">
-        <v>24.531</v>
+        <v>4.19</v>
       </c>
       <c r="D55">
-        <v>7.679</v>
+        <v>17.01</v>
       </c>
       <c r="E55">
-        <v>4.918</v>
+        <v>13.127</v>
       </c>
       <c r="F55">
-        <v>19.431</v>
+        <v>1.449</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1622,19 +1622,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.045</v>
+        <v>62.87</v>
       </c>
       <c r="C56">
-        <v>-3.198</v>
+        <v>20.932</v>
       </c>
       <c r="D56">
-        <v>36.52</v>
+        <v>30.076</v>
       </c>
       <c r="E56">
-        <v>8.965999999999999</v>
+        <v>52.494</v>
       </c>
       <c r="F56">
-        <v>75.229</v>
+        <v>7.426</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1642,19 +1642,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3.182</v>
+        <v>48.544</v>
       </c>
       <c r="C57">
-        <v>37.9</v>
+        <v>9.157</v>
       </c>
       <c r="D57">
-        <v>46.368</v>
+        <v>8.544</v>
       </c>
       <c r="E57">
-        <v>0.827</v>
+        <v>22.428</v>
       </c>
       <c r="F57">
-        <v>68.935</v>
+        <v>7.665</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1662,19 +1662,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>9.093</v>
+        <v>30.726</v>
       </c>
       <c r="C58">
-        <v>16.989</v>
+        <v>21.927</v>
       </c>
       <c r="D58">
-        <v>29.085</v>
+        <v>16.934</v>
       </c>
       <c r="E58">
-        <v>5.254</v>
+        <v>17.919</v>
       </c>
       <c r="F58">
-        <v>40.414</v>
+        <v>2.106</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1682,19 +1682,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7.352</v>
+        <v>57.561</v>
       </c>
       <c r="C59">
-        <v>25.839</v>
+        <v>31.983</v>
       </c>
       <c r="D59">
-        <v>1.308</v>
+        <v>8.704000000000001</v>
       </c>
       <c r="E59">
-        <v>2.756</v>
+        <v>12.362</v>
       </c>
       <c r="F59">
-        <v>12.558</v>
+        <v>10.095</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1702,19 +1702,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>10.04</v>
+        <v>33.53</v>
       </c>
       <c r="C60">
-        <v>22.548</v>
+        <v>21.521</v>
       </c>
       <c r="D60">
-        <v>41.646</v>
+        <v>31.848</v>
       </c>
       <c r="E60">
-        <v>3.043</v>
+        <v>45.213</v>
       </c>
       <c r="F60">
-        <v>18.722</v>
+        <v>16.767</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1722,19 +1722,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>11.412</v>
+        <v>11.267</v>
       </c>
       <c r="C61">
-        <v>74.69199999999999</v>
+        <v>2.23</v>
       </c>
       <c r="D61">
-        <v>42.089</v>
+        <v>31.178</v>
       </c>
       <c r="E61">
-        <v>10.61</v>
+        <v>50.051</v>
       </c>
       <c r="F61">
-        <v>18.292</v>
+        <v>7.256</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1742,19 +1742,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>10.736</v>
+        <v>2.658</v>
       </c>
       <c r="C62">
-        <v>44.192</v>
+        <v>3.488</v>
       </c>
       <c r="D62">
-        <v>25.898</v>
+        <v>32.509</v>
       </c>
       <c r="E62">
-        <v>12.587</v>
+        <v>36.996</v>
       </c>
       <c r="F62">
-        <v>51.232</v>
+        <v>15.524</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1762,19 +1762,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>12.789</v>
+        <v>6.366</v>
       </c>
       <c r="C63">
-        <v>4.214</v>
+        <v>19.808</v>
       </c>
       <c r="D63">
-        <v>8.571</v>
+        <v>4.737</v>
       </c>
       <c r="E63">
-        <v>2.575</v>
+        <v>-0.304</v>
       </c>
       <c r="F63">
-        <v>7.654</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1782,19 +1782,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4.133</v>
+        <v>3.563</v>
       </c>
       <c r="C64">
-        <v>63.089</v>
+        <v>9.988</v>
       </c>
       <c r="D64">
-        <v>18.796</v>
+        <v>30.867</v>
       </c>
       <c r="E64">
-        <v>6.761</v>
+        <v>26.756</v>
       </c>
       <c r="F64">
-        <v>45.007</v>
+        <v>2.446</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1802,19 +1802,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7.562</v>
+        <v>138.633</v>
       </c>
       <c r="C65">
-        <v>-5.949</v>
+        <v>51.808</v>
       </c>
       <c r="D65">
-        <v>62.387</v>
+        <v>68.542</v>
       </c>
       <c r="E65">
-        <v>16.696</v>
+        <v>94.735</v>
       </c>
       <c r="F65">
-        <v>163.596</v>
+        <v>16.992</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1822,19 +1822,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.76</v>
+        <v>107.03</v>
       </c>
       <c r="C66">
-        <v>69.985</v>
+        <v>22.624</v>
       </c>
       <c r="D66">
-        <v>79.224</v>
+        <v>19.407</v>
       </c>
       <c r="E66">
-        <v>1.472</v>
+        <v>40.436</v>
       </c>
       <c r="F66">
-        <v>149.891</v>
+        <v>17.551</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1842,19 +1842,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>13.65</v>
+        <v>67.724</v>
       </c>
       <c r="C67">
-        <v>31.349</v>
+        <v>54.274</v>
       </c>
       <c r="D67">
-        <v>49.676</v>
+        <v>38.553</v>
       </c>
       <c r="E67">
-        <v>9.753</v>
+        <v>32.292</v>
       </c>
       <c r="F67">
-        <v>87.785</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1862,19 +1862,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>11.031</v>
+        <v>126.921</v>
       </c>
       <c r="C68">
-        <v>47.701</v>
+        <v>79.197</v>
       </c>
       <c r="D68">
-        <v>2.187</v>
+        <v>19.772</v>
       </c>
       <c r="E68">
-        <v>5.082</v>
+        <v>22.257</v>
       </c>
       <c r="F68">
-        <v>27.126</v>
+        <v>23.194</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1882,19 +1882,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>15.073</v>
+        <v>73.90900000000001</v>
       </c>
       <c r="C69">
-        <v>41.62</v>
+        <v>53.267</v>
       </c>
       <c r="D69">
-        <v>71.151</v>
+        <v>72.58499999999999</v>
       </c>
       <c r="E69">
-        <v>5.618</v>
+        <v>81.58499999999999</v>
       </c>
       <c r="F69">
-        <v>40.549</v>
+        <v>38.681</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1902,19 +1902,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>17.136</v>
+        <v>24.796</v>
       </c>
       <c r="C70">
-        <v>137.963</v>
+        <v>5.456</v>
       </c>
       <c r="D70">
-        <v>71.908</v>
+        <v>71.057</v>
       </c>
       <c r="E70">
-        <v>19.773</v>
+        <v>90.32299999999999</v>
       </c>
       <c r="F70">
-        <v>39.613</v>
+        <v>16.604</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1922,19 +1922,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>16.119</v>
+        <v>5.805</v>
       </c>
       <c r="C71">
-        <v>81.61</v>
+        <v>8.574</v>
       </c>
       <c r="D71">
-        <v>44.227</v>
+        <v>74.09399999999999</v>
       </c>
       <c r="E71">
-        <v>23.473</v>
+        <v>66.746</v>
       </c>
       <c r="F71">
-        <v>111.342</v>
+        <v>35.796</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1942,19 +1942,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>19.207</v>
+        <v>13.985</v>
       </c>
       <c r="C72">
-        <v>7.745</v>
+        <v>49.021</v>
       </c>
       <c r="D72">
-        <v>14.604</v>
+        <v>10.72</v>
       </c>
       <c r="E72">
-        <v>4.745</v>
+        <v>-0.617</v>
       </c>
       <c r="F72">
-        <v>16.448</v>
+        <v>45.721</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1962,19 +1962,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6.188</v>
+        <v>7.801</v>
       </c>
       <c r="C73">
-        <v>116.525</v>
+        <v>24.683</v>
       </c>
       <c r="D73">
-        <v>32.085</v>
+        <v>70.34699999999999</v>
       </c>
       <c r="E73">
-        <v>12.575</v>
+        <v>48.252</v>
       </c>
       <c r="F73">
-        <v>97.78700000000001</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1982,19 +1982,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>11.74</v>
+        <v>315.286</v>
       </c>
       <c r="C74">
-        <v>-10.115</v>
+        <v>129.01</v>
       </c>
       <c r="D74">
-        <v>95.483</v>
+        <v>163.977</v>
       </c>
       <c r="E74">
-        <v>34.308</v>
+        <v>164.897</v>
       </c>
       <c r="F74">
-        <v>351.15</v>
+        <v>41.428</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2002,19 +2002,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7.379</v>
+        <v>243.399</v>
       </c>
       <c r="C75">
-        <v>118.575</v>
+        <v>56.297</v>
       </c>
       <c r="D75">
-        <v>121.262</v>
+        <v>46.358</v>
       </c>
       <c r="E75">
-        <v>2.941</v>
+        <v>70.34699999999999</v>
       </c>
       <c r="F75">
-        <v>321.716</v>
+        <v>42.801</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2022,19 +2022,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>21.213</v>
+        <v>153.99</v>
       </c>
       <c r="C76">
-        <v>53.096</v>
+        <v>135.154</v>
       </c>
       <c r="D76">
-        <v>76.021</v>
+        <v>92.19</v>
       </c>
       <c r="E76">
-        <v>20.003</v>
+        <v>56.165</v>
       </c>
       <c r="F76">
-        <v>188.326</v>
+        <v>11.141</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2042,19 +2042,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>17.137</v>
+        <v>288.645</v>
       </c>
       <c r="C77">
-        <v>80.809</v>
+        <v>197.25</v>
       </c>
       <c r="D77">
-        <v>3.312</v>
+        <v>47.232</v>
       </c>
       <c r="E77">
-        <v>10.38</v>
+        <v>38.692</v>
       </c>
       <c r="F77">
-        <v>58.044</v>
+        <v>56.652</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2062,19 +2062,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>23.427</v>
+        <v>168.059</v>
       </c>
       <c r="C78">
-        <v>70.503</v>
+        <v>132.645</v>
       </c>
       <c r="D78">
-        <v>108.901</v>
+        <v>173.654</v>
       </c>
       <c r="E78">
-        <v>11.484</v>
+        <v>141.999</v>
       </c>
       <c r="F78">
-        <v>86.874</v>
+        <v>94.66</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2082,19 +2082,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>26.636</v>
+        <v>56.342</v>
       </c>
       <c r="C79">
-        <v>233.782</v>
+        <v>13.523</v>
       </c>
       <c r="D79">
-        <v>110.06</v>
+        <v>169.997</v>
       </c>
       <c r="E79">
-        <v>40.649</v>
+        <v>157.215</v>
       </c>
       <c r="F79">
-        <v>84.864</v>
+        <v>40.478</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2102,19 +2102,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>25.054</v>
+        <v>13.143</v>
       </c>
       <c r="C80">
-        <v>138.277</v>
+        <v>21.292</v>
       </c>
       <c r="D80">
-        <v>67.678</v>
+        <v>177.267</v>
       </c>
       <c r="E80">
-        <v>48.274</v>
+        <v>116.16</v>
       </c>
       <c r="F80">
-        <v>238.921</v>
+        <v>87.57899999999999</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2122,19 +2122,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>29.859</v>
+        <v>31.75</v>
       </c>
       <c r="C81">
-        <v>13.093</v>
+        <v>122.066</v>
       </c>
       <c r="D81">
-        <v>22.323</v>
+        <v>25.564</v>
       </c>
       <c r="E81">
-        <v>9.686999999999999</v>
+        <v>-1.138</v>
       </c>
       <c r="F81">
-        <v>35.111</v>
+        <v>111.937</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2142,19 +2142,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>9.6</v>
+        <v>17.683</v>
       </c>
       <c r="C82">
-        <v>197.45</v>
+        <v>61.427</v>
       </c>
       <c r="D82">
-        <v>49.088</v>
+        <v>168.297</v>
       </c>
       <c r="E82">
-        <v>25.819</v>
+        <v>83.95699999999999</v>
       </c>
       <c r="F82">
-        <v>209.808</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2162,19 +2162,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>19.04</v>
+        <v>742.2380000000001</v>
       </c>
       <c r="C83">
-        <v>-21.283</v>
+        <v>261.279</v>
       </c>
       <c r="D83">
-        <v>148.425</v>
+        <v>356.773</v>
       </c>
       <c r="E83">
-        <v>78.715</v>
+        <v>308.564</v>
       </c>
       <c r="F83">
-        <v>545.372</v>
+        <v>82.44199999999999</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2182,19 +2182,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>11.955</v>
+        <v>572.989</v>
       </c>
       <c r="C84">
-        <v>248.831</v>
+        <v>113.989</v>
       </c>
       <c r="D84">
-        <v>188.508</v>
+        <v>100.804</v>
       </c>
       <c r="E84">
-        <v>6.645</v>
+        <v>131.594</v>
       </c>
       <c r="F84">
-        <v>499.65</v>
+        <v>85.181</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2202,19 +2202,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>34.427</v>
+        <v>362.486</v>
       </c>
       <c r="C85">
-        <v>111.394</v>
+        <v>273.725</v>
       </c>
       <c r="D85">
-        <v>118.164</v>
+        <v>200.546</v>
       </c>
       <c r="E85">
-        <v>45.847</v>
+        <v>105.049</v>
       </c>
       <c r="F85">
-        <v>292.442</v>
+        <v>22.034</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2222,19 +2222,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>27.806</v>
+        <v>679.515</v>
       </c>
       <c r="C86">
-        <v>169.562</v>
+        <v>399.509</v>
       </c>
       <c r="D86">
-        <v>5.111</v>
+        <v>102.706</v>
       </c>
       <c r="E86">
-        <v>23.737</v>
+        <v>72.345</v>
       </c>
       <c r="F86">
-        <v>90.06100000000001</v>
+        <v>112.808</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2242,19 +2242,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>38.023</v>
+        <v>395.61</v>
       </c>
       <c r="C87">
-        <v>147.93</v>
+        <v>268.642</v>
       </c>
       <c r="D87">
-        <v>169.288</v>
+        <v>377.832</v>
       </c>
       <c r="E87">
-        <v>26.274</v>
+        <v>265.706</v>
       </c>
       <c r="F87">
-        <v>134.846</v>
+        <v>188.616</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2262,19 +2262,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>43.235</v>
+        <v>132.585</v>
       </c>
       <c r="C88">
-        <v>490.644</v>
+        <v>27.344</v>
       </c>
       <c r="D88">
-        <v>171.09</v>
+        <v>369.874</v>
       </c>
       <c r="E88">
-        <v>93.285</v>
+        <v>294.186</v>
       </c>
       <c r="F88">
-        <v>131.724</v>
+        <v>80.548</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2282,19 +2282,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>40.666</v>
+        <v>30.878</v>
       </c>
       <c r="C89">
-        <v>290.184</v>
+        <v>43.082</v>
       </c>
       <c r="D89">
-        <v>105.191</v>
+        <v>385.695</v>
       </c>
       <c r="E89">
-        <v>110.805</v>
+        <v>217.343</v>
       </c>
       <c r="F89">
-        <v>371.036</v>
+        <v>174.492</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2302,19 +2302,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>48.471</v>
+        <v>74.68600000000001</v>
       </c>
       <c r="C90">
-        <v>27.43</v>
+        <v>247.213</v>
       </c>
       <c r="D90">
-        <v>34.671</v>
+        <v>55.551</v>
       </c>
       <c r="E90">
-        <v>22.146</v>
+        <v>-2.205</v>
       </c>
       <c r="F90">
-        <v>54.437</v>
+        <v>223.075</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2322,19 +2322,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>15.562</v>
+        <v>41.567</v>
       </c>
       <c r="C91">
-        <v>414.386</v>
+        <v>124.38</v>
       </c>
       <c r="D91">
-        <v>76.28700000000001</v>
+        <v>366.174</v>
       </c>
       <c r="E91">
-        <v>59.211</v>
+        <v>157.068</v>
       </c>
       <c r="F91">
-        <v>325.812</v>
+        <v>25.902</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2342,19 +2342,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>31.411</v>
+        <v>742.193</v>
       </c>
       <c r="C92">
-        <v>-47.147</v>
+        <v>262.346</v>
       </c>
       <c r="D92">
-        <v>232.225</v>
+        <v>357.377</v>
       </c>
       <c r="E92">
-        <v>184.688</v>
+        <v>308.802</v>
       </c>
       <c r="F92">
-        <v>749.952</v>
+        <v>82.991</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2362,19 +2362,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>19.71</v>
+        <v>572.353</v>
       </c>
       <c r="C93">
-        <v>550.499</v>
+        <v>115.077</v>
       </c>
       <c r="D93">
-        <v>294.949</v>
+        <v>101.211</v>
       </c>
       <c r="E93">
-        <v>15.484</v>
+        <v>131.898</v>
       </c>
       <c r="F93">
-        <v>687.074</v>
+        <v>85.498</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2382,19 +2382,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>56.82</v>
+        <v>362.347</v>
       </c>
       <c r="C94">
-        <v>246.41</v>
+        <v>273.646</v>
       </c>
       <c r="D94">
-        <v>184.871</v>
+        <v>199.868</v>
       </c>
       <c r="E94">
-        <v>107.521</v>
+        <v>105.102</v>
       </c>
       <c r="F94">
-        <v>402.111</v>
+        <v>21.877</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2402,19 +2402,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>45.886</v>
+        <v>679.317</v>
       </c>
       <c r="C95">
-        <v>375.111</v>
+        <v>400.418</v>
       </c>
       <c r="D95">
-        <v>7.959</v>
+        <v>101.729</v>
       </c>
       <c r="E95">
-        <v>55.612</v>
+        <v>71.878</v>
       </c>
       <c r="F95">
-        <v>123.786</v>
+        <v>113.855</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2422,19 +2422,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>62.758</v>
+        <v>395.741</v>
       </c>
       <c r="C96">
-        <v>327.248</v>
+        <v>269.291</v>
       </c>
       <c r="D96">
-        <v>264.872</v>
+        <v>377.673</v>
       </c>
       <c r="E96">
-        <v>61.568</v>
+        <v>266.122</v>
       </c>
       <c r="F96">
-        <v>185.376</v>
+        <v>189.548</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2442,19 +2442,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>71.36499999999999</v>
+        <v>133.167</v>
       </c>
       <c r="C97">
-        <v>1085.527</v>
+        <v>27.223</v>
       </c>
       <c r="D97">
-        <v>267.692</v>
+        <v>369.001</v>
       </c>
       <c r="E97">
-        <v>218.895</v>
+        <v>293.303</v>
       </c>
       <c r="F97">
-        <v>181.083</v>
+        <v>81.342</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2462,19 +2462,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>67.123</v>
+        <v>31.787</v>
       </c>
       <c r="C98">
-        <v>641.995</v>
+        <v>42.897</v>
       </c>
       <c r="D98">
-        <v>164.569</v>
+        <v>385.81</v>
       </c>
       <c r="E98">
-        <v>260.028</v>
+        <v>218.113</v>
       </c>
       <c r="F98">
-        <v>510.197</v>
+        <v>174.555</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2482,19 +2482,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>80.012</v>
+        <v>73.992</v>
       </c>
       <c r="C99">
-        <v>60.634</v>
+        <v>246.943</v>
       </c>
       <c r="D99">
-        <v>54.216</v>
+        <v>54.46</v>
       </c>
       <c r="E99">
-        <v>51.877</v>
+        <v>-1.567</v>
       </c>
       <c r="F99">
-        <v>74.794</v>
+        <v>223.307</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2502,19 +2502,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>25.666</v>
+        <v>41.104</v>
       </c>
       <c r="C100">
-        <v>916.802</v>
+        <v>125.113</v>
       </c>
       <c r="D100">
-        <v>119.339</v>
+        <v>365.097</v>
       </c>
       <c r="E100">
-        <v>138.897</v>
+        <v>157.557</v>
       </c>
       <c r="F100">
-        <v>448.003</v>
+        <v>26.81</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2522,19 +2522,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>58.669</v>
+        <v>1280.467</v>
       </c>
       <c r="C101">
-        <v>-115.743</v>
+        <v>577.7</v>
       </c>
       <c r="D101">
-        <v>410.746</v>
+        <v>731.6849999999999</v>
       </c>
       <c r="E101">
-        <v>310.97</v>
+        <v>756.862</v>
       </c>
       <c r="F101">
-        <v>1311.508</v>
+        <v>131.54</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2542,19 +2542,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>36.794</v>
+        <v>987.789</v>
       </c>
       <c r="C102">
-        <v>1350.304</v>
+        <v>253.06</v>
       </c>
       <c r="D102">
-        <v>521.702</v>
+        <v>207.037</v>
       </c>
       <c r="E102">
-        <v>26.02</v>
+        <v>323.111</v>
       </c>
       <c r="F102">
-        <v>1201.544</v>
+        <v>135.641</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2562,19 +2562,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>106.169</v>
+        <v>625.188</v>
       </c>
       <c r="C103">
-        <v>604.3630000000001</v>
+        <v>603.189</v>
       </c>
       <c r="D103">
-        <v>326.978</v>
+        <v>409.721</v>
       </c>
       <c r="E103">
-        <v>181.016</v>
+        <v>257.531</v>
       </c>
       <c r="F103">
-        <v>703.183</v>
+        <v>34.744</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2582,19 +2582,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>85.729</v>
+        <v>1172.077</v>
       </c>
       <c r="C104">
-        <v>920.071</v>
+        <v>882.136</v>
       </c>
       <c r="D104">
-        <v>14.027</v>
+        <v>208.846</v>
       </c>
       <c r="E104">
-        <v>93.598</v>
+        <v>176.317</v>
       </c>
       <c r="F104">
-        <v>216.432</v>
+        <v>180.355</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2602,19 +2602,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>117.27</v>
+        <v>682.646</v>
       </c>
       <c r="C105">
-        <v>802.6609999999999</v>
+        <v>593.22</v>
       </c>
       <c r="D105">
-        <v>468.497</v>
+        <v>773.673</v>
       </c>
       <c r="E105">
-        <v>103.628</v>
+        <v>652.14</v>
       </c>
       <c r="F105">
-        <v>324.144</v>
+        <v>300.736</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2622,19 +2622,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>133.36</v>
+        <v>229.378</v>
       </c>
       <c r="C106">
-        <v>2662.748</v>
+        <v>60.013</v>
       </c>
       <c r="D106">
-        <v>473.485</v>
+        <v>756.295</v>
       </c>
       <c r="E106">
-        <v>368.577</v>
+        <v>719.385</v>
       </c>
       <c r="F106">
-        <v>316.636</v>
+        <v>128.797</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2642,19 +2642,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>125.43</v>
+        <v>54.283</v>
       </c>
       <c r="C107">
-        <v>1574.747</v>
+        <v>94.596</v>
       </c>
       <c r="D107">
-        <v>291.064</v>
+        <v>790.194</v>
       </c>
       <c r="E107">
-        <v>437.848</v>
+        <v>534.27</v>
       </c>
       <c r="F107">
-        <v>892.21</v>
+        <v>277.335</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2662,19 +2662,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>149.525</v>
+        <v>128.02</v>
       </c>
       <c r="C108">
-        <v>148.648</v>
+        <v>544.423</v>
       </c>
       <c r="D108">
-        <v>95.854</v>
+        <v>112.077</v>
       </c>
       <c r="E108">
-        <v>87.30800000000001</v>
+        <v>-4.265</v>
       </c>
       <c r="F108">
-        <v>130.752</v>
+        <v>354.749</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2682,19 +2682,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>47.928</v>
+        <v>71.146</v>
       </c>
       <c r="C109">
-        <v>2248.86</v>
+        <v>275.362</v>
       </c>
       <c r="D109">
-        <v>211.054</v>
+        <v>748.408</v>
       </c>
       <c r="E109">
-        <v>233.855</v>
+        <v>385.933</v>
       </c>
       <c r="F109">
-        <v>783.442</v>
+        <v>42.054</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2702,19 +2702,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>113.762</v>
+        <v>1280.208</v>
       </c>
       <c r="C110">
-        <v>-289.151</v>
+        <v>577.883</v>
       </c>
       <c r="D110">
-        <v>756.824</v>
+        <v>731.146</v>
       </c>
       <c r="E110">
-        <v>471.452</v>
+        <v>756.86</v>
       </c>
       <c r="F110">
-        <v>2497.34</v>
+        <v>132.208</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2722,19 +2722,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>71.322</v>
+        <v>987.124</v>
       </c>
       <c r="C111">
-        <v>3372.07</v>
+        <v>253.938</v>
       </c>
       <c r="D111">
-        <v>961.282</v>
+        <v>206.884</v>
       </c>
       <c r="E111">
-        <v>39.412</v>
+        <v>324.06</v>
       </c>
       <c r="F111">
-        <v>2287.948</v>
+        <v>135.309</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2742,19 +2742,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>205.915</v>
+        <v>625.976</v>
       </c>
       <c r="C112">
-        <v>1509.2</v>
+        <v>602.4059999999999</v>
       </c>
       <c r="D112">
-        <v>602.465</v>
+        <v>409.146</v>
       </c>
       <c r="E112">
-        <v>274.416</v>
+        <v>258.391</v>
       </c>
       <c r="F112">
-        <v>1338.969</v>
+        <v>35.719</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2762,19 +2762,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>166.26</v>
+        <v>1171.49</v>
       </c>
       <c r="C113">
-        <v>2297.631</v>
+        <v>882.58</v>
       </c>
       <c r="D113">
-        <v>25.791</v>
+        <v>209.262</v>
       </c>
       <c r="E113">
-        <v>141.873</v>
+        <v>177.151</v>
       </c>
       <c r="F113">
-        <v>412.098</v>
+        <v>179.528</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2782,19 +2782,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>227.452</v>
+        <v>683.596</v>
       </c>
       <c r="C114">
-        <v>2004.418</v>
+        <v>593.905</v>
       </c>
       <c r="D114">
-        <v>863.242</v>
+        <v>774.171</v>
       </c>
       <c r="E114">
-        <v>157.081</v>
+        <v>652.611</v>
       </c>
       <c r="F114">
-        <v>617.203</v>
+        <v>301.628</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2802,19 +2802,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>258.668</v>
+        <v>229.094</v>
       </c>
       <c r="C115">
-        <v>6649.692</v>
+        <v>59.055</v>
       </c>
       <c r="D115">
-        <v>872.433</v>
+        <v>755.974</v>
       </c>
       <c r="E115">
-        <v>558.796</v>
+        <v>720.218</v>
       </c>
       <c r="F115">
-        <v>602.9059999999999</v>
+        <v>128.125</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2822,19 +2822,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>243.283</v>
+        <v>53.297</v>
       </c>
       <c r="C116">
-        <v>3932.581</v>
+        <v>94.667</v>
       </c>
       <c r="D116">
-        <v>536.2859999999999</v>
+        <v>790.636</v>
       </c>
       <c r="E116">
-        <v>663.825</v>
+        <v>533.375</v>
       </c>
       <c r="F116">
-        <v>1698.914</v>
+        <v>277.848</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2842,19 +2842,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>290.029</v>
+        <v>128.973</v>
       </c>
       <c r="C117">
-        <v>371.124</v>
+        <v>544.635</v>
       </c>
       <c r="D117">
-        <v>176.574</v>
+        <v>112.417</v>
       </c>
       <c r="E117">
-        <v>132.336</v>
+        <v>-4.603</v>
       </c>
       <c r="F117">
-        <v>248.947</v>
+        <v>354.279</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2862,19 +2862,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>92.923</v>
+        <v>71.702</v>
       </c>
       <c r="C118">
-        <v>5616.072</v>
+        <v>275.917</v>
       </c>
       <c r="D118">
-        <v>388.852</v>
+        <v>749.025</v>
       </c>
       <c r="E118">
-        <v>354.531</v>
+        <v>386.551</v>
       </c>
       <c r="F118">
-        <v>1491.798</v>
+        <v>42.539</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2882,19 +2882,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>267.653</v>
+        <v>3001.35</v>
       </c>
       <c r="C119">
-        <v>-670.799</v>
+        <v>1241.672</v>
       </c>
       <c r="D119">
-        <v>1110.47</v>
+        <v>1360.6</v>
       </c>
       <c r="E119">
-        <v>979.823</v>
+        <v>1418.33</v>
       </c>
       <c r="F119">
-        <v>4801.979</v>
+        <v>294.16</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2902,19 +2902,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>167.768</v>
+        <v>2314.618</v>
       </c>
       <c r="C120">
-        <v>7821.675</v>
+        <v>545.0170000000001</v>
       </c>
       <c r="D120">
-        <v>1410.474</v>
+        <v>384.888</v>
       </c>
       <c r="E120">
-        <v>81.84699999999999</v>
+        <v>606.633</v>
       </c>
       <c r="F120">
-        <v>4399.351</v>
+        <v>301.519</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2922,19 +2922,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>484.54</v>
+        <v>1467.174</v>
       </c>
       <c r="C121">
-        <v>3500.61</v>
+        <v>1295.171</v>
       </c>
       <c r="D121">
-        <v>883.976</v>
+        <v>761.7670000000001</v>
       </c>
       <c r="E121">
-        <v>570.292</v>
+        <v>483.662</v>
       </c>
       <c r="F121">
-        <v>2574.612</v>
+        <v>79.105</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2942,19 +2942,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>391.21</v>
+        <v>2746.662</v>
       </c>
       <c r="C122">
-        <v>5329.434</v>
+        <v>1896.465</v>
       </c>
       <c r="D122">
-        <v>37.812</v>
+        <v>389.387</v>
       </c>
       <c r="E122">
-        <v>294.807</v>
+        <v>331.522</v>
       </c>
       <c r="F122">
-        <v>792.383</v>
+        <v>400.079</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2962,19 +2962,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>535.229</v>
+        <v>1602.099</v>
       </c>
       <c r="C123">
-        <v>4649.305</v>
+        <v>1275.93</v>
       </c>
       <c r="D123">
-        <v>1266.619</v>
+        <v>1440.332</v>
       </c>
       <c r="E123">
-        <v>326.417</v>
+        <v>1222.641</v>
       </c>
       <c r="F123">
-        <v>1186.768</v>
+        <v>671.751</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2982,19 +2982,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>608.698</v>
+        <v>536.944</v>
       </c>
       <c r="C124">
-        <v>15424.363</v>
+        <v>127.427</v>
       </c>
       <c r="D124">
-        <v>1280.105</v>
+        <v>1407.078</v>
       </c>
       <c r="E124">
-        <v>1161.364</v>
+        <v>1349.377</v>
       </c>
       <c r="F124">
-        <v>1159.277</v>
+        <v>285.476</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3002,19 +3002,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>572.4880000000001</v>
+        <v>124.995</v>
       </c>
       <c r="C125">
-        <v>9121.822</v>
+        <v>203.422</v>
       </c>
       <c r="D125">
-        <v>786.87</v>
+        <v>1470.928</v>
       </c>
       <c r="E125">
-        <v>1379.662</v>
+        <v>999.919</v>
       </c>
       <c r="F125">
-        <v>3266.73</v>
+        <v>619.136</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3022,19 +3022,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>682.5069999999999</v>
+        <v>302.128</v>
       </c>
       <c r="C126">
-        <v>860.758</v>
+        <v>1170.502</v>
       </c>
       <c r="D126">
-        <v>259.059</v>
+        <v>209.243</v>
       </c>
       <c r="E126">
-        <v>274.985</v>
+        <v>-8.624000000000001</v>
       </c>
       <c r="F126">
-        <v>478.669</v>
+        <v>789.883</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3042,19 +3042,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>218.607</v>
+        <v>167.952</v>
       </c>
       <c r="C127">
-        <v>13026.805</v>
+        <v>592.516</v>
       </c>
       <c r="D127">
-        <v>570.538</v>
+        <v>1393.721</v>
       </c>
       <c r="E127">
-        <v>736.808</v>
+        <v>723.91</v>
       </c>
       <c r="F127">
-        <v>2868.478</v>
+        <v>94.161</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3062,19 +3062,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>654.074</v>
+        <v>3001.034</v>
       </c>
       <c r="C128">
-        <v>-1535.473</v>
+        <v>1241.419</v>
       </c>
       <c r="D128">
-        <v>1475.22</v>
+        <v>1361.373</v>
       </c>
       <c r="E128">
-        <v>2211.261</v>
+        <v>1417.967</v>
       </c>
       <c r="F128">
-        <v>9257.903</v>
+        <v>294.978</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3082,19 +3082,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>409.944</v>
+        <v>2315.448</v>
       </c>
       <c r="C129">
-        <v>17902.835</v>
+        <v>545.035</v>
       </c>
       <c r="D129">
-        <v>1873.77</v>
+        <v>385.585</v>
       </c>
       <c r="E129">
-        <v>184.642</v>
+        <v>607.169</v>
       </c>
       <c r="F129">
-        <v>8481.662</v>
+        <v>302.186</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3102,19 +3102,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1184.169</v>
+        <v>1467.399</v>
       </c>
       <c r="C130">
-        <v>8012.408</v>
+        <v>1295.514</v>
       </c>
       <c r="D130">
-        <v>1174.326</v>
+        <v>762.032</v>
       </c>
       <c r="E130">
-        <v>1287.001</v>
+        <v>484.475</v>
       </c>
       <c r="F130">
-        <v>4963.68</v>
+        <v>79.087</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3122,19 +3122,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>956.061</v>
+        <v>2747.121</v>
       </c>
       <c r="C131">
-        <v>12198.378</v>
+        <v>1897.306</v>
       </c>
       <c r="D131">
-        <v>50.21</v>
+        <v>389.498</v>
       </c>
       <c r="E131">
-        <v>665.266</v>
+        <v>331.647</v>
       </c>
       <c r="F131">
-        <v>1527.654</v>
+        <v>399.845</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3142,19 +3142,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1308.059</v>
+        <v>1602.996</v>
       </c>
       <c r="C132">
-        <v>10641.64</v>
+        <v>1275.278</v>
       </c>
       <c r="D132">
-        <v>1682.662</v>
+        <v>1440.959</v>
       </c>
       <c r="E132">
-        <v>736.606</v>
+        <v>1222.568</v>
       </c>
       <c r="F132">
-        <v>2288.004</v>
+        <v>670.939</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3162,19 +3162,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1487.626</v>
+        <v>536.74</v>
       </c>
       <c r="C133">
-        <v>35304.524</v>
+        <v>126.859</v>
       </c>
       <c r="D133">
-        <v>1700.577</v>
+        <v>1407.73</v>
       </c>
       <c r="E133">
-        <v>2620.976</v>
+        <v>1348.528</v>
       </c>
       <c r="F133">
-        <v>2235.003</v>
+        <v>286.211</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3182,19 +3182,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1399.124</v>
+        <v>124.502</v>
       </c>
       <c r="C134">
-        <v>20878.724</v>
+        <v>203.233</v>
       </c>
       <c r="D134">
-        <v>1045.322</v>
+        <v>1470.432</v>
       </c>
       <c r="E134">
-        <v>3113.647</v>
+        <v>999.496</v>
       </c>
       <c r="F134">
-        <v>6298.04</v>
+        <v>618.2569999999999</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3202,19 +3202,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1668.023</v>
+        <v>301.939</v>
       </c>
       <c r="C135">
-        <v>1970.087</v>
+        <v>1170.694</v>
       </c>
       <c r="D135">
-        <v>344.134</v>
+        <v>208.632</v>
       </c>
       <c r="E135">
-        <v>620.53</v>
+        <v>-8.334</v>
       </c>
       <c r="F135">
-        <v>922.833</v>
+        <v>789.313</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3222,19 +3222,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>534.2</v>
+        <v>168.325</v>
       </c>
       <c r="C136">
-        <v>29816.786</v>
+        <v>593.121</v>
       </c>
       <c r="D136">
-        <v>757.929</v>
+        <v>1393.773</v>
       </c>
       <c r="E136">
-        <v>1662.806</v>
+        <v>724.354</v>
       </c>
       <c r="F136">
-        <v>5530.235</v>
+        <v>94.13500000000001</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3242,19 +3242,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1349.839</v>
+        <v>6303.696</v>
       </c>
       <c r="C137">
-        <v>-3026.649</v>
+        <v>2930.581</v>
       </c>
       <c r="D137">
-        <v>2037.641</v>
+        <v>2892.01</v>
       </c>
       <c r="E137">
-        <v>4515.132</v>
+        <v>2792.631</v>
       </c>
       <c r="F137">
-        <v>18944.54</v>
+        <v>722.829</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3262,19 +3262,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>845.99</v>
+        <v>4863.158</v>
       </c>
       <c r="C138">
-        <v>35288.323</v>
+        <v>1286.274</v>
       </c>
       <c r="D138">
-        <v>2588.142</v>
+        <v>818.8</v>
       </c>
       <c r="E138">
-        <v>376.96</v>
+        <v>1195.104</v>
       </c>
       <c r="F138">
-        <v>17356.11</v>
+        <v>740.796</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3282,19 +3282,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>2443.877</v>
+        <v>3081.891</v>
       </c>
       <c r="C139">
-        <v>15793.239</v>
+        <v>3058.335</v>
       </c>
       <c r="D139">
-        <v>1622.027</v>
+        <v>1619.072</v>
       </c>
       <c r="E139">
-        <v>2627.877</v>
+        <v>953.393</v>
       </c>
       <c r="F139">
-        <v>10157.226</v>
+        <v>193.638</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3302,19 +3302,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1973.096</v>
+        <v>5770</v>
       </c>
       <c r="C140">
-        <v>24044.231</v>
+        <v>4478.327</v>
       </c>
       <c r="D140">
-        <v>69.327</v>
+        <v>827.424</v>
       </c>
       <c r="E140">
-        <v>1358.351</v>
+        <v>652.793</v>
       </c>
       <c r="F140">
-        <v>3126.048</v>
+        <v>980.885</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3322,19 +3322,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>2699.568</v>
+        <v>3366.253</v>
       </c>
       <c r="C141">
-        <v>20975.735</v>
+        <v>3010.644</v>
       </c>
       <c r="D141">
-        <v>2324.173</v>
+        <v>3060.989</v>
       </c>
       <c r="E141">
-        <v>1504.021</v>
+        <v>2407.506</v>
       </c>
       <c r="F141">
-        <v>4681.961</v>
+        <v>1646.078</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3342,19 +3342,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>3070.168</v>
+        <v>1127.427</v>
       </c>
       <c r="C142">
-        <v>69588.902</v>
+        <v>299.978</v>
       </c>
       <c r="D142">
-        <v>2348.917</v>
+        <v>2990.705</v>
       </c>
       <c r="E142">
-        <v>5351.733</v>
+        <v>2655.953</v>
       </c>
       <c r="F142">
-        <v>4573.504</v>
+        <v>701.553</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3362,19 +3362,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>2887.513</v>
+        <v>261.787</v>
       </c>
       <c r="C143">
-        <v>41154.116</v>
+        <v>479.82</v>
       </c>
       <c r="D143">
-        <v>1443.838</v>
+        <v>3124.104</v>
       </c>
       <c r="E143">
-        <v>6357.723</v>
+        <v>1968.743</v>
       </c>
       <c r="F143">
-        <v>12887.741</v>
+        <v>1517.041</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3382,19 +3382,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>3442.481</v>
+        <v>634.191</v>
       </c>
       <c r="C144">
-        <v>3883.183</v>
+        <v>2763.515</v>
       </c>
       <c r="D144">
-        <v>475.314</v>
+        <v>443.526</v>
       </c>
       <c r="E144">
-        <v>1267.004</v>
+        <v>-16.591</v>
       </c>
       <c r="F144">
-        <v>1888.396</v>
+        <v>1936.706</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3402,19 +3402,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1102.436</v>
+        <v>353.257</v>
       </c>
       <c r="C145">
-        <v>58771.987</v>
+        <v>1399.599</v>
       </c>
       <c r="D145">
-        <v>1046.874</v>
+        <v>2961.1</v>
       </c>
       <c r="E145">
-        <v>3395.237</v>
+        <v>1426.019</v>
       </c>
       <c r="F145">
-        <v>11316.573</v>
+        <v>230.495</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3422,19 +3422,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>2684.045</v>
+        <v>6303.193</v>
       </c>
       <c r="C146">
-        <v>-5752.727</v>
+        <v>2930.157</v>
       </c>
       <c r="D146">
-        <v>2873.097</v>
+        <v>2891.48</v>
       </c>
       <c r="E146">
-        <v>9008.814</v>
+        <v>2791.955</v>
       </c>
       <c r="F146">
-        <v>39334.84</v>
+        <v>722.268</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3442,19 +3442,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1682.156</v>
+        <v>4862.458</v>
       </c>
       <c r="C147">
-        <v>67071.41800000001</v>
+        <v>1287.057</v>
       </c>
       <c r="D147">
-        <v>3649.316</v>
+        <v>818.787</v>
       </c>
       <c r="E147">
-        <v>752.075</v>
+        <v>1195.559</v>
       </c>
       <c r="F147">
-        <v>36036.758</v>
+        <v>740.342</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3462,19 +3462,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>4859.506</v>
+        <v>3082.095</v>
       </c>
       <c r="C148">
-        <v>30017.683</v>
+        <v>3059.14</v>
       </c>
       <c r="D148">
-        <v>2287.071</v>
+        <v>1618.363</v>
       </c>
       <c r="E148">
-        <v>5243.245</v>
+        <v>953.042</v>
       </c>
       <c r="F148">
-        <v>21089.603</v>
+        <v>193.344</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3482,19 +3482,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>3923.372</v>
+        <v>5769.276</v>
       </c>
       <c r="C149">
-        <v>45700.101</v>
+        <v>4478.268</v>
       </c>
       <c r="D149">
-        <v>97.72499999999999</v>
+        <v>827.33</v>
       </c>
       <c r="E149">
-        <v>2710.208</v>
+        <v>652.606</v>
       </c>
       <c r="F149">
-        <v>6490.657</v>
+        <v>980.434</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3502,19 +3502,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5367.94</v>
+        <v>3366.869</v>
       </c>
       <c r="C150">
-        <v>39867.901</v>
+        <v>3011.31</v>
       </c>
       <c r="D150">
-        <v>3277.114</v>
+        <v>3060.717</v>
       </c>
       <c r="E150">
-        <v>3000.858</v>
+        <v>2407.756</v>
       </c>
       <c r="F150">
-        <v>9721.224</v>
+        <v>1645.891</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3522,19 +3522,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6104.866</v>
+        <v>1127.891</v>
       </c>
       <c r="C151">
-        <v>132265.523</v>
+        <v>299.469</v>
       </c>
       <c r="D151">
-        <v>3312.003</v>
+        <v>2990.987</v>
       </c>
       <c r="E151">
-        <v>10678.052</v>
+        <v>2655.515</v>
       </c>
       <c r="F151">
-        <v>9496.032999999999</v>
+        <v>700.967</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3542,19 +3542,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5741.663</v>
+        <v>262.388</v>
       </c>
       <c r="C152">
-        <v>78220.35799999999</v>
+        <v>479.57</v>
       </c>
       <c r="D152">
-        <v>2035.819</v>
+        <v>3123.695</v>
       </c>
       <c r="E152">
-        <v>12685.267</v>
+        <v>1968.67</v>
       </c>
       <c r="F152">
-        <v>26759.014</v>
+        <v>1517.773</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3562,19 +3562,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6845.199</v>
+        <v>634.218</v>
       </c>
       <c r="C153">
-        <v>7380.589</v>
+        <v>2763.486</v>
       </c>
       <c r="D153">
-        <v>670.177</v>
+        <v>444.323</v>
       </c>
       <c r="E153">
-        <v>2527.947</v>
+        <v>-16.086</v>
       </c>
       <c r="F153">
-        <v>3920.901</v>
+        <v>1936.005</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3582,19 +3582,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>2192.091</v>
+        <v>352.513</v>
       </c>
       <c r="C154">
-        <v>111706.13</v>
+        <v>1400.265</v>
       </c>
       <c r="D154">
-        <v>1476.091</v>
+        <v>2960.91</v>
       </c>
       <c r="E154">
-        <v>6774.33</v>
+        <v>1426.495</v>
       </c>
       <c r="F154">
-        <v>23496.773</v>
+        <v>230.555</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3602,19 +3602,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6597.551</v>
+        <v>13425.561</v>
       </c>
       <c r="C155">
-        <v>-12166.349</v>
+        <v>4865.448</v>
       </c>
       <c r="D155">
-        <v>5831.723</v>
+        <v>5937.216</v>
       </c>
       <c r="E155">
-        <v>21268.044</v>
+        <v>5182.859</v>
       </c>
       <c r="F155">
-        <v>85253.44899999999</v>
+        <v>1834.649</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3622,19 +3622,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>4134.807</v>
+        <v>10356.788</v>
       </c>
       <c r="C156">
-        <v>141847.246</v>
+        <v>2136.405</v>
       </c>
       <c r="D156">
-        <v>7407.286</v>
+        <v>1681.01</v>
       </c>
       <c r="E156">
-        <v>1775.429</v>
+        <v>2218.646</v>
       </c>
       <c r="F156">
-        <v>78105.25999999999</v>
+        <v>1880.616</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3642,19 +3642,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>11945.053</v>
+        <v>6564.307</v>
       </c>
       <c r="C157">
-        <v>63483.416</v>
+        <v>5078.925</v>
       </c>
       <c r="D157">
-        <v>4642.212</v>
+        <v>3323.389</v>
       </c>
       <c r="E157">
-        <v>12378.24</v>
+        <v>1768.836</v>
       </c>
       <c r="F157">
-        <v>45709.13</v>
+        <v>491.005</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3662,19 +3662,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>9643.941000000001</v>
+        <v>12288.307</v>
       </c>
       <c r="C158">
-        <v>96649.69</v>
+        <v>7435.46</v>
       </c>
       <c r="D158">
-        <v>198.293</v>
+        <v>1698.74</v>
       </c>
       <c r="E158">
-        <v>6398.214</v>
+        <v>1211.269</v>
       </c>
       <c r="F158">
-        <v>14067.7</v>
+        <v>2490.745</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3682,19 +3682,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>13194.835</v>
+        <v>7170.42</v>
       </c>
       <c r="C159">
-        <v>84315.34600000001</v>
+        <v>4999.622</v>
       </c>
       <c r="D159">
-        <v>6651.793</v>
+        <v>6284.526</v>
       </c>
       <c r="E159">
-        <v>7084.385</v>
+        <v>4469.086</v>
       </c>
       <c r="F159">
-        <v>21069.559</v>
+        <v>4181.155</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3702,19 +3702,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>15006.273</v>
+        <v>2402.051</v>
       </c>
       <c r="C160">
-        <v>279724.299</v>
+        <v>497.739</v>
       </c>
       <c r="D160">
-        <v>6722.61</v>
+        <v>6141.203</v>
       </c>
       <c r="E160">
-        <v>25208.802</v>
+        <v>4929.516</v>
       </c>
       <c r="F160">
-        <v>20581.485</v>
+        <v>1780.646</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3722,19 +3722,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>14113.484</v>
+        <v>558.651</v>
       </c>
       <c r="C161">
-        <v>165425.804</v>
+        <v>796.437</v>
       </c>
       <c r="D161">
-        <v>4132.221</v>
+        <v>6414.147</v>
       </c>
       <c r="E161">
-        <v>29947.461</v>
+        <v>3654.481</v>
       </c>
       <c r="F161">
-        <v>57996.885</v>
+        <v>3855.226</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3742,19 +3742,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>16826.086</v>
+        <v>1350.777</v>
       </c>
       <c r="C162">
-        <v>15608.907</v>
+        <v>4588.436</v>
       </c>
       <c r="D162">
-        <v>1360.252</v>
+        <v>912.006</v>
       </c>
       <c r="E162">
-        <v>5967.93</v>
+        <v>-30.23</v>
       </c>
       <c r="F162">
-        <v>8498.069</v>
+        <v>4918.551</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3762,19 +3762,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5388.278</v>
+        <v>751.039</v>
       </c>
       <c r="C163">
-        <v>236243.857</v>
+        <v>2324.361</v>
       </c>
       <c r="D163">
-        <v>2996.09</v>
+        <v>6079.717</v>
       </c>
       <c r="E163">
-        <v>15992.845</v>
+        <v>2647.373</v>
       </c>
       <c r="F163">
-        <v>50926.377</v>
+        <v>585.301</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3782,19 +3782,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>16851.236</v>
+        <v>13425.715</v>
       </c>
       <c r="C164">
-        <v>-26378.646</v>
+        <v>4865.102</v>
       </c>
       <c r="D164">
-        <v>13099.944</v>
+        <v>5936.978</v>
       </c>
       <c r="E164">
-        <v>51860.278</v>
+        <v>5183.053</v>
       </c>
       <c r="F164">
-        <v>186501.544</v>
+        <v>1834.598</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3802,19 +3802,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>10560.94</v>
+        <v>10357.422</v>
       </c>
       <c r="C165">
-        <v>307547.113</v>
+        <v>2135.888</v>
       </c>
       <c r="D165">
-        <v>16639.192</v>
+        <v>1681.06</v>
       </c>
       <c r="E165">
-        <v>4329.153</v>
+        <v>2218.525</v>
       </c>
       <c r="F165">
-        <v>170864.074</v>
+        <v>1880.149</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3822,19 +3822,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>30509.729</v>
+        <v>6564.571</v>
       </c>
       <c r="C166">
-        <v>137641.973</v>
+        <v>5078.78</v>
       </c>
       <c r="D166">
-        <v>10427.899</v>
+        <v>3323.958</v>
       </c>
       <c r="E166">
-        <v>30183.228</v>
+        <v>1768.917</v>
       </c>
       <c r="F166">
-        <v>99993.88</v>
+        <v>491.291</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3842,19 +3842,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>24632.27</v>
+        <v>12288.159</v>
       </c>
       <c r="C167">
-        <v>209551.685</v>
+        <v>7435.215</v>
       </c>
       <c r="D167">
-        <v>445.351</v>
+        <v>1698.706</v>
       </c>
       <c r="E167">
-        <v>15601.43</v>
+        <v>1211.881</v>
       </c>
       <c r="F167">
-        <v>30774.678</v>
+        <v>2490.653</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3862,19 +3862,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>33701.899</v>
+        <v>7170.516</v>
       </c>
       <c r="C168">
-        <v>182808.882</v>
+        <v>4999.577</v>
       </c>
       <c r="D168">
-        <v>14942.098</v>
+        <v>6284.277</v>
       </c>
       <c r="E168">
-        <v>17274.602</v>
+        <v>4469.201</v>
       </c>
       <c r="F168">
-        <v>46092.036</v>
+        <v>4180.769</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3882,19 +3882,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>38328.641</v>
+        <v>2401.337</v>
       </c>
       <c r="C169">
-        <v>606486.3050000001</v>
+        <v>497.425</v>
       </c>
       <c r="D169">
-        <v>15101.177</v>
+        <v>6141.652</v>
       </c>
       <c r="E169">
-        <v>61469.489</v>
+        <v>4930.153</v>
       </c>
       <c r="F169">
-        <v>45024.319</v>
+        <v>1781.253</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3902,19 +3902,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>36048.296</v>
+        <v>558.014</v>
       </c>
       <c r="C170">
-        <v>358669.145</v>
+        <v>796.114</v>
       </c>
       <c r="D170">
-        <v>9282.286</v>
+        <v>6413.759</v>
       </c>
       <c r="E170">
-        <v>73024.31600000001</v>
+        <v>3655.102</v>
       </c>
       <c r="F170">
-        <v>126874.732</v>
+        <v>3855.585</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3922,19 +3922,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>42976.774</v>
+        <v>1350.711</v>
       </c>
       <c r="C171">
-        <v>33842.489</v>
+        <v>4588.945</v>
       </c>
       <c r="D171">
-        <v>3055.504</v>
+        <v>912.612</v>
       </c>
       <c r="E171">
-        <v>14552.219</v>
+        <v>-29.921</v>
       </c>
       <c r="F171">
-        <v>18590.482</v>
+        <v>4919.155</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3942,19 +3942,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>13762.533</v>
+        <v>751.554</v>
       </c>
       <c r="C172">
-        <v>512213.851</v>
+        <v>2323.985</v>
       </c>
       <c r="D172">
-        <v>6730.151</v>
+        <v>6079.335</v>
       </c>
       <c r="E172">
-        <v>38997.142</v>
+        <v>2647.365</v>
       </c>
       <c r="F172">
-        <v>111407.198</v>
+        <v>585.646</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3962,19 +3962,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>42523.738</v>
+        <v>29382.172</v>
       </c>
       <c r="C173">
-        <v>-41224.032</v>
+        <v>10483.24</v>
       </c>
       <c r="D173">
-        <v>29852.477</v>
+        <v>10407.572</v>
       </c>
       <c r="E173">
-        <v>123733.247</v>
+        <v>8247.743</v>
       </c>
       <c r="F173">
-        <v>420165.733</v>
+        <v>3781.635</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3982,19 +3982,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>26650.269</v>
+        <v>22666.904</v>
       </c>
       <c r="C174">
-        <v>480628.109</v>
+        <v>4602.068</v>
       </c>
       <c r="D174">
-        <v>37917.825</v>
+        <v>2946.721</v>
       </c>
       <c r="E174">
-        <v>10328.837</v>
+        <v>3530.009</v>
       </c>
       <c r="F174">
-        <v>384936.378</v>
+        <v>3875.804</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4002,19 +4002,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>76990.743</v>
+        <v>14366.239</v>
       </c>
       <c r="C175">
-        <v>215103.936</v>
+        <v>10943.166</v>
       </c>
       <c r="D175">
-        <v>23763.337</v>
+        <v>5826.717</v>
       </c>
       <c r="E175">
-        <v>72014.019</v>
+        <v>2814.659</v>
       </c>
       <c r="F175">
-        <v>225274.283</v>
+        <v>1012.403</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4022,19 +4022,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>62159.062</v>
+        <v>26892.767</v>
       </c>
       <c r="C176">
-        <v>327482.919</v>
+        <v>16020.829</v>
       </c>
       <c r="D176">
-        <v>1014.795</v>
+        <v>2977.789</v>
       </c>
       <c r="E176">
-        <v>37223.338</v>
+        <v>1928.077</v>
       </c>
       <c r="F176">
-        <v>69331.675</v>
+        <v>5134.125</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4042,19 +4042,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>85046.137</v>
+        <v>15692.235</v>
       </c>
       <c r="C177">
-        <v>285689.829</v>
+        <v>10772.533</v>
       </c>
       <c r="D177">
-        <v>34050.434</v>
+        <v>11016.296</v>
       </c>
       <c r="E177">
-        <v>41215.356</v>
+        <v>7111.516</v>
       </c>
       <c r="F177">
-        <v>103839.856</v>
+        <v>8618.196</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4062,19 +4062,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>96721.651</v>
+        <v>5255.545</v>
       </c>
       <c r="C178">
-        <v>947803.981</v>
+        <v>1072.21</v>
       </c>
       <c r="D178">
-        <v>34412.948</v>
+        <v>10765.848</v>
       </c>
       <c r="E178">
-        <v>146659.843</v>
+        <v>7845.063</v>
       </c>
       <c r="F178">
-        <v>101434.417</v>
+        <v>3671.316</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4082,19 +4082,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>90967.235</v>
+        <v>1221.419</v>
       </c>
       <c r="C179">
-        <v>560520.544</v>
+        <v>1715.604</v>
       </c>
       <c r="D179">
-        <v>21152.678</v>
+        <v>11243.496</v>
       </c>
       <c r="E179">
-        <v>174228.48</v>
+        <v>5816.065</v>
       </c>
       <c r="F179">
-        <v>285833.637</v>
+        <v>7947.243</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4102,19 +4102,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>108451.146</v>
+        <v>2956.006</v>
       </c>
       <c r="C180">
-        <v>52888.289</v>
+        <v>9887.691000000001</v>
       </c>
       <c r="D180">
-        <v>6962.893</v>
+        <v>1599.305</v>
       </c>
       <c r="E180">
-        <v>34720.028</v>
+        <v>-47.966</v>
       </c>
       <c r="F180">
-        <v>41882.135</v>
+        <v>10139.83</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4122,19 +4122,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>34729.442</v>
+        <v>1644.571</v>
       </c>
       <c r="C181">
-        <v>800476.976</v>
+        <v>5007.302</v>
       </c>
       <c r="D181">
-        <v>15336.794</v>
+        <v>10657.166</v>
       </c>
       <c r="E181">
-        <v>93043.118</v>
+        <v>4212.389</v>
       </c>
       <c r="F181">
-        <v>250987.127</v>
+        <v>1206.774</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4142,19 +4142,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>107105.396</v>
+        <v>29382.821</v>
       </c>
       <c r="C182">
-        <v>-57058.796</v>
+        <v>10483.015</v>
       </c>
       <c r="D182">
-        <v>68218.156</v>
+        <v>10408.008</v>
       </c>
       <c r="E182">
-        <v>294097.834</v>
+        <v>8247.231</v>
       </c>
       <c r="F182">
-        <v>952147.59</v>
+        <v>3780.991</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4162,19 +4162,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>67124.53</v>
+        <v>22666.937</v>
       </c>
       <c r="C183">
-        <v>665244.178</v>
+        <v>4601.416</v>
       </c>
       <c r="D183">
-        <v>86648.916</v>
+        <v>2946.366</v>
       </c>
       <c r="E183">
-        <v>24550.229</v>
+        <v>3530.614</v>
       </c>
       <c r="F183">
-        <v>872313.508</v>
+        <v>3875.706</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4182,19 +4182,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>193918.223</v>
+        <v>14365.951</v>
       </c>
       <c r="C184">
-        <v>297728.392</v>
+        <v>10942.939</v>
       </c>
       <c r="D184">
-        <v>54303.383</v>
+        <v>5827.275</v>
       </c>
       <c r="E184">
-        <v>171167.923</v>
+        <v>2814.753</v>
       </c>
       <c r="F184">
-        <v>510499.425</v>
+        <v>1013.005</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4202,19 +4202,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>156561.332</v>
+        <v>26893.408</v>
       </c>
       <c r="C185">
-        <v>453273.741</v>
+        <v>16021.469</v>
       </c>
       <c r="D185">
-        <v>2318.903</v>
+        <v>2977.326</v>
       </c>
       <c r="E185">
-        <v>88474.977</v>
+        <v>1927.968</v>
       </c>
       <c r="F185">
-        <v>157114.159</v>
+        <v>5134.755</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4222,19 +4222,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>214207.526</v>
+        <v>15691.986</v>
       </c>
       <c r="C186">
-        <v>395427.33</v>
+        <v>10772.376</v>
       </c>
       <c r="D186">
-        <v>77811.236</v>
+        <v>11016.476</v>
       </c>
       <c r="E186">
-        <v>97963.48699999999</v>
+        <v>7111.375</v>
       </c>
       <c r="F186">
-        <v>235313.972</v>
+        <v>8618.726000000001</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4242,19 +4242,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>243614.908</v>
+        <v>5256.013</v>
       </c>
       <c r="C187">
-        <v>1311868.951</v>
+        <v>1072.629</v>
       </c>
       <c r="D187">
-        <v>78639.64599999999</v>
+        <v>10766.471</v>
       </c>
       <c r="E187">
-        <v>348591.386</v>
+        <v>7844.686</v>
       </c>
       <c r="F187">
-        <v>229862.949</v>
+        <v>3671.928</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4262,19 +4262,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>229121.13</v>
+        <v>1221.462</v>
       </c>
       <c r="C188">
-        <v>775824.434</v>
+        <v>1715.237</v>
       </c>
       <c r="D188">
-        <v>48337.561</v>
+        <v>11244.052</v>
       </c>
       <c r="E188">
-        <v>414118.468</v>
+        <v>5816.724</v>
       </c>
       <c r="F188">
-        <v>647734.422</v>
+        <v>7946.661</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4282,19 +4282,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>273158.253</v>
+        <v>2955.855</v>
       </c>
       <c r="C189">
-        <v>73203.406</v>
+        <v>9887.915999999999</v>
       </c>
       <c r="D189">
-        <v>15911.369</v>
+        <v>1599.867</v>
       </c>
       <c r="E189">
-        <v>82524.933</v>
+        <v>-48.153</v>
       </c>
       <c r="F189">
-        <v>94910.102</v>
+        <v>10139.217</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4302,19 +4302,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>87473.726</v>
+        <v>1644.921</v>
       </c>
       <c r="C190">
-        <v>1107951.547</v>
+        <v>5007.391</v>
       </c>
       <c r="D190">
-        <v>35047.228</v>
+        <v>10656.675</v>
       </c>
       <c r="E190">
-        <v>221151.37</v>
+        <v>4213.031</v>
       </c>
       <c r="F190">
-        <v>568767.914</v>
+        <v>1206.568</v>
       </c>
     </row>
   </sheetData>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2171180539984884</v>
+        <v>0.002522128048703001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03117596359258873</v>
+        <v>0.002992747012257443</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4412,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.07193918542965723</v>
+        <v>0.003793333864902392</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4420,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0005515612695370706</v>
+        <v>0.0002810385159633442</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4428,7 +4428,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.006977540085693898</v>
+        <v>0.004099407095130593</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4436,7 +4436,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01893325373462972</v>
+        <v>0.0004696090531194076</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4444,7 +4444,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.006073567414402897</v>
+        <v>0.004374512784689901</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4452,7 +4452,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01565053698192044</v>
+        <v>0.001979102395656763</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4460,7 +4460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.005526898470910232</v>
+        <v>0.0003667396327611745</v>
       </c>
     </row>
   </sheetData>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2171180539984884</v>
+        <v>0.002522128048703001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.03117596359258873</v>
+        <v>0.002992747012257443</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.07193918542965723</v>
+        <v>0.003793333864902392</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0005515612695370706</v>
+        <v>0.0002810385159633442</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.006977540085693898</v>
+        <v>0.004099407095130593</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01893325373462972</v>
+        <v>0.0004696090531194076</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.006073567414402897</v>
+        <v>0.004374512784689901</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01565053698192044</v>
+        <v>0.001979102395656763</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.005526898470910232</v>
+        <v>0.0003667396327611745</v>
       </c>
     </row>
   </sheetData>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8171163223041643</v>
+        <v>0.6036446904430108</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8048706268705591</v>
+        <v>0.5849404189501686</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7680305772436408</v>
+        <v>0.6047941576287028</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.778693532154636</v>
+        <v>0.5704082761564888</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7458766551160979</v>
+        <v>0.6339353535363019</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8184844746220115</v>
+        <v>0.6776756842453049</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7642473717581348</v>
+        <v>0.6649047657528084</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.809598590333346</v>
+        <v>0.5894996973226694</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7850820655741124</v>
+        <v>0.6877023640060115</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8171163223041643</v>
+        <v>0.6036446904430108</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8048706268705591</v>
+        <v>0.5849404189501686</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7680305772436408</v>
+        <v>0.6047941576287028</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.778693532154636</v>
+        <v>0.5704082761564888</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7458766551160979</v>
+        <v>0.6339353535363019</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8184844746220115</v>
+        <v>0.6776756842453049</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7642473717581348</v>
+        <v>0.6649047657528084</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.809598590333346</v>
+        <v>0.5894996973226694</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7850820655741124</v>
+        <v>0.6877023640060115</v>
       </c>
     </row>
   </sheetData>
@@ -4788,19 +4788,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.469</v>
+        <v>0.853</v>
       </c>
       <c r="C3">
-        <v>0.781</v>
+        <v>0.731</v>
       </c>
       <c r="D3">
-        <v>0.515</v>
+        <v>0.23</v>
       </c>
       <c r="E3">
-        <v>0.333</v>
+        <v>0.889</v>
       </c>
       <c r="F3">
-        <v>0.694</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4808,19 +4808,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.118</v>
+        <v>0.91</v>
       </c>
       <c r="C4">
-        <v>0.585</v>
+        <v>0.02</v>
       </c>
       <c r="D4">
-        <v>0.295</v>
+        <v>0.576</v>
       </c>
       <c r="E4">
-        <v>0.195</v>
+        <v>0.473</v>
       </c>
       <c r="F4">
-        <v>0.725</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4828,19 +4828,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.09</v>
+        <v>0.412</v>
       </c>
       <c r="C5">
-        <v>0.974</v>
+        <v>0.864</v>
       </c>
       <c r="D5">
-        <v>0.891</v>
+        <v>0.351</v>
       </c>
       <c r="E5">
-        <v>0.068</v>
+        <v>0.536</v>
       </c>
       <c r="F5">
-        <v>0.759</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4848,19 +4848,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.221</v>
+        <v>0.728</v>
       </c>
       <c r="C6">
-        <v>0.236</v>
+        <v>0.895</v>
       </c>
       <c r="D6">
-        <v>0.116</v>
+        <v>0.832</v>
       </c>
       <c r="E6">
-        <v>0.595</v>
+        <v>0.295</v>
       </c>
       <c r="F6">
-        <v>0.607</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4868,19 +4868,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.267</v>
+        <v>0.794</v>
       </c>
       <c r="C7">
-        <v>0.6889999999999999</v>
+        <v>0.427</v>
       </c>
       <c r="D7">
-        <v>0.208</v>
+        <v>0.594</v>
       </c>
       <c r="E7">
-        <v>0.783</v>
+        <v>0.446</v>
       </c>
       <c r="F7">
-        <v>0.019</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4888,19 +4888,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.475</v>
+        <v>0.15</v>
       </c>
       <c r="C8">
-        <v>0.905</v>
+        <v>0.698</v>
       </c>
       <c r="D8">
-        <v>0.408</v>
+        <v>0.508</v>
       </c>
       <c r="E8">
-        <v>0.11</v>
+        <v>0.986</v>
       </c>
       <c r="F8">
-        <v>0.476</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4908,19 +4908,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.869</v>
+        <v>0.924</v>
       </c>
       <c r="C9">
-        <v>0.72</v>
+        <v>0.603</v>
       </c>
       <c r="D9">
-        <v>0.01</v>
+        <v>0.349</v>
       </c>
       <c r="E9">
-        <v>0.738</v>
+        <v>0.282</v>
       </c>
       <c r="F9">
-        <v>0.448</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4928,19 +4928,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.473</v>
+        <v>0.527</v>
       </c>
       <c r="C10">
-        <v>0.408</v>
+        <v>0.826</v>
       </c>
       <c r="D10">
-        <v>0.134</v>
+        <v>0.662</v>
       </c>
       <c r="E10">
-        <v>0.485</v>
+        <v>0.503</v>
       </c>
       <c r="F10">
-        <v>0.5649999999999999</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4948,19 +4948,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.961</v>
+        <v>0.606</v>
       </c>
       <c r="C11">
-        <v>0.641</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D11">
-        <v>0.739</v>
+        <v>0.524</v>
       </c>
       <c r="E11">
-        <v>0.862</v>
+        <v>0.364</v>
       </c>
       <c r="F11">
-        <v>0.649</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4968,19 +4968,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.915</v>
+        <v>0.658</v>
       </c>
       <c r="C12">
-        <v>0.024</v>
+        <v>0.757</v>
       </c>
       <c r="D12">
-        <v>0.724</v>
+        <v>0.24</v>
       </c>
       <c r="E12">
-        <v>0.796</v>
+        <v>0.13</v>
       </c>
       <c r="F12">
-        <v>0.71</v>
+        <v>0.455</v>
       </c>
     </row>
   </sheetData>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8190959880206483</v>
+        <v>0.6126508136808066</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2760432959463709</v>
+        <v>0.7315066384436812</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6784543873709259</v>
+        <v>0.6555640731077876</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.976617491600117</v>
+        <v>0.5435722063594198</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.003242359522663274</v>
+        <v>0.4685069479938138</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2363263765614712</v>
+        <v>0.8913606567091777</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2468036513309348</v>
+        <v>0.1271252304333691</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1777491019400448</v>
+        <v>0.1987635685691876</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1527617421524529</v>
+        <v>0.5251878328609143</v>
       </c>
     </row>
   </sheetData>
@@ -5080,7 +5080,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5108,19 +5108,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.409</v>
+        <v>0.927</v>
       </c>
       <c r="C2">
-        <v>0.002</v>
+        <v>0.67</v>
       </c>
       <c r="D2">
-        <v>0.752</v>
+        <v>0.879</v>
       </c>
       <c r="E2">
-        <v>0.64</v>
+        <v>0.977</v>
       </c>
       <c r="F2">
-        <v>0.76</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5128,19 +5128,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.262</v>
+        <v>0.718</v>
       </c>
       <c r="C3">
-        <v>0.477</v>
+        <v>0.309</v>
       </c>
       <c r="D3">
-        <v>0.96</v>
+        <v>0.25</v>
       </c>
       <c r="E3">
-        <v>0.04</v>
+        <v>0.399</v>
       </c>
       <c r="F3">
-        <v>0.846</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5148,19 +5148,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.712</v>
+        <v>0.461</v>
       </c>
       <c r="C4">
-        <v>0.225</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D4">
-        <v>0.602</v>
+        <v>0.496</v>
       </c>
       <c r="E4">
-        <v>0.373</v>
+        <v>0.319</v>
       </c>
       <c r="F4">
-        <v>0.53</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5168,19 +5168,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.574</v>
+        <v>0.832</v>
       </c>
       <c r="C5">
-        <v>0.322</v>
+        <v>0.985</v>
       </c>
       <c r="D5">
-        <v>0.03</v>
+        <v>0.257</v>
       </c>
       <c r="E5">
-        <v>0.201</v>
+        <v>0.237</v>
       </c>
       <c r="F5">
-        <v>0.195</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5188,19 +5188,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.777</v>
+        <v>0.488</v>
       </c>
       <c r="C6">
-        <v>0.278</v>
+        <v>0.664</v>
       </c>
       <c r="D6">
-        <v>0.858</v>
+        <v>0.931</v>
       </c>
       <c r="E6">
-        <v>0.202</v>
+        <v>0.838</v>
       </c>
       <c r="F6">
-        <v>0.277</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5208,19 +5208,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.879</v>
+        <v>0.168</v>
       </c>
       <c r="C7">
-        <v>0.883</v>
+        <v>0.076</v>
       </c>
       <c r="D7">
-        <v>0.871</v>
+        <v>0.914</v>
       </c>
       <c r="E7">
-        <v>0.784</v>
+        <v>0.972</v>
       </c>
       <c r="F7">
-        <v>0.273</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5228,19 +5228,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.823</v>
+        <v>0.04</v>
       </c>
       <c r="C8">
-        <v>0.52</v>
+        <v>0.109</v>
       </c>
       <c r="D8">
-        <v>0.536</v>
+        <v>0.953</v>
       </c>
       <c r="E8">
-        <v>0.9379999999999999</v>
+        <v>0.734</v>
       </c>
       <c r="F8">
-        <v>0.6919999999999999</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5248,19 +5248,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.977</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="C9">
-        <v>0.046</v>
+        <v>0.597</v>
       </c>
       <c r="D9">
-        <v>0.177</v>
+        <v>0.138</v>
       </c>
       <c r="E9">
-        <v>0.204</v>
+        <v>0.023</v>
       </c>
       <c r="F9">
-        <v>0.14</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5268,19 +5268,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.308</v>
+        <v>0.041</v>
       </c>
       <c r="C10">
-        <v>0.731</v>
+        <v>0.295</v>
       </c>
       <c r="D10">
-        <v>0.389</v>
+        <v>0.905</v>
       </c>
       <c r="E10">
-        <v>0.503</v>
+        <v>0.528</v>
       </c>
       <c r="F10">
-        <v>0.615</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5288,19 +5288,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.393</v>
+        <v>0.897</v>
       </c>
       <c r="C11">
-        <v>-0.026</v>
+        <v>0.644</v>
       </c>
       <c r="D11">
-        <v>0.754</v>
+        <v>0.88</v>
       </c>
       <c r="E11">
-        <v>0.652</v>
+        <v>1.009</v>
       </c>
       <c r="F11">
-        <v>0.892</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5308,19 +5308,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.248</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="C12">
-        <v>0.453</v>
+        <v>0.286</v>
       </c>
       <c r="D12">
-        <v>0.96</v>
+        <v>0.25</v>
       </c>
       <c r="E12">
-        <v>0.05</v>
+        <v>0.426</v>
       </c>
       <c r="F12">
-        <v>0.886</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5328,19 +5328,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.439</v>
       </c>
       <c r="C13">
-        <v>0.205</v>
+        <v>0.669</v>
       </c>
       <c r="D13">
-        <v>0.602</v>
+        <v>0.496</v>
       </c>
       <c r="E13">
-        <v>0.381</v>
+        <v>0.341</v>
       </c>
       <c r="F13">
-        <v>0.545</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5348,19 +5348,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5639999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="C14">
-        <v>0.306</v>
+        <v>0.97</v>
       </c>
       <c r="D14">
-        <v>0.028</v>
+        <v>0.256</v>
       </c>
       <c r="E14">
-        <v>0.203</v>
+        <v>0.243</v>
       </c>
       <c r="F14">
-        <v>0.2</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5368,19 +5368,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.769</v>
+        <v>0.473</v>
       </c>
       <c r="C15">
-        <v>0.265</v>
+        <v>0.652</v>
       </c>
       <c r="D15">
-        <v>0.86</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="E15">
-        <v>0.213</v>
+        <v>0.868</v>
       </c>
       <c r="F15">
-        <v>0.28</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5388,19 +5388,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.873</v>
+        <v>0.157</v>
       </c>
       <c r="C16">
-        <v>0.874</v>
+        <v>0.067</v>
       </c>
       <c r="D16">
-        <v>0.871</v>
+        <v>0.914</v>
       </c>
       <c r="E16">
-        <v>0.786</v>
+        <v>0.978</v>
       </c>
       <c r="F16">
-        <v>0.275</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5408,19 +5408,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.819</v>
+        <v>0.033</v>
       </c>
       <c r="C17">
-        <v>0.514</v>
+        <v>0.103</v>
       </c>
       <c r="D17">
-        <v>0.536</v>
+        <v>0.953</v>
       </c>
       <c r="E17">
-        <v>0.9370000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="F17">
-        <v>0.6929999999999999</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5428,19 +5428,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.975</v>
+        <v>0.083</v>
       </c>
       <c r="C18">
-        <v>0.043</v>
+        <v>0.594</v>
       </c>
       <c r="D18">
-        <v>0.177</v>
+        <v>0.138</v>
       </c>
       <c r="E18">
-        <v>0.199</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F18">
-        <v>0.141</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5448,19 +5448,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.308</v>
+        <v>0.041</v>
       </c>
       <c r="C19">
-        <v>0.731</v>
+        <v>0.295</v>
       </c>
       <c r="D19">
-        <v>0.389</v>
+        <v>0.905</v>
       </c>
       <c r="E19">
-        <v>0.503</v>
+        <v>0.528</v>
       </c>
       <c r="F19">
-        <v>0.615</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5468,19 +5468,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5610000000000001</v>
+        <v>1.632</v>
       </c>
       <c r="C20">
-        <v>-0.074</v>
+        <v>1.088</v>
       </c>
       <c r="D20">
-        <v>1.144</v>
+        <v>1.083</v>
       </c>
       <c r="E20">
-        <v>0.881</v>
+        <v>1.938</v>
       </c>
       <c r="F20">
-        <v>1.643</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5488,19 +5488,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.35</v>
+        <v>1.257</v>
       </c>
       <c r="C21">
-        <v>0.783</v>
+        <v>0.472</v>
       </c>
       <c r="D21">
-        <v>1.454</v>
+        <v>0.307</v>
       </c>
       <c r="E21">
-        <v>0.077</v>
+        <v>0.831</v>
       </c>
       <c r="F21">
-        <v>1.541</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5508,19 +5508,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.016</v>
+        <v>0.791</v>
       </c>
       <c r="C22">
-        <v>0.345</v>
+        <v>1.139</v>
       </c>
       <c r="D22">
-        <v>0.912</v>
+        <v>0.61</v>
       </c>
       <c r="E22">
-        <v>0.516</v>
+        <v>0.666</v>
       </c>
       <c r="F22">
-        <v>0.9379999999999999</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5528,19 +5528,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.819</v>
+        <v>1.49</v>
       </c>
       <c r="C23">
-        <v>0.529</v>
+        <v>1.664</v>
       </c>
       <c r="D23">
-        <v>0.041</v>
+        <v>0.314</v>
       </c>
       <c r="E23">
-        <v>0.273</v>
+        <v>0.465</v>
       </c>
       <c r="F23">
-        <v>0.344</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5548,19 +5548,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.122</v>
+        <v>0.862</v>
       </c>
       <c r="C24">
-        <v>0.459</v>
+        <v>1.116</v>
       </c>
       <c r="D24">
-        <v>1.305</v>
+        <v>1.147</v>
       </c>
       <c r="E24">
-        <v>0.295</v>
+        <v>1.67</v>
       </c>
       <c r="F24">
-        <v>0.477</v>
+        <v>1.194</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5568,19 +5568,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.276</v>
+        <v>0.28</v>
       </c>
       <c r="C25">
-        <v>1.547</v>
+        <v>0.107</v>
       </c>
       <c r="D25">
-        <v>1.32</v>
+        <v>1.124</v>
       </c>
       <c r="E25">
-        <v>1.05</v>
+        <v>1.854</v>
       </c>
       <c r="F25">
-        <v>0.468</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5588,19 +5588,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.199</v>
+        <v>0.054</v>
       </c>
       <c r="C26">
-        <v>0.909</v>
+        <v>0.172</v>
       </c>
       <c r="D26">
-        <v>0.8120000000000001</v>
+        <v>1.172</v>
       </c>
       <c r="E26">
-        <v>1.248</v>
+        <v>1.375</v>
       </c>
       <c r="F26">
-        <v>1.175</v>
+        <v>1.109</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5608,19 +5608,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.43</v>
+        <v>0.15</v>
       </c>
       <c r="C27">
-        <v>0.073</v>
+        <v>1.025</v>
       </c>
       <c r="D27">
-        <v>0.268</v>
+        <v>0.17</v>
       </c>
       <c r="E27">
-        <v>0.26</v>
+        <v>0.003</v>
       </c>
       <c r="F27">
-        <v>0.24</v>
+        <v>1.402</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5628,19 +5628,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.452</v>
+        <v>0.076</v>
       </c>
       <c r="C28">
-        <v>1.302</v>
+        <v>0.511</v>
       </c>
       <c r="D28">
-        <v>0.589</v>
+        <v>1.113</v>
       </c>
       <c r="E28">
-        <v>0.67</v>
+        <v>0.997</v>
       </c>
       <c r="F28">
-        <v>1.042</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5648,19 +5648,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.674</v>
+        <v>3.933</v>
       </c>
       <c r="C29">
-        <v>-0.133</v>
+        <v>1.123</v>
       </c>
       <c r="D29">
-        <v>1.704</v>
+        <v>2.214</v>
       </c>
       <c r="E29">
-        <v>1.18</v>
+        <v>3.332</v>
       </c>
       <c r="F29">
-        <v>3.481</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5668,19 +5668,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.421</v>
+        <v>3.035</v>
       </c>
       <c r="C30">
-        <v>1.509</v>
+        <v>0.487</v>
       </c>
       <c r="D30">
-        <v>2.165</v>
+        <v>0.626</v>
       </c>
       <c r="E30">
-        <v>0.101</v>
+        <v>1.423</v>
       </c>
       <c r="F30">
-        <v>3.205</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5688,19 +5688,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.22</v>
+        <v>1.918</v>
       </c>
       <c r="C31">
-        <v>0.673</v>
+        <v>1.175</v>
       </c>
       <c r="D31">
-        <v>1.357</v>
+        <v>1.245</v>
       </c>
       <c r="E31">
-        <v>0.6889999999999999</v>
+        <v>1.137</v>
       </c>
       <c r="F31">
-        <v>1.891</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5708,19 +5708,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.984</v>
+        <v>3.599</v>
       </c>
       <c r="C32">
-        <v>1.026</v>
+        <v>1.717</v>
       </c>
       <c r="D32">
-        <v>0.059</v>
+        <v>0.638</v>
       </c>
       <c r="E32">
-        <v>0.36</v>
+        <v>0.786</v>
       </c>
       <c r="F32">
-        <v>0.606</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5728,19 +5728,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.347</v>
+        <v>2.093</v>
       </c>
       <c r="C33">
-        <v>0.894</v>
+        <v>1.152</v>
       </c>
       <c r="D33">
-        <v>1.944</v>
+        <v>2.345</v>
       </c>
       <c r="E33">
-        <v>0.394</v>
+        <v>2.87</v>
       </c>
       <c r="F33">
-        <v>0.891</v>
+        <v>1.519</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5748,19 +5748,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.532</v>
+        <v>0.698</v>
       </c>
       <c r="C34">
-        <v>2.977</v>
+        <v>0.111</v>
       </c>
       <c r="D34">
-        <v>1.965</v>
+        <v>2.296</v>
       </c>
       <c r="E34">
-        <v>1.402</v>
+        <v>3.18</v>
       </c>
       <c r="F34">
-        <v>0.871</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5768,19 +5768,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.44</v>
+        <v>0.158</v>
       </c>
       <c r="C35">
-        <v>1.758</v>
+        <v>0.178</v>
       </c>
       <c r="D35">
-        <v>1.208</v>
+        <v>2.394</v>
       </c>
       <c r="E35">
-        <v>1.666</v>
+        <v>2.352</v>
       </c>
       <c r="F35">
-        <v>2.393</v>
+        <v>1.408</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5788,19 +5788,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.717</v>
+        <v>0.39</v>
       </c>
       <c r="C36">
-        <v>0.16</v>
+        <v>1.058</v>
       </c>
       <c r="D36">
-        <v>0.398</v>
+        <v>0.345</v>
       </c>
       <c r="E36">
-        <v>0.339</v>
+        <v>-0.016</v>
       </c>
       <c r="F36">
-        <v>0.38</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5808,19 +5808,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.546</v>
+        <v>0.214</v>
       </c>
       <c r="C37">
-        <v>2.512</v>
+        <v>0.528</v>
       </c>
       <c r="D37">
-        <v>0.876</v>
+        <v>2.273</v>
       </c>
       <c r="E37">
-        <v>0.892</v>
+        <v>1.701</v>
       </c>
       <c r="F37">
-        <v>2.106</v>
+        <v>0.241</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5828,19 +5828,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.866</v>
+        <v>9.813000000000001</v>
       </c>
       <c r="C38">
-        <v>-0.269</v>
+        <v>1.18</v>
       </c>
       <c r="D38">
-        <v>2.767</v>
+        <v>4.62</v>
       </c>
       <c r="E38">
-        <v>1.709</v>
+        <v>6.302</v>
       </c>
       <c r="F38">
-        <v>7.843</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5848,19 +5848,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.542</v>
+        <v>7.575</v>
       </c>
       <c r="C39">
-        <v>3.118</v>
+        <v>0.512</v>
       </c>
       <c r="D39">
-        <v>3.515</v>
+        <v>1.305</v>
       </c>
       <c r="E39">
-        <v>0.144</v>
+        <v>2.688</v>
       </c>
       <c r="F39">
-        <v>7.192</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5868,19 +5868,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.568</v>
+        <v>4.791</v>
       </c>
       <c r="C40">
-        <v>1.394</v>
+        <v>1.235</v>
       </c>
       <c r="D40">
-        <v>2.203</v>
+        <v>2.597</v>
       </c>
       <c r="E40">
-        <v>0.996</v>
+        <v>2.146</v>
       </c>
       <c r="F40">
-        <v>4.215</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5888,19 +5888,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.265</v>
+        <v>8.983000000000001</v>
       </c>
       <c r="C41">
-        <v>2.123</v>
+        <v>1.804</v>
       </c>
       <c r="D41">
-        <v>0.095</v>
+        <v>1.33</v>
       </c>
       <c r="E41">
-        <v>0.517</v>
+        <v>1.479</v>
       </c>
       <c r="F41">
-        <v>1.307</v>
+        <v>1.288</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5908,19 +5908,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.731</v>
+        <v>5.229</v>
       </c>
       <c r="C42">
-        <v>1.852</v>
+        <v>1.211</v>
       </c>
       <c r="D42">
-        <v>3.156</v>
+        <v>4.893</v>
       </c>
       <c r="E42">
-        <v>0.57</v>
+        <v>5.427</v>
       </c>
       <c r="F42">
-        <v>1.951</v>
+        <v>2.137</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5928,19 +5928,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.969</v>
+        <v>1.751</v>
       </c>
       <c r="C43">
-        <v>6.149</v>
+        <v>0.117</v>
       </c>
       <c r="D43">
-        <v>3.19</v>
+        <v>4.79</v>
       </c>
       <c r="E43">
-        <v>2.028</v>
+        <v>6.01</v>
       </c>
       <c r="F43">
-        <v>1.906</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5948,19 +5948,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.851</v>
+        <v>0.406</v>
       </c>
       <c r="C44">
-        <v>3.635</v>
+        <v>0.188</v>
       </c>
       <c r="D44">
-        <v>1.961</v>
+        <v>4.995</v>
       </c>
       <c r="E44">
-        <v>2.409</v>
+        <v>4.441</v>
       </c>
       <c r="F44">
-        <v>5.346</v>
+        <v>1.979</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5968,19 +5968,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.207</v>
+        <v>0.985</v>
       </c>
       <c r="C45">
-        <v>0.34</v>
+        <v>1.112</v>
       </c>
       <c r="D45">
-        <v>0.646</v>
+        <v>0.719</v>
       </c>
       <c r="E45">
-        <v>0.484</v>
+        <v>-0.042</v>
       </c>
       <c r="F45">
-        <v>0.795</v>
+        <v>2.523</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5988,19 +5988,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.704</v>
+        <v>0.547</v>
       </c>
       <c r="C46">
-        <v>5.192</v>
+        <v>0.555</v>
       </c>
       <c r="D46">
-        <v>1.422</v>
+        <v>4.742</v>
       </c>
       <c r="E46">
-        <v>1.288</v>
+        <v>3.21</v>
       </c>
       <c r="F46">
-        <v>4.696</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6008,19 +6008,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.09</v>
+        <v>16.518</v>
       </c>
       <c r="C47">
-        <v>-0.758</v>
+        <v>4.666</v>
       </c>
       <c r="D47">
-        <v>8.442</v>
+        <v>7.708</v>
       </c>
       <c r="E47">
-        <v>2.01</v>
+        <v>13.045</v>
       </c>
       <c r="F47">
-        <v>18.362</v>
+        <v>1.744</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6028,19 +6028,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.6830000000000001</v>
+        <v>12.751</v>
       </c>
       <c r="C48">
-        <v>8.833</v>
+        <v>2.034</v>
       </c>
       <c r="D48">
-        <v>10.723</v>
+        <v>2.177</v>
       </c>
       <c r="E48">
-        <v>0.169</v>
+        <v>5.562</v>
       </c>
       <c r="F48">
-        <v>16.825</v>
+        <v>1.808</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6048,19 +6048,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.974</v>
+        <v>8.066000000000001</v>
       </c>
       <c r="C49">
-        <v>3.953</v>
+        <v>4.888</v>
       </c>
       <c r="D49">
-        <v>6.72</v>
+        <v>4.332</v>
       </c>
       <c r="E49">
-        <v>1.171</v>
+        <v>4.44</v>
       </c>
       <c r="F49">
-        <v>9.848000000000001</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6068,19 +6068,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.593</v>
+        <v>15.122</v>
       </c>
       <c r="C50">
-        <v>6.018</v>
+        <v>7.135</v>
       </c>
       <c r="D50">
-        <v>0.287</v>
+        <v>2.218</v>
       </c>
       <c r="E50">
-        <v>0.607</v>
+        <v>3.057</v>
       </c>
       <c r="F50">
-        <v>3.033</v>
+        <v>2.394</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6088,19 +6088,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.18</v>
+        <v>8.803000000000001</v>
       </c>
       <c r="C51">
-        <v>5.25</v>
+        <v>4.797</v>
       </c>
       <c r="D51">
-        <v>9.629</v>
+        <v>8.163</v>
       </c>
       <c r="E51">
-        <v>0.67</v>
+        <v>11.233</v>
       </c>
       <c r="F51">
-        <v>4.541</v>
+        <v>3.995</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6108,19 +6108,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.479</v>
+        <v>2.949</v>
       </c>
       <c r="C52">
-        <v>17.419</v>
+        <v>0.485</v>
       </c>
       <c r="D52">
-        <v>9.731999999999999</v>
+        <v>7.991</v>
       </c>
       <c r="E52">
-        <v>2.384</v>
+        <v>12.438</v>
       </c>
       <c r="F52">
-        <v>4.436</v>
+        <v>1.713</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6128,19 +6128,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2.331</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="C53">
-        <v>10.301</v>
+        <v>0.766</v>
       </c>
       <c r="D53">
-        <v>5.982</v>
+        <v>8.333</v>
       </c>
       <c r="E53">
-        <v>2.832</v>
+        <v>9.189</v>
       </c>
       <c r="F53">
-        <v>12.495</v>
+        <v>3.697</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6148,19 +6148,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.779</v>
+        <v>1.66</v>
       </c>
       <c r="C54">
-        <v>0.971</v>
+        <v>4.413</v>
       </c>
       <c r="D54">
-        <v>1.969</v>
+        <v>1.199</v>
       </c>
       <c r="E54">
-        <v>0.5679999999999999</v>
+        <v>-0.095</v>
       </c>
       <c r="F54">
-        <v>1.833</v>
+        <v>4.723</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6168,19 +6168,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.888</v>
+        <v>0.923</v>
       </c>
       <c r="C55">
-        <v>14.711</v>
+        <v>2.218</v>
       </c>
       <c r="D55">
-        <v>4.337</v>
+        <v>7.911</v>
       </c>
       <c r="E55">
-        <v>1.514</v>
+        <v>6.64</v>
       </c>
       <c r="F55">
-        <v>10.972</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6188,19 +6188,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.413</v>
+        <v>30.029</v>
       </c>
       <c r="C56">
-        <v>-1.985</v>
+        <v>12.184</v>
       </c>
       <c r="D56">
-        <v>21.639</v>
+        <v>13.501</v>
       </c>
       <c r="E56">
-        <v>2.447</v>
+        <v>26.781</v>
       </c>
       <c r="F56">
-        <v>42.818</v>
+        <v>3.162</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6208,19 +6208,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.885</v>
+        <v>23.181</v>
       </c>
       <c r="C57">
-        <v>23.152</v>
+        <v>5.314</v>
       </c>
       <c r="D57">
-        <v>27.485</v>
+        <v>3.813</v>
       </c>
       <c r="E57">
-        <v>0.205</v>
+        <v>11.417</v>
       </c>
       <c r="F57">
-        <v>39.228</v>
+        <v>3.271</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6228,19 +6228,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2.558</v>
+        <v>14.664</v>
       </c>
       <c r="C58">
-        <v>10.362</v>
+        <v>12.764</v>
       </c>
       <c r="D58">
-        <v>17.225</v>
+        <v>7.588</v>
       </c>
       <c r="E58">
-        <v>1.425</v>
+        <v>9.113</v>
       </c>
       <c r="F58">
-        <v>22.955</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6248,19 +6248,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2.065</v>
+        <v>27.491</v>
       </c>
       <c r="C59">
-        <v>15.775</v>
+        <v>18.631</v>
       </c>
       <c r="D59">
-        <v>0.735</v>
+        <v>3.885</v>
       </c>
       <c r="E59">
-        <v>0.738</v>
+        <v>6.274</v>
       </c>
       <c r="F59">
-        <v>7.061</v>
+        <v>4.333</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6268,19 +6268,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2.825</v>
+        <v>16.004</v>
       </c>
       <c r="C60">
-        <v>13.762</v>
+        <v>12.527</v>
       </c>
       <c r="D60">
-        <v>24.682</v>
+        <v>14.298</v>
       </c>
       <c r="E60">
-        <v>0.8159999999999999</v>
+        <v>23.06</v>
       </c>
       <c r="F60">
-        <v>10.578</v>
+        <v>7.243</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6288,19 +6288,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3.213</v>
+        <v>5.362</v>
       </c>
       <c r="C61">
-        <v>45.655</v>
+        <v>1.272</v>
       </c>
       <c r="D61">
-        <v>24.945</v>
+        <v>13.997</v>
       </c>
       <c r="E61">
-        <v>2.902</v>
+        <v>25.533</v>
       </c>
       <c r="F61">
-        <v>10.333</v>
+        <v>3.095</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6308,19 +6308,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3.021</v>
+        <v>1.247</v>
       </c>
       <c r="C62">
-        <v>27</v>
+        <v>2.006</v>
       </c>
       <c r="D62">
-        <v>15.333</v>
+        <v>14.596</v>
       </c>
       <c r="E62">
-        <v>3.448</v>
+        <v>18.862</v>
       </c>
       <c r="F62">
-        <v>29.128</v>
+        <v>6.701</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6328,19 +6328,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3.602</v>
+        <v>3.019</v>
       </c>
       <c r="C63">
-        <v>2.548</v>
+        <v>11.527</v>
       </c>
       <c r="D63">
-        <v>5.047</v>
+        <v>2.1</v>
       </c>
       <c r="E63">
-        <v>0.6899999999999999</v>
+        <v>-0.198</v>
       </c>
       <c r="F63">
-        <v>4.263</v>
+        <v>8.566000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6348,19 +6348,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.152</v>
+        <v>1.679</v>
       </c>
       <c r="C64">
-        <v>38.558</v>
+        <v>5.798</v>
       </c>
       <c r="D64">
-        <v>11.117</v>
+        <v>13.857</v>
       </c>
       <c r="E64">
-        <v>1.843</v>
+        <v>13.629</v>
       </c>
       <c r="F64">
-        <v>25.576</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6368,19 +6368,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2.517</v>
+        <v>75.76300000000001</v>
       </c>
       <c r="C65">
-        <v>-2.751</v>
+        <v>30.876</v>
       </c>
       <c r="D65">
-        <v>25.867</v>
+        <v>38.466</v>
       </c>
       <c r="E65">
-        <v>7.73</v>
+        <v>42.241</v>
       </c>
       <c r="F65">
-        <v>88.367</v>
+        <v>9.566000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6388,19 +6388,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.578</v>
+        <v>58.486</v>
       </c>
       <c r="C66">
-        <v>32.085</v>
+        <v>13.467</v>
       </c>
       <c r="D66">
-        <v>32.856</v>
+        <v>10.863</v>
       </c>
       <c r="E66">
-        <v>0.645</v>
+        <v>18.008</v>
       </c>
       <c r="F66">
-        <v>80.956</v>
+        <v>9.885999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6408,19 +6408,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>4.557</v>
+        <v>36.998</v>
       </c>
       <c r="C67">
-        <v>14.36</v>
+        <v>32.347</v>
       </c>
       <c r="D67">
-        <v>20.591</v>
+        <v>21.619</v>
       </c>
       <c r="E67">
-        <v>4.499</v>
+        <v>14.373</v>
       </c>
       <c r="F67">
-        <v>47.371</v>
+        <v>2.544</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6428,19 +6428,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3.679</v>
+        <v>69.36</v>
       </c>
       <c r="C68">
-        <v>21.862</v>
+        <v>47.214</v>
       </c>
       <c r="D68">
-        <v>0.879</v>
+        <v>11.068</v>
       </c>
       <c r="E68">
-        <v>2.326</v>
+        <v>9.895</v>
       </c>
       <c r="F68">
-        <v>14.568</v>
+        <v>13.099</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6448,19 +6448,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.033</v>
+        <v>40.379</v>
       </c>
       <c r="C69">
-        <v>19.072</v>
+        <v>31.746</v>
       </c>
       <c r="D69">
-        <v>29.505</v>
+        <v>40.737</v>
       </c>
       <c r="E69">
-        <v>2.575</v>
+        <v>36.372</v>
       </c>
       <c r="F69">
-        <v>21.827</v>
+        <v>21.914</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6468,19 +6468,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5.724</v>
+        <v>13.529</v>
       </c>
       <c r="C70">
-        <v>63.271</v>
+        <v>3.226</v>
       </c>
       <c r="D70">
-        <v>29.819</v>
+        <v>39.879</v>
       </c>
       <c r="E70">
-        <v>9.163</v>
+        <v>40.272</v>
       </c>
       <c r="F70">
-        <v>21.321</v>
+        <v>9.348000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6488,19 +6488,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.383</v>
+        <v>3.147</v>
       </c>
       <c r="C71">
-        <v>37.418</v>
+        <v>5.086</v>
       </c>
       <c r="D71">
-        <v>18.329</v>
+        <v>41.585</v>
       </c>
       <c r="E71">
-        <v>10.886</v>
+        <v>29.75</v>
       </c>
       <c r="F71">
-        <v>60.11</v>
+        <v>20.272</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6508,19 +6508,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6.418</v>
+        <v>7.619</v>
       </c>
       <c r="C72">
-        <v>3.531</v>
+        <v>29.213</v>
       </c>
       <c r="D72">
-        <v>6.033</v>
+        <v>5.983</v>
       </c>
       <c r="E72">
-        <v>2.17</v>
+        <v>-0.313</v>
       </c>
       <c r="F72">
-        <v>8.794</v>
+        <v>25.921</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6528,19 +6528,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.055</v>
+        <v>4.238</v>
       </c>
       <c r="C73">
-        <v>53.436</v>
+        <v>14.695</v>
       </c>
       <c r="D73">
-        <v>13.289</v>
+        <v>39.48</v>
       </c>
       <c r="E73">
-        <v>5.814</v>
+        <v>21.496</v>
       </c>
       <c r="F73">
-        <v>52.78</v>
+        <v>2.994</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6548,19 +6548,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>4.178</v>
+        <v>176.653</v>
       </c>
       <c r="C74">
-        <v>-4.166</v>
+        <v>77.202</v>
       </c>
       <c r="D74">
-        <v>33.096</v>
+        <v>95.435</v>
       </c>
       <c r="E74">
-        <v>17.612</v>
+        <v>70.16200000000001</v>
       </c>
       <c r="F74">
-        <v>187.554</v>
+        <v>24.436</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6568,19 +6568,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>2.619</v>
+        <v>136.369</v>
       </c>
       <c r="C75">
-        <v>48.59</v>
+        <v>33.673</v>
       </c>
       <c r="D75">
-        <v>42.038</v>
+        <v>26.951</v>
       </c>
       <c r="E75">
-        <v>1.469</v>
+        <v>29.911</v>
       </c>
       <c r="F75">
-        <v>171.825</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6588,19 +6588,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7.563</v>
+        <v>86.26600000000001</v>
       </c>
       <c r="C76">
-        <v>21.747</v>
+        <v>80.88</v>
       </c>
       <c r="D76">
-        <v>26.345</v>
+        <v>53.637</v>
       </c>
       <c r="E76">
-        <v>10.25</v>
+        <v>23.873</v>
       </c>
       <c r="F76">
-        <v>100.541</v>
+        <v>6.491</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6608,19 +6608,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6.106</v>
+        <v>161.724</v>
       </c>
       <c r="C77">
-        <v>33.108</v>
+        <v>118.053</v>
       </c>
       <c r="D77">
-        <v>1.125</v>
+        <v>27.46</v>
       </c>
       <c r="E77">
-        <v>5.298</v>
+        <v>16.435</v>
       </c>
       <c r="F77">
-        <v>30.918</v>
+        <v>33.458</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6628,19 +6628,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>8.353999999999999</v>
+        <v>94.15000000000001</v>
       </c>
       <c r="C78">
-        <v>28.883</v>
+        <v>79.378</v>
       </c>
       <c r="D78">
-        <v>37.75</v>
+        <v>101.069</v>
       </c>
       <c r="E78">
-        <v>5.866</v>
+        <v>60.414</v>
       </c>
       <c r="F78">
-        <v>46.325</v>
+        <v>55.979</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6648,19 +6648,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>9.5</v>
+        <v>31.546</v>
       </c>
       <c r="C79">
-        <v>95.819</v>
+        <v>8.067</v>
       </c>
       <c r="D79">
-        <v>38.152</v>
+        <v>98.94</v>
       </c>
       <c r="E79">
-        <v>20.876</v>
+        <v>66.892</v>
       </c>
       <c r="F79">
-        <v>45.251</v>
+        <v>23.874</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6668,19 +6668,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>8.935</v>
+        <v>7.338</v>
       </c>
       <c r="C80">
-        <v>56.667</v>
+        <v>12.718</v>
       </c>
       <c r="D80">
-        <v>23.451</v>
+        <v>103.173</v>
       </c>
       <c r="E80">
-        <v>24.801</v>
+        <v>49.414</v>
       </c>
       <c r="F80">
-        <v>127.579</v>
+        <v>51.783</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6688,19 +6688,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>10.652</v>
+        <v>17.765</v>
       </c>
       <c r="C81">
-        <v>5.348</v>
+        <v>73.045</v>
       </c>
       <c r="D81">
-        <v>7.719</v>
+        <v>14.844</v>
       </c>
       <c r="E81">
-        <v>4.942</v>
+        <v>-0.521</v>
       </c>
       <c r="F81">
-        <v>18.663</v>
+        <v>66.21599999999999</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6708,19 +6708,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>3.412</v>
+        <v>9.882</v>
       </c>
       <c r="C82">
-        <v>80.925</v>
+        <v>36.744</v>
       </c>
       <c r="D82">
-        <v>17.003</v>
+        <v>97.95</v>
       </c>
       <c r="E82">
-        <v>13.244</v>
+        <v>35.705</v>
       </c>
       <c r="F82">
-        <v>112.021</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6728,19 +6728,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7.3</v>
+        <v>426.952</v>
       </c>
       <c r="C83">
-        <v>-11.168</v>
+        <v>132.269</v>
       </c>
       <c r="D83">
-        <v>52.942</v>
+        <v>192.796</v>
       </c>
       <c r="E83">
-        <v>44.407</v>
+        <v>143.667</v>
       </c>
       <c r="F83">
-        <v>194.222</v>
+        <v>41.014</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6748,19 +6748,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4.576</v>
+        <v>329.59</v>
       </c>
       <c r="C84">
-        <v>130.256</v>
+        <v>57.692</v>
       </c>
       <c r="D84">
-        <v>67.246</v>
+        <v>54.446</v>
       </c>
       <c r="E84">
-        <v>3.704</v>
+        <v>61.247</v>
       </c>
       <c r="F84">
-        <v>177.934</v>
+        <v>42.38</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6768,19 +6768,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>13.214</v>
+        <v>208.496</v>
       </c>
       <c r="C85">
-        <v>58.298</v>
+        <v>138.571</v>
       </c>
       <c r="D85">
-        <v>42.143</v>
+        <v>108.356</v>
       </c>
       <c r="E85">
-        <v>25.844</v>
+        <v>48.884</v>
       </c>
       <c r="F85">
-        <v>104.116</v>
+        <v>10.893</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6788,19 +6788,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>10.669</v>
+        <v>390.87</v>
       </c>
       <c r="C86">
-        <v>88.753</v>
+        <v>202.259</v>
       </c>
       <c r="D86">
-        <v>1.799</v>
+        <v>55.474</v>
       </c>
       <c r="E86">
-        <v>13.357</v>
+        <v>33.653</v>
       </c>
       <c r="F86">
-        <v>32.017</v>
+        <v>56.156</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6808,19 +6808,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>14.596</v>
+        <v>227.551</v>
       </c>
       <c r="C87">
-        <v>77.42700000000001</v>
+        <v>135.997</v>
       </c>
       <c r="D87">
-        <v>60.387</v>
+        <v>204.178</v>
       </c>
       <c r="E87">
-        <v>14.79</v>
+        <v>123.707</v>
       </c>
       <c r="F87">
-        <v>47.972</v>
+        <v>93.956</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6828,19 +6828,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>16.599</v>
+        <v>76.24299999999999</v>
       </c>
       <c r="C88">
-        <v>256.862</v>
+        <v>13.821</v>
       </c>
       <c r="D88">
-        <v>61.03</v>
+        <v>199.877</v>
       </c>
       <c r="E88">
-        <v>52.636</v>
+        <v>136.971</v>
       </c>
       <c r="F88">
-        <v>46.86</v>
+        <v>40.07</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6848,19 +6848,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>15.612</v>
+        <v>17.735</v>
       </c>
       <c r="C89">
-        <v>151.907</v>
+        <v>21.79</v>
       </c>
       <c r="D89">
-        <v>37.513</v>
+        <v>208.428</v>
       </c>
       <c r="E89">
-        <v>62.531</v>
+        <v>101.183</v>
       </c>
       <c r="F89">
-        <v>132.115</v>
+        <v>86.913</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6868,19 +6868,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>18.612</v>
+        <v>42.936</v>
       </c>
       <c r="C90">
-        <v>14.337</v>
+        <v>125.147</v>
       </c>
       <c r="D90">
-        <v>12.348</v>
+        <v>29.987</v>
       </c>
       <c r="E90">
-        <v>12.459</v>
+        <v>-1.067</v>
       </c>
       <c r="F90">
-        <v>19.326</v>
+        <v>111.138</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6888,19 +6888,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5.962</v>
+        <v>23.884</v>
       </c>
       <c r="C91">
-        <v>216.936</v>
+        <v>62.953</v>
       </c>
       <c r="D91">
-        <v>27.199</v>
+        <v>197.877</v>
       </c>
       <c r="E91">
-        <v>33.392</v>
+        <v>73.111</v>
       </c>
       <c r="F91">
-        <v>116.004</v>
+        <v>12.822</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6908,19 +6908,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>12.371</v>
+        <v>538.274</v>
       </c>
       <c r="C92">
-        <v>-25.864</v>
+        <v>315.354</v>
       </c>
       <c r="D92">
-        <v>83.8</v>
+        <v>374.308</v>
       </c>
       <c r="E92">
-        <v>105.973</v>
+        <v>448.06</v>
       </c>
       <c r="F92">
-        <v>204.58</v>
+        <v>48.549</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6928,19 +6928,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7.755</v>
+        <v>415.436</v>
       </c>
       <c r="C93">
-        <v>301.668</v>
+        <v>137.983</v>
       </c>
       <c r="D93">
-        <v>106.441</v>
+        <v>105.826</v>
       </c>
       <c r="E93">
-        <v>8.839</v>
+        <v>191.213</v>
       </c>
       <c r="F93">
-        <v>187.424</v>
+        <v>50.143</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6948,19 +6948,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>22.393</v>
+        <v>262.841</v>
       </c>
       <c r="C94">
-        <v>135.016</v>
+        <v>329.543</v>
       </c>
       <c r="D94">
-        <v>66.70699999999999</v>
+        <v>209.853</v>
       </c>
       <c r="E94">
-        <v>61.674</v>
+        <v>152.429</v>
       </c>
       <c r="F94">
-        <v>109.669</v>
+        <v>12.867</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6968,19 +6968,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>18.08</v>
+        <v>492.76</v>
       </c>
       <c r="C95">
-        <v>205.549</v>
+        <v>481.718</v>
       </c>
       <c r="D95">
-        <v>2.848</v>
+        <v>107.117</v>
       </c>
       <c r="E95">
-        <v>31.875</v>
+        <v>104.439</v>
       </c>
       <c r="F95">
-        <v>33.725</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6988,19 +6988,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>24.735</v>
+        <v>286.905</v>
       </c>
       <c r="C96">
-        <v>179.318</v>
+        <v>323.929</v>
       </c>
       <c r="D96">
-        <v>95.584</v>
+        <v>396</v>
       </c>
       <c r="E96">
-        <v>35.294</v>
+        <v>386.018</v>
       </c>
       <c r="F96">
-        <v>50.53</v>
+        <v>111.188</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -7008,19 +7008,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>28.13</v>
+        <v>96.211</v>
       </c>
       <c r="C97">
-        <v>594.883</v>
+        <v>32.79</v>
       </c>
       <c r="D97">
-        <v>96.602</v>
+        <v>387.294</v>
       </c>
       <c r="E97">
-        <v>125.61</v>
+        <v>426.082</v>
       </c>
       <c r="F97">
-        <v>49.359</v>
+        <v>47.455</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -7028,19 +7028,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>26.457</v>
+        <v>22.496</v>
       </c>
       <c r="C98">
-        <v>351.811</v>
+        <v>51.699</v>
       </c>
       <c r="D98">
-        <v>59.378</v>
+        <v>404.384</v>
       </c>
       <c r="E98">
-        <v>149.223</v>
+        <v>316.157</v>
       </c>
       <c r="F98">
-        <v>139.161</v>
+        <v>102.78</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7048,19 +7048,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>31.541</v>
+        <v>54.028</v>
       </c>
       <c r="C99">
-        <v>33.204</v>
+        <v>297.48</v>
       </c>
       <c r="D99">
-        <v>19.545</v>
+        <v>57.617</v>
       </c>
       <c r="E99">
-        <v>29.731</v>
+        <v>-2.698</v>
       </c>
       <c r="F99">
-        <v>20.357</v>
+        <v>131.442</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7068,19 +7068,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>10.104</v>
+        <v>30.042</v>
       </c>
       <c r="C100">
-        <v>502.416</v>
+        <v>150.249</v>
       </c>
       <c r="D100">
-        <v>43.052</v>
+        <v>383.311</v>
       </c>
       <c r="E100">
-        <v>79.68600000000001</v>
+        <v>228.376</v>
       </c>
       <c r="F100">
-        <v>122.191</v>
+        <v>15.244</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7088,19 +7088,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>27.258</v>
+        <v>1721.142</v>
       </c>
       <c r="C101">
-        <v>-68.596</v>
+        <v>663.789</v>
       </c>
       <c r="D101">
-        <v>178.521</v>
+        <v>629.454</v>
       </c>
       <c r="E101">
-        <v>126.282</v>
+        <v>661.47</v>
       </c>
       <c r="F101">
-        <v>561.556</v>
+        <v>161.952</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -7108,19 +7108,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>17.084</v>
+        <v>1327.494</v>
       </c>
       <c r="C102">
-        <v>799.8049999999999</v>
+        <v>291.079</v>
       </c>
       <c r="D102">
-        <v>226.753</v>
+        <v>178.004</v>
       </c>
       <c r="E102">
-        <v>10.536</v>
+        <v>282.573</v>
       </c>
       <c r="F102">
-        <v>514.47</v>
+        <v>166.21</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7128,19 +7128,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>49.349</v>
+        <v>841.198</v>
       </c>
       <c r="C103">
-        <v>357.953</v>
+        <v>692.765</v>
       </c>
       <c r="D103">
-        <v>142.107</v>
+        <v>352.621</v>
       </c>
       <c r="E103">
-        <v>73.495</v>
+        <v>225.271</v>
       </c>
       <c r="F103">
-        <v>301.072</v>
+        <v>43.386</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -7148,19 +7148,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>39.843</v>
+        <v>1575.172</v>
       </c>
       <c r="C104">
-        <v>544.96</v>
+        <v>1013.885</v>
       </c>
       <c r="D104">
-        <v>6.068</v>
+        <v>180.125</v>
       </c>
       <c r="E104">
-        <v>37.986</v>
+        <v>154.371</v>
       </c>
       <c r="F104">
-        <v>92.646</v>
+        <v>220.551</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -7168,19 +7168,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>54.512</v>
+        <v>918.503</v>
       </c>
       <c r="C105">
-        <v>475.413</v>
+        <v>682.025</v>
       </c>
       <c r="D105">
-        <v>203.625</v>
+        <v>666.1609999999999</v>
       </c>
       <c r="E105">
-        <v>42.06</v>
+        <v>570.03</v>
       </c>
       <c r="F105">
-        <v>138.768</v>
+        <v>370.123</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -7188,19 +7188,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>61.995</v>
+        <v>307.85</v>
       </c>
       <c r="C106">
-        <v>1577.221</v>
+        <v>68.372</v>
       </c>
       <c r="D106">
-        <v>205.793</v>
+        <v>651.104</v>
       </c>
       <c r="E106">
-        <v>149.682</v>
+        <v>629.159</v>
       </c>
       <c r="F106">
-        <v>135.553</v>
+        <v>157.351</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -7208,19 +7208,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>58.307</v>
+        <v>71.69799999999999</v>
       </c>
       <c r="C107">
-        <v>932.752</v>
+        <v>108.755</v>
       </c>
       <c r="D107">
-        <v>126.495</v>
+        <v>680.292</v>
       </c>
       <c r="E107">
-        <v>177.82</v>
+        <v>466.544</v>
       </c>
       <c r="F107">
-        <v>382.013</v>
+        <v>341.288</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -7228,19 +7228,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>69.51300000000001</v>
+        <v>173.155</v>
       </c>
       <c r="C108">
-        <v>88.014</v>
+        <v>625.867</v>
       </c>
       <c r="D108">
-        <v>41.638</v>
+        <v>96.82599999999999</v>
       </c>
       <c r="E108">
-        <v>35.431</v>
+        <v>-4.021</v>
       </c>
       <c r="F108">
-        <v>55.958</v>
+        <v>435.604</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -7248,19 +7248,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>22.262</v>
+        <v>96.25</v>
       </c>
       <c r="C109">
-        <v>1332.058</v>
+        <v>316.599</v>
       </c>
       <c r="D109">
-        <v>91.715</v>
+        <v>644.696</v>
       </c>
       <c r="E109">
-        <v>94.958</v>
+        <v>337.359</v>
       </c>
       <c r="F109">
-        <v>335.439</v>
+        <v>51.622</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -7268,19 +7268,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>55.093</v>
+        <v>3302.662</v>
       </c>
       <c r="C110">
-        <v>-173.408</v>
+        <v>1689.162</v>
       </c>
       <c r="D110">
-        <v>346.078</v>
+        <v>1530.637</v>
       </c>
       <c r="E110">
-        <v>160.482</v>
+        <v>1374.664</v>
       </c>
       <c r="F110">
-        <v>1185.832</v>
+        <v>427.851</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -7288,19 +7288,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>34.528</v>
+        <v>2547.71</v>
       </c>
       <c r="C111">
-        <v>2021.766</v>
+        <v>741.239</v>
       </c>
       <c r="D111">
-        <v>439.58</v>
+        <v>433.215</v>
       </c>
       <c r="E111">
-        <v>13.392</v>
+        <v>587.9349999999999</v>
       </c>
       <c r="F111">
-        <v>1086.404</v>
+        <v>438.61</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -7308,19 +7308,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>99.746</v>
+        <v>1614.492</v>
       </c>
       <c r="C112">
-        <v>904.837</v>
+        <v>1762.821</v>
       </c>
       <c r="D112">
-        <v>275.487</v>
+        <v>857.04</v>
       </c>
       <c r="E112">
-        <v>93.40000000000001</v>
+        <v>468.918</v>
       </c>
       <c r="F112">
-        <v>635.7859999999999</v>
+        <v>114.551</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -7328,19 +7328,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>80.53100000000001</v>
+        <v>3022.879</v>
       </c>
       <c r="C113">
-        <v>1377.56</v>
+        <v>2581.021</v>
       </c>
       <c r="D113">
-        <v>11.764</v>
+        <v>437.926</v>
       </c>
       <c r="E113">
-        <v>48.275</v>
+        <v>321.146</v>
       </c>
       <c r="F113">
-        <v>195.666</v>
+        <v>581.04</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -7348,19 +7348,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>110.182</v>
+        <v>1763.257</v>
       </c>
       <c r="C114">
-        <v>1201.757</v>
+        <v>1735.366</v>
       </c>
       <c r="D114">
-        <v>394.745</v>
+        <v>1620.03</v>
       </c>
       <c r="E114">
-        <v>53.453</v>
+        <v>1184.938</v>
       </c>
       <c r="F114">
-        <v>293.059</v>
+        <v>975.139</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -7368,19 +7368,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>125.308</v>
+        <v>590.687</v>
       </c>
       <c r="C115">
-        <v>3986.944</v>
+        <v>173.119</v>
       </c>
       <c r="D115">
-        <v>398.948</v>
+        <v>1582.975</v>
       </c>
       <c r="E115">
-        <v>190.219</v>
+        <v>1307.425</v>
       </c>
       <c r="F115">
-        <v>286.27</v>
+        <v>415.342</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7388,19 +7388,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>117.853</v>
+        <v>137.285</v>
       </c>
       <c r="C116">
-        <v>2357.834</v>
+        <v>276.587</v>
       </c>
       <c r="D116">
-        <v>245.222</v>
+        <v>1653.672</v>
       </c>
       <c r="E116">
-        <v>225.977</v>
+        <v>969.247</v>
       </c>
       <c r="F116">
-        <v>806.704</v>
+        <v>898.784</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -7408,19 +7408,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>140.504</v>
+        <v>332.252</v>
       </c>
       <c r="C117">
-        <v>222.476</v>
+        <v>1592.821</v>
       </c>
       <c r="D117">
-        <v>80.72</v>
+        <v>234.894</v>
       </c>
       <c r="E117">
-        <v>45.028</v>
+        <v>-8.257</v>
       </c>
       <c r="F117">
-        <v>118.195</v>
+        <v>1147.393</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -7428,19 +7428,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>44.995</v>
+        <v>184.932</v>
       </c>
       <c r="C118">
-        <v>3367.212</v>
+        <v>806.478</v>
       </c>
       <c r="D118">
-        <v>177.798</v>
+        <v>1567.327</v>
       </c>
       <c r="E118">
-        <v>120.676</v>
+        <v>701.665</v>
       </c>
       <c r="F118">
-        <v>708.356</v>
+        <v>136.36</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -7448,19 +7448,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>153.891</v>
+        <v>7122.368</v>
       </c>
       <c r="C119">
-        <v>-381.648</v>
+        <v>1935.291</v>
       </c>
       <c r="D119">
-        <v>353.646</v>
+        <v>3045.736</v>
       </c>
       <c r="E119">
-        <v>508.371</v>
+        <v>2390.904</v>
       </c>
       <c r="F119">
-        <v>2304.639</v>
+        <v>1112.381</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7468,19 +7468,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>96.446</v>
+        <v>5494.33</v>
       </c>
       <c r="C120">
-        <v>4449.605</v>
+        <v>849.348</v>
       </c>
       <c r="D120">
-        <v>449.192</v>
+        <v>862.223</v>
       </c>
       <c r="E120">
-        <v>42.435</v>
+        <v>1023.087</v>
       </c>
       <c r="F120">
-        <v>2111.403</v>
+        <v>1140.274</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -7488,19 +7488,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>278.625</v>
+        <v>3482.212</v>
       </c>
       <c r="C121">
-        <v>1991.41</v>
+        <v>2019.785</v>
       </c>
       <c r="D121">
-        <v>281.511</v>
+        <v>1705.026</v>
       </c>
       <c r="E121">
-        <v>295.876</v>
+        <v>815.794</v>
       </c>
       <c r="F121">
-        <v>1235.643</v>
+        <v>297.661</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -7508,19 +7508,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>224.95</v>
+        <v>6519.031</v>
       </c>
       <c r="C122">
-        <v>3031.803</v>
+        <v>2957.192</v>
       </c>
       <c r="D122">
-        <v>12.021</v>
+        <v>871.41</v>
       </c>
       <c r="E122">
-        <v>152.934</v>
+        <v>558.663</v>
       </c>
       <c r="F122">
-        <v>380.285</v>
+        <v>1510.311</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -7528,19 +7528,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>307.777</v>
+        <v>3803.551</v>
       </c>
       <c r="C123">
-        <v>2644.887</v>
+        <v>1988.312</v>
       </c>
       <c r="D123">
-        <v>403.377</v>
+        <v>3223.809</v>
       </c>
       <c r="E123">
-        <v>169.336</v>
+        <v>2061.33</v>
       </c>
       <c r="F123">
-        <v>569.5650000000001</v>
+        <v>2535.264</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -7548,19 +7548,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>350.03</v>
+        <v>1274.16</v>
       </c>
       <c r="C124">
-        <v>8774.671</v>
+        <v>198.27</v>
       </c>
       <c r="D124">
-        <v>407.672</v>
+        <v>3150.216</v>
       </c>
       <c r="E124">
-        <v>602.568</v>
+        <v>2274.001</v>
       </c>
       <c r="F124">
-        <v>556.371</v>
+        <v>1079.679</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -7568,19 +7568,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>329.205</v>
+        <v>296.263</v>
       </c>
       <c r="C125">
-        <v>5189.241</v>
+        <v>316.867</v>
       </c>
       <c r="D125">
-        <v>250.584</v>
+        <v>3290.452</v>
       </c>
       <c r="E125">
-        <v>715.837</v>
+        <v>1685.811</v>
       </c>
       <c r="F125">
-        <v>1567.816</v>
+        <v>2337.453</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -7588,19 +7588,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>392.478</v>
+        <v>716.559</v>
       </c>
       <c r="C126">
-        <v>489.634</v>
+        <v>1824.95</v>
       </c>
       <c r="D126">
-        <v>82.485</v>
+        <v>467.683</v>
       </c>
       <c r="E126">
-        <v>142.649</v>
+        <v>-14.144</v>
       </c>
       <c r="F126">
-        <v>229.722</v>
+        <v>2982.546</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -7608,19 +7608,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>125.684</v>
+        <v>398.526</v>
       </c>
       <c r="C127">
-        <v>7410.733</v>
+        <v>924.096</v>
       </c>
       <c r="D127">
-        <v>181.686</v>
+        <v>3118.807</v>
       </c>
       <c r="E127">
-        <v>382.277</v>
+        <v>1220.878</v>
       </c>
       <c r="F127">
-        <v>1376.68</v>
+        <v>354.746</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -7628,19 +7628,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>386.421</v>
+        <v>15956.457</v>
       </c>
       <c r="C128">
-        <v>-864.674</v>
+        <v>5618.138</v>
       </c>
       <c r="D128">
-        <v>364.75</v>
+        <v>4470.594</v>
       </c>
       <c r="E128">
-        <v>1231.438</v>
+        <v>3064.69</v>
       </c>
       <c r="F128">
-        <v>4455.924</v>
+        <v>1947.037</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -7648,19 +7648,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>242.176</v>
+        <v>12309.482</v>
       </c>
       <c r="C129">
-        <v>10081.16</v>
+        <v>2466.18</v>
       </c>
       <c r="D129">
-        <v>463.296</v>
+        <v>1265.661</v>
       </c>
       <c r="E129">
-        <v>102.795</v>
+        <v>1311.484</v>
       </c>
       <c r="F129">
-        <v>4082.311</v>
+        <v>1995.655</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -7668,19 +7668,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>699.629</v>
+        <v>7801.668</v>
       </c>
       <c r="C130">
-        <v>4511.798</v>
+        <v>5864.386</v>
       </c>
       <c r="D130">
-        <v>290.35</v>
+        <v>2502.759</v>
       </c>
       <c r="E130">
-        <v>716.7089999999999</v>
+        <v>1045.742</v>
       </c>
       <c r="F130">
-        <v>2389.068</v>
+        <v>521.112</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7688,19 +7688,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>564.851</v>
+        <v>14604.608</v>
       </c>
       <c r="C131">
-        <v>6868.944</v>
+        <v>8585.614</v>
       </c>
       <c r="D131">
-        <v>12.398</v>
+        <v>1279.083</v>
       </c>
       <c r="E131">
-        <v>370.459</v>
+        <v>716.196</v>
       </c>
       <c r="F131">
-        <v>735.271</v>
+        <v>2643.472</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -7708,19 +7708,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>772.83</v>
+        <v>8521.718999999999</v>
       </c>
       <c r="C132">
-        <v>5992.335</v>
+        <v>5772.956</v>
       </c>
       <c r="D132">
-        <v>416.043</v>
+        <v>4732.019</v>
       </c>
       <c r="E132">
-        <v>410.189</v>
+        <v>2642.315</v>
       </c>
       <c r="F132">
-        <v>1101.236</v>
+        <v>4437.427</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -7728,19 +7728,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>878.928</v>
+        <v>2854.208</v>
       </c>
       <c r="C133">
-        <v>19880.161</v>
+        <v>574.785</v>
       </c>
       <c r="D133">
-        <v>420.472</v>
+        <v>4624.196</v>
       </c>
       <c r="E133">
-        <v>1459.612</v>
+        <v>2914.91</v>
       </c>
       <c r="F133">
-        <v>1075.726</v>
+        <v>1890.063</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -7748,19 +7748,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>826.636</v>
+        <v>663.405</v>
       </c>
       <c r="C134">
-        <v>11756.902</v>
+        <v>919.49</v>
       </c>
       <c r="D134">
-        <v>258.452</v>
+        <v>4829.737</v>
       </c>
       <c r="E134">
-        <v>1733.985</v>
+        <v>2160.963</v>
       </c>
       <c r="F134">
-        <v>3031.31</v>
+        <v>4091.658</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7768,19 +7768,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>985.516</v>
+        <v>1605.295</v>
       </c>
       <c r="C135">
-        <v>1109.329</v>
+        <v>5298.746</v>
       </c>
       <c r="D135">
-        <v>85.075</v>
+        <v>686.693</v>
       </c>
       <c r="E135">
-        <v>345.545</v>
+        <v>-18.045</v>
       </c>
       <c r="F135">
-        <v>444.164</v>
+        <v>5220.675</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -7788,1099 +7788,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>315.593</v>
+        <v>893.0170000000001</v>
       </c>
       <c r="C136">
-        <v>16789.981</v>
+        <v>2683.317</v>
       </c>
       <c r="D136">
-        <v>187.391</v>
+        <v>4577.831</v>
       </c>
       <c r="E136">
-        <v>925.998</v>
+        <v>1565.024</v>
       </c>
       <c r="F136">
-        <v>2661.757</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>695.765</v>
-      </c>
-      <c r="C137">
-        <v>-1491.176</v>
-      </c>
-      <c r="D137">
-        <v>562.421</v>
-      </c>
-      <c r="E137">
-        <v>2303.871</v>
-      </c>
-      <c r="F137">
-        <v>9686.637000000001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>436.046</v>
-      </c>
-      <c r="C138">
-        <v>17385.488</v>
-      </c>
-      <c r="D138">
-        <v>714.372</v>
-      </c>
-      <c r="E138">
-        <v>192.318</v>
-      </c>
-      <c r="F138">
-        <v>8874.448</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>1259.708</v>
-      </c>
-      <c r="C139">
-        <v>7780.831</v>
-      </c>
-      <c r="D139">
-        <v>447.701</v>
-      </c>
-      <c r="E139">
-        <v>1340.876</v>
-      </c>
-      <c r="F139">
-        <v>5193.546</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>1017.035</v>
-      </c>
-      <c r="C140">
-        <v>11845.853</v>
-      </c>
-      <c r="D140">
-        <v>19.117</v>
-      </c>
-      <c r="E140">
-        <v>693.085</v>
-      </c>
-      <c r="F140">
-        <v>1598.394</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>1391.509</v>
-      </c>
-      <c r="C141">
-        <v>10334.095</v>
-      </c>
-      <c r="D141">
-        <v>641.511</v>
-      </c>
-      <c r="E141">
-        <v>767.415</v>
-      </c>
-      <c r="F141">
-        <v>2393.957</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>1582.542</v>
-      </c>
-      <c r="C142">
-        <v>34284.378</v>
-      </c>
-      <c r="D142">
-        <v>648.34</v>
-      </c>
-      <c r="E142">
-        <v>2730.757</v>
-      </c>
-      <c r="F142">
-        <v>2338.501</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>1488.389</v>
-      </c>
-      <c r="C143">
-        <v>20275.392</v>
-      </c>
-      <c r="D143">
-        <v>398.516</v>
-      </c>
-      <c r="E143">
-        <v>3244.076</v>
-      </c>
-      <c r="F143">
-        <v>6589.701</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>1774.458</v>
-      </c>
-      <c r="C144">
-        <v>1913.096</v>
-      </c>
-      <c r="D144">
-        <v>131.18</v>
-      </c>
-      <c r="E144">
-        <v>646.474</v>
-      </c>
-      <c r="F144">
-        <v>965.563</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>568.236</v>
-      </c>
-      <c r="C145">
-        <v>28955.201</v>
-      </c>
-      <c r="D145">
-        <v>288.945</v>
-      </c>
-      <c r="E145">
-        <v>1732.431</v>
-      </c>
-      <c r="F145">
-        <v>5786.338</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146">
-        <v>1334.206</v>
-      </c>
-      <c r="C146">
-        <v>-2726.078</v>
-      </c>
-      <c r="D146">
-        <v>835.456</v>
-      </c>
-      <c r="E146">
-        <v>4493.682</v>
-      </c>
-      <c r="F146">
-        <v>20390.3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>836.1660000000001</v>
-      </c>
-      <c r="C147">
-        <v>31783.095</v>
-      </c>
-      <c r="D147">
-        <v>1061.174</v>
-      </c>
-      <c r="E147">
-        <v>375.115</v>
-      </c>
-      <c r="F147">
-        <v>18680.648</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>2415.629</v>
-      </c>
-      <c r="C148">
-        <v>14224.444</v>
-      </c>
-      <c r="D148">
-        <v>665.044</v>
-      </c>
-      <c r="E148">
-        <v>2615.368</v>
-      </c>
-      <c r="F148">
-        <v>10932.377</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>1950.276</v>
-      </c>
-      <c r="C149">
-        <v>21655.87</v>
-      </c>
-      <c r="D149">
-        <v>28.398</v>
-      </c>
-      <c r="E149">
-        <v>1351.857</v>
-      </c>
-      <c r="F149">
-        <v>3364.609</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>2668.372</v>
-      </c>
-      <c r="C150">
-        <v>18892.166</v>
-      </c>
-      <c r="D150">
-        <v>952.941</v>
-      </c>
-      <c r="E150">
-        <v>1496.837</v>
-      </c>
-      <c r="F150">
-        <v>5039.263</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>3034.698</v>
-      </c>
-      <c r="C151">
-        <v>62676.621</v>
-      </c>
-      <c r="D151">
-        <v>963.086</v>
-      </c>
-      <c r="E151">
-        <v>5326.319</v>
-      </c>
-      <c r="F151">
-        <v>4922.529</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>2854.15</v>
-      </c>
-      <c r="C152">
-        <v>37066.242</v>
-      </c>
-      <c r="D152">
-        <v>591.981</v>
-      </c>
-      <c r="E152">
-        <v>6327.544</v>
-      </c>
-      <c r="F152">
-        <v>13871.273</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>3402.718</v>
-      </c>
-      <c r="C153">
-        <v>3497.406</v>
-      </c>
-      <c r="D153">
-        <v>194.863</v>
-      </c>
-      <c r="E153">
-        <v>1260.943</v>
-      </c>
-      <c r="F153">
-        <v>2032.505</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>1089.655</v>
-      </c>
-      <c r="C154">
-        <v>52934.143</v>
-      </c>
-      <c r="D154">
-        <v>429.217</v>
-      </c>
-      <c r="E154">
-        <v>3379.093</v>
-      </c>
-      <c r="F154">
-        <v>12180.2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>3913.506</v>
-      </c>
-      <c r="C155">
-        <v>-6413.622</v>
-      </c>
-      <c r="D155">
-        <v>2958.626</v>
-      </c>
-      <c r="E155">
-        <v>12259.23</v>
-      </c>
-      <c r="F155">
-        <v>45918.609</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>2452.651</v>
-      </c>
-      <c r="C156">
-        <v>74775.82799999999</v>
-      </c>
-      <c r="D156">
-        <v>3757.97</v>
-      </c>
-      <c r="E156">
-        <v>1023.354</v>
-      </c>
-      <c r="F156">
-        <v>42068.502</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>7085.547</v>
-      </c>
-      <c r="C157">
-        <v>33465.733</v>
-      </c>
-      <c r="D157">
-        <v>2355.141</v>
-      </c>
-      <c r="E157">
-        <v>7134.995</v>
-      </c>
-      <c r="F157">
-        <v>24619.527</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>5720.569</v>
-      </c>
-      <c r="C158">
-        <v>50949.589</v>
-      </c>
-      <c r="D158">
-        <v>100.568</v>
-      </c>
-      <c r="E158">
-        <v>3688.006</v>
-      </c>
-      <c r="F158">
-        <v>7577.043</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>7826.895</v>
-      </c>
-      <c r="C159">
-        <v>44447.445</v>
-      </c>
-      <c r="D159">
-        <v>3374.679</v>
-      </c>
-      <c r="E159">
-        <v>4083.527</v>
-      </c>
-      <c r="F159">
-        <v>11348.335</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>8901.406999999999</v>
-      </c>
-      <c r="C160">
-        <v>147458.776</v>
-      </c>
-      <c r="D160">
-        <v>3410.607</v>
-      </c>
-      <c r="E160">
-        <v>14530.75</v>
-      </c>
-      <c r="F160">
-        <v>11085.452</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>8371.821</v>
-      </c>
-      <c r="C161">
-        <v>87205.446</v>
-      </c>
-      <c r="D161">
-        <v>2096.402</v>
-      </c>
-      <c r="E161">
-        <v>17262.194</v>
-      </c>
-      <c r="F161">
-        <v>31237.871</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>9980.887000000001</v>
-      </c>
-      <c r="C162">
-        <v>8228.317999999999</v>
-      </c>
-      <c r="D162">
-        <v>690.075</v>
-      </c>
-      <c r="E162">
-        <v>3439.983</v>
-      </c>
-      <c r="F162">
-        <v>4577.168</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>3196.187</v>
-      </c>
-      <c r="C163">
-        <v>124537.727</v>
-      </c>
-      <c r="D163">
-        <v>1519.999</v>
-      </c>
-      <c r="E163">
-        <v>9218.514999999999</v>
-      </c>
-      <c r="F163">
-        <v>27429.604</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>10253.685</v>
-      </c>
-      <c r="C164">
-        <v>-14212.297</v>
-      </c>
-      <c r="D164">
-        <v>7268.221</v>
-      </c>
-      <c r="E164">
-        <v>30592.234</v>
-      </c>
-      <c r="F164">
-        <v>101248.095</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>6426.133</v>
-      </c>
-      <c r="C165">
-        <v>165699.867</v>
-      </c>
-      <c r="D165">
-        <v>9231.906000000001</v>
-      </c>
-      <c r="E165">
-        <v>2553.724</v>
-      </c>
-      <c r="F165">
-        <v>92758.814</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>18564.676</v>
-      </c>
-      <c r="C166">
-        <v>74158.557</v>
-      </c>
-      <c r="D166">
-        <v>5785.687</v>
-      </c>
-      <c r="E166">
-        <v>17804.988</v>
-      </c>
-      <c r="F166">
-        <v>54284.75</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>14988.329</v>
-      </c>
-      <c r="C167">
-        <v>112901.995</v>
-      </c>
-      <c r="D167">
-        <v>247.058</v>
-      </c>
-      <c r="E167">
-        <v>9203.216</v>
-      </c>
-      <c r="F167">
-        <v>16706.978</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>20507.064</v>
-      </c>
-      <c r="C168">
-        <v>98493.53599999999</v>
-      </c>
-      <c r="D168">
-        <v>8290.305</v>
-      </c>
-      <c r="E168">
-        <v>10190.217</v>
-      </c>
-      <c r="F168">
-        <v>25022.477</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>23322.368</v>
-      </c>
-      <c r="C169">
-        <v>326762.006</v>
-      </c>
-      <c r="D169">
-        <v>8378.566999999999</v>
-      </c>
-      <c r="E169">
-        <v>36260.687</v>
-      </c>
-      <c r="F169">
-        <v>24442.834</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>21934.812</v>
-      </c>
-      <c r="C170">
-        <v>193243.341</v>
-      </c>
-      <c r="D170">
-        <v>5150.065</v>
-      </c>
-      <c r="E170">
-        <v>43076.855</v>
-      </c>
-      <c r="F170">
-        <v>68877.84699999999</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171">
-        <v>26150.688</v>
-      </c>
-      <c r="C171">
-        <v>18233.582</v>
-      </c>
-      <c r="D171">
-        <v>1695.252</v>
-      </c>
-      <c r="E171">
-        <v>8584.289000000001</v>
-      </c>
-      <c r="F171">
-        <v>10092.413</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172">
-        <v>8374.254999999999</v>
-      </c>
-      <c r="C172">
-        <v>275969.994</v>
-      </c>
-      <c r="D172">
-        <v>3734.061</v>
-      </c>
-      <c r="E172">
-        <v>23004.297</v>
-      </c>
-      <c r="F172">
-        <v>60480.821</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>25672.502</v>
-      </c>
-      <c r="C173">
-        <v>-14845.386</v>
-      </c>
-      <c r="D173">
-        <v>16752.533</v>
-      </c>
-      <c r="E173">
-        <v>71872.969</v>
-      </c>
-      <c r="F173">
-        <v>233664.189</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>16089.329</v>
-      </c>
-      <c r="C174">
-        <v>173080.996</v>
-      </c>
-      <c r="D174">
-        <v>21278.633</v>
-      </c>
-      <c r="E174">
-        <v>5999.684</v>
-      </c>
-      <c r="F174">
-        <v>214072.304</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>46481.014</v>
-      </c>
-      <c r="C175">
-        <v>77461.963</v>
-      </c>
-      <c r="D175">
-        <v>13335.438</v>
-      </c>
-      <c r="E175">
-        <v>41830.791</v>
-      </c>
-      <c r="F175">
-        <v>125280.403</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>37526.792</v>
-      </c>
-      <c r="C176">
-        <v>117931.234</v>
-      </c>
-      <c r="D176">
-        <v>569.444</v>
-      </c>
-      <c r="E176">
-        <v>21621.908</v>
-      </c>
-      <c r="F176">
-        <v>38556.997</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>51344.238</v>
-      </c>
-      <c r="C177">
-        <v>102880.947</v>
-      </c>
-      <c r="D177">
-        <v>19108.336</v>
-      </c>
-      <c r="E177">
-        <v>23940.754</v>
-      </c>
-      <c r="F177">
-        <v>57747.82</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178">
-        <v>58393.01</v>
-      </c>
-      <c r="C178">
-        <v>341317.676</v>
-      </c>
-      <c r="D178">
-        <v>19311.771</v>
-      </c>
-      <c r="E178">
-        <v>85190.35400000001</v>
-      </c>
-      <c r="F178">
-        <v>56410.098</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179">
-        <v>54918.939</v>
-      </c>
-      <c r="C179">
-        <v>201851.399</v>
-      </c>
-      <c r="D179">
-        <v>11870.392</v>
-      </c>
-      <c r="E179">
-        <v>101204.164</v>
-      </c>
-      <c r="F179">
-        <v>158958.905</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180">
-        <v>65474.372</v>
-      </c>
-      <c r="C180">
-        <v>19045.8</v>
-      </c>
-      <c r="D180">
-        <v>3907.389</v>
-      </c>
-      <c r="E180">
-        <v>20167.809</v>
-      </c>
-      <c r="F180">
-        <v>23291.653</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181">
-        <v>20966.909</v>
-      </c>
-      <c r="C181">
-        <v>288263.125</v>
-      </c>
-      <c r="D181">
-        <v>8606.643</v>
-      </c>
-      <c r="E181">
-        <v>54045.976</v>
-      </c>
-      <c r="F181">
-        <v>139579.929</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182">
-        <v>64581.658</v>
-      </c>
-      <c r="C182">
-        <v>-15834.764</v>
-      </c>
-      <c r="D182">
-        <v>38365.679</v>
-      </c>
-      <c r="E182">
-        <v>170364.587</v>
-      </c>
-      <c r="F182">
-        <v>531981.857</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183">
-        <v>40474.261</v>
-      </c>
-      <c r="C183">
-        <v>184616.069</v>
-      </c>
-      <c r="D183">
-        <v>48731.091</v>
-      </c>
-      <c r="E183">
-        <v>14221.392</v>
-      </c>
-      <c r="F183">
-        <v>487377.13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184">
-        <v>116927.48</v>
-      </c>
-      <c r="C184">
-        <v>82624.45600000001</v>
-      </c>
-      <c r="D184">
-        <v>30540.046</v>
-      </c>
-      <c r="E184">
-        <v>99153.90399999999</v>
-      </c>
-      <c r="F184">
-        <v>285225.142</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185">
-        <v>94402.27</v>
-      </c>
-      <c r="C185">
-        <v>125790.822</v>
-      </c>
-      <c r="D185">
-        <v>1304.108</v>
-      </c>
-      <c r="E185">
-        <v>51251.639</v>
-      </c>
-      <c r="F185">
-        <v>87782.484</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186">
-        <v>129161.389</v>
-      </c>
-      <c r="C186">
-        <v>109737.501</v>
-      </c>
-      <c r="D186">
-        <v>43760.802</v>
-      </c>
-      <c r="E186">
-        <v>56748.131</v>
-      </c>
-      <c r="F186">
-        <v>131474.116</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187">
-        <v>146893.257</v>
-      </c>
-      <c r="C187">
-        <v>364064.97</v>
-      </c>
-      <c r="D187">
-        <v>44226.698</v>
-      </c>
-      <c r="E187">
-        <v>201931.543</v>
-      </c>
-      <c r="F187">
-        <v>128428.532</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188">
-        <v>138153.895</v>
-      </c>
-      <c r="C188">
-        <v>215303.89</v>
-      </c>
-      <c r="D188">
-        <v>27184.883</v>
-      </c>
-      <c r="E188">
-        <v>239889.988</v>
-      </c>
-      <c r="F188">
-        <v>361900.785</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>164707.107</v>
-      </c>
-      <c r="C189">
-        <v>20315.117</v>
-      </c>
-      <c r="D189">
-        <v>8948.476000000001</v>
-      </c>
-      <c r="E189">
-        <v>47804.905</v>
-      </c>
-      <c r="F189">
-        <v>53027.967</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>52744.284</v>
-      </c>
-      <c r="C190">
-        <v>307474.571</v>
-      </c>
-      <c r="D190">
-        <v>19710.434</v>
-      </c>
-      <c r="E190">
-        <v>128108.252</v>
-      </c>
-      <c r="F190">
-        <v>317780.787</v>
+        <v>621.128</v>
       </c>
     </row>
   </sheetData>

--- a/Experimentos2/BA.xlsx
+++ b/Experimentos2/BA.xlsx
@@ -722,19 +722,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.945</v>
+        <v>0.91</v>
       </c>
       <c r="C11">
-        <v>0.6909999999999999</v>
+        <v>0.143</v>
       </c>
       <c r="D11">
-        <v>0.95</v>
+        <v>0.656</v>
       </c>
       <c r="E11">
-        <v>1.096</v>
+        <v>1.083</v>
       </c>
       <c r="F11">
-        <v>0.403</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -742,19 +742,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.745</v>
+        <v>0.274</v>
       </c>
       <c r="C12">
-        <v>0.338</v>
+        <v>0.442</v>
       </c>
       <c r="D12">
-        <v>0.316</v>
+        <v>0.753</v>
       </c>
       <c r="E12">
-        <v>0.507</v>
+        <v>0.743</v>
       </c>
       <c r="F12">
-        <v>0.351</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -762,19 +762,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.496</v>
+        <v>0.694</v>
       </c>
       <c r="C13">
-        <v>0.726</v>
+        <v>0.098</v>
       </c>
       <c r="D13">
-        <v>0.5620000000000001</v>
+        <v>0.997</v>
       </c>
       <c r="E13">
-        <v>0.417</v>
+        <v>0.972</v>
       </c>
       <c r="F13">
-        <v>0.118</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -782,19 +782,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.876</v>
+        <v>0.993</v>
       </c>
       <c r="C14">
-        <v>1.032</v>
+        <v>0.135</v>
       </c>
       <c r="D14">
-        <v>0.319</v>
+        <v>0.185</v>
       </c>
       <c r="E14">
-        <v>0.301</v>
+        <v>0.508</v>
       </c>
       <c r="F14">
-        <v>0.421</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -802,19 +802,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.539</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>0.718</v>
+        <v>0.66</v>
       </c>
       <c r="D15">
-        <v>1.002</v>
+        <v>0.761</v>
       </c>
       <c r="E15">
-        <v>0.953</v>
+        <v>0.367</v>
       </c>
       <c r="F15">
-        <v>0.679</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -822,19 +822,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.227</v>
+        <v>0.641</v>
       </c>
       <c r="C16">
-        <v>0.138</v>
+        <v>0.495</v>
       </c>
       <c r="D16">
-        <v>0.98</v>
+        <v>0.886</v>
       </c>
       <c r="E16">
-        <v>1.036</v>
+        <v>0.921</v>
       </c>
       <c r="F16">
-        <v>0.309</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -842,19 +842,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.108</v>
+        <v>0.158</v>
       </c>
       <c r="C17">
-        <v>0.178</v>
+        <v>0.846</v>
       </c>
       <c r="D17">
-        <v>1.019</v>
+        <v>0.537</v>
       </c>
       <c r="E17">
-        <v>0.777</v>
+        <v>0.302</v>
       </c>
       <c r="F17">
-        <v>0.63</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -862,19 +862,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.162</v>
+        <v>0.464</v>
       </c>
       <c r="C18">
-        <v>0.673</v>
+        <v>0.964</v>
       </c>
       <c r="D18">
-        <v>0.204</v>
+        <v>0.094</v>
       </c>
       <c r="E18">
-        <v>0.044</v>
+        <v>0.972</v>
       </c>
       <c r="F18">
-        <v>0.796</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -882,19 +882,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.124</v>
+        <v>1.004</v>
       </c>
       <c r="C19">
-        <v>0.378</v>
+        <v>0.975</v>
       </c>
       <c r="D19">
-        <v>0.971</v>
+        <v>0.517</v>
       </c>
       <c r="E19">
-        <v>0.579</v>
+        <v>0.053</v>
       </c>
       <c r="F19">
-        <v>0.121</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -902,19 +902,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.577</v>
+        <v>1.806</v>
       </c>
       <c r="C20">
-        <v>1.779</v>
+        <v>0.255</v>
       </c>
       <c r="D20">
-        <v>2.033</v>
+        <v>1.287</v>
       </c>
       <c r="E20">
-        <v>3.034</v>
+        <v>2.841</v>
       </c>
       <c r="F20">
-        <v>0.924</v>
+        <v>1.911</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -922,19 +922,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.002</v>
+        <v>0.503</v>
       </c>
       <c r="C21">
-        <v>0.8100000000000001</v>
+        <v>0.928</v>
       </c>
       <c r="D21">
-        <v>0.623</v>
+        <v>1.492</v>
       </c>
       <c r="E21">
-        <v>1.338</v>
+        <v>1.916</v>
       </c>
       <c r="F21">
-        <v>0.912</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -942,19 +942,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.287</v>
+        <v>1.356</v>
       </c>
       <c r="C22">
-        <v>1.865</v>
+        <v>0.143</v>
       </c>
       <c r="D22">
-        <v>1.172</v>
+        <v>1.999</v>
       </c>
       <c r="E22">
-        <v>1.083</v>
+        <v>2.548</v>
       </c>
       <c r="F22">
-        <v>0.304</v>
+        <v>2.048</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -962,19 +962,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.366</v>
+        <v>1.961</v>
       </c>
       <c r="C23">
-        <v>2.696</v>
+        <v>0.222</v>
       </c>
       <c r="D23">
-        <v>0.633</v>
+        <v>0.316</v>
       </c>
       <c r="E23">
-        <v>0.766</v>
+        <v>1.295</v>
       </c>
       <c r="F23">
-        <v>1.157</v>
+        <v>1.825</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -982,19 +982,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.401</v>
+        <v>1.155</v>
       </c>
       <c r="C24">
-        <v>1.834</v>
+        <v>1.409</v>
       </c>
       <c r="D24">
-        <v>2.149</v>
+        <v>1.505</v>
       </c>
       <c r="E24">
-        <v>2.623</v>
+        <v>0.882</v>
       </c>
       <c r="F24">
-        <v>1.873</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1002,19 +1002,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.507</v>
+        <v>1.235</v>
       </c>
       <c r="C25">
-        <v>0.245</v>
+        <v>1.029</v>
       </c>
       <c r="D25">
-        <v>2.104</v>
+        <v>1.768</v>
       </c>
       <c r="E25">
-        <v>2.89</v>
+        <v>2.426</v>
       </c>
       <c r="F25">
-        <v>0.851</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1022,19 +1022,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.162</v>
+        <v>0.244</v>
       </c>
       <c r="C26">
-        <v>0.35</v>
+        <v>1.821</v>
       </c>
       <c r="D26">
-        <v>2.191</v>
+        <v>1.044</v>
       </c>
       <c r="E26">
-        <v>2.152</v>
+        <v>0.742</v>
       </c>
       <c r="F26">
-        <v>1.739</v>
+        <v>1.758</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1042,19 +1042,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.312</v>
+        <v>0.865</v>
       </c>
       <c r="C27">
-        <v>1.698</v>
+        <v>2.085</v>
       </c>
       <c r="D27">
-        <v>0.374</v>
+        <v>0.124</v>
       </c>
       <c r="E27">
-        <v>0.047</v>
+        <v>2.589</v>
       </c>
       <c r="F27">
-        <v>2.198</v>
+        <v>1.212</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1062,19 +1062,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.2</v>
+        <v>1.963</v>
       </c>
       <c r="C28">
-        <v>0.889</v>
+        <v>2.106</v>
       </c>
       <c r="D28">
-        <v>2.084</v>
+        <v>1.002</v>
       </c>
       <c r="E28">
-        <v>1.576</v>
+        <v>0.056</v>
       </c>
       <c r="F28">
-        <v>0.334</v>
+        <v>1.609</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1082,19 +1082,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6.51</v>
+        <v>3.04</v>
       </c>
       <c r="C29">
-        <v>2.902</v>
+        <v>0.452</v>
       </c>
       <c r="D29">
-        <v>4.247</v>
+        <v>2.129</v>
       </c>
       <c r="E29">
-        <v>6.366</v>
+        <v>7.347</v>
       </c>
       <c r="F29">
-        <v>1.587</v>
+        <v>3.966</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1102,19 +1102,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.037</v>
+        <v>0.819</v>
       </c>
       <c r="C30">
-        <v>1.297</v>
+        <v>1.775</v>
       </c>
       <c r="D30">
-        <v>1.249</v>
+        <v>2.477</v>
       </c>
       <c r="E30">
-        <v>2.761</v>
+        <v>4.914</v>
       </c>
       <c r="F30">
-        <v>1.612</v>
+        <v>1.482</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1122,19 +1122,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3.205</v>
+        <v>2.269</v>
       </c>
       <c r="C31">
-        <v>3.04</v>
+        <v>0.227</v>
       </c>
       <c r="D31">
-        <v>2.417</v>
+        <v>3.335</v>
       </c>
       <c r="E31">
-        <v>2.22</v>
+        <v>6.58</v>
       </c>
       <c r="F31">
-        <v>0.512</v>
+        <v>4.323</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1142,19 +1142,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.965</v>
+        <v>3.296</v>
       </c>
       <c r="C32">
-        <v>4.413</v>
+        <v>0.381</v>
       </c>
       <c r="D32">
-        <v>1.271</v>
+        <v>0.49</v>
       </c>
       <c r="E32">
-        <v>1.552</v>
+        <v>3.288</v>
       </c>
       <c r="F32">
-        <v>2.08</v>
+        <v>3.846</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1162,19 +1162,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3.494</v>
+        <v>1.923</v>
       </c>
       <c r="C33">
-        <v>2.986</v>
+        <v>2.716</v>
       </c>
       <c r="D33">
-        <v>4.494</v>
+        <v>2.497</v>
       </c>
       <c r="E33">
-        <v>5.493</v>
+        <v>2.19</v>
       </c>
       <c r="F33">
-        <v>3.392</v>
+        <v>5.048</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1182,19 +1182,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.205</v>
+        <v>2.057</v>
       </c>
       <c r="C34">
-        <v>0.356</v>
+        <v>1.966</v>
       </c>
       <c r="D34">
-        <v>4.4</v>
+        <v>2.944</v>
       </c>
       <c r="E34">
-        <v>6.07</v>
+        <v>6.265</v>
       </c>
       <c r="F34">
-        <v>1.521</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1202,19 +1202,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.32</v>
+        <v>0.368</v>
       </c>
       <c r="C35">
-        <v>0.528</v>
+        <v>3.523</v>
       </c>
       <c r="D35">
-        <v>4.585</v>
+        <v>1.72</v>
       </c>
       <c r="E35">
-        <v>4.504</v>
+        <v>1.836</v>
       </c>
       <c r="F35">
-        <v>3.147</v>
+        <v>3.703</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1222,19 +1222,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.702</v>
+        <v>1.423</v>
       </c>
       <c r="C36">
-        <v>2.756</v>
+        <v>4.042</v>
       </c>
       <c r="D36">
-        <v>0.719</v>
+        <v>0.163</v>
       </c>
       <c r="E36">
-        <v>0.031</v>
+        <v>6.703</v>
       </c>
       <c r="F36">
-        <v>3.988</v>
+        <v>2.522</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1242,19 +1242,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.414</v>
+        <v>3.29</v>
       </c>
       <c r="C37">
-        <v>1.417</v>
+        <v>4.081</v>
       </c>
       <c r="D37">
-        <v>4.357</v>
+        <v>1.648</v>
       </c>
       <c r="E37">
-        <v>3.277</v>
+        <v>0.028</v>
       </c>
       <c r="F37">
-        <v>0.575</v>
+        <v>3.381</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1262,19 +1262,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>16.323</v>
+        <v>4.848</v>
       </c>
       <c r="C38">
-        <v>4.082</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D38">
-        <v>8.867000000000001</v>
+        <v>3.327</v>
       </c>
       <c r="E38">
-        <v>12.668</v>
+        <v>19.098</v>
       </c>
       <c r="F38">
-        <v>2.52</v>
+        <v>8.015000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1282,19 +1282,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>12.612</v>
+        <v>1.283</v>
       </c>
       <c r="C39">
-        <v>1.809</v>
+        <v>3.33</v>
       </c>
       <c r="D39">
-        <v>2.554</v>
+        <v>3.878</v>
       </c>
       <c r="E39">
-        <v>5.449</v>
+        <v>12.729</v>
       </c>
       <c r="F39">
-        <v>2.586</v>
+        <v>2.905</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1302,19 +1302,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7.996</v>
+        <v>3.608</v>
       </c>
       <c r="C40">
-        <v>4.275</v>
+        <v>0.385</v>
       </c>
       <c r="D40">
-        <v>5.014</v>
+        <v>5.236</v>
       </c>
       <c r="E40">
-        <v>4.366</v>
+        <v>17.092</v>
       </c>
       <c r="F40">
-        <v>0.782</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1322,19 +1322,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>14.948</v>
+        <v>5.255</v>
       </c>
       <c r="C41">
-        <v>6.217</v>
+        <v>0.677</v>
       </c>
       <c r="D41">
-        <v>2.601</v>
+        <v>0.737</v>
       </c>
       <c r="E41">
-        <v>3.031</v>
+        <v>8.476000000000001</v>
       </c>
       <c r="F41">
-        <v>3.368</v>
+        <v>7.797</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1342,19 +1342,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>8.723000000000001</v>
+        <v>3.051</v>
       </c>
       <c r="C42">
-        <v>4.197</v>
+        <v>5.117</v>
       </c>
       <c r="D42">
-        <v>9.387</v>
+        <v>3.909</v>
       </c>
       <c r="E42">
-        <v>10.92</v>
+        <v>5.597</v>
       </c>
       <c r="F42">
-        <v>5.529</v>
+        <v>10.281</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1362,19 +1362,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.956</v>
+        <v>3.265</v>
       </c>
       <c r="C43">
-        <v>0.473</v>
+        <v>3.69</v>
       </c>
       <c r="D43">
-        <v>9.19</v>
+        <v>4.617</v>
       </c>
       <c r="E43">
-        <v>12.08</v>
+        <v>16.27</v>
       </c>
       <c r="F43">
-        <v>2.448</v>
+        <v>1.534</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1382,19 +1382,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.726</v>
+        <v>0.553</v>
       </c>
       <c r="C44">
-        <v>0.716</v>
+        <v>6.65</v>
       </c>
       <c r="D44">
-        <v>9.58</v>
+        <v>2.681</v>
       </c>
       <c r="E44">
-        <v>8.945</v>
+        <v>4.676</v>
       </c>
       <c r="F44">
-        <v>5.126</v>
+        <v>7.503</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1402,19 +1402,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.687</v>
+        <v>2.245</v>
       </c>
       <c r="C45">
-        <v>3.868</v>
+        <v>7.637</v>
       </c>
       <c r="D45">
-        <v>1.438</v>
+        <v>0.218</v>
       </c>
       <c r="E45">
-        <v>-0.011</v>
+        <v>17.42</v>
       </c>
       <c r="F45">
-        <v>6.511</v>
+        <v>5.063</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1422,19 +1422,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.961</v>
+        <v>5.239</v>
       </c>
       <c r="C46">
-        <v>1.972</v>
+        <v>7.71</v>
       </c>
       <c r="D46">
-        <v>9.099</v>
+        <v>2.567</v>
       </c>
       <c r="E46">
-        <v>6.487</v>
+        <v>-0.059</v>
       </c>
       <c r="F46">
-        <v>0.89</v>
+        <v>6.838</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1442,19 +1442,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>32.841</v>
+        <v>9.272</v>
       </c>
       <c r="C47">
-        <v>8.747999999999999</v>
+        <v>1.272</v>
       </c>
       <c r="D47">
-        <v>16.575</v>
+        <v>7.502</v>
       </c>
       <c r="E47">
-        <v>25.713</v>
+        <v>41.134</v>
       </c>
       <c r="F47">
-        <v>4.264</v>
+        <v>19.091</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1462,19 +1462,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>25.363</v>
+        <v>2.42</v>
       </c>
       <c r="C48">
-        <v>3.843</v>
+        <v>5.289</v>
       </c>
       <c r="D48">
-        <v>4.731</v>
+        <v>8.76</v>
       </c>
       <c r="E48">
-        <v>11.011</v>
+        <v>27.383</v>
       </c>
       <c r="F48">
-        <v>4.394</v>
+        <v>6.766</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1482,19 +1482,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>16.062</v>
+        <v>6.887</v>
       </c>
       <c r="C49">
-        <v>9.163</v>
+        <v>0.585</v>
       </c>
       <c r="D49">
-        <v>9.346</v>
+        <v>11.859</v>
       </c>
       <c r="E49">
-        <v>8.805999999999999</v>
+        <v>36.804</v>
       </c>
       <c r="F49">
-        <v>1.258</v>
+        <v>20.951</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1502,19 +1502,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>30.07</v>
+        <v>10.052</v>
       </c>
       <c r="C50">
-        <v>13.352</v>
+        <v>1.05</v>
       </c>
       <c r="D50">
-        <v>4.819</v>
+        <v>1.594</v>
       </c>
       <c r="E50">
-        <v>6.088</v>
+        <v>18.202</v>
       </c>
       <c r="F50">
-        <v>5.762</v>
+        <v>18.579</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1522,19 +1522,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>17.526</v>
+        <v>5.816</v>
       </c>
       <c r="C51">
-        <v>8.994</v>
+        <v>8.141999999999999</v>
       </c>
       <c r="D51">
-        <v>17.55</v>
+        <v>8.83</v>
       </c>
       <c r="E51">
-        <v>22.153</v>
+        <v>11.985</v>
       </c>
       <c r="F51">
-        <v>9.523999999999999</v>
+        <v>24.576</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1542,19 +1542,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5.905</v>
+        <v>6.226</v>
       </c>
       <c r="C52">
-        <v>0.958</v>
+        <v>5.862</v>
       </c>
       <c r="D52">
-        <v>17.181</v>
+        <v>10.446</v>
       </c>
       <c r="E52">
-        <v>24.518</v>
+        <v>35.03</v>
       </c>
       <c r="F52">
-        <v>4.161</v>
+        <v>3.461</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1562,19 +1562,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.411</v>
+        <v>1.013</v>
       </c>
       <c r="C53">
-        <v>1.482</v>
+        <v>10.589</v>
       </c>
       <c r="D53">
-        <v>17.913</v>
+        <v>6.028</v>
       </c>
       <c r="E53">
-        <v>18.134</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="F53">
-        <v>8.823</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1582,19 +1582,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3.347</v>
+        <v>4.264</v>
       </c>
       <c r="C54">
-        <v>8.281000000000001</v>
+        <v>12.166</v>
       </c>
       <c r="D54">
-        <v>2.637</v>
+        <v>0.408</v>
       </c>
       <c r="E54">
-        <v>-0.106</v>
+        <v>37.514</v>
       </c>
       <c r="F54">
-        <v>11.234</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1602,19 +1602,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.884</v>
+        <v>10.017</v>
       </c>
       <c r="C55">
-        <v>4.19</v>
+        <v>12.282</v>
       </c>
       <c r="D55">
-        <v>17.01</v>
+        <v>5.768</v>
       </c>
       <c r="E55">
-        <v>13.127</v>
+        <v>-0.225</v>
       </c>
       <c r="F55">
-        <v>1.449</v>
+        <v>16.265</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1622,19 +1622,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>62.87</v>
+        <v>8.916</v>
       </c>
       <c r="C56">
-        <v>20.932</v>
+        <v>2.387</v>
       </c>
       <c r="D56">
-        <v>30.076</v>
+        <v>8.336</v>
       </c>
       <c r="E56">
-        <v>52.494</v>
+        <v>41.863</v>
       </c>
       <c r="F56">
-        <v>7.426</v>
+        <v>19.969</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1642,19 +1642,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>48.544</v>
+        <v>1.324</v>
       </c>
       <c r="C57">
-        <v>9.157</v>
+        <v>5.385</v>
       </c>
       <c r="D57">
-        <v>8.544</v>
+        <v>9.074999999999999</v>
       </c>
       <c r="E57">
-        <v>22.428</v>
+        <v>27.691</v>
       </c>
       <c r="F57">
-        <v>7.665</v>
+        <v>6.732</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1662,19 +1662,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>30.726</v>
+        <v>7.937</v>
       </c>
       <c r="C58">
-        <v>21.927</v>
+        <v>1.597</v>
       </c>
       <c r="D58">
-        <v>16.934</v>
+        <v>11.608</v>
       </c>
       <c r="E58">
-        <v>17.919</v>
+        <v>37.087</v>
       </c>
       <c r="F58">
-        <v>2.106</v>
+        <v>21.904</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1682,19 +1682,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>57.561</v>
+        <v>9.747999999999999</v>
       </c>
       <c r="C59">
-        <v>31.983</v>
+        <v>1.504</v>
       </c>
       <c r="D59">
-        <v>8.704000000000001</v>
+        <v>1.068</v>
       </c>
       <c r="E59">
-        <v>12.362</v>
+        <v>19.354</v>
       </c>
       <c r="F59">
-        <v>10.095</v>
+        <v>17.666</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1702,19 +1702,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>33.53</v>
+        <v>5.546</v>
       </c>
       <c r="C60">
-        <v>21.521</v>
+        <v>7.657</v>
       </c>
       <c r="D60">
-        <v>31.848</v>
+        <v>9.471</v>
       </c>
       <c r="E60">
-        <v>45.213</v>
+        <v>13.172</v>
       </c>
       <c r="F60">
-        <v>16.767</v>
+        <v>24.718</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1722,19 +1722,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>11.267</v>
+        <v>7.345</v>
       </c>
       <c r="C61">
-        <v>2.23</v>
+        <v>5.156</v>
       </c>
       <c r="D61">
-        <v>31.178</v>
+        <v>10.313</v>
       </c>
       <c r="E61">
-        <v>50.051</v>
+        <v>35.712</v>
       </c>
       <c r="F61">
-        <v>7.256</v>
+        <v>3.206</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1742,19 +1742,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>2.658</v>
+        <v>1.582</v>
       </c>
       <c r="C62">
-        <v>3.488</v>
+        <v>11.145</v>
       </c>
       <c r="D62">
-        <v>32.509</v>
+        <v>7.265</v>
       </c>
       <c r="E62">
-        <v>36.996</v>
+        <v>9.031000000000001</v>
       </c>
       <c r="F62">
-        <v>15.524</v>
+        <v>17.239</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1762,19 +1762,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6.366</v>
+        <v>5.431</v>
       </c>
       <c r="C63">
-        <v>19.808</v>
+        <v>11.346</v>
       </c>
       <c r="D63">
-        <v>4.737</v>
+        <v>0.698</v>
       </c>
       <c r="E63">
-        <v>-0.304</v>
+        <v>38.719</v>
       </c>
       <c r="F63">
-        <v>19.8</v>
+        <v>12.468</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1782,19 +1782,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3.563</v>
+        <v>10.911</v>
       </c>
       <c r="C64">
-        <v>9.988</v>
+        <v>12.909</v>
       </c>
       <c r="D64">
-        <v>30.867</v>
+        <v>5.345</v>
       </c>
       <c r="E64">
-        <v>26.756</v>
+        <v>0.477</v>
       </c>
       <c r="F64">
-        <v>2.446</v>
+        <v>16.356</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1802,19 +1802,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>138.633</v>
+        <v>19.042</v>
       </c>
       <c r="C65">
-        <v>51.808</v>
+        <v>4.274</v>
       </c>
       <c r="D65">
-        <v>68.542</v>
+        <v>16.28</v>
       </c>
       <c r="E65">
-        <v>94.735</v>
+        <v>84.996</v>
       </c>
       <c r="F65">
-        <v>16.992</v>
+        <v>40.48</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1822,19 +1822,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>107.03</v>
+        <v>3.281</v>
       </c>
       <c r="C66">
-        <v>22.624</v>
+        <v>10.606</v>
       </c>
       <c r="D66">
-        <v>19.407</v>
+        <v>18.063</v>
       </c>
       <c r="E66">
-        <v>40.436</v>
+        <v>56.285</v>
       </c>
       <c r="F66">
-        <v>17.551</v>
+        <v>13.714</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1842,19 +1842,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>67.724</v>
+        <v>16.289</v>
       </c>
       <c r="C67">
-        <v>54.274</v>
+        <v>2.744</v>
       </c>
       <c r="D67">
-        <v>38.553</v>
+        <v>23.492</v>
       </c>
       <c r="E67">
-        <v>32.292</v>
+        <v>75.48399999999999</v>
       </c>
       <c r="F67">
-        <v>4.65</v>
+        <v>44.433</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1862,19 +1862,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>126.921</v>
+        <v>20.782</v>
       </c>
       <c r="C68">
-        <v>79.197</v>
+        <v>2.767</v>
       </c>
       <c r="D68">
-        <v>19.772</v>
+        <v>2.38</v>
       </c>
       <c r="E68">
-        <v>22.257</v>
+        <v>38.81</v>
       </c>
       <c r="F68">
-        <v>23.194</v>
+        <v>36.784</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1882,19 +1882,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>73.90900000000001</v>
+        <v>11.846</v>
       </c>
       <c r="C69">
-        <v>53.267</v>
+        <v>15.332</v>
       </c>
       <c r="D69">
-        <v>72.58499999999999</v>
+        <v>18.679</v>
       </c>
       <c r="E69">
-        <v>81.58499999999999</v>
+        <v>26.168</v>
       </c>
       <c r="F69">
-        <v>38.681</v>
+        <v>50.713</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1902,19 +1902,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>24.796</v>
+        <v>14.998</v>
       </c>
       <c r="C70">
-        <v>5.456</v>
+        <v>10.45</v>
       </c>
       <c r="D70">
-        <v>71.057</v>
+        <v>20.813</v>
       </c>
       <c r="E70">
-        <v>90.32299999999999</v>
+        <v>72.46299999999999</v>
       </c>
       <c r="F70">
-        <v>16.604</v>
+        <v>6.572</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1922,19 +1922,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5.805</v>
+        <v>3.028</v>
       </c>
       <c r="C71">
-        <v>8.574</v>
+        <v>21.865</v>
       </c>
       <c r="D71">
-        <v>74.09399999999999</v>
+        <v>13.893</v>
       </c>
       <c r="E71">
-        <v>66.746</v>
+        <v>18.871</v>
       </c>
       <c r="F71">
-        <v>35.796</v>
+        <v>35.738</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1942,19 +1942,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>13.985</v>
+        <v>10.911</v>
       </c>
       <c r="C72">
-        <v>49.021</v>
+        <v>22.779</v>
       </c>
       <c r="D72">
-        <v>10.72</v>
+        <v>1.174</v>
       </c>
       <c r="E72">
-        <v>-0.617</v>
+        <v>78.322</v>
       </c>
       <c r="F72">
-        <v>45.721</v>
+        <v>25.242</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1962,19 +1962,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7.801</v>
+        <v>22.674</v>
       </c>
       <c r="C73">
-        <v>24.683</v>
+        <v>25.34</v>
       </c>
       <c r="D73">
-        <v>70.34699999999999</v>
+        <v>10.951</v>
       </c>
       <c r="E73">
-        <v>48.252</v>
+        <v>0.508</v>
       </c>
       <c r="F73">
-        <v>5.44</v>
+        <v>33.494</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1982,19 +1982,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>315.286</v>
+        <v>18.701</v>
       </c>
       <c r="C74">
-        <v>129.01</v>
+        <v>3.975</v>
       </c>
       <c r="D74">
-        <v>163.977</v>
+        <v>16.839</v>
       </c>
       <c r="E74">
-        <v>164.897</v>
+        <v>85.759</v>
       </c>
       <c r="F74">
-        <v>41.428</v>
+        <v>39.916</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2002,19 +2002,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>243.399</v>
+        <v>4.339</v>
       </c>
       <c r="C75">
-        <v>56.297</v>
+        <v>9.654</v>
       </c>
       <c r="D75">
-        <v>46.358</v>
+        <v>18.115</v>
       </c>
       <c r="E75">
-        <v>70.34699999999999</v>
+        <v>56.485</v>
       </c>
       <c r="F75">
-        <v>42.801</v>
+        <v>14.235</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2022,19 +2022,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>153.99</v>
+        <v>16.584</v>
       </c>
       <c r="C76">
-        <v>135.154</v>
+        <v>2.278</v>
       </c>
       <c r="D76">
-        <v>92.19</v>
+        <v>22.584</v>
       </c>
       <c r="E76">
-        <v>56.165</v>
+        <v>75.535</v>
       </c>
       <c r="F76">
-        <v>11.141</v>
+        <v>45.127</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2042,19 +2042,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>288.645</v>
+        <v>20.499</v>
       </c>
       <c r="C77">
-        <v>197.25</v>
+        <v>2.773</v>
       </c>
       <c r="D77">
-        <v>47.232</v>
+        <v>2.724</v>
       </c>
       <c r="E77">
-        <v>38.692</v>
+        <v>38.817</v>
       </c>
       <c r="F77">
-        <v>56.652</v>
+        <v>35.755</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2062,19 +2062,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>168.059</v>
+        <v>11.885</v>
       </c>
       <c r="C78">
-        <v>132.645</v>
+        <v>15.02</v>
       </c>
       <c r="D78">
-        <v>173.654</v>
+        <v>19.298</v>
       </c>
       <c r="E78">
-        <v>141.999</v>
+        <v>25.82</v>
       </c>
       <c r="F78">
-        <v>94.66</v>
+        <v>50.716</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2082,19 +2082,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>56.342</v>
+        <v>15.565</v>
       </c>
       <c r="C79">
-        <v>13.523</v>
+        <v>10.418</v>
       </c>
       <c r="D79">
-        <v>169.997</v>
+        <v>21.681</v>
       </c>
       <c r="E79">
-        <v>157.215</v>
+        <v>72.333</v>
       </c>
       <c r="F79">
-        <v>40.478</v>
+        <v>5.635</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2102,19 +2102,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>13.143</v>
+        <v>3.328</v>
       </c>
       <c r="C80">
-        <v>21.292</v>
+        <v>21.466</v>
       </c>
       <c r="D80">
-        <v>177.267</v>
+        <v>13.575</v>
       </c>
       <c r="E80">
-        <v>116.16</v>
+        <v>17.795</v>
       </c>
       <c r="F80">
-        <v>87.57899999999999</v>
+        <v>36.061</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2122,19 +2122,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>31.75</v>
+        <v>11.685</v>
       </c>
       <c r="C81">
-        <v>122.066</v>
+        <v>22.912</v>
       </c>
       <c r="D81">
-        <v>25.564</v>
+        <v>0.184</v>
       </c>
       <c r="E81">
-        <v>-1.138</v>
+        <v>79.425</v>
       </c>
       <c r="F81">
-        <v>111.937</v>
+        <v>24.939</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2142,19 +2142,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>17.683</v>
+        <v>22.989</v>
       </c>
       <c r="C82">
-        <v>61.427</v>
+        <v>24.529</v>
       </c>
       <c r="D82">
-        <v>168.297</v>
+        <v>11.969</v>
       </c>
       <c r="E82">
-        <v>83.95699999999999</v>
+        <v>1.613</v>
       </c>
       <c r="F82">
-        <v>13.08</v>
+        <v>33.692</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2162,19 +2162,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>742.2380000000001</v>
+        <v>40.504</v>
       </c>
       <c r="C83">
-        <v>261.279</v>
+        <v>5.882</v>
       </c>
       <c r="D83">
-        <v>356.773</v>
+        <v>37.393</v>
       </c>
       <c r="E83">
-        <v>308.564</v>
+        <v>164.617</v>
       </c>
       <c r="F83">
-        <v>82.44199999999999</v>
+        <v>64.837</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2182,19 +2182,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>572.989</v>
+        <v>8.981999999999999</v>
       </c>
       <c r="C84">
-        <v>113.989</v>
+        <v>14.923</v>
       </c>
       <c r="D84">
-        <v>100.804</v>
+        <v>40.673</v>
       </c>
       <c r="E84">
-        <v>131.594</v>
+        <v>108.597</v>
       </c>
       <c r="F84">
-        <v>85.181</v>
+        <v>22.776</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2202,19 +2202,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>362.486</v>
+        <v>35.288</v>
       </c>
       <c r="C85">
-        <v>273.725</v>
+        <v>3.436</v>
       </c>
       <c r="D85">
-        <v>200.546</v>
+        <v>51.399</v>
       </c>
       <c r="E85">
-        <v>105.049</v>
+        <v>145.394</v>
       </c>
       <c r="F85">
-        <v>22.034</v>
+        <v>72.64400000000001</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2222,19 +2222,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>679.515</v>
+        <v>44.335</v>
       </c>
       <c r="C86">
-        <v>399.509</v>
+        <v>4.05</v>
       </c>
       <c r="D86">
-        <v>102.706</v>
+        <v>6.032</v>
       </c>
       <c r="E86">
-        <v>72.345</v>
+        <v>74.423</v>
       </c>
       <c r="F86">
-        <v>112.808</v>
+        <v>58.821</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2242,19 +2242,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>395.61</v>
+        <v>25.595</v>
       </c>
       <c r="C87">
-        <v>268.642</v>
+        <v>22.77</v>
       </c>
       <c r="D87">
-        <v>377.832</v>
+        <v>42.965</v>
       </c>
       <c r="E87">
-        <v>265.706</v>
+        <v>49.547</v>
       </c>
       <c r="F87">
-        <v>188.616</v>
+        <v>82.319</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2262,19 +2262,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>132.585</v>
+        <v>32.932</v>
       </c>
       <c r="C88">
-        <v>27.344</v>
+        <v>15.764</v>
       </c>
       <c r="D88">
-        <v>369.874</v>
+        <v>48.432</v>
       </c>
       <c r="E88">
-        <v>294.186</v>
+        <v>139.211</v>
       </c>
       <c r="F88">
-        <v>80.548</v>
+        <v>9.605</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2282,19 +2282,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>30.878</v>
+        <v>6.827</v>
       </c>
       <c r="C89">
-        <v>43.082</v>
+        <v>32.293</v>
       </c>
       <c r="D89">
-        <v>385.695</v>
+        <v>30.359</v>
       </c>
       <c r="E89">
-        <v>217.343</v>
+        <v>35.019</v>
       </c>
       <c r="F89">
-        <v>174.492</v>
+        <v>58.542</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2302,19 +2302,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>74.68600000000001</v>
+        <v>24.45</v>
       </c>
       <c r="C90">
-        <v>247.213</v>
+        <v>34.459</v>
       </c>
       <c r="D90">
-        <v>55.551</v>
+        <v>0.746</v>
       </c>
       <c r="E90">
-        <v>-2.205</v>
+        <v>152.112</v>
       </c>
       <c r="F90">
-        <v>223.075</v>
+        <v>40.46</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2322,19 +2322,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>41.567</v>
+        <v>49.113</v>
       </c>
       <c r="C91">
-        <v>124.38</v>
+        <v>37.082</v>
       </c>
       <c r="D91">
-        <v>366.174</v>
+        <v>26.523</v>
       </c>
       <c r="E91">
-        <v>157.068</v>
+        <v>2.28</v>
       </c>
       <c r="F91">
-        <v>25.902</v>
+        <v>54.549</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2342,19 +2342,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>742.193</v>
+        <v>40.28</v>
       </c>
       <c r="C92">
-        <v>262.346</v>
+        <v>5.113</v>
       </c>
       <c r="D92">
-        <v>357.377</v>
+        <v>38.361</v>
       </c>
       <c r="E92">
-        <v>308.802</v>
+        <v>164.206</v>
       </c>
       <c r="F92">
-        <v>82.991</v>
+        <v>65.851</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2362,19 +2362,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>572.353</v>
+        <v>9.715</v>
       </c>
       <c r="C93">
-        <v>115.077</v>
+        <v>14.404</v>
       </c>
       <c r="D93">
-        <v>101.211</v>
+        <v>40.802</v>
       </c>
       <c r="E93">
-        <v>131.898</v>
+        <v>108.485</v>
       </c>
       <c r="F93">
-        <v>85.498</v>
+        <v>23.144</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2382,19 +2382,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>362.347</v>
+        <v>36.174</v>
       </c>
       <c r="C94">
-        <v>273.646</v>
+        <v>3.548</v>
       </c>
       <c r="D94">
-        <v>199.868</v>
+        <v>50.591</v>
       </c>
       <c r="E94">
-        <v>105.102</v>
+        <v>146.152</v>
       </c>
       <c r="F94">
-        <v>21.877</v>
+        <v>72.18600000000001</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2402,19 +2402,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>679.317</v>
+        <v>44.367</v>
       </c>
       <c r="C95">
-        <v>400.418</v>
+        <v>3.193</v>
       </c>
       <c r="D95">
-        <v>101.729</v>
+        <v>5.563</v>
       </c>
       <c r="E95">
-        <v>71.878</v>
+        <v>73.63800000000001</v>
       </c>
       <c r="F95">
-        <v>113.855</v>
+        <v>59.399</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2422,19 +2422,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>395.741</v>
+        <v>25.262</v>
       </c>
       <c r="C96">
-        <v>269.291</v>
+        <v>22.388</v>
       </c>
       <c r="D96">
-        <v>377.673</v>
+        <v>42.727</v>
       </c>
       <c r="E96">
-        <v>266.122</v>
+        <v>48.57</v>
       </c>
       <c r="F96">
-        <v>189.548</v>
+        <v>81.988</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2442,19 +2442,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>133.167</v>
+        <v>32.755</v>
       </c>
       <c r="C97">
-        <v>27.223</v>
+        <v>16.314</v>
       </c>
       <c r="D97">
-        <v>369.001</v>
+        <v>48.574</v>
       </c>
       <c r="E97">
-        <v>293.303</v>
+        <v>139.947</v>
       </c>
       <c r="F97">
-        <v>81.342</v>
+        <v>10.226</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2462,19 +2462,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>31.787</v>
+        <v>6.412</v>
       </c>
       <c r="C98">
-        <v>42.897</v>
+        <v>32.371</v>
       </c>
       <c r="D98">
-        <v>385.81</v>
+        <v>30.552</v>
       </c>
       <c r="E98">
-        <v>218.113</v>
+        <v>34.095</v>
       </c>
       <c r="F98">
-        <v>174.555</v>
+        <v>57.898</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2482,19 +2482,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>73.992</v>
+        <v>23.472</v>
       </c>
       <c r="C99">
-        <v>246.943</v>
+        <v>35.465</v>
       </c>
       <c r="D99">
-        <v>54.46</v>
+        <v>1.472</v>
       </c>
       <c r="E99">
-        <v>-1.567</v>
+        <v>153.067</v>
       </c>
       <c r="F99">
-        <v>223.307</v>
+        <v>39.621</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2502,19 +2502,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>41.104</v>
+        <v>50.129</v>
       </c>
       <c r="C100">
-        <v>125.113</v>
+        <v>37.837</v>
       </c>
       <c r="D100">
-        <v>365.097</v>
+        <v>27.017</v>
       </c>
       <c r="E100">
-        <v>157.557</v>
+        <v>1.771</v>
       </c>
       <c r="F100">
-        <v>26.81</v>
+        <v>55.137</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2522,19 +2522,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1280.467</v>
+        <v>66.629</v>
       </c>
       <c r="C101">
-        <v>577.7</v>
+        <v>8.864000000000001</v>
       </c>
       <c r="D101">
-        <v>731.6849999999999</v>
+        <v>67.79900000000001</v>
       </c>
       <c r="E101">
-        <v>756.862</v>
+        <v>353.844</v>
       </c>
       <c r="F101">
-        <v>131.54</v>
+        <v>156.433</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2542,19 +2542,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>987.789</v>
+        <v>15.45</v>
       </c>
       <c r="C102">
-        <v>253.06</v>
+        <v>24.899</v>
       </c>
       <c r="D102">
-        <v>207.037</v>
+        <v>72.81</v>
       </c>
       <c r="E102">
-        <v>323.111</v>
+        <v>233.766</v>
       </c>
       <c r="F102">
-        <v>135.641</v>
+        <v>54.639</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2562,19 +2562,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>625.188</v>
+        <v>58.96</v>
       </c>
       <c r="C103">
-        <v>603.189</v>
+        <v>5.98</v>
       </c>
       <c r="D103">
-        <v>409.721</v>
+        <v>91.127</v>
       </c>
       <c r="E103">
-        <v>257.531</v>
+        <v>314.605</v>
       </c>
       <c r="F103">
-        <v>34.744</v>
+        <v>171.699</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2582,19 +2582,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1172.077</v>
+        <v>73.211</v>
       </c>
       <c r="C104">
-        <v>882.136</v>
+        <v>5.615</v>
       </c>
       <c r="D104">
-        <v>208.846</v>
+        <v>10.145</v>
       </c>
       <c r="E104">
-        <v>176.317</v>
+        <v>158.891</v>
       </c>
       <c r="F104">
-        <v>180.355</v>
+        <v>141.674</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2602,19 +2602,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>682.646</v>
+        <v>41.821</v>
       </c>
       <c r="C105">
-        <v>593.22</v>
+        <v>38.27</v>
       </c>
       <c r="D105">
-        <v>773.673</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="E105">
-        <v>652.14</v>
+        <v>105.023</v>
       </c>
       <c r="F105">
-        <v>300.736</v>
+        <v>195.389</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2622,19 +2622,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>229.378</v>
+        <v>53.818</v>
       </c>
       <c r="C106">
-        <v>60.013</v>
+        <v>27.581</v>
       </c>
       <c r="D106">
-        <v>756.295</v>
+        <v>86.578</v>
       </c>
       <c r="E106">
-        <v>719.385</v>
+        <v>301.231</v>
       </c>
       <c r="F106">
-        <v>128.797</v>
+        <v>24.232</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2642,19 +2642,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>54.283</v>
+        <v>10.63</v>
       </c>
       <c r="C107">
-        <v>94.596</v>
+        <v>54.964</v>
       </c>
       <c r="D107">
-        <v>790.194</v>
+        <v>54.408</v>
       </c>
       <c r="E107">
-        <v>534.27</v>
+        <v>74.274</v>
       </c>
       <c r="F107">
-        <v>277.335</v>
+        <v>138.087</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2662,19 +2662,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>128.02</v>
+        <v>38.884</v>
       </c>
       <c r="C108">
-        <v>544.423</v>
+        <v>59.904</v>
       </c>
       <c r="D108">
-        <v>112.077</v>
+        <v>2.359</v>
       </c>
       <c r="E108">
-        <v>-4.265</v>
+        <v>329.016</v>
       </c>
       <c r="F108">
-        <v>354.749</v>
+        <v>94.57299999999999</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2682,19 +2682,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>71.146</v>
+        <v>81.91200000000001</v>
       </c>
       <c r="C109">
-        <v>275.362</v>
+        <v>64.146</v>
       </c>
       <c r="D109">
-        <v>748.408</v>
+        <v>47.823</v>
       </c>
       <c r="E109">
-        <v>385.933</v>
+        <v>3.575</v>
       </c>
       <c r="F109">
-        <v>42.054</v>
+        <v>130.941</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2702,19 +2702,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1280.208</v>
+        <v>67.41800000000001</v>
       </c>
       <c r="C110">
-        <v>577.883</v>
+        <v>8.284000000000001</v>
       </c>
       <c r="D110">
-        <v>731.146</v>
+        <v>67.02</v>
       </c>
       <c r="E110">
-        <v>756.86</v>
+        <v>353.27</v>
       </c>
       <c r="F110">
-        <v>132.208</v>
+        <v>157.053</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2722,19 +2722,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>987.124</v>
+        <v>16.149</v>
       </c>
       <c r="C111">
-        <v>253.938</v>
+        <v>25.509</v>
       </c>
       <c r="D111">
-        <v>206.884</v>
+        <v>72.02500000000001</v>
       </c>
       <c r="E111">
-        <v>324.06</v>
+        <v>233.116</v>
       </c>
       <c r="F111">
-        <v>135.309</v>
+        <v>54.848</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2742,19 +2742,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>625.976</v>
+        <v>59.697</v>
       </c>
       <c r="C112">
-        <v>602.4059999999999</v>
+        <v>6.705</v>
       </c>
       <c r="D112">
-        <v>409.146</v>
+        <v>92.015</v>
       </c>
       <c r="E112">
-        <v>258.391</v>
+        <v>314.215</v>
       </c>
       <c r="F112">
-        <v>35.719</v>
+        <v>171.705</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2762,19 +2762,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1171.49</v>
+        <v>73.563</v>
       </c>
       <c r="C113">
-        <v>882.58</v>
+        <v>5.321</v>
       </c>
       <c r="D113">
-        <v>209.262</v>
+        <v>10.422</v>
       </c>
       <c r="E113">
-        <v>177.151</v>
+        <v>158.628</v>
       </c>
       <c r="F113">
-        <v>179.528</v>
+        <v>142.182</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2782,19 +2782,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>683.596</v>
+        <v>42.297</v>
       </c>
       <c r="C114">
-        <v>593.905</v>
+        <v>38.816</v>
       </c>
       <c r="D114">
-        <v>774.171</v>
+        <v>77.02800000000001</v>
       </c>
       <c r="E114">
-        <v>652.611</v>
+        <v>105.152</v>
       </c>
       <c r="F114">
-        <v>301.628</v>
+        <v>195.088</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2802,19 +2802,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>229.094</v>
+        <v>53.115</v>
       </c>
       <c r="C115">
-        <v>59.055</v>
+        <v>27.895</v>
       </c>
       <c r="D115">
-        <v>755.974</v>
+        <v>86.726</v>
       </c>
       <c r="E115">
-        <v>720.218</v>
+        <v>301.448</v>
       </c>
       <c r="F115">
-        <v>128.125</v>
+        <v>23.388</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2822,19 +2822,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>53.297</v>
+        <v>10.64</v>
       </c>
       <c r="C116">
-        <v>94.667</v>
+        <v>54.362</v>
       </c>
       <c r="D116">
-        <v>790.636</v>
+        <v>54.675</v>
       </c>
       <c r="E116">
-        <v>533.375</v>
+        <v>75.181</v>
       </c>
       <c r="F116">
-        <v>277.848</v>
+        <v>137.327</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2842,19 +2842,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>128.973</v>
+        <v>38.929</v>
       </c>
       <c r="C117">
-        <v>544.635</v>
+        <v>59.202</v>
       </c>
       <c r="D117">
-        <v>112.417</v>
+        <v>3.229</v>
       </c>
       <c r="E117">
-        <v>-4.603</v>
+        <v>329.719</v>
       </c>
       <c r="F117">
-        <v>354.279</v>
+        <v>94.809</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2862,19 +2862,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>71.702</v>
+        <v>82.419</v>
       </c>
       <c r="C118">
-        <v>275.917</v>
+        <v>63.672</v>
       </c>
       <c r="D118">
-        <v>749.025</v>
+        <v>47.357</v>
       </c>
       <c r="E118">
-        <v>386.551</v>
+        <v>3.468</v>
       </c>
       <c r="F118">
-        <v>42.539</v>
+        <v>130.9</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2882,19 +2882,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>3001.35</v>
+        <v>108.252</v>
       </c>
       <c r="C119">
-        <v>1241.672</v>
+        <v>14.737</v>
       </c>
       <c r="D119">
-        <v>1360.6</v>
+        <v>161.6</v>
       </c>
       <c r="E119">
-        <v>1418.33</v>
+        <v>844.879</v>
       </c>
       <c r="F119">
-        <v>294.16</v>
+        <v>306.929</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2902,19 +2902,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>2314.618</v>
+        <v>25.346</v>
       </c>
       <c r="C120">
-        <v>545.0170000000001</v>
+        <v>44.356</v>
       </c>
       <c r="D120">
-        <v>384.888</v>
+        <v>174.045</v>
       </c>
       <c r="E120">
-        <v>606.633</v>
+        <v>557.6369999999999</v>
       </c>
       <c r="F120">
-        <v>301.519</v>
+        <v>107.004</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2922,19 +2922,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1467.174</v>
+        <v>95.30800000000001</v>
       </c>
       <c r="C121">
-        <v>1295.171</v>
+        <v>11.321</v>
       </c>
       <c r="D121">
-        <v>761.7670000000001</v>
+        <v>222.013</v>
       </c>
       <c r="E121">
-        <v>483.662</v>
+        <v>751.247</v>
       </c>
       <c r="F121">
-        <v>79.105</v>
+        <v>336.051</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2942,19 +2942,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>2746.662</v>
+        <v>118.213</v>
       </c>
       <c r="C122">
-        <v>1896.465</v>
+        <v>9.473000000000001</v>
       </c>
       <c r="D122">
-        <v>389.387</v>
+        <v>25.076</v>
       </c>
       <c r="E122">
-        <v>331.522</v>
+        <v>379.434</v>
       </c>
       <c r="F122">
-        <v>400.079</v>
+        <v>278.13</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2962,19 +2962,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1602.099</v>
+        <v>67.94</v>
       </c>
       <c r="C123">
-        <v>1275.93</v>
+        <v>67.414</v>
       </c>
       <c r="D123">
-        <v>1440.332</v>
+        <v>185.471</v>
       </c>
       <c r="E123">
-        <v>1222.641</v>
+        <v>251.436</v>
       </c>
       <c r="F123">
-        <v>671.751</v>
+        <v>382.16</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2982,19 +2982,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>536.944</v>
+        <v>85.587</v>
       </c>
       <c r="C124">
-        <v>127.427</v>
+        <v>48.296</v>
       </c>
       <c r="D124">
-        <v>1407.078</v>
+        <v>209.046</v>
       </c>
       <c r="E124">
-        <v>1349.377</v>
+        <v>720.396</v>
       </c>
       <c r="F124">
-        <v>285.476</v>
+        <v>46.163</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3002,19 +3002,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>124.995</v>
+        <v>17.135</v>
       </c>
       <c r="C125">
-        <v>203.422</v>
+        <v>94.77</v>
       </c>
       <c r="D125">
-        <v>1470.928</v>
+        <v>131.662</v>
       </c>
       <c r="E125">
-        <v>999.919</v>
+        <v>179.565</v>
       </c>
       <c r="F125">
-        <v>619.136</v>
+        <v>269.354</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3022,19 +3022,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>302.128</v>
+        <v>62.7</v>
       </c>
       <c r="C126">
-        <v>1170.502</v>
+        <v>103.044</v>
       </c>
       <c r="D126">
-        <v>209.243</v>
+        <v>7.19</v>
       </c>
       <c r="E126">
-        <v>-8.624000000000001</v>
+        <v>787.503</v>
       </c>
       <c r="F126">
-        <v>789.883</v>
+        <v>185.527</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3042,19 +3042,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>167.952</v>
+        <v>131.912</v>
       </c>
       <c r="C127">
-        <v>592.516</v>
+        <v>110.85</v>
       </c>
       <c r="D127">
-        <v>1393.721</v>
+        <v>114.173</v>
       </c>
       <c r="E127">
-        <v>723.91</v>
+        <v>8.163</v>
       </c>
       <c r="F127">
-        <v>94.161</v>
+        <v>256.112</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3062,19 +3062,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>3001.034</v>
+        <v>108.38</v>
       </c>
       <c r="C128">
-        <v>1241.419</v>
+        <v>14.219</v>
       </c>
       <c r="D128">
-        <v>1361.373</v>
+        <v>161.033</v>
       </c>
       <c r="E128">
-        <v>1417.967</v>
+        <v>845.254</v>
       </c>
       <c r="F128">
-        <v>294.978</v>
+        <v>306.206</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3082,19 +3082,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>2315.448</v>
+        <v>24.563</v>
       </c>
       <c r="C129">
-        <v>545.035</v>
+        <v>44.7</v>
       </c>
       <c r="D129">
-        <v>385.585</v>
+        <v>173.431</v>
       </c>
       <c r="E129">
-        <v>607.169</v>
+        <v>557.396</v>
       </c>
       <c r="F129">
-        <v>302.186</v>
+        <v>106.851</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3102,19 +3102,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1467.399</v>
+        <v>94.48399999999999</v>
       </c>
       <c r="C130">
-        <v>1295.514</v>
+        <v>11.203</v>
       </c>
       <c r="D130">
-        <v>762.032</v>
+        <v>221.44</v>
       </c>
       <c r="E130">
-        <v>484.475</v>
+        <v>751.861</v>
       </c>
       <c r="F130">
-        <v>79.087</v>
+        <v>336.695</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3122,19 +3122,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>2747.121</v>
+        <v>118.737</v>
       </c>
       <c r="C131">
-        <v>1897.306</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="D131">
-        <v>389.498</v>
+        <v>25.136</v>
       </c>
       <c r="E131">
-        <v>331.647</v>
+        <v>379.17</v>
       </c>
       <c r="F131">
-        <v>399.845</v>
+        <v>277.942</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3142,19 +3142,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1602.996</v>
+        <v>68.413</v>
       </c>
       <c r="C132">
-        <v>1275.278</v>
+        <v>66.917</v>
       </c>
       <c r="D132">
-        <v>1440.959</v>
+        <v>185.801</v>
       </c>
       <c r="E132">
-        <v>1222.568</v>
+        <v>251.489</v>
       </c>
       <c r="F132">
-        <v>670.939</v>
+        <v>381.688</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3162,19 +3162,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>536.74</v>
+        <v>84.79000000000001</v>
       </c>
       <c r="C133">
-        <v>126.859</v>
+        <v>48.099</v>
       </c>
       <c r="D133">
-        <v>1407.73</v>
+        <v>209.519</v>
       </c>
       <c r="E133">
-        <v>1348.528</v>
+        <v>719.862</v>
       </c>
       <c r="F133">
-        <v>286.211</v>
+        <v>45.327</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3182,19 +3182,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>124.502</v>
+        <v>16.577</v>
       </c>
       <c r="C134">
-        <v>203.233</v>
+        <v>95.473</v>
       </c>
       <c r="D134">
-        <v>1470.432</v>
+        <v>132.352</v>
       </c>
       <c r="E134">
-        <v>999.496</v>
+        <v>179.33</v>
       </c>
       <c r="F134">
-        <v>618.2569999999999</v>
+        <v>268.786</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3202,19 +3202,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>301.939</v>
+        <v>63.278</v>
       </c>
       <c r="C135">
-        <v>1170.694</v>
+        <v>102.275</v>
       </c>
       <c r="D135">
-        <v>208.632</v>
+        <v>6.534</v>
       </c>
       <c r="E135">
-        <v>-8.334</v>
+        <v>787.999</v>
       </c>
       <c r="F135">
-        <v>789.313</v>
+        <v>184.795</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3222,19 +3222,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>168.325</v>
+        <v>132.125</v>
       </c>
       <c r="C136">
-        <v>593.121</v>
+        <v>110.232</v>
       </c>
       <c r="D136">
-        <v>1393.773</v>
+        <v>114.321</v>
       </c>
       <c r="E136">
-        <v>724.354</v>
+        <v>8.285</v>
       </c>
       <c r="F136">
-        <v>94.13500000000001</v>
+        <v>255.88</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3242,19 +3242,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6303.696</v>
+        <v>201.43</v>
       </c>
       <c r="C137">
-        <v>2930.581</v>
+        <v>29.515</v>
       </c>
       <c r="D137">
-        <v>2892.01</v>
+        <v>374.565</v>
       </c>
       <c r="E137">
-        <v>2792.631</v>
+        <v>1340.244</v>
       </c>
       <c r="F137">
-        <v>722.829</v>
+        <v>583.079</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3262,19 +3262,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>4863.158</v>
+        <v>45.576</v>
       </c>
       <c r="C138">
-        <v>1286.274</v>
+        <v>91.41</v>
       </c>
       <c r="D138">
-        <v>818.8</v>
+        <v>403.565</v>
       </c>
       <c r="E138">
-        <v>1195.104</v>
+        <v>884.146</v>
       </c>
       <c r="F138">
-        <v>740.796</v>
+        <v>203.271</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3282,19 +3282,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>3081.891</v>
+        <v>175.613</v>
       </c>
       <c r="C139">
-        <v>3058.335</v>
+        <v>22.78</v>
       </c>
       <c r="D139">
-        <v>1619.072</v>
+        <v>515.03</v>
       </c>
       <c r="E139">
-        <v>953.393</v>
+        <v>1191.9</v>
       </c>
       <c r="F139">
-        <v>193.638</v>
+        <v>640.691</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3302,19 +3302,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5770</v>
+        <v>220.595</v>
       </c>
       <c r="C140">
-        <v>4478.327</v>
+        <v>20.361</v>
       </c>
       <c r="D140">
-        <v>827.424</v>
+        <v>58.314</v>
       </c>
       <c r="E140">
-        <v>652.793</v>
+        <v>601.492</v>
       </c>
       <c r="F140">
-        <v>980.885</v>
+        <v>529.157</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3322,19 +3322,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>3366.253</v>
+        <v>127.008</v>
       </c>
       <c r="C141">
-        <v>3010.644</v>
+        <v>137.242</v>
       </c>
       <c r="D141">
-        <v>3060.989</v>
+        <v>431.499</v>
       </c>
       <c r="E141">
-        <v>2407.506</v>
+        <v>398.779</v>
       </c>
       <c r="F141">
-        <v>1646.078</v>
+        <v>727.082</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3342,19 +3342,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1127.427</v>
+        <v>158.108</v>
       </c>
       <c r="C142">
-        <v>299.978</v>
+        <v>98.48399999999999</v>
       </c>
       <c r="D142">
-        <v>2990.705</v>
+        <v>486.622</v>
       </c>
       <c r="E142">
-        <v>2655.953</v>
+        <v>1141.689</v>
       </c>
       <c r="F142">
-        <v>701.553</v>
+        <v>86.834</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3362,19 +3362,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>261.787</v>
+        <v>31.039</v>
       </c>
       <c r="C143">
-        <v>479.82</v>
+        <v>195.427</v>
       </c>
       <c r="D143">
-        <v>3124.104</v>
+        <v>307.095</v>
       </c>
       <c r="E143">
-        <v>1968.743</v>
+        <v>284.431</v>
       </c>
       <c r="F143">
-        <v>1517.041</v>
+        <v>512.28</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3382,19 +3382,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>634.191</v>
+        <v>117.526</v>
       </c>
       <c r="C144">
-        <v>2763.515</v>
+        <v>209.907</v>
       </c>
       <c r="D144">
-        <v>443.526</v>
+        <v>15.272</v>
       </c>
       <c r="E144">
-        <v>-16.591</v>
+        <v>1248.935</v>
       </c>
       <c r="F144">
-        <v>1936.706</v>
+        <v>352.124</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3402,19 +3402,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>353.257</v>
+        <v>245.279</v>
       </c>
       <c r="C145">
-        <v>1399.599</v>
+        <v>226.165</v>
       </c>
       <c r="D145">
-        <v>2961.1</v>
+        <v>265.568</v>
       </c>
       <c r="E145">
-        <v>1426.019</v>
+        <v>13.013</v>
       </c>
       <c r="F145">
-        <v>230.495</v>
+        <v>487.203</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3422,19 +3422,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6303.193</v>
+        <v>201.912</v>
       </c>
       <c r="C146">
-        <v>2930.157</v>
+        <v>29.254</v>
       </c>
       <c r="D146">
-        <v>2891.48</v>
+        <v>374.514</v>
       </c>
       <c r="E146">
-        <v>2791.955</v>
+        <v>1339.498</v>
       </c>
       <c r="F146">
-        <v>722.268</v>
+        <v>583.129</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3442,19 +3442,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>4862.458</v>
+        <v>45.299</v>
       </c>
       <c r="C147">
-        <v>1287.057</v>
+        <v>91.65600000000001</v>
       </c>
       <c r="D147">
-        <v>818.787</v>
+        <v>403.202</v>
       </c>
       <c r="E147">
-        <v>1195.559</v>
+        <v>884.748</v>
       </c>
       <c r="F147">
-        <v>740.342</v>
+        <v>203.679</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3462,19 +3462,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>3082.095</v>
+        <v>175.231</v>
       </c>
       <c r="C148">
-        <v>3059.14</v>
+        <v>23.081</v>
       </c>
       <c r="D148">
-        <v>1618.363</v>
+        <v>514.74</v>
       </c>
       <c r="E148">
-        <v>953.042</v>
+        <v>1192.288</v>
       </c>
       <c r="F148">
-        <v>193.344</v>
+        <v>641.141</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3482,19 +3482,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5769.276</v>
+        <v>220.486</v>
       </c>
       <c r="C149">
-        <v>4478.268</v>
+        <v>19.617</v>
       </c>
       <c r="D149">
-        <v>827.33</v>
+        <v>58.974</v>
       </c>
       <c r="E149">
-        <v>652.606</v>
+        <v>601.239</v>
       </c>
       <c r="F149">
-        <v>980.434</v>
+        <v>528.692</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3502,19 +3502,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>3366.869</v>
+        <v>127.341</v>
       </c>
       <c r="C150">
-        <v>3011.31</v>
+        <v>138.031</v>
       </c>
       <c r="D150">
-        <v>3060.717</v>
+        <v>431.703</v>
       </c>
       <c r="E150">
-        <v>2407.756</v>
+        <v>399.113</v>
       </c>
       <c r="F150">
-        <v>1645.891</v>
+        <v>726.6079999999999</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3522,19 +3522,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1127.891</v>
+        <v>157.821</v>
       </c>
       <c r="C151">
-        <v>299.469</v>
+        <v>99.188</v>
       </c>
       <c r="D151">
-        <v>2990.987</v>
+        <v>487.056</v>
       </c>
       <c r="E151">
-        <v>2655.515</v>
+        <v>1141.759</v>
       </c>
       <c r="F151">
-        <v>700.967</v>
+        <v>87.226</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3542,19 +3542,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>262.388</v>
+        <v>30.637</v>
       </c>
       <c r="C152">
-        <v>479.57</v>
+        <v>195.714</v>
       </c>
       <c r="D152">
-        <v>3123.695</v>
+        <v>307.262</v>
       </c>
       <c r="E152">
-        <v>1968.67</v>
+        <v>285.228</v>
       </c>
       <c r="F152">
-        <v>1517.773</v>
+        <v>511.719</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3562,19 +3562,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>634.218</v>
+        <v>116.923</v>
       </c>
       <c r="C153">
-        <v>2763.486</v>
+        <v>210.547</v>
       </c>
       <c r="D153">
-        <v>444.323</v>
+        <v>15.845</v>
       </c>
       <c r="E153">
-        <v>-16.086</v>
+        <v>1248.9</v>
       </c>
       <c r="F153">
-        <v>1936.005</v>
+        <v>351.958</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3582,19 +3582,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>352.513</v>
+        <v>245.118</v>
       </c>
       <c r="C154">
-        <v>1400.265</v>
+        <v>226.647</v>
       </c>
       <c r="D154">
-        <v>2960.91</v>
+        <v>265.269</v>
       </c>
       <c r="E154">
-        <v>1426.495</v>
+        <v>12.763</v>
       </c>
       <c r="F154">
-        <v>230.555</v>
+        <v>487.572</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3602,19 +3602,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>13425.561</v>
+        <v>304.248</v>
       </c>
       <c r="C155">
-        <v>4865.448</v>
+        <v>51.823</v>
       </c>
       <c r="D155">
-        <v>5937.216</v>
+        <v>618.002</v>
       </c>
       <c r="E155">
-        <v>5182.859</v>
+        <v>3034.6</v>
       </c>
       <c r="F155">
-        <v>1834.649</v>
+        <v>1032.552</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3622,19 +3622,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>10356.788</v>
+        <v>68.39400000000001</v>
       </c>
       <c r="C156">
-        <v>2136.405</v>
+        <v>161.177</v>
       </c>
       <c r="D156">
-        <v>1681.01</v>
+        <v>665.587</v>
       </c>
       <c r="E156">
-        <v>2218.646</v>
+        <v>2004.154</v>
       </c>
       <c r="F156">
-        <v>1880.616</v>
+        <v>360.332</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3642,19 +3642,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6564.307</v>
+        <v>264.418</v>
       </c>
       <c r="C157">
-        <v>5078.925</v>
+        <v>40.393</v>
       </c>
       <c r="D157">
-        <v>3323.389</v>
+        <v>849.504</v>
       </c>
       <c r="E157">
-        <v>1768.836</v>
+        <v>2700.539</v>
       </c>
       <c r="F157">
-        <v>491.005</v>
+        <v>1134.858</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3662,19 +3662,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>12288.307</v>
+        <v>332.484</v>
       </c>
       <c r="C158">
-        <v>7435.46</v>
+        <v>34.852</v>
       </c>
       <c r="D158">
-        <v>1698.74</v>
+        <v>96.864</v>
       </c>
       <c r="E158">
-        <v>1211.269</v>
+        <v>1362.193</v>
       </c>
       <c r="F158">
-        <v>2490.745</v>
+        <v>936.3440000000001</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3682,19 +3682,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7170.42</v>
+        <v>191.791</v>
       </c>
       <c r="C159">
-        <v>4999.622</v>
+        <v>242.714</v>
       </c>
       <c r="D159">
-        <v>6284.526</v>
+        <v>711.932</v>
       </c>
       <c r="E159">
-        <v>4469.086</v>
+        <v>903.9299999999999</v>
       </c>
       <c r="F159">
-        <v>4181.155</v>
+        <v>1287.022</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3702,19 +3702,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>2402.051</v>
+        <v>238.397</v>
       </c>
       <c r="C160">
-        <v>497.739</v>
+        <v>174.259</v>
       </c>
       <c r="D160">
-        <v>6141.203</v>
+        <v>803.1180000000001</v>
       </c>
       <c r="E160">
-        <v>4929.516</v>
+        <v>2586.524</v>
       </c>
       <c r="F160">
-        <v>1780.646</v>
+        <v>154.496</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3722,19 +3722,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>558.651</v>
+        <v>46.506</v>
       </c>
       <c r="C161">
-        <v>796.437</v>
+        <v>344.389</v>
       </c>
       <c r="D161">
-        <v>6414.147</v>
+        <v>506.58</v>
       </c>
       <c r="E161">
-        <v>3654.481</v>
+        <v>645.8150000000001</v>
       </c>
       <c r="F161">
-        <v>3855.226</v>
+        <v>906.626</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3742,19 +3742,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1350.777</v>
+        <v>176.547</v>
       </c>
       <c r="C162">
-        <v>4588.436</v>
+        <v>370.594</v>
       </c>
       <c r="D162">
-        <v>912.006</v>
+        <v>25.845</v>
       </c>
       <c r="E162">
-        <v>-30.23</v>
+        <v>2828.772</v>
       </c>
       <c r="F162">
-        <v>4918.551</v>
+        <v>623.41</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3762,19 +3762,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>751.039</v>
+        <v>369.545</v>
       </c>
       <c r="C163">
-        <v>2324.361</v>
+        <v>399.003</v>
       </c>
       <c r="D163">
-        <v>6079.717</v>
+        <v>437.732</v>
       </c>
       <c r="E163">
-        <v>2647.373</v>
+        <v>28.849</v>
       </c>
       <c r="F163">
-        <v>585.301</v>
+        <v>863.16</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3782,19 +3782,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>13425.715</v>
+        <v>303.489</v>
       </c>
       <c r="C164">
-        <v>4865.102</v>
+        <v>51.314</v>
       </c>
       <c r="D164">
-        <v>5936.978</v>
+        <v>618.453</v>
       </c>
       <c r="E164">
-        <v>5183.053</v>
+        <v>3035.07</v>
       </c>
       <c r="F164">
-        <v>1834.598</v>
+        <v>1031.988</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3802,19 +3802,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>10357.422</v>
+        <v>68.044</v>
       </c>
       <c r="C165">
-        <v>2135.888</v>
+        <v>160.837</v>
       </c>
       <c r="D165">
-        <v>1681.06</v>
+        <v>665.761</v>
       </c>
       <c r="E165">
-        <v>2218.525</v>
+        <v>2004.707</v>
       </c>
       <c r="F165">
-        <v>1880.149</v>
+        <v>359.738</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3822,19 +3822,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6564.571</v>
+        <v>264.365</v>
       </c>
       <c r="C166">
-        <v>5078.78</v>
+        <v>40.761</v>
       </c>
       <c r="D166">
-        <v>3323.958</v>
+        <v>850.235</v>
       </c>
       <c r="E166">
-        <v>1768.917</v>
+        <v>2700.592</v>
       </c>
       <c r="F166">
-        <v>491.291</v>
+        <v>1135.598</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3842,19 +3842,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>12288.159</v>
+        <v>333.049</v>
       </c>
       <c r="C167">
-        <v>7435.215</v>
+        <v>34.564</v>
       </c>
       <c r="D167">
-        <v>1698.706</v>
+        <v>96.26600000000001</v>
       </c>
       <c r="E167">
-        <v>1211.881</v>
+        <v>1362.68</v>
       </c>
       <c r="F167">
-        <v>2490.653</v>
+        <v>936.873</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3862,19 +3862,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7170.516</v>
+        <v>192.374</v>
       </c>
       <c r="C168">
-        <v>4999.577</v>
+        <v>242.153</v>
       </c>
       <c r="D168">
-        <v>6284.277</v>
+        <v>711.355</v>
       </c>
       <c r="E168">
-        <v>4469.201</v>
+        <v>904.234</v>
       </c>
       <c r="F168">
-        <v>4180.769</v>
+        <v>1286.354</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3882,19 +3882,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>2401.337</v>
+        <v>238.421</v>
       </c>
       <c r="C169">
-        <v>497.425</v>
+        <v>173.606</v>
       </c>
       <c r="D169">
-        <v>6141.652</v>
+        <v>802.582</v>
       </c>
       <c r="E169">
-        <v>4930.153</v>
+        <v>2586.69</v>
       </c>
       <c r="F169">
-        <v>1781.253</v>
+        <v>153.989</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3902,19 +3902,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>558.014</v>
+        <v>46.381</v>
       </c>
       <c r="C170">
-        <v>796.114</v>
+        <v>344.397</v>
       </c>
       <c r="D170">
-        <v>6413.759</v>
+        <v>506.02</v>
       </c>
       <c r="E170">
-        <v>3655.102</v>
+        <v>645.756</v>
       </c>
       <c r="F170">
-        <v>3855.585</v>
+        <v>906.573</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3922,19 +3922,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1350.711</v>
+        <v>177.149</v>
       </c>
       <c r="C171">
-        <v>4588.945</v>
+        <v>370.458</v>
       </c>
       <c r="D171">
-        <v>912.612</v>
+        <v>25.69</v>
       </c>
       <c r="E171">
-        <v>-29.921</v>
+        <v>2829.49</v>
       </c>
       <c r="F171">
-        <v>4919.155</v>
+        <v>623.386</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3942,19 +3942,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>751.554</v>
+        <v>370.264</v>
       </c>
       <c r="C172">
-        <v>2323.985</v>
+        <v>398.413</v>
       </c>
       <c r="D172">
-        <v>6079.335</v>
+        <v>437.72</v>
       </c>
       <c r="E172">
-        <v>2647.365</v>
+        <v>29.273</v>
       </c>
       <c r="F172">
-        <v>585.646</v>
+        <v>862.494</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3962,19 +3962,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>29382.172</v>
+        <v>615.806</v>
       </c>
       <c r="C173">
-        <v>10483.24</v>
+        <v>83.214</v>
       </c>
       <c r="D173">
-        <v>10407.572</v>
+        <v>942.331</v>
       </c>
       <c r="E173">
-        <v>8247.743</v>
+        <v>7622.511</v>
       </c>
       <c r="F173">
-        <v>3781.635</v>
+        <v>2467.81</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3982,19 +3982,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>22666.904</v>
+        <v>138.192</v>
       </c>
       <c r="C174">
-        <v>4602.068</v>
+        <v>259.622</v>
       </c>
       <c r="D174">
-        <v>2946.721</v>
+        <v>1014.686</v>
       </c>
       <c r="E174">
-        <v>3530.009</v>
+        <v>5034.516</v>
       </c>
       <c r="F174">
-        <v>3875.804</v>
+        <v>860.119</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4002,19 +4002,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>14366.239</v>
+        <v>536.4589999999999</v>
       </c>
       <c r="C175">
-        <v>10943.166</v>
+        <v>65.483</v>
       </c>
       <c r="D175">
-        <v>5826.717</v>
+        <v>1295.52</v>
       </c>
       <c r="E175">
-        <v>2814.659</v>
+        <v>6782.424</v>
       </c>
       <c r="F175">
-        <v>1012.403</v>
+        <v>2714.765</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4022,19 +4022,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>26892.767</v>
+        <v>675.484</v>
       </c>
       <c r="C176">
-        <v>16020.829</v>
+        <v>56.081</v>
       </c>
       <c r="D176">
-        <v>2977.789</v>
+        <v>146.661</v>
       </c>
       <c r="E176">
-        <v>1928.077</v>
+        <v>3422.185</v>
       </c>
       <c r="F176">
-        <v>5134.125</v>
+        <v>2239.994</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4042,19 +4042,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>15692.235</v>
+        <v>389.914</v>
       </c>
       <c r="C177">
-        <v>10772.533</v>
+        <v>390.899</v>
       </c>
       <c r="D177">
-        <v>11016.296</v>
+        <v>1084.051</v>
       </c>
       <c r="E177">
-        <v>7111.516</v>
+        <v>2270.703</v>
       </c>
       <c r="F177">
-        <v>8618.196</v>
+        <v>3076.341</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4062,19 +4062,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5255.545</v>
+        <v>483.951</v>
       </c>
       <c r="C178">
-        <v>1072.21</v>
+        <v>280.265</v>
       </c>
       <c r="D178">
-        <v>10765.848</v>
+        <v>1222.971</v>
       </c>
       <c r="E178">
-        <v>7845.063</v>
+        <v>6496.488</v>
       </c>
       <c r="F178">
-        <v>3671.316</v>
+        <v>368.291</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4082,19 +4082,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1221.419</v>
+        <v>94.312</v>
       </c>
       <c r="C179">
-        <v>1715.604</v>
+        <v>555.744</v>
       </c>
       <c r="D179">
-        <v>11243.496</v>
+        <v>771.111</v>
       </c>
       <c r="E179">
-        <v>5816.065</v>
+        <v>1621.666</v>
       </c>
       <c r="F179">
-        <v>7947.243</v>
+        <v>2167.982</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4102,19 +4102,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>2956.006</v>
+        <v>359.327</v>
       </c>
       <c r="C180">
-        <v>9887.691000000001</v>
+        <v>597.92</v>
       </c>
       <c r="D180">
-        <v>1599.305</v>
+        <v>39.021</v>
       </c>
       <c r="E180">
-        <v>-47.966</v>
+        <v>7105.783</v>
       </c>
       <c r="F180">
-        <v>10139.83</v>
+        <v>1490.613</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4122,19 +4122,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1644.571</v>
+        <v>750.88</v>
       </c>
       <c r="C181">
-        <v>5007.302</v>
+        <v>643.272</v>
       </c>
       <c r="D181">
-        <v>10657.166</v>
+        <v>667.078</v>
       </c>
       <c r="E181">
-        <v>4212.389</v>
+        <v>73.173</v>
       </c>
       <c r="F181">
-        <v>1206.774</v>
+        <v>2062.445</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4142,19 +4142,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>29382.821</v>
+        <v>615.55</v>
       </c>
       <c r="C182">
-        <v>10483.015</v>
+        <v>83.655</v>
       </c>
       <c r="D182">
-        <v>10408.008</v>
+        <v>942.764</v>
       </c>
       <c r="E182">
-        <v>8247.231</v>
+        <v>7621.965</v>
       </c>
       <c r="F182">
-        <v>3780.991</v>
+        <v>2468.084</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4162,19 +4162,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>22666.937</v>
+        <v>137.538</v>
       </c>
       <c r="C183">
-        <v>4601.416</v>
+        <v>260.099</v>
       </c>
       <c r="D183">
-        <v>2946.366</v>
+        <v>1014.956</v>
       </c>
       <c r="E183">
-        <v>3530.614</v>
+        <v>5034.191</v>
       </c>
       <c r="F183">
-        <v>3875.706</v>
+        <v>859.496</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4182,19 +4182,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>14365.951</v>
+        <v>536.999</v>
       </c>
       <c r="C184">
-        <v>10942.939</v>
+        <v>65.672</v>
       </c>
       <c r="D184">
-        <v>5827.275</v>
+        <v>1295.464</v>
       </c>
       <c r="E184">
-        <v>2814.753</v>
+        <v>6783.136</v>
       </c>
       <c r="F184">
-        <v>1013.005</v>
+        <v>2714.573</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4202,19 +4202,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>26893.408</v>
+        <v>676.087</v>
       </c>
       <c r="C185">
-        <v>16021.469</v>
+        <v>56.568</v>
       </c>
       <c r="D185">
-        <v>2977.326</v>
+        <v>146.508</v>
       </c>
       <c r="E185">
-        <v>1927.968</v>
+        <v>3422.466</v>
       </c>
       <c r="F185">
-        <v>5134.755</v>
+        <v>2239.912</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4222,19 +4222,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>15691.986</v>
+        <v>389.757</v>
       </c>
       <c r="C186">
-        <v>10772.376</v>
+        <v>390.812</v>
       </c>
       <c r="D186">
-        <v>11016.476</v>
+        <v>1084.473</v>
       </c>
       <c r="E186">
-        <v>7111.375</v>
+        <v>2270.82</v>
       </c>
       <c r="F186">
-        <v>8618.726000000001</v>
+        <v>3075.632</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4242,19 +4242,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>5256.013</v>
+        <v>483.843</v>
       </c>
       <c r="C187">
-        <v>1072.629</v>
+        <v>279.805</v>
       </c>
       <c r="D187">
-        <v>10766.471</v>
+        <v>1223.479</v>
       </c>
       <c r="E187">
-        <v>7844.686</v>
+        <v>6497.172</v>
       </c>
       <c r="F187">
-        <v>3671.928</v>
+        <v>368.718</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4262,19 +4262,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1221.462</v>
+        <v>94.738</v>
       </c>
       <c r="C188">
-        <v>1715.237</v>
+        <v>556.1130000000001</v>
       </c>
       <c r="D188">
-        <v>11244.052</v>
+        <v>771.146</v>
       </c>
       <c r="E188">
-        <v>5816.724</v>
+        <v>1622.087</v>
       </c>
       <c r="F188">
-        <v>7946.661</v>
+        <v>2168.294</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4282,19 +4282,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>2955.855</v>
+        <v>359.772</v>
       </c>
       <c r="C189">
-        <v>9887.915999999999</v>
+        <v>597.615</v>
       </c>
       <c r="D189">
-        <v>1599.867</v>
+        <v>39.073</v>
       </c>
       <c r="E189">
-        <v>-48.153</v>
+        <v>7105.592</v>
       </c>
       <c r="F189">
-        <v>10139.217</v>
+        <v>1491.256</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4302,19 +4302,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1644.921</v>
+        <v>750.677</v>
       </c>
       <c r="C190">
-        <v>5007.391</v>
+        <v>642.568</v>
       </c>
       <c r="D190">
-        <v>10656.675</v>
+        <v>666.369</v>
       </c>
       <c r="E190">
-        <v>4213.031</v>
+        <v>73.86</v>
       </c>
       <c r="F190">
-        <v>1206.568</v>
+        <v>2062.962</v>
       </c>
     </row>
   </sheetData>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.002522128048703001</v>
+        <v>0.0116750861243275</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.002992747012257443</v>
+        <v>0.02130688860603449</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4412,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003793333864902392</v>
+        <v>0.05188163863813125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4420,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0002810385159633442</v>
+        <v>0.004648408063628416</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4428,7 +4428,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.004099407095130593</v>
+        <v>0.04169296270075459</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4436,7 +4436,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0004696090531194076</v>
+        <v>0.06694484657768154</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4444,7 +4444,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.004374512784689901</v>
+        <v>0.03603774951490106</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4452,7 +4452,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.001979102395656763</v>
+        <v>0.001440205514259415</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4460,7 +4460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0003667396327611745</v>
+        <v>0.005487569488748872</v>
       </c>
     </row>
   </sheetData>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.002522128048703001</v>
+        <v>0.0116750861243275</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.002992747012257443</v>
+        <v>0.02130688860603449</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003793333864902392</v>
+        <v>0.05188163863813125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0002810385159633442</v>
+        <v>0.004648408063628416</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.004099407095130593</v>
+        <v>0.04169296270075459</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0004696090531194076</v>
+        <v>0.06694484657768154</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.004374512784689901</v>
+        <v>0.03603774951490106</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.001979102395656763</v>
+        <v>0.001440205514259415</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0003667396327611745</v>
+        <v>0.005487569488748872</v>
       </c>
     </row>
   </sheetData>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6036446904430108</v>
+        <v>0.7428039634401578</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5849404189501686</v>
+        <v>0.7414878528721349</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6047941576287028</v>
+        <v>0.7295346209535265</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5704082761564888</v>
+        <v>0.723548313704905</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6339353535363019</v>
+        <v>0.738815805237268</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6776756842453049</v>
+        <v>0.7161553679813768</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6649047657528084</v>
+        <v>0.7174319936864191</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5894996973226694</v>
+        <v>0.6943382850895705</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6877023640060115</v>
+        <v>0.7274998257437435</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6036446904430108</v>
+        <v>0.7428039634401578</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5849404189501686</v>
+        <v>0.7414878528721349</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6047941576287028</v>
+        <v>0.7295346209535265</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5704082761564888</v>
+        <v>0.723548313704905</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6339353535363019</v>
+        <v>0.738815805237268</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6776756842453049</v>
+        <v>0.7161553679813768</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6649047657528084</v>
+        <v>0.7174319936864191</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5894996973226694</v>
+        <v>0.6943382850895705</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6877023640060115</v>
+        <v>0.7274998257437435</v>
       </c>
     </row>
   </sheetData>
@@ -4788,19 +4788,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.853</v>
+        <v>0.041</v>
       </c>
       <c r="C3">
-        <v>0.731</v>
+        <v>0.268</v>
       </c>
       <c r="D3">
-        <v>0.23</v>
+        <v>0.076</v>
       </c>
       <c r="E3">
-        <v>0.889</v>
+        <v>0.738</v>
       </c>
       <c r="F3">
-        <v>0.764</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4808,19 +4808,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.91</v>
+        <v>0.192</v>
       </c>
       <c r="C4">
-        <v>0.02</v>
+        <v>0.41</v>
       </c>
       <c r="D4">
-        <v>0.576</v>
+        <v>0.173</v>
       </c>
       <c r="E4">
-        <v>0.473</v>
+        <v>0.998</v>
       </c>
       <c r="F4">
-        <v>0.193</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4828,19 +4828,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.412</v>
+        <v>0.545</v>
       </c>
       <c r="C5">
-        <v>0.864</v>
+        <v>0.123</v>
       </c>
       <c r="D5">
-        <v>0.351</v>
+        <v>0.914</v>
       </c>
       <c r="E5">
-        <v>0.536</v>
+        <v>0.541</v>
       </c>
       <c r="F5">
-        <v>0.348</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4848,19 +4848,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.728</v>
+        <v>0.643</v>
       </c>
       <c r="C6">
-        <v>0.895</v>
+        <v>0.611</v>
       </c>
       <c r="D6">
-        <v>0.832</v>
+        <v>0.456</v>
       </c>
       <c r="E6">
-        <v>0.295</v>
+        <v>0.505</v>
       </c>
       <c r="F6">
-        <v>0.885</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4868,19 +4868,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.794</v>
+        <v>0.626</v>
       </c>
       <c r="C7">
-        <v>0.427</v>
+        <v>0.005</v>
       </c>
       <c r="D7">
-        <v>0.594</v>
+        <v>0.752</v>
       </c>
       <c r="E7">
-        <v>0.446</v>
+        <v>0.417</v>
       </c>
       <c r="F7">
-        <v>0.402</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4888,19 +4888,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.15</v>
+        <v>0.113</v>
       </c>
       <c r="C8">
-        <v>0.698</v>
+        <v>0.364</v>
       </c>
       <c r="D8">
-        <v>0.508</v>
+        <v>0.232</v>
       </c>
       <c r="E8">
-        <v>0.986</v>
+        <v>0.675</v>
       </c>
       <c r="F8">
-        <v>0.091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4908,19 +4908,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.924</v>
+        <v>0.215</v>
       </c>
       <c r="C9">
-        <v>0.603</v>
+        <v>0.328</v>
       </c>
       <c r="D9">
-        <v>0.349</v>
+        <v>0.973</v>
       </c>
       <c r="E9">
-        <v>0.282</v>
+        <v>0.855</v>
       </c>
       <c r="F9">
-        <v>0.859</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4928,19 +4928,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.527</v>
+        <v>0.482</v>
       </c>
       <c r="C10">
-        <v>0.826</v>
+        <v>0.624</v>
       </c>
       <c r="D10">
-        <v>0.662</v>
+        <v>0.739</v>
       </c>
       <c r="E10">
-        <v>0.503</v>
+        <v>0.004</v>
       </c>
       <c r="F10">
-        <v>0.902</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4948,19 +4948,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.606</v>
+        <v>0.046</v>
       </c>
       <c r="C11">
-        <v>0.08400000000000001</v>
+        <v>0.249</v>
       </c>
       <c r="D11">
-        <v>0.524</v>
+        <v>0.08</v>
       </c>
       <c r="E11">
-        <v>0.364</v>
+        <v>0.896</v>
       </c>
       <c r="F11">
-        <v>0.948</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4968,19 +4968,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.658</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="C12">
-        <v>0.757</v>
+        <v>0.182</v>
       </c>
       <c r="D12">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="E12">
-        <v>0.13</v>
+        <v>0.953</v>
       </c>
       <c r="F12">
-        <v>0.455</v>
+        <v>0.956</v>
       </c>
     </row>
   </sheetData>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6126508136808066</v>
+        <v>0.7518418992482249</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7315066384436812</v>
+        <v>0.9799156694097578</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6555640731077876</v>
+        <v>0.5799908870502478</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5435722063594198</v>
+        <v>0.5370476237044233</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4685069479938138</v>
+        <v>0.7358602753430694</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8913606567091777</v>
+        <v>0.4742490531944509</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1271252304333691</v>
+        <v>0.326344659362462</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1987635685691876</v>
+        <v>0.7074872713737176</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5251878328609143</v>
+        <v>0.88306300529376</v>
       </c>
     </row>
   </sheetData>
@@ -5080,7 +5080,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5108,19 +5108,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.927</v>
+        <v>0.863</v>
       </c>
       <c r="C2">
-        <v>0.67</v>
+        <v>0.106</v>
       </c>
       <c r="D2">
-        <v>0.879</v>
+        <v>0.586</v>
       </c>
       <c r="E2">
-        <v>0.977</v>
+        <v>0.969</v>
       </c>
       <c r="F2">
-        <v>0.068</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5128,19 +5128,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.718</v>
+        <v>0.222</v>
       </c>
       <c r="C3">
-        <v>0.309</v>
+        <v>0.398</v>
       </c>
       <c r="D3">
-        <v>0.25</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="E3">
-        <v>0.399</v>
+        <v>0.64</v>
       </c>
       <c r="F3">
-        <v>0.249</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5148,19 +5148,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.461</v>
+        <v>0.638</v>
       </c>
       <c r="C4">
-        <v>0.6879999999999999</v>
+        <v>0.048</v>
       </c>
       <c r="D4">
-        <v>0.496</v>
+        <v>0.931</v>
       </c>
       <c r="E4">
-        <v>0.319</v>
+        <v>0.878</v>
       </c>
       <c r="F4">
-        <v>0.079</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5168,19 +5168,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.832</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="C5">
-        <v>0.985</v>
+        <v>0.079</v>
       </c>
       <c r="D5">
-        <v>0.257</v>
+        <v>0.122</v>
       </c>
       <c r="E5">
-        <v>0.237</v>
+        <v>0.445</v>
       </c>
       <c r="F5">
-        <v>0.409</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5188,19 +5188,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.488</v>
+        <v>0.535</v>
       </c>
       <c r="C6">
-        <v>0.664</v>
+        <v>0.599</v>
       </c>
       <c r="D6">
-        <v>0.931</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="E6">
-        <v>0.838</v>
+        <v>0.257</v>
       </c>
       <c r="F6">
-        <v>0.672</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5208,19 +5208,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.168</v>
+        <v>0.572</v>
       </c>
       <c r="C7">
-        <v>0.076</v>
+        <v>0.427</v>
       </c>
       <c r="D7">
-        <v>0.914</v>
+        <v>0.82</v>
       </c>
       <c r="E7">
-        <v>0.972</v>
+        <v>0.858</v>
       </c>
       <c r="F7">
-        <v>0.304</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5228,19 +5228,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04</v>
+        <v>0.083</v>
       </c>
       <c r="C8">
-        <v>0.109</v>
+        <v>0.773</v>
       </c>
       <c r="D8">
-        <v>0.953</v>
+        <v>0.471</v>
       </c>
       <c r="E8">
-        <v>0.734</v>
+        <v>0.258</v>
       </c>
       <c r="F8">
-        <v>0.626</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5248,19 +5248,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08599999999999999</v>
+        <v>0.385</v>
       </c>
       <c r="C9">
-        <v>0.597</v>
+        <v>0.886</v>
       </c>
       <c r="D9">
-        <v>0.138</v>
+        <v>0.028</v>
       </c>
       <c r="E9">
-        <v>0.023</v>
+        <v>0.949</v>
       </c>
       <c r="F9">
-        <v>0.792</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5268,19 +5268,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.041</v>
+        <v>0.921</v>
       </c>
       <c r="C10">
-        <v>0.295</v>
+        <v>0.892</v>
       </c>
       <c r="D10">
-        <v>0.905</v>
+        <v>0.451</v>
       </c>
       <c r="E10">
-        <v>0.528</v>
+        <v>0.002</v>
       </c>
       <c r="F10">
-        <v>0.121</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5288,19 +5288,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.897</v>
+        <v>0.862</v>
       </c>
       <c r="C11">
-        <v>0.644</v>
+        <v>0.096</v>
       </c>
       <c r="D11">
-        <v>0.88</v>
+        <v>0.586</v>
       </c>
       <c r="E11">
-        <v>1.009</v>
+        <v>0.996</v>
       </c>
       <c r="F11">
-        <v>0.213</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5308,19 +5308,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6919999999999999</v>
+        <v>0.221</v>
       </c>
       <c r="C12">
-        <v>0.286</v>
+        <v>0.39</v>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="E12">
-        <v>0.426</v>
+        <v>0.662</v>
       </c>
       <c r="F12">
-        <v>0.293</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5328,19 +5328,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.439</v>
+        <v>0.637</v>
       </c>
       <c r="C13">
-        <v>0.669</v>
+        <v>0.041</v>
       </c>
       <c r="D13">
-        <v>0.496</v>
+        <v>0.931</v>
       </c>
       <c r="E13">
-        <v>0.341</v>
+        <v>0.896</v>
       </c>
       <c r="F13">
-        <v>0.096</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5348,19 +5348,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8139999999999999</v>
+        <v>0.931</v>
       </c>
       <c r="C14">
-        <v>0.97</v>
+        <v>0.073</v>
       </c>
       <c r="D14">
-        <v>0.256</v>
+        <v>0.122</v>
       </c>
       <c r="E14">
-        <v>0.243</v>
+        <v>0.45</v>
       </c>
       <c r="F14">
-        <v>0.414</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5368,19 +5368,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.473</v>
+        <v>0.534</v>
       </c>
       <c r="C15">
-        <v>0.652</v>
+        <v>0.594</v>
       </c>
       <c r="D15">
-        <v>0.9320000000000001</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="E15">
-        <v>0.868</v>
+        <v>0.282</v>
       </c>
       <c r="F15">
-        <v>0.675</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5388,19 +5388,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.157</v>
+        <v>0.571</v>
       </c>
       <c r="C16">
-        <v>0.067</v>
+        <v>0.424</v>
       </c>
       <c r="D16">
-        <v>0.914</v>
+        <v>0.82</v>
       </c>
       <c r="E16">
-        <v>0.978</v>
+        <v>0.863</v>
       </c>
       <c r="F16">
-        <v>0.306</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5408,19 +5408,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.033</v>
+        <v>0.083</v>
       </c>
       <c r="C17">
-        <v>0.103</v>
+        <v>0.771</v>
       </c>
       <c r="D17">
-        <v>0.953</v>
+        <v>0.471</v>
       </c>
       <c r="E17">
-        <v>0.73</v>
+        <v>0.255</v>
       </c>
       <c r="F17">
-        <v>0.628</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5428,19 +5428,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.083</v>
+        <v>0.385</v>
       </c>
       <c r="C18">
-        <v>0.594</v>
+        <v>0.885</v>
       </c>
       <c r="D18">
-        <v>0.138</v>
+        <v>0.028</v>
       </c>
       <c r="E18">
-        <v>0.008999999999999999</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="F18">
-        <v>0.794</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5448,19 +5448,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.041</v>
+        <v>0.921</v>
       </c>
       <c r="C19">
-        <v>0.295</v>
+        <v>0.892</v>
       </c>
       <c r="D19">
-        <v>0.905</v>
+        <v>0.451</v>
       </c>
       <c r="E19">
-        <v>0.528</v>
+        <v>0.002</v>
       </c>
       <c r="F19">
-        <v>0.121</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5468,19 +5468,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.632</v>
+        <v>0.896</v>
       </c>
       <c r="C20">
-        <v>1.088</v>
+        <v>0.112</v>
       </c>
       <c r="D20">
-        <v>1.083</v>
+        <v>0.631</v>
       </c>
       <c r="E20">
-        <v>1.938</v>
+        <v>1.758</v>
       </c>
       <c r="F20">
-        <v>0.521</v>
+        <v>1.146</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5488,19 +5488,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.257</v>
+        <v>0.229</v>
       </c>
       <c r="C21">
-        <v>0.472</v>
+        <v>0.486</v>
       </c>
       <c r="D21">
-        <v>0.307</v>
+        <v>0.739</v>
       </c>
       <c r="E21">
-        <v>0.831</v>
+        <v>1.173</v>
       </c>
       <c r="F21">
-        <v>0.5610000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5508,19 +5508,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.791</v>
+        <v>0.662</v>
       </c>
       <c r="C22">
-        <v>1.139</v>
+        <v>0.045</v>
       </c>
       <c r="D22">
-        <v>0.61</v>
+        <v>1.002</v>
       </c>
       <c r="E22">
-        <v>0.666</v>
+        <v>1.576</v>
       </c>
       <c r="F22">
-        <v>0.186</v>
+        <v>1.294</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5528,19 +5528,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.49</v>
+        <v>0.968</v>
       </c>
       <c r="C23">
-        <v>1.664</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D23">
-        <v>0.314</v>
+        <v>0.131</v>
       </c>
       <c r="E23">
-        <v>0.465</v>
+        <v>0.787</v>
       </c>
       <c r="F23">
-        <v>0.736</v>
+        <v>1.158</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5548,19 +5548,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.862</v>
+        <v>0.555</v>
       </c>
       <c r="C24">
-        <v>1.116</v>
+        <v>0.749</v>
       </c>
       <c r="D24">
-        <v>1.147</v>
+        <v>0.744</v>
       </c>
       <c r="E24">
-        <v>1.67</v>
+        <v>0.515</v>
       </c>
       <c r="F24">
-        <v>1.194</v>
+        <v>1.512</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5568,19 +5568,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.28</v>
+        <v>0.594</v>
       </c>
       <c r="C25">
-        <v>0.107</v>
+        <v>0.534</v>
       </c>
       <c r="D25">
-        <v>1.124</v>
+        <v>0.882</v>
       </c>
       <c r="E25">
-        <v>1.854</v>
+        <v>1.505</v>
       </c>
       <c r="F25">
-        <v>0.542</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5588,19 +5588,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.054</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="C26">
-        <v>0.172</v>
+        <v>0.975</v>
       </c>
       <c r="D26">
-        <v>1.172</v>
+        <v>0.507</v>
       </c>
       <c r="E26">
-        <v>1.375</v>
+        <v>0.44</v>
       </c>
       <c r="F26">
-        <v>1.109</v>
+        <v>1.117</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5608,19 +5608,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.15</v>
+        <v>0.401</v>
       </c>
       <c r="C27">
-        <v>1.025</v>
+        <v>1.121</v>
       </c>
       <c r="D27">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="E27">
-        <v>0.003</v>
+        <v>1.617</v>
       </c>
       <c r="F27">
-        <v>1.402</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5628,19 +5628,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.076</v>
+        <v>0.959</v>
       </c>
       <c r="C28">
-        <v>0.511</v>
+        <v>1.131</v>
       </c>
       <c r="D28">
-        <v>1.113</v>
+        <v>0.485</v>
       </c>
       <c r="E28">
-        <v>0.997</v>
+        <v>0.003</v>
       </c>
       <c r="F28">
-        <v>0.213</v>
+        <v>1.023</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5648,19 +5648,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.933</v>
+        <v>1.234</v>
       </c>
       <c r="C29">
-        <v>1.123</v>
+        <v>0.197</v>
       </c>
       <c r="D29">
-        <v>2.214</v>
+        <v>0.842</v>
       </c>
       <c r="E29">
-        <v>3.332</v>
+        <v>4.506</v>
       </c>
       <c r="F29">
-        <v>0.663</v>
+        <v>2.055</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5668,19 +5668,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.035</v>
+        <v>0.316</v>
       </c>
       <c r="C30">
-        <v>0.487</v>
+        <v>0.847</v>
       </c>
       <c r="D30">
-        <v>0.626</v>
+        <v>0.985</v>
       </c>
       <c r="E30">
-        <v>1.423</v>
+        <v>2.998</v>
       </c>
       <c r="F30">
-        <v>0.7</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5688,19 +5688,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.918</v>
+        <v>0.913</v>
       </c>
       <c r="C31">
-        <v>1.175</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D31">
-        <v>1.245</v>
+        <v>1.336</v>
       </c>
       <c r="E31">
-        <v>1.137</v>
+        <v>4.032</v>
       </c>
       <c r="F31">
-        <v>0.208</v>
+        <v>2.275</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5708,19 +5708,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.599</v>
+        <v>1.335</v>
       </c>
       <c r="C32">
-        <v>1.717</v>
+        <v>0.159</v>
       </c>
       <c r="D32">
-        <v>0.638</v>
+        <v>0.174</v>
       </c>
       <c r="E32">
-        <v>0.786</v>
+        <v>1.993</v>
       </c>
       <c r="F32">
-        <v>0.923</v>
+        <v>2.021</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5728,19 +5728,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.093</v>
+        <v>0.768</v>
       </c>
       <c r="C33">
-        <v>1.152</v>
+        <v>1.307</v>
       </c>
       <c r="D33">
-        <v>2.345</v>
+        <v>0.992</v>
       </c>
       <c r="E33">
-        <v>2.87</v>
+        <v>1.308</v>
       </c>
       <c r="F33">
-        <v>1.519</v>
+        <v>2.668</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5748,19 +5748,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.698</v>
+        <v>0.822</v>
       </c>
       <c r="C34">
-        <v>0.111</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="D34">
-        <v>2.296</v>
+        <v>1.176</v>
       </c>
       <c r="E34">
-        <v>3.18</v>
+        <v>3.839</v>
       </c>
       <c r="F34">
-        <v>0.67</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5768,19 +5768,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.158</v>
+        <v>0.124</v>
       </c>
       <c r="C35">
-        <v>0.178</v>
+        <v>1.702</v>
       </c>
       <c r="D35">
-        <v>2.394</v>
+        <v>0.676</v>
       </c>
       <c r="E35">
-        <v>2.352</v>
+        <v>1.094</v>
       </c>
       <c r="F35">
-        <v>1.408</v>
+        <v>1.945</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5788,19 +5788,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.39</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="C36">
-        <v>1.058</v>
+        <v>1.957</v>
       </c>
       <c r="D36">
-        <v>0.345</v>
+        <v>0.039</v>
       </c>
       <c r="E36">
-        <v>-0.016</v>
+        <v>4.114</v>
       </c>
       <c r="F36">
-        <v>1.79</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5808,19 +5808,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.214</v>
+        <v>1.327</v>
       </c>
       <c r="C37">
-        <v>0.528</v>
+        <v>1.975</v>
       </c>
       <c r="D37">
-        <v>2.273</v>
+        <v>0.646</v>
       </c>
       <c r="E37">
-        <v>1.701</v>
+        <v>-0.028</v>
       </c>
       <c r="F37">
-        <v>0.241</v>
+        <v>1.772</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5828,19 +5828,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>9.813000000000001</v>
+        <v>1.808</v>
       </c>
       <c r="C38">
-        <v>1.18</v>
+        <v>0.363</v>
       </c>
       <c r="D38">
-        <v>4.62</v>
+        <v>1.198</v>
       </c>
       <c r="E38">
-        <v>6.302</v>
+        <v>11.751</v>
       </c>
       <c r="F38">
-        <v>0.9330000000000001</v>
+        <v>4.049</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5848,19 +5848,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7.575</v>
+        <v>0.464</v>
       </c>
       <c r="C39">
-        <v>0.512</v>
+        <v>1.555</v>
       </c>
       <c r="D39">
-        <v>1.305</v>
+        <v>1.401</v>
       </c>
       <c r="E39">
-        <v>2.688</v>
+        <v>7.815</v>
       </c>
       <c r="F39">
-        <v>0.974</v>
+        <v>1.423</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5868,19 +5868,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4.791</v>
+        <v>1.339</v>
       </c>
       <c r="C40">
-        <v>1.235</v>
+        <v>0.158</v>
       </c>
       <c r="D40">
-        <v>2.597</v>
+        <v>1.901</v>
       </c>
       <c r="E40">
-        <v>2.146</v>
+        <v>10.512</v>
       </c>
       <c r="F40">
-        <v>0.27</v>
+        <v>4.457</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5888,19 +5888,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>8.983000000000001</v>
+        <v>1.959</v>
       </c>
       <c r="C41">
-        <v>1.804</v>
+        <v>0.296</v>
       </c>
       <c r="D41">
-        <v>1.33</v>
+        <v>0.247</v>
       </c>
       <c r="E41">
-        <v>1.479</v>
+        <v>5.188</v>
       </c>
       <c r="F41">
-        <v>1.288</v>
+        <v>3.951</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5908,19 +5908,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5.229</v>
+        <v>1.128</v>
       </c>
       <c r="C42">
-        <v>1.211</v>
+        <v>2.401</v>
       </c>
       <c r="D42">
-        <v>4.893</v>
+        <v>1.412</v>
       </c>
       <c r="E42">
-        <v>5.427</v>
+        <v>3.407</v>
       </c>
       <c r="F42">
-        <v>2.137</v>
+        <v>5.233</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5928,19 +5928,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.751</v>
+        <v>1.208</v>
       </c>
       <c r="C43">
-        <v>0.117</v>
+        <v>1.724</v>
       </c>
       <c r="D43">
-        <v>4.79</v>
+        <v>1.673</v>
       </c>
       <c r="E43">
-        <v>6.01</v>
+        <v>10.005</v>
       </c>
       <c r="F43">
-        <v>0.927</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5948,19 +5948,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.406</v>
+        <v>0.185</v>
       </c>
       <c r="C44">
-        <v>0.188</v>
+        <v>3.127</v>
       </c>
       <c r="D44">
-        <v>4.995</v>
+        <v>0.961</v>
       </c>
       <c r="E44">
-        <v>4.441</v>
+        <v>2.84</v>
       </c>
       <c r="F44">
-        <v>1.979</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5968,19 +5968,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.985</v>
+        <v>0.822</v>
       </c>
       <c r="C45">
-        <v>1.112</v>
+        <v>3.595</v>
       </c>
       <c r="D45">
-        <v>0.719</v>
+        <v>0.055</v>
       </c>
       <c r="E45">
-        <v>-0.042</v>
+        <v>10.717</v>
       </c>
       <c r="F45">
-        <v>2.523</v>
+        <v>2.541</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5988,19 +5988,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.547</v>
+        <v>1.949</v>
       </c>
       <c r="C46">
-        <v>0.555</v>
+        <v>3.629</v>
       </c>
       <c r="D46">
-        <v>4.742</v>
+        <v>0.919</v>
       </c>
       <c r="E46">
-        <v>3.21</v>
+        <v>-0.08699999999999999</v>
       </c>
       <c r="F46">
-        <v>0.315</v>
+        <v>3.457</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6008,19 +6008,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>16.518</v>
+        <v>4.424</v>
       </c>
       <c r="C47">
-        <v>4.666</v>
+        <v>0.457</v>
       </c>
       <c r="D47">
-        <v>7.708</v>
+        <v>4.175</v>
       </c>
       <c r="E47">
-        <v>13.045</v>
+        <v>22.036</v>
       </c>
       <c r="F47">
-        <v>1.744</v>
+        <v>11.076</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6028,19 +6028,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>12.751</v>
+        <v>1.137</v>
       </c>
       <c r="C48">
-        <v>2.034</v>
+        <v>1.959</v>
       </c>
       <c r="D48">
-        <v>2.177</v>
+        <v>4.882</v>
       </c>
       <c r="E48">
-        <v>5.562</v>
+        <v>14.654</v>
       </c>
       <c r="F48">
-        <v>1.808</v>
+        <v>3.861</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6048,19 +6048,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>8.066000000000001</v>
+        <v>3.279</v>
       </c>
       <c r="C49">
-        <v>4.888</v>
+        <v>0.2</v>
       </c>
       <c r="D49">
-        <v>4.332</v>
+        <v>6.623</v>
       </c>
       <c r="E49">
-        <v>4.44</v>
+        <v>19.712</v>
       </c>
       <c r="F49">
-        <v>0.476</v>
+        <v>12.171</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6068,19 +6068,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>15.122</v>
+        <v>4.797</v>
       </c>
       <c r="C50">
-        <v>7.135</v>
+        <v>0.373</v>
       </c>
       <c r="D50">
-        <v>2.218</v>
+        <v>0.857</v>
       </c>
       <c r="E50">
-        <v>3.057</v>
+        <v>9.726000000000001</v>
       </c>
       <c r="F50">
-        <v>2.394</v>
+        <v>10.782</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6088,19 +6088,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>8.803000000000001</v>
+        <v>2.765</v>
       </c>
       <c r="C51">
-        <v>4.797</v>
+        <v>3.025</v>
       </c>
       <c r="D51">
-        <v>8.163</v>
+        <v>4.921</v>
       </c>
       <c r="E51">
-        <v>11.233</v>
+        <v>6.388</v>
       </c>
       <c r="F51">
-        <v>3.995</v>
+        <v>14.295</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6108,19 +6108,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.949</v>
+        <v>2.961</v>
       </c>
       <c r="C52">
-        <v>0.485</v>
+        <v>2.172</v>
       </c>
       <c r="D52">
-        <v>7.991</v>
+        <v>5.829</v>
       </c>
       <c r="E52">
-        <v>12.438</v>
+        <v>18.76</v>
       </c>
       <c r="F52">
-        <v>1.713</v>
+        <v>1.927</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6128,19 +6128,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.6850000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="C53">
-        <v>0.766</v>
+        <v>3.939</v>
       </c>
       <c r="D53">
-        <v>8.333</v>
+        <v>3.347</v>
       </c>
       <c r="E53">
-        <v>9.189</v>
+        <v>5.323</v>
       </c>
       <c r="F53">
-        <v>3.697</v>
+        <v>10.367</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6148,19 +6148,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.66</v>
+        <v>2.019</v>
       </c>
       <c r="C54">
-        <v>4.413</v>
+        <v>4.529</v>
       </c>
       <c r="D54">
-        <v>1.199</v>
+        <v>0.19</v>
       </c>
       <c r="E54">
-        <v>-0.095</v>
+        <v>20.094</v>
       </c>
       <c r="F54">
-        <v>4.723</v>
+        <v>6.917</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6168,19 +6168,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.923</v>
+        <v>4.778</v>
       </c>
       <c r="C55">
-        <v>2.218</v>
+        <v>4.572</v>
       </c>
       <c r="D55">
-        <v>7.911</v>
+        <v>3.201</v>
       </c>
       <c r="E55">
-        <v>6.64</v>
+        <v>-0.166</v>
       </c>
       <c r="F55">
-        <v>0.5590000000000001</v>
+        <v>9.427</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6188,19 +6188,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>30.029</v>
+        <v>10.126</v>
       </c>
       <c r="C56">
-        <v>12.184</v>
+        <v>1.887</v>
       </c>
       <c r="D56">
-        <v>13.501</v>
+        <v>7.944</v>
       </c>
       <c r="E56">
-        <v>26.781</v>
+        <v>43.133</v>
       </c>
       <c r="F56">
-        <v>3.162</v>
+        <v>20.511</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6208,19 +6208,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>23.181</v>
+        <v>1.957</v>
       </c>
       <c r="C57">
-        <v>5.314</v>
+        <v>5.221</v>
       </c>
       <c r="D57">
-        <v>3.813</v>
+        <v>8.988</v>
       </c>
       <c r="E57">
-        <v>11.417</v>
+        <v>28.594</v>
       </c>
       <c r="F57">
-        <v>3.271</v>
+        <v>6.982</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6228,19 +6228,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>14.664</v>
+        <v>8.352</v>
       </c>
       <c r="C58">
-        <v>12.764</v>
+        <v>1.147</v>
       </c>
       <c r="D58">
-        <v>7.588</v>
+        <v>11.884</v>
       </c>
       <c r="E58">
-        <v>9.113</v>
+        <v>38.397</v>
       </c>
       <c r="F58">
-        <v>0.848</v>
+        <v>22.529</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6248,19 +6248,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>27.491</v>
+        <v>11.034</v>
       </c>
       <c r="C59">
-        <v>18.631</v>
+        <v>1.263</v>
       </c>
       <c r="D59">
-        <v>3.885</v>
+        <v>1.312</v>
       </c>
       <c r="E59">
-        <v>6.274</v>
+        <v>19.456</v>
       </c>
       <c r="F59">
-        <v>4.333</v>
+        <v>19.118</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6268,19 +6268,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>16.004</v>
+        <v>6.3</v>
       </c>
       <c r="C60">
-        <v>12.527</v>
+        <v>7.675</v>
       </c>
       <c r="D60">
-        <v>14.298</v>
+        <v>9.208</v>
       </c>
       <c r="E60">
-        <v>23.06</v>
+        <v>12.996</v>
       </c>
       <c r="F60">
-        <v>7.243</v>
+        <v>25.995</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6288,19 +6288,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5.362</v>
+        <v>7.653</v>
       </c>
       <c r="C61">
-        <v>1.272</v>
+        <v>5.294</v>
       </c>
       <c r="D61">
-        <v>13.997</v>
+        <v>10.5</v>
       </c>
       <c r="E61">
-        <v>25.533</v>
+        <v>36.751</v>
       </c>
       <c r="F61">
-        <v>3.095</v>
+        <v>3.366</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6308,19 +6308,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.247</v>
+        <v>1.446</v>
       </c>
       <c r="C62">
-        <v>2.006</v>
+        <v>10.72</v>
       </c>
       <c r="D62">
-        <v>14.596</v>
+        <v>6.628</v>
       </c>
       <c r="E62">
-        <v>18.862</v>
+        <v>9.84</v>
       </c>
       <c r="F62">
-        <v>6.701</v>
+        <v>18.499</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6328,19 +6328,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3.019</v>
+        <v>5.48</v>
       </c>
       <c r="C63">
-        <v>11.527</v>
+        <v>11.433</v>
       </c>
       <c r="D63">
-        <v>2.1</v>
+        <v>0.476</v>
       </c>
       <c r="E63">
-        <v>-0.198</v>
+        <v>39.603</v>
       </c>
       <c r="F63">
-        <v>8.566000000000001</v>
+        <v>12.774</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6348,19 +6348,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.679</v>
+        <v>11.763</v>
       </c>
       <c r="C64">
-        <v>5.798</v>
+        <v>12.431</v>
       </c>
       <c r="D64">
-        <v>13.857</v>
+        <v>5.606</v>
       </c>
       <c r="E64">
-        <v>13.629</v>
+        <v>0.031</v>
       </c>
       <c r="F64">
-        <v>0.997</v>
+        <v>17.138</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6368,19 +6368,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>75.76300000000001</v>
+        <v>21.803</v>
       </c>
       <c r="C65">
-        <v>30.876</v>
+        <v>1.907</v>
       </c>
       <c r="D65">
-        <v>38.466</v>
+        <v>20.554</v>
       </c>
       <c r="E65">
-        <v>42.241</v>
+        <v>78.858</v>
       </c>
       <c r="F65">
-        <v>9.566000000000001</v>
+        <v>24.921</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6388,19 +6388,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>58.486</v>
+        <v>4.643</v>
       </c>
       <c r="C66">
-        <v>13.467</v>
+        <v>5.269</v>
       </c>
       <c r="D66">
-        <v>10.863</v>
+        <v>22.558</v>
       </c>
       <c r="E66">
-        <v>18.008</v>
+        <v>52.112</v>
       </c>
       <c r="F66">
-        <v>9.885999999999999</v>
+        <v>8.541</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6408,19 +6408,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>36.998</v>
+        <v>18.704</v>
       </c>
       <c r="C67">
-        <v>32.347</v>
+        <v>1.158</v>
       </c>
       <c r="D67">
-        <v>21.619</v>
+        <v>28.815</v>
       </c>
       <c r="E67">
-        <v>14.373</v>
+        <v>69.85899999999999</v>
       </c>
       <c r="F67">
-        <v>2.544</v>
+        <v>27.517</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6428,19 +6428,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>69.36</v>
+        <v>23.836</v>
       </c>
       <c r="C68">
-        <v>47.214</v>
+        <v>1.277</v>
       </c>
       <c r="D68">
-        <v>11.068</v>
+        <v>3.308</v>
       </c>
       <c r="E68">
-        <v>9.895</v>
+        <v>35.606</v>
       </c>
       <c r="F68">
-        <v>13.099</v>
+        <v>23.066</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6448,19 +6448,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>40.379</v>
+        <v>13.71</v>
       </c>
       <c r="C69">
-        <v>31.746</v>
+        <v>7.75</v>
       </c>
       <c r="D69">
-        <v>40.737</v>
+        <v>23.667</v>
       </c>
       <c r="E69">
-        <v>36.372</v>
+        <v>23.727</v>
       </c>
       <c r="F69">
-        <v>21.914</v>
+        <v>31.603</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6468,19 +6468,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>13.529</v>
+        <v>17.367</v>
       </c>
       <c r="C70">
-        <v>3.226</v>
+        <v>5.346</v>
       </c>
       <c r="D70">
-        <v>39.879</v>
+        <v>26.751</v>
       </c>
       <c r="E70">
-        <v>40.272</v>
+        <v>66.878</v>
       </c>
       <c r="F70">
-        <v>9.348000000000001</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6488,19 +6488,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.147</v>
+        <v>3.499</v>
       </c>
       <c r="C71">
-        <v>5.086</v>
+        <v>10.827</v>
       </c>
       <c r="D71">
-        <v>41.585</v>
+        <v>16.784</v>
       </c>
       <c r="E71">
-        <v>29.75</v>
+        <v>17.224</v>
       </c>
       <c r="F71">
-        <v>20.272</v>
+        <v>22.481</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6508,19 +6508,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7.619</v>
+        <v>12.765</v>
       </c>
       <c r="C72">
-        <v>29.213</v>
+        <v>11.547</v>
       </c>
       <c r="D72">
-        <v>5.983</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="E72">
-        <v>-0.313</v>
+        <v>72.687</v>
       </c>
       <c r="F72">
-        <v>25.921</v>
+        <v>15.521</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6528,19 +6528,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4.238</v>
+        <v>26.124</v>
       </c>
       <c r="C73">
-        <v>14.695</v>
+        <v>12.553</v>
       </c>
       <c r="D73">
-        <v>39.48</v>
+        <v>14.554</v>
       </c>
       <c r="E73">
-        <v>21.496</v>
+        <v>0.667</v>
       </c>
       <c r="F73">
-        <v>2.994</v>
+        <v>20.857</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6548,19 +6548,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>176.653</v>
+        <v>26.349</v>
       </c>
       <c r="C74">
-        <v>77.202</v>
+        <v>3.751</v>
       </c>
       <c r="D74">
-        <v>95.435</v>
+        <v>29.438</v>
       </c>
       <c r="E74">
-        <v>70.16200000000001</v>
+        <v>189.638</v>
       </c>
       <c r="F74">
-        <v>24.436</v>
+        <v>90.58199999999999</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6568,19 +6568,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>136.369</v>
+        <v>5.735</v>
       </c>
       <c r="C75">
-        <v>33.673</v>
+        <v>10.495</v>
       </c>
       <c r="D75">
-        <v>26.951</v>
+        <v>32.008</v>
       </c>
       <c r="E75">
-        <v>29.911</v>
+        <v>125.281</v>
       </c>
       <c r="F75">
-        <v>25.25</v>
+        <v>31.495</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6588,19 +6588,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>86.26600000000001</v>
+        <v>22.786</v>
       </c>
       <c r="C76">
-        <v>80.88</v>
+        <v>2.432</v>
       </c>
       <c r="D76">
-        <v>53.637</v>
+        <v>40.536</v>
       </c>
       <c r="E76">
-        <v>23.873</v>
+        <v>168.453</v>
       </c>
       <c r="F76">
-        <v>6.491</v>
+        <v>99.51300000000001</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6608,19 +6608,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>161.724</v>
+        <v>28.844</v>
       </c>
       <c r="C77">
-        <v>118.053</v>
+        <v>2.422</v>
       </c>
       <c r="D77">
-        <v>27.46</v>
+        <v>4.582</v>
       </c>
       <c r="E77">
-        <v>16.435</v>
+        <v>85.253</v>
       </c>
       <c r="F77">
-        <v>33.458</v>
+        <v>82.27500000000001</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6628,19 +6628,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>94.15000000000001</v>
+        <v>16.559</v>
       </c>
       <c r="C78">
-        <v>79.378</v>
+        <v>15.882</v>
       </c>
       <c r="D78">
-        <v>101.069</v>
+        <v>33.563</v>
       </c>
       <c r="E78">
-        <v>60.414</v>
+        <v>56.453</v>
       </c>
       <c r="F78">
-        <v>55.979</v>
+        <v>113.401</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6648,19 +6648,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>31.546</v>
+        <v>21.063</v>
       </c>
       <c r="C79">
-        <v>8.067</v>
+        <v>11.267</v>
       </c>
       <c r="D79">
-        <v>98.94</v>
+        <v>38.004</v>
       </c>
       <c r="E79">
-        <v>66.892</v>
+        <v>161.284</v>
       </c>
       <c r="F79">
-        <v>23.874</v>
+        <v>14.006</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6668,19 +6668,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7.338</v>
+        <v>4.218</v>
       </c>
       <c r="C80">
-        <v>12.718</v>
+        <v>22.593</v>
       </c>
       <c r="D80">
-        <v>103.173</v>
+        <v>23.856</v>
       </c>
       <c r="E80">
-        <v>49.414</v>
+        <v>40.179</v>
       </c>
       <c r="F80">
-        <v>51.783</v>
+        <v>80.18899999999999</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6688,19 +6688,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>17.765</v>
+        <v>15.412</v>
       </c>
       <c r="C81">
-        <v>73.045</v>
+        <v>24.439</v>
       </c>
       <c r="D81">
-        <v>14.844</v>
+        <v>0.887</v>
       </c>
       <c r="E81">
-        <v>-0.521</v>
+        <v>175.949</v>
       </c>
       <c r="F81">
-        <v>66.21599999999999</v>
+        <v>54.952</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6708,19 +6708,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>9.882</v>
+        <v>31.783</v>
       </c>
       <c r="C82">
-        <v>36.744</v>
+        <v>26.309</v>
       </c>
       <c r="D82">
-        <v>97.95</v>
+        <v>20.806</v>
       </c>
       <c r="E82">
-        <v>35.705</v>
+        <v>1.804</v>
       </c>
       <c r="F82">
-        <v>7.64</v>
+        <v>75.804</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6728,19 +6728,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>426.952</v>
+        <v>40.834</v>
       </c>
       <c r="C83">
-        <v>132.269</v>
+        <v>6.453</v>
       </c>
       <c r="D83">
-        <v>192.796</v>
+        <v>94.58</v>
       </c>
       <c r="E83">
-        <v>143.667</v>
+        <v>491.609</v>
       </c>
       <c r="F83">
-        <v>41.014</v>
+        <v>149.876</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6748,19 +6748,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>329.59</v>
+        <v>9.196999999999999</v>
       </c>
       <c r="C84">
-        <v>57.692</v>
+        <v>18.847</v>
       </c>
       <c r="D84">
-        <v>54.446</v>
+        <v>102.02</v>
       </c>
       <c r="E84">
-        <v>61.247</v>
+        <v>324.521</v>
       </c>
       <c r="F84">
-        <v>42.38</v>
+        <v>52.156</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6768,19 +6768,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>208.496</v>
+        <v>35.611</v>
       </c>
       <c r="C85">
-        <v>138.571</v>
+        <v>4.616</v>
       </c>
       <c r="D85">
-        <v>108.356</v>
+        <v>129.998</v>
       </c>
       <c r="E85">
-        <v>48.884</v>
+        <v>437.032</v>
       </c>
       <c r="F85">
-        <v>10.893</v>
+        <v>164.346</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6788,19 +6788,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>390.87</v>
+        <v>44.65</v>
       </c>
       <c r="C86">
-        <v>202.259</v>
+        <v>4.152</v>
       </c>
       <c r="D86">
-        <v>55.474</v>
+        <v>14.654</v>
       </c>
       <c r="E86">
-        <v>33.653</v>
+        <v>220.806</v>
       </c>
       <c r="F86">
-        <v>56.156</v>
+        <v>135.948</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6808,19 +6808,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>227.551</v>
+        <v>25.643</v>
       </c>
       <c r="C87">
-        <v>135.997</v>
+        <v>28.598</v>
       </c>
       <c r="D87">
-        <v>204.178</v>
+        <v>108.443</v>
       </c>
       <c r="E87">
-        <v>123.707</v>
+        <v>146.284</v>
       </c>
       <c r="F87">
-        <v>93.956</v>
+        <v>187.072</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6828,19 +6828,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>76.24299999999999</v>
+        <v>32.472</v>
       </c>
       <c r="C88">
-        <v>13.821</v>
+        <v>20.401</v>
       </c>
       <c r="D88">
-        <v>199.877</v>
+        <v>122.32</v>
       </c>
       <c r="E88">
-        <v>136.971</v>
+        <v>418.948</v>
       </c>
       <c r="F88">
-        <v>40.07</v>
+        <v>22.775</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6848,19 +6848,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>17.735</v>
+        <v>6.495</v>
       </c>
       <c r="C89">
-        <v>21.79</v>
+        <v>40.408</v>
       </c>
       <c r="D89">
-        <v>208.428</v>
+        <v>76.98699999999999</v>
       </c>
       <c r="E89">
-        <v>101.183</v>
+        <v>104.384</v>
       </c>
       <c r="F89">
-        <v>86.913</v>
+        <v>132.027</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6868,19 +6868,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>42.936</v>
+        <v>23.771</v>
       </c>
       <c r="C90">
-        <v>125.147</v>
+        <v>43.842</v>
       </c>
       <c r="D90">
-        <v>29.987</v>
+        <v>3.961</v>
       </c>
       <c r="E90">
-        <v>-1.067</v>
+        <v>457.784</v>
       </c>
       <c r="F90">
-        <v>111.138</v>
+        <v>90.718</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6888,19 +6888,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>23.884</v>
+        <v>49.493</v>
       </c>
       <c r="C91">
-        <v>62.953</v>
+        <v>47.178</v>
       </c>
       <c r="D91">
-        <v>197.877</v>
+        <v>66.816</v>
       </c>
       <c r="E91">
-        <v>73.111</v>
+        <v>4.695</v>
       </c>
       <c r="F91">
-        <v>12.822</v>
+        <v>125.212</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6908,19 +6908,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>538.274</v>
+        <v>93.05</v>
       </c>
       <c r="C92">
-        <v>315.354</v>
+        <v>15.296</v>
       </c>
       <c r="D92">
-        <v>374.308</v>
+        <v>213.532</v>
       </c>
       <c r="E92">
-        <v>448.06</v>
+        <v>494.99</v>
       </c>
       <c r="F92">
-        <v>48.549</v>
+        <v>276.873</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6928,19 +6928,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>415.436</v>
+        <v>21.013</v>
       </c>
       <c r="C93">
-        <v>137.983</v>
+        <v>46.71</v>
       </c>
       <c r="D93">
-        <v>105.826</v>
+        <v>230.134</v>
       </c>
       <c r="E93">
-        <v>191.213</v>
+        <v>326.75</v>
       </c>
       <c r="F93">
-        <v>50.143</v>
+        <v>96.42</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6948,19 +6948,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>262.841</v>
+        <v>81.129</v>
       </c>
       <c r="C94">
-        <v>329.543</v>
+        <v>11.577</v>
       </c>
       <c r="D94">
-        <v>209.853</v>
+        <v>293.59</v>
       </c>
       <c r="E94">
-        <v>152.429</v>
+        <v>440.039</v>
       </c>
       <c r="F94">
-        <v>12.867</v>
+        <v>303.996</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6968,19 +6968,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>492.76</v>
+        <v>101.858</v>
       </c>
       <c r="C95">
-        <v>481.718</v>
+        <v>10.362</v>
       </c>
       <c r="D95">
-        <v>107.117</v>
+        <v>33.178</v>
       </c>
       <c r="E95">
-        <v>104.439</v>
+        <v>222.322</v>
       </c>
       <c r="F95">
-        <v>66.5</v>
+        <v>251.215</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6988,19 +6988,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>286.905</v>
+        <v>58.595</v>
       </c>
       <c r="C96">
-        <v>323.929</v>
+        <v>70.325</v>
       </c>
       <c r="D96">
-        <v>396</v>
+        <v>245.698</v>
       </c>
       <c r="E96">
-        <v>386.018</v>
+        <v>147.29</v>
       </c>
       <c r="F96">
-        <v>111.188</v>
+        <v>345.394</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -7008,19 +7008,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>96.211</v>
+        <v>73.318</v>
       </c>
       <c r="C97">
-        <v>32.79</v>
+        <v>50.385</v>
       </c>
       <c r="D97">
-        <v>387.294</v>
+        <v>277.103</v>
       </c>
       <c r="E97">
-        <v>426.082</v>
+        <v>421.827</v>
       </c>
       <c r="F97">
-        <v>47.455</v>
+        <v>41.507</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -7028,19 +7028,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>22.496</v>
+        <v>14.462</v>
       </c>
       <c r="C98">
-        <v>51.699</v>
+        <v>99.95399999999999</v>
       </c>
       <c r="D98">
-        <v>404.384</v>
+        <v>174.743</v>
       </c>
       <c r="E98">
-        <v>316.157</v>
+        <v>105.101</v>
       </c>
       <c r="F98">
-        <v>102.78</v>
+        <v>243.494</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7048,19 +7048,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>54.028</v>
+        <v>54.248</v>
       </c>
       <c r="C99">
-        <v>297.48</v>
+        <v>107.632</v>
       </c>
       <c r="D99">
-        <v>57.617</v>
+        <v>8.738</v>
       </c>
       <c r="E99">
-        <v>-2.698</v>
+        <v>460.936</v>
       </c>
       <c r="F99">
-        <v>131.442</v>
+        <v>167.329</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7068,19 +7068,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>30.042</v>
+        <v>113.154</v>
       </c>
       <c r="C100">
-        <v>150.249</v>
+        <v>115.933</v>
       </c>
       <c r="D100">
-        <v>383.311</v>
+        <v>151.247</v>
       </c>
       <c r="E100">
-        <v>228.376</v>
+        <v>4.728</v>
       </c>
       <c r="F100">
-        <v>15.244</v>
+        <v>231.323</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7088,19 +7088,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1721.142</v>
+        <v>102.336</v>
       </c>
       <c r="C101">
-        <v>663.789</v>
+        <v>22.569</v>
       </c>
       <c r="D101">
-        <v>629.454</v>
+        <v>243.488</v>
       </c>
       <c r="E101">
-        <v>661.47</v>
+        <v>1695.102</v>
       </c>
       <c r="F101">
-        <v>161.952</v>
+        <v>449.423</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -7108,19 +7108,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1327.494</v>
+        <v>23.095</v>
       </c>
       <c r="C102">
-        <v>291.079</v>
+        <v>69.521</v>
       </c>
       <c r="D102">
-        <v>178.004</v>
+        <v>262.385</v>
       </c>
       <c r="E102">
-        <v>282.573</v>
+        <v>1119.406</v>
       </c>
       <c r="F102">
-        <v>166.21</v>
+        <v>156.653</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7128,19 +7128,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>841.198</v>
+        <v>89.187</v>
       </c>
       <c r="C103">
-        <v>692.765</v>
+        <v>17.312</v>
       </c>
       <c r="D103">
-        <v>352.621</v>
+        <v>334.764</v>
       </c>
       <c r="E103">
-        <v>225.271</v>
+        <v>1508.251</v>
       </c>
       <c r="F103">
-        <v>43.386</v>
+        <v>493.717</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -7148,19 +7148,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1575.172</v>
+        <v>111.998</v>
       </c>
       <c r="C104">
-        <v>1013.885</v>
+        <v>15.235</v>
       </c>
       <c r="D104">
-        <v>180.125</v>
+        <v>37.89</v>
       </c>
       <c r="E104">
-        <v>154.371</v>
+        <v>760.954</v>
       </c>
       <c r="F104">
-        <v>220.551</v>
+        <v>407.652</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -7168,19 +7168,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>918.503</v>
+        <v>64.45</v>
       </c>
       <c r="C105">
-        <v>682.025</v>
+        <v>104.683</v>
       </c>
       <c r="D105">
-        <v>666.1609999999999</v>
+        <v>280.229</v>
       </c>
       <c r="E105">
-        <v>570.03</v>
+        <v>504.817</v>
       </c>
       <c r="F105">
-        <v>370.123</v>
+        <v>560.414</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -7188,19 +7188,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>307.85</v>
+        <v>80.57599999999999</v>
       </c>
       <c r="C106">
-        <v>68.372</v>
+        <v>75.071</v>
       </c>
       <c r="D106">
-        <v>651.104</v>
+        <v>316.062</v>
       </c>
       <c r="E106">
-        <v>629.159</v>
+        <v>1444.765</v>
       </c>
       <c r="F106">
-        <v>157.351</v>
+        <v>67.27</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -7208,19 +7208,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>71.69799999999999</v>
+        <v>15.869</v>
       </c>
       <c r="C107">
-        <v>108.755</v>
+        <v>148.675</v>
       </c>
       <c r="D107">
-        <v>680.292</v>
+        <v>199.318</v>
       </c>
       <c r="E107">
-        <v>466.544</v>
+        <v>360.587</v>
       </c>
       <c r="F107">
-        <v>341.288</v>
+        <v>394.907</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -7228,19 +7228,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>173.155</v>
+        <v>59.624</v>
       </c>
       <c r="C108">
-        <v>625.867</v>
+        <v>160.047</v>
       </c>
       <c r="D108">
-        <v>96.82599999999999</v>
+        <v>10</v>
       </c>
       <c r="E108">
-        <v>-4.021</v>
+        <v>1579.872</v>
       </c>
       <c r="F108">
-        <v>435.604</v>
+        <v>271.452</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -7248,19 +7248,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>96.25</v>
+        <v>124.427</v>
       </c>
       <c r="C109">
-        <v>316.599</v>
+        <v>172.356</v>
       </c>
       <c r="D109">
-        <v>644.696</v>
+        <v>172.463</v>
       </c>
       <c r="E109">
-        <v>337.359</v>
+        <v>16.086</v>
       </c>
       <c r="F109">
-        <v>51.622</v>
+        <v>375.588</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -7268,19 +7268,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>3302.662</v>
+        <v>312.317</v>
       </c>
       <c r="C110">
-        <v>1689.162</v>
+        <v>31.9</v>
       </c>
       <c r="D110">
-        <v>1530.637</v>
+        <v>323.878</v>
       </c>
       <c r="E110">
-        <v>1374.664</v>
+        <v>4587.441</v>
       </c>
       <c r="F110">
-        <v>427.851</v>
+        <v>1435.822</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -7288,19 +7288,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>2547.71</v>
+        <v>70.148</v>
       </c>
       <c r="C111">
-        <v>741.239</v>
+        <v>98.785</v>
       </c>
       <c r="D111">
-        <v>433.215</v>
+        <v>348.925</v>
       </c>
       <c r="E111">
-        <v>587.9349999999999</v>
+        <v>3029.809</v>
       </c>
       <c r="F111">
-        <v>438.61</v>
+        <v>500.381</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -7308,19 +7308,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1614.492</v>
+        <v>272.094</v>
       </c>
       <c r="C112">
-        <v>1762.821</v>
+        <v>24.722</v>
       </c>
       <c r="D112">
-        <v>857.04</v>
+        <v>445.285</v>
       </c>
       <c r="E112">
-        <v>468.918</v>
+        <v>4081.832</v>
       </c>
       <c r="F112">
-        <v>114.551</v>
+        <v>1579.167</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -7328,19 +7328,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>3022.879</v>
+        <v>342.435</v>
       </c>
       <c r="C113">
-        <v>2581.021</v>
+        <v>21.517</v>
       </c>
       <c r="D113">
-        <v>437.926</v>
+        <v>50.395</v>
       </c>
       <c r="E113">
-        <v>321.146</v>
+        <v>2059.505</v>
       </c>
       <c r="F113">
-        <v>581.04</v>
+        <v>1303.121</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -7348,19 +7348,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1763.257</v>
+        <v>197.54</v>
       </c>
       <c r="C114">
-        <v>1735.366</v>
+        <v>148.746</v>
       </c>
       <c r="D114">
-        <v>1620.03</v>
+        <v>372.696</v>
       </c>
       <c r="E114">
-        <v>1184.938</v>
+        <v>1366.469</v>
       </c>
       <c r="F114">
-        <v>975.139</v>
+        <v>1789.987</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -7368,19 +7368,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>590.687</v>
+        <v>245.53</v>
       </c>
       <c r="C115">
-        <v>173.119</v>
+        <v>106.659</v>
       </c>
       <c r="D115">
-        <v>1582.975</v>
+        <v>420.389</v>
       </c>
       <c r="E115">
-        <v>1307.425</v>
+        <v>3909.798</v>
       </c>
       <c r="F115">
-        <v>415.342</v>
+        <v>214.302</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7388,19 +7388,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>137.285</v>
+        <v>47.931</v>
       </c>
       <c r="C116">
-        <v>276.587</v>
+        <v>211.347</v>
       </c>
       <c r="D116">
-        <v>1653.672</v>
+        <v>265.091</v>
       </c>
       <c r="E116">
-        <v>969.247</v>
+        <v>975.91</v>
       </c>
       <c r="F116">
-        <v>898.784</v>
+        <v>1261.409</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -7408,19 +7408,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>332.252</v>
+        <v>182.178</v>
       </c>
       <c r="C117">
-        <v>1592.821</v>
+        <v>227.462</v>
       </c>
       <c r="D117">
-        <v>234.894</v>
+        <v>13.331</v>
       </c>
       <c r="E117">
-        <v>-8.257</v>
+        <v>4276.293</v>
       </c>
       <c r="F117">
-        <v>1147.393</v>
+        <v>867.227</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -7428,379 +7428,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>184.932</v>
+        <v>380.616</v>
       </c>
       <c r="C118">
-        <v>806.478</v>
+        <v>244.859</v>
       </c>
       <c r="D118">
-        <v>1567.327</v>
+        <v>229.358</v>
       </c>
       <c r="E118">
-        <v>701.665</v>
+        <v>43.9</v>
       </c>
       <c r="F118">
-        <v>136.36</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>7122.368</v>
-      </c>
-      <c r="C119">
-        <v>1935.291</v>
-      </c>
-      <c r="D119">
-        <v>3045.736</v>
-      </c>
-      <c r="E119">
-        <v>2390.904</v>
-      </c>
-      <c r="F119">
-        <v>1112.381</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>5494.33</v>
-      </c>
-      <c r="C120">
-        <v>849.348</v>
-      </c>
-      <c r="D120">
-        <v>862.223</v>
-      </c>
-      <c r="E120">
-        <v>1023.087</v>
-      </c>
-      <c r="F120">
-        <v>1140.274</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>3482.212</v>
-      </c>
-      <c r="C121">
-        <v>2019.785</v>
-      </c>
-      <c r="D121">
-        <v>1705.026</v>
-      </c>
-      <c r="E121">
-        <v>815.794</v>
-      </c>
-      <c r="F121">
-        <v>297.661</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>6519.031</v>
-      </c>
-      <c r="C122">
-        <v>2957.192</v>
-      </c>
-      <c r="D122">
-        <v>871.41</v>
-      </c>
-      <c r="E122">
-        <v>558.663</v>
-      </c>
-      <c r="F122">
-        <v>1510.311</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>3803.551</v>
-      </c>
-      <c r="C123">
-        <v>1988.312</v>
-      </c>
-      <c r="D123">
-        <v>3223.809</v>
-      </c>
-      <c r="E123">
-        <v>2061.33</v>
-      </c>
-      <c r="F123">
-        <v>2535.264</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>1274.16</v>
-      </c>
-      <c r="C124">
-        <v>198.27</v>
-      </c>
-      <c r="D124">
-        <v>3150.216</v>
-      </c>
-      <c r="E124">
-        <v>2274.001</v>
-      </c>
-      <c r="F124">
-        <v>1079.679</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>296.263</v>
-      </c>
-      <c r="C125">
-        <v>316.867</v>
-      </c>
-      <c r="D125">
-        <v>3290.452</v>
-      </c>
-      <c r="E125">
-        <v>1685.811</v>
-      </c>
-      <c r="F125">
-        <v>2337.453</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>716.559</v>
-      </c>
-      <c r="C126">
-        <v>1824.95</v>
-      </c>
-      <c r="D126">
-        <v>467.683</v>
-      </c>
-      <c r="E126">
-        <v>-14.144</v>
-      </c>
-      <c r="F126">
-        <v>2982.546</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>398.526</v>
-      </c>
-      <c r="C127">
-        <v>924.096</v>
-      </c>
-      <c r="D127">
-        <v>3118.807</v>
-      </c>
-      <c r="E127">
-        <v>1220.878</v>
-      </c>
-      <c r="F127">
-        <v>354.746</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>15956.457</v>
-      </c>
-      <c r="C128">
-        <v>5618.138</v>
-      </c>
-      <c r="D128">
-        <v>4470.594</v>
-      </c>
-      <c r="E128">
-        <v>3064.69</v>
-      </c>
-      <c r="F128">
-        <v>1947.037</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>12309.482</v>
-      </c>
-      <c r="C129">
-        <v>2466.18</v>
-      </c>
-      <c r="D129">
-        <v>1265.661</v>
-      </c>
-      <c r="E129">
-        <v>1311.484</v>
-      </c>
-      <c r="F129">
-        <v>1995.655</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>7801.668</v>
-      </c>
-      <c r="C130">
-        <v>5864.386</v>
-      </c>
-      <c r="D130">
-        <v>2502.759</v>
-      </c>
-      <c r="E130">
-        <v>1045.742</v>
-      </c>
-      <c r="F130">
-        <v>521.112</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>14604.608</v>
-      </c>
-      <c r="C131">
-        <v>8585.614</v>
-      </c>
-      <c r="D131">
-        <v>1279.083</v>
-      </c>
-      <c r="E131">
-        <v>716.196</v>
-      </c>
-      <c r="F131">
-        <v>2643.472</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>8521.718999999999</v>
-      </c>
-      <c r="C132">
-        <v>5772.956</v>
-      </c>
-      <c r="D132">
-        <v>4732.019</v>
-      </c>
-      <c r="E132">
-        <v>2642.315</v>
-      </c>
-      <c r="F132">
-        <v>4437.427</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>2854.208</v>
-      </c>
-      <c r="C133">
-        <v>574.785</v>
-      </c>
-      <c r="D133">
-        <v>4624.196</v>
-      </c>
-      <c r="E133">
-        <v>2914.91</v>
-      </c>
-      <c r="F133">
-        <v>1890.063</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>663.405</v>
-      </c>
-      <c r="C134">
-        <v>919.49</v>
-      </c>
-      <c r="D134">
-        <v>4829.737</v>
-      </c>
-      <c r="E134">
-        <v>2160.963</v>
-      </c>
-      <c r="F134">
-        <v>4091.658</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>1605.295</v>
-      </c>
-      <c r="C135">
-        <v>5298.746</v>
-      </c>
-      <c r="D135">
-        <v>686.693</v>
-      </c>
-      <c r="E135">
-        <v>-18.045</v>
-      </c>
-      <c r="F135">
-        <v>5220.675</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>893.0170000000001</v>
-      </c>
-      <c r="C136">
-        <v>2683.317</v>
-      </c>
-      <c r="D136">
-        <v>4577.831</v>
-      </c>
-      <c r="E136">
-        <v>1565.024</v>
-      </c>
-      <c r="F136">
-        <v>621.128</v>
+        <v>1199.951</v>
       </c>
     </row>
   </sheetData>

--- a/Experimentos2/BA.xlsx
+++ b/Experimentos2/BA.xlsx
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -448,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -722,19 +722,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.91</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="C11">
-        <v>0.143</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="D11">
-        <v>0.656</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="E11">
-        <v>1.083</v>
+        <v>0.194</v>
       </c>
       <c r="F11">
-        <v>0.765</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -742,19 +742,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.274</v>
+        <v>0.468</v>
       </c>
       <c r="C12">
-        <v>0.442</v>
+        <v>0.359</v>
       </c>
       <c r="D12">
-        <v>0.753</v>
+        <v>0.544</v>
       </c>
       <c r="E12">
-        <v>0.743</v>
+        <v>0.66</v>
       </c>
       <c r="F12">
-        <v>0.291</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -762,19 +762,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.694</v>
+        <v>0.615</v>
       </c>
       <c r="C13">
-        <v>0.098</v>
+        <v>0.606</v>
       </c>
       <c r="D13">
-        <v>0.997</v>
+        <v>0.482</v>
       </c>
       <c r="E13">
-        <v>0.972</v>
+        <v>0.214</v>
       </c>
       <c r="F13">
-        <v>0.754</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -782,19 +782,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.993</v>
+        <v>0.092</v>
       </c>
       <c r="C14">
-        <v>0.135</v>
+        <v>0.764</v>
       </c>
       <c r="D14">
-        <v>0.185</v>
+        <v>0.281</v>
       </c>
       <c r="E14">
-        <v>0.508</v>
+        <v>0.545</v>
       </c>
       <c r="F14">
-        <v>0.667</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -802,19 +802,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="C15">
-        <v>0.66</v>
+        <v>0.744</v>
       </c>
       <c r="D15">
-        <v>0.761</v>
+        <v>0.435</v>
       </c>
       <c r="E15">
-        <v>0.367</v>
+        <v>0.416</v>
       </c>
       <c r="F15">
-        <v>0.868</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -822,19 +822,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.641</v>
+        <v>0.646</v>
       </c>
       <c r="C16">
-        <v>0.495</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="D16">
-        <v>0.886</v>
+        <v>0.842</v>
       </c>
       <c r="E16">
-        <v>0.921</v>
+        <v>0.08</v>
       </c>
       <c r="F16">
-        <v>0.155</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -842,19 +842,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.158</v>
+        <v>0.758</v>
       </c>
       <c r="C17">
-        <v>0.846</v>
+        <v>0.402</v>
       </c>
       <c r="D17">
-        <v>0.537</v>
+        <v>0.948</v>
       </c>
       <c r="E17">
-        <v>0.302</v>
+        <v>0.497</v>
       </c>
       <c r="F17">
-        <v>0.641</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -862,19 +862,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.464</v>
+        <v>0.151</v>
       </c>
       <c r="C18">
-        <v>0.964</v>
+        <v>0.496</v>
       </c>
       <c r="D18">
-        <v>0.094</v>
+        <v>0.831</v>
       </c>
       <c r="E18">
-        <v>0.972</v>
+        <v>0.287</v>
       </c>
       <c r="F18">
-        <v>0.442</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -882,19 +882,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.004</v>
+        <v>0.239</v>
       </c>
       <c r="C19">
-        <v>0.975</v>
+        <v>0.509</v>
       </c>
       <c r="D19">
-        <v>0.517</v>
+        <v>0.383</v>
       </c>
       <c r="E19">
-        <v>0.053</v>
+        <v>0.596</v>
       </c>
       <c r="F19">
-        <v>0.586</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -902,19 +902,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.806</v>
+        <v>1.798</v>
       </c>
       <c r="C20">
-        <v>0.255</v>
+        <v>1.204</v>
       </c>
       <c r="D20">
-        <v>1.287</v>
+        <v>1.057</v>
       </c>
       <c r="E20">
-        <v>2.841</v>
+        <v>0.403</v>
       </c>
       <c r="F20">
-        <v>1.911</v>
+        <v>2.259</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -922,19 +922,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.503</v>
+        <v>1.005</v>
       </c>
       <c r="C21">
-        <v>0.928</v>
+        <v>0.736</v>
       </c>
       <c r="D21">
-        <v>1.492</v>
+        <v>1.035</v>
       </c>
       <c r="E21">
-        <v>1.916</v>
+        <v>1.671</v>
       </c>
       <c r="F21">
-        <v>0.741</v>
+        <v>1.608</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -942,19 +942,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.356</v>
+        <v>1.342</v>
       </c>
       <c r="C22">
-        <v>0.143</v>
+        <v>1.288</v>
       </c>
       <c r="D22">
-        <v>1.999</v>
+        <v>0.909</v>
       </c>
       <c r="E22">
-        <v>2.548</v>
+        <v>0.468</v>
       </c>
       <c r="F22">
-        <v>2.048</v>
+        <v>2.229</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -962,19 +962,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.961</v>
+        <v>0.125</v>
       </c>
       <c r="C23">
-        <v>0.222</v>
+        <v>1.64</v>
       </c>
       <c r="D23">
-        <v>0.316</v>
+        <v>0.505</v>
       </c>
       <c r="E23">
-        <v>1.295</v>
+        <v>1.383</v>
       </c>
       <c r="F23">
-        <v>1.825</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -982,19 +982,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.155</v>
+        <v>0.777</v>
       </c>
       <c r="C24">
-        <v>1.409</v>
+        <v>1.591</v>
       </c>
       <c r="D24">
-        <v>1.505</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E24">
-        <v>0.882</v>
+        <v>1.006</v>
       </c>
       <c r="F24">
-        <v>2.38</v>
+        <v>1.837</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1002,19 +1002,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.235</v>
+        <v>1.4</v>
       </c>
       <c r="C25">
-        <v>1.029</v>
+        <v>1.448</v>
       </c>
       <c r="D25">
-        <v>1.768</v>
+        <v>1.639</v>
       </c>
       <c r="E25">
-        <v>2.426</v>
+        <v>0.123</v>
       </c>
       <c r="F25">
-        <v>0.423</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1022,19 +1022,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.244</v>
+        <v>1.655</v>
       </c>
       <c r="C26">
-        <v>1.821</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D26">
-        <v>1.044</v>
+        <v>1.854</v>
       </c>
       <c r="E26">
-        <v>0.742</v>
+        <v>1.264</v>
       </c>
       <c r="F26">
-        <v>1.758</v>
+        <v>2.627</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1042,19 +1042,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.865</v>
+        <v>0.245</v>
       </c>
       <c r="C27">
-        <v>2.085</v>
+        <v>1.018</v>
       </c>
       <c r="D27">
-        <v>0.124</v>
+        <v>1.617</v>
       </c>
       <c r="E27">
-        <v>2.589</v>
+        <v>0.707</v>
       </c>
       <c r="F27">
-        <v>1.212</v>
+        <v>2.164</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1062,19 +1062,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.963</v>
+        <v>0.444</v>
       </c>
       <c r="C28">
-        <v>2.106</v>
+        <v>1.044</v>
       </c>
       <c r="D28">
-        <v>1.002</v>
+        <v>0.709</v>
       </c>
       <c r="E28">
-        <v>0.056</v>
+        <v>1.528</v>
       </c>
       <c r="F28">
-        <v>1.609</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1082,19 +1082,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3.04</v>
+        <v>4.299</v>
       </c>
       <c r="C29">
-        <v>0.452</v>
+        <v>1.863</v>
       </c>
       <c r="D29">
-        <v>2.129</v>
+        <v>1.948</v>
       </c>
       <c r="E29">
-        <v>7.347</v>
+        <v>0.799</v>
       </c>
       <c r="F29">
-        <v>3.966</v>
+        <v>4.786</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1102,19 +1102,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.819</v>
+        <v>2.358</v>
       </c>
       <c r="C30">
-        <v>1.775</v>
+        <v>1.124</v>
       </c>
       <c r="D30">
-        <v>2.477</v>
+        <v>1.909</v>
       </c>
       <c r="E30">
-        <v>4.914</v>
+        <v>3.536</v>
       </c>
       <c r="F30">
-        <v>1.482</v>
+        <v>3.433</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1122,19 +1122,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.269</v>
+        <v>3.18</v>
       </c>
       <c r="C31">
-        <v>0.227</v>
+        <v>1.991</v>
       </c>
       <c r="D31">
-        <v>3.335</v>
+        <v>1.669</v>
       </c>
       <c r="E31">
-        <v>6.58</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="F31">
-        <v>4.323</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1142,19 +1142,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.296</v>
+        <v>0.202</v>
       </c>
       <c r="C32">
-        <v>0.381</v>
+        <v>2.543</v>
       </c>
       <c r="D32">
-        <v>0.49</v>
+        <v>0.902</v>
       </c>
       <c r="E32">
-        <v>3.288</v>
+        <v>2.924</v>
       </c>
       <c r="F32">
-        <v>3.846</v>
+        <v>1.455</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1162,19 +1162,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.923</v>
+        <v>1.795</v>
       </c>
       <c r="C33">
-        <v>2.716</v>
+        <v>2.464</v>
       </c>
       <c r="D33">
-        <v>2.497</v>
+        <v>1.479</v>
       </c>
       <c r="E33">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="F33">
-        <v>5.048</v>
+        <v>3.944</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1182,19 +1182,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.057</v>
+        <v>3.316</v>
       </c>
       <c r="C34">
-        <v>1.966</v>
+        <v>2.236</v>
       </c>
       <c r="D34">
-        <v>2.944</v>
+        <v>3.057</v>
       </c>
       <c r="E34">
-        <v>6.265</v>
+        <v>0.206</v>
       </c>
       <c r="F34">
-        <v>0.8139999999999999</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1202,19 +1202,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.368</v>
+        <v>3.938</v>
       </c>
       <c r="C35">
-        <v>3.523</v>
+        <v>1.23</v>
       </c>
       <c r="D35">
-        <v>1.72</v>
+        <v>3.466</v>
       </c>
       <c r="E35">
-        <v>1.836</v>
+        <v>2.671</v>
       </c>
       <c r="F35">
-        <v>3.703</v>
+        <v>5.641</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1222,19 +1222,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.423</v>
+        <v>0.488</v>
       </c>
       <c r="C36">
-        <v>4.042</v>
+        <v>1.556</v>
       </c>
       <c r="D36">
-        <v>0.163</v>
+        <v>3.016</v>
       </c>
       <c r="E36">
-        <v>6.703</v>
+        <v>1.474</v>
       </c>
       <c r="F36">
-        <v>2.522</v>
+        <v>4.647</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1242,19 +1242,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.29</v>
+        <v>0.973</v>
       </c>
       <c r="C37">
-        <v>4.081</v>
+        <v>1.595</v>
       </c>
       <c r="D37">
-        <v>1.648</v>
+        <v>1.289</v>
       </c>
       <c r="E37">
-        <v>0.028</v>
+        <v>3.239</v>
       </c>
       <c r="F37">
-        <v>3.381</v>
+        <v>1.866</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1262,19 +1262,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4.848</v>
+        <v>10.504</v>
       </c>
       <c r="C38">
-        <v>0.8149999999999999</v>
+        <v>2.552</v>
       </c>
       <c r="D38">
-        <v>3.327</v>
+        <v>3.582</v>
       </c>
       <c r="E38">
-        <v>19.098</v>
+        <v>1.591</v>
       </c>
       <c r="F38">
-        <v>8.015000000000001</v>
+        <v>9.667</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1282,19 +1282,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.283</v>
+        <v>5.713</v>
       </c>
       <c r="C39">
-        <v>3.33</v>
+        <v>1.53</v>
       </c>
       <c r="D39">
-        <v>3.878</v>
+        <v>3.511</v>
       </c>
       <c r="E39">
-        <v>12.729</v>
+        <v>7.236</v>
       </c>
       <c r="F39">
-        <v>2.905</v>
+        <v>6.946</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1302,19 +1302,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>3.608</v>
+        <v>7.741</v>
       </c>
       <c r="C40">
-        <v>0.385</v>
+        <v>2.727</v>
       </c>
       <c r="D40">
-        <v>5.236</v>
+        <v>3.062</v>
       </c>
       <c r="E40">
-        <v>17.092</v>
+        <v>1.889</v>
       </c>
       <c r="F40">
-        <v>8.779999999999999</v>
+        <v>9.682</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1322,19 +1322,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5.255</v>
+        <v>0.39</v>
       </c>
       <c r="C41">
-        <v>0.677</v>
+        <v>3.488</v>
       </c>
       <c r="D41">
-        <v>0.737</v>
+        <v>1.629</v>
       </c>
       <c r="E41">
-        <v>8.476000000000001</v>
+        <v>5.978</v>
       </c>
       <c r="F41">
-        <v>7.797</v>
+        <v>2.946</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1342,19 +1342,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>3.051</v>
+        <v>4.321</v>
       </c>
       <c r="C42">
-        <v>5.117</v>
+        <v>3.378</v>
       </c>
       <c r="D42">
-        <v>3.909</v>
+        <v>2.706</v>
       </c>
       <c r="E42">
-        <v>5.597</v>
+        <v>4.274</v>
       </c>
       <c r="F42">
-        <v>10.281</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1362,19 +1362,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.265</v>
+        <v>8.074</v>
       </c>
       <c r="C43">
-        <v>3.69</v>
+        <v>3.061</v>
       </c>
       <c r="D43">
-        <v>4.617</v>
+        <v>5.656</v>
       </c>
       <c r="E43">
-        <v>16.27</v>
+        <v>0.373</v>
       </c>
       <c r="F43">
-        <v>1.534</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1382,19 +1382,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.553</v>
+        <v>9.609</v>
       </c>
       <c r="C44">
-        <v>6.65</v>
+        <v>1.67</v>
       </c>
       <c r="D44">
-        <v>2.681</v>
+        <v>6.421</v>
       </c>
       <c r="E44">
-        <v>4.676</v>
+        <v>5.458</v>
       </c>
       <c r="F44">
-        <v>7.503</v>
+        <v>11.429</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1402,19 +1402,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.245</v>
+        <v>1.093</v>
       </c>
       <c r="C45">
-        <v>7.637</v>
+        <v>2.119</v>
       </c>
       <c r="D45">
-        <v>0.218</v>
+        <v>5.58</v>
       </c>
       <c r="E45">
-        <v>17.42</v>
+        <v>2.992</v>
       </c>
       <c r="F45">
-        <v>5.063</v>
+        <v>9.414999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1422,19 +1422,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5.239</v>
+        <v>2.29</v>
       </c>
       <c r="C46">
-        <v>7.71</v>
+        <v>2.172</v>
       </c>
       <c r="D46">
-        <v>2.567</v>
+        <v>2.352</v>
       </c>
       <c r="E46">
-        <v>-0.059</v>
+        <v>6.629</v>
       </c>
       <c r="F46">
-        <v>6.838</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1442,19 +1442,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>9.272</v>
+        <v>24.781</v>
       </c>
       <c r="C47">
-        <v>1.272</v>
+        <v>4.403</v>
       </c>
       <c r="D47">
-        <v>7.502</v>
+        <v>7.79</v>
       </c>
       <c r="E47">
-        <v>41.134</v>
+        <v>3.532</v>
       </c>
       <c r="F47">
-        <v>19.091</v>
+        <v>20.627</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1462,19 +1462,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.42</v>
+        <v>13.432</v>
       </c>
       <c r="C48">
-        <v>5.289</v>
+        <v>2.618</v>
       </c>
       <c r="D48">
-        <v>8.76</v>
+        <v>7.635</v>
       </c>
       <c r="E48">
-        <v>27.383</v>
+        <v>16.285</v>
       </c>
       <c r="F48">
-        <v>6.766</v>
+        <v>14.827</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1482,19 +1482,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6.887</v>
+        <v>18.235</v>
       </c>
       <c r="C49">
-        <v>0.585</v>
+        <v>4.707</v>
       </c>
       <c r="D49">
-        <v>11.859</v>
+        <v>6.648</v>
       </c>
       <c r="E49">
-        <v>36.804</v>
+        <v>4.205</v>
       </c>
       <c r="F49">
-        <v>20.951</v>
+        <v>20.673</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1502,19 +1502,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>10.052</v>
+        <v>0.822</v>
       </c>
       <c r="C50">
-        <v>1.05</v>
+        <v>6.034</v>
       </c>
       <c r="D50">
-        <v>1.594</v>
+        <v>3.5</v>
       </c>
       <c r="E50">
-        <v>18.202</v>
+        <v>13.445</v>
       </c>
       <c r="F50">
-        <v>18.579</v>
+        <v>6.289</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1522,19 +1522,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5.816</v>
+        <v>10.133</v>
       </c>
       <c r="C51">
-        <v>8.141999999999999</v>
+        <v>5.841</v>
       </c>
       <c r="D51">
-        <v>8.83</v>
+        <v>5.865</v>
       </c>
       <c r="E51">
-        <v>11.985</v>
+        <v>9.593</v>
       </c>
       <c r="F51">
-        <v>24.576</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1542,19 +1542,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6.226</v>
+        <v>19.023</v>
       </c>
       <c r="C52">
-        <v>5.862</v>
+        <v>5.286</v>
       </c>
       <c r="D52">
-        <v>10.446</v>
+        <v>12.347</v>
       </c>
       <c r="E52">
-        <v>35.03</v>
+        <v>0.783</v>
       </c>
       <c r="F52">
-        <v>3.461</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1562,19 +1562,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.013</v>
+        <v>22.659</v>
       </c>
       <c r="C53">
-        <v>10.589</v>
+        <v>2.858</v>
       </c>
       <c r="D53">
-        <v>6.028</v>
+        <v>14.028</v>
       </c>
       <c r="E53">
-        <v>9.999000000000001</v>
+        <v>12.271</v>
       </c>
       <c r="F53">
-        <v>17.87</v>
+        <v>24.405</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1582,19 +1582,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.264</v>
+        <v>2.486</v>
       </c>
       <c r="C54">
-        <v>12.166</v>
+        <v>3.641</v>
       </c>
       <c r="D54">
-        <v>0.408</v>
+        <v>12.18</v>
       </c>
       <c r="E54">
-        <v>37.514</v>
+        <v>6.701</v>
       </c>
       <c r="F54">
-        <v>11.98</v>
+        <v>20.104</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1602,19 +1602,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>10.017</v>
+        <v>5.321</v>
       </c>
       <c r="C55">
-        <v>12.282</v>
+        <v>3.732</v>
       </c>
       <c r="D55">
-        <v>5.768</v>
+        <v>5.088</v>
       </c>
       <c r="E55">
-        <v>-0.225</v>
+        <v>14.916</v>
       </c>
       <c r="F55">
-        <v>16.265</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1622,19 +1622,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>8.916</v>
+        <v>58.18</v>
       </c>
       <c r="C56">
-        <v>2.387</v>
+        <v>8.284000000000001</v>
       </c>
       <c r="D56">
-        <v>8.336</v>
+        <v>17.652</v>
       </c>
       <c r="E56">
-        <v>41.863</v>
+        <v>8.066000000000001</v>
       </c>
       <c r="F56">
-        <v>19.969</v>
+        <v>44.56</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1642,19 +1642,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.324</v>
+        <v>31.489</v>
       </c>
       <c r="C57">
-        <v>5.385</v>
+        <v>4.899</v>
       </c>
       <c r="D57">
-        <v>9.074999999999999</v>
+        <v>17.3</v>
       </c>
       <c r="E57">
-        <v>27.691</v>
+        <v>37.415</v>
       </c>
       <c r="F57">
-        <v>6.732</v>
+        <v>32.033</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1662,19 +1662,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7.937</v>
+        <v>42.785</v>
       </c>
       <c r="C58">
-        <v>1.597</v>
+        <v>8.859</v>
       </c>
       <c r="D58">
-        <v>11.608</v>
+        <v>15.052</v>
       </c>
       <c r="E58">
-        <v>37.087</v>
+        <v>9.615</v>
       </c>
       <c r="F58">
-        <v>21.904</v>
+        <v>44.666</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1682,19 +1682,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>9.747999999999999</v>
+        <v>1.832</v>
       </c>
       <c r="C59">
-        <v>1.504</v>
+        <v>11.375</v>
       </c>
       <c r="D59">
-        <v>1.068</v>
+        <v>7.885</v>
       </c>
       <c r="E59">
-        <v>19.354</v>
+        <v>30.88</v>
       </c>
       <c r="F59">
-        <v>17.666</v>
+        <v>13.587</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1702,19 +1702,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5.546</v>
+        <v>23.73</v>
       </c>
       <c r="C60">
-        <v>7.657</v>
+        <v>11.008</v>
       </c>
       <c r="D60">
-        <v>9.471</v>
+        <v>13.269</v>
       </c>
       <c r="E60">
-        <v>13.172</v>
+        <v>22.014</v>
       </c>
       <c r="F60">
-        <v>24.718</v>
+        <v>36.859</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1722,19 +1722,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7.345</v>
+        <v>44.638</v>
       </c>
       <c r="C61">
-        <v>5.156</v>
+        <v>9.955</v>
       </c>
       <c r="D61">
-        <v>10.313</v>
+        <v>28.028</v>
       </c>
       <c r="E61">
-        <v>35.712</v>
+        <v>1.741</v>
       </c>
       <c r="F61">
-        <v>3.206</v>
+        <v>2.871</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1742,19 +1742,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.582</v>
+        <v>53.189</v>
       </c>
       <c r="C62">
-        <v>11.145</v>
+        <v>5.351</v>
       </c>
       <c r="D62">
-        <v>7.265</v>
+        <v>31.855</v>
       </c>
       <c r="E62">
-        <v>9.031000000000001</v>
+        <v>28.179</v>
       </c>
       <c r="F62">
-        <v>17.239</v>
+        <v>52.73</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1762,19 +1762,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.431</v>
+        <v>5.745</v>
       </c>
       <c r="C63">
-        <v>11.346</v>
+        <v>6.835</v>
       </c>
       <c r="D63">
-        <v>0.698</v>
+        <v>27.647</v>
       </c>
       <c r="E63">
-        <v>38.719</v>
+        <v>15.361</v>
       </c>
       <c r="F63">
-        <v>12.468</v>
+        <v>43.437</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1782,19 +1782,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>10.911</v>
+        <v>12.412</v>
       </c>
       <c r="C64">
-        <v>12.909</v>
+        <v>7.007</v>
       </c>
       <c r="D64">
-        <v>5.345</v>
+        <v>11.5</v>
       </c>
       <c r="E64">
-        <v>0.477</v>
+        <v>34.266</v>
       </c>
       <c r="F64">
-        <v>16.356</v>
+        <v>17.435</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1802,19 +1802,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>19.042</v>
+        <v>98.613</v>
       </c>
       <c r="C65">
-        <v>4.274</v>
+        <v>20.048</v>
       </c>
       <c r="D65">
-        <v>16.28</v>
+        <v>27.936</v>
       </c>
       <c r="E65">
-        <v>84.996</v>
+        <v>13.254</v>
       </c>
       <c r="F65">
-        <v>40.48</v>
+        <v>74.34999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1822,19 +1822,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3.281</v>
+        <v>53.35</v>
       </c>
       <c r="C66">
-        <v>10.606</v>
+        <v>11.823</v>
       </c>
       <c r="D66">
-        <v>18.063</v>
+        <v>27.379</v>
       </c>
       <c r="E66">
-        <v>56.285</v>
+        <v>61.606</v>
       </c>
       <c r="F66">
-        <v>13.714</v>
+        <v>53.442</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1842,19 +1842,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>16.289</v>
+        <v>72.506</v>
       </c>
       <c r="C67">
-        <v>2.744</v>
+        <v>21.444</v>
       </c>
       <c r="D67">
-        <v>23.492</v>
+        <v>23.816</v>
       </c>
       <c r="E67">
-        <v>75.48399999999999</v>
+        <v>15.806</v>
       </c>
       <c r="F67">
-        <v>44.433</v>
+        <v>74.53</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1862,19 +1862,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>20.782</v>
+        <v>3.058</v>
       </c>
       <c r="C68">
-        <v>2.767</v>
+        <v>27.557</v>
       </c>
       <c r="D68">
-        <v>2.38</v>
+        <v>12.458</v>
       </c>
       <c r="E68">
-        <v>38.81</v>
+        <v>50.84</v>
       </c>
       <c r="F68">
-        <v>36.784</v>
+        <v>22.653</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1882,19 +1882,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>11.846</v>
+        <v>40.193</v>
       </c>
       <c r="C69">
-        <v>15.332</v>
+        <v>26.665</v>
       </c>
       <c r="D69">
-        <v>18.679</v>
+        <v>20.99</v>
       </c>
       <c r="E69">
-        <v>26.168</v>
+        <v>36.233</v>
       </c>
       <c r="F69">
-        <v>50.713</v>
+        <v>61.498</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1902,19 +1902,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>14.998</v>
+        <v>75.648</v>
       </c>
       <c r="C70">
-        <v>10.45</v>
+        <v>24.106</v>
       </c>
       <c r="D70">
-        <v>20.813</v>
+        <v>44.38</v>
       </c>
       <c r="E70">
-        <v>72.46299999999999</v>
+        <v>2.835</v>
       </c>
       <c r="F70">
-        <v>6.572</v>
+        <v>4.766</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1922,19 +1922,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.028</v>
+        <v>90.149</v>
       </c>
       <c r="C71">
-        <v>21.865</v>
+        <v>12.92</v>
       </c>
       <c r="D71">
-        <v>13.893</v>
+        <v>50.445</v>
       </c>
       <c r="E71">
-        <v>18.871</v>
+        <v>46.391</v>
       </c>
       <c r="F71">
-        <v>35.738</v>
+        <v>87.98999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1942,19 +1942,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>10.911</v>
+        <v>9.693</v>
       </c>
       <c r="C72">
-        <v>22.779</v>
+        <v>16.525</v>
       </c>
       <c r="D72">
-        <v>1.174</v>
+        <v>43.776</v>
       </c>
       <c r="E72">
-        <v>78.322</v>
+        <v>25.273</v>
       </c>
       <c r="F72">
-        <v>25.242</v>
+        <v>72.479</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1962,19 +1962,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>22.674</v>
+        <v>20.999</v>
       </c>
       <c r="C73">
-        <v>25.34</v>
+        <v>16.943</v>
       </c>
       <c r="D73">
-        <v>10.951</v>
+        <v>18.186</v>
       </c>
       <c r="E73">
-        <v>0.508</v>
+        <v>56.419</v>
       </c>
       <c r="F73">
-        <v>33.494</v>
+        <v>29.076</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1982,19 +1982,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>18.701</v>
+        <v>98.751</v>
       </c>
       <c r="C74">
-        <v>3.975</v>
+        <v>19.183</v>
       </c>
       <c r="D74">
-        <v>16.839</v>
+        <v>28.53</v>
       </c>
       <c r="E74">
-        <v>85.759</v>
+        <v>13.57</v>
       </c>
       <c r="F74">
-        <v>39.916</v>
+        <v>73.361</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2002,19 +2002,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4.339</v>
+        <v>52.347</v>
       </c>
       <c r="C75">
-        <v>9.654</v>
+        <v>11.548</v>
       </c>
       <c r="D75">
-        <v>18.115</v>
+        <v>28.171</v>
       </c>
       <c r="E75">
-        <v>56.485</v>
+        <v>62.16</v>
       </c>
       <c r="F75">
-        <v>14.235</v>
+        <v>54.029</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2022,19 +2022,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>16.584</v>
+        <v>72.997</v>
       </c>
       <c r="C76">
-        <v>2.278</v>
+        <v>22.462</v>
       </c>
       <c r="D76">
-        <v>22.584</v>
+        <v>23.685</v>
       </c>
       <c r="E76">
-        <v>75.535</v>
+        <v>16.254</v>
       </c>
       <c r="F76">
-        <v>45.127</v>
+        <v>73.49299999999999</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2042,19 +2042,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>20.499</v>
+        <v>2.583</v>
       </c>
       <c r="C77">
-        <v>2.773</v>
+        <v>27.001</v>
       </c>
       <c r="D77">
-        <v>2.724</v>
+        <v>11.645</v>
       </c>
       <c r="E77">
-        <v>38.817</v>
+        <v>50.71</v>
       </c>
       <c r="F77">
-        <v>35.755</v>
+        <v>23.392</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2062,19 +2062,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>11.885</v>
+        <v>40.794</v>
       </c>
       <c r="C78">
-        <v>15.02</v>
+        <v>25.774</v>
       </c>
       <c r="D78">
-        <v>19.298</v>
+        <v>20.888</v>
       </c>
       <c r="E78">
-        <v>25.82</v>
+        <v>36.564</v>
       </c>
       <c r="F78">
-        <v>50.716</v>
+        <v>61.558</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2082,19 +2082,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>15.565</v>
+        <v>74.776</v>
       </c>
       <c r="C79">
-        <v>10.418</v>
+        <v>23.527</v>
       </c>
       <c r="D79">
-        <v>21.681</v>
+        <v>44.823</v>
       </c>
       <c r="E79">
-        <v>72.333</v>
+        <v>3.044</v>
       </c>
       <c r="F79">
-        <v>5.635</v>
+        <v>4.896</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2102,19 +2102,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>3.328</v>
+        <v>91.00700000000001</v>
       </c>
       <c r="C80">
-        <v>21.466</v>
+        <v>13.156</v>
       </c>
       <c r="D80">
-        <v>13.575</v>
+        <v>51.527</v>
       </c>
       <c r="E80">
-        <v>17.795</v>
+        <v>46.555</v>
       </c>
       <c r="F80">
-        <v>36.061</v>
+        <v>88.66200000000001</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2122,19 +2122,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>11.685</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C81">
-        <v>22.912</v>
+        <v>15.863</v>
       </c>
       <c r="D81">
-        <v>0.184</v>
+        <v>44.261</v>
       </c>
       <c r="E81">
-        <v>79.425</v>
+        <v>25.458</v>
       </c>
       <c r="F81">
-        <v>24.939</v>
+        <v>72.29000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2142,19 +2142,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>22.989</v>
+        <v>21.771</v>
       </c>
       <c r="C82">
-        <v>24.529</v>
+        <v>17.958</v>
       </c>
       <c r="D82">
-        <v>11.969</v>
+        <v>18.999</v>
       </c>
       <c r="E82">
-        <v>1.613</v>
+        <v>56.735</v>
       </c>
       <c r="F82">
-        <v>33.692</v>
+        <v>28.358</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2162,19 +2162,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>40.504</v>
+        <v>198.208</v>
       </c>
       <c r="C83">
-        <v>5.882</v>
+        <v>39.329</v>
       </c>
       <c r="D83">
-        <v>37.393</v>
+        <v>39.07</v>
       </c>
       <c r="E83">
-        <v>164.617</v>
+        <v>31.607</v>
       </c>
       <c r="F83">
-        <v>64.837</v>
+        <v>108.053</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2182,19 +2182,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8.981999999999999</v>
+        <v>105.483</v>
       </c>
       <c r="C84">
-        <v>14.923</v>
+        <v>23.509</v>
       </c>
       <c r="D84">
-        <v>40.673</v>
+        <v>38.503</v>
       </c>
       <c r="E84">
-        <v>108.597</v>
+        <v>145.507</v>
       </c>
       <c r="F84">
-        <v>22.776</v>
+        <v>79.045</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2202,19 +2202,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>35.288</v>
+        <v>146.342</v>
       </c>
       <c r="C85">
-        <v>3.436</v>
+        <v>44.865</v>
       </c>
       <c r="D85">
-        <v>51.399</v>
+        <v>32.662</v>
       </c>
       <c r="E85">
-        <v>145.394</v>
+        <v>37.852</v>
       </c>
       <c r="F85">
-        <v>72.64400000000001</v>
+        <v>108.268</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2222,19 +2222,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>44.335</v>
+        <v>5.325</v>
       </c>
       <c r="C86">
-        <v>4.05</v>
+        <v>54.989</v>
       </c>
       <c r="D86">
-        <v>6.032</v>
+        <v>16.322</v>
       </c>
       <c r="E86">
-        <v>74.423</v>
+        <v>118.914</v>
       </c>
       <c r="F86">
-        <v>58.821</v>
+        <v>34.013</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2242,19 +2242,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>25.595</v>
+        <v>81.623</v>
       </c>
       <c r="C87">
-        <v>22.77</v>
+        <v>52.699</v>
       </c>
       <c r="D87">
-        <v>42.965</v>
+        <v>28.796</v>
       </c>
       <c r="E87">
-        <v>49.547</v>
+        <v>85.54600000000001</v>
       </c>
       <c r="F87">
-        <v>82.319</v>
+        <v>90.309</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2262,19 +2262,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>32.932</v>
+        <v>150.473</v>
       </c>
       <c r="C88">
-        <v>15.764</v>
+        <v>47.962</v>
       </c>
       <c r="D88">
-        <v>48.432</v>
+        <v>61.578</v>
       </c>
       <c r="E88">
-        <v>139.211</v>
+        <v>6.956</v>
       </c>
       <c r="F88">
-        <v>9.605</v>
+        <v>7.106</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2282,19 +2282,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6.827</v>
+        <v>182.36</v>
       </c>
       <c r="C89">
-        <v>32.293</v>
+        <v>26.467</v>
       </c>
       <c r="D89">
-        <v>30.359</v>
+        <v>70.58</v>
       </c>
       <c r="E89">
-        <v>35.019</v>
+        <v>109.051</v>
       </c>
       <c r="F89">
-        <v>58.542</v>
+        <v>129.85</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2302,19 +2302,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>24.45</v>
+        <v>18.925</v>
       </c>
       <c r="C90">
-        <v>34.459</v>
+        <v>32.48</v>
       </c>
       <c r="D90">
-        <v>0.746</v>
+        <v>60.788</v>
       </c>
       <c r="E90">
-        <v>152.112</v>
+        <v>59.549</v>
       </c>
       <c r="F90">
-        <v>40.46</v>
+        <v>106.163</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2322,19 +2322,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>49.113</v>
+        <v>43.348</v>
       </c>
       <c r="C91">
-        <v>37.082</v>
+        <v>35.739</v>
       </c>
       <c r="D91">
-        <v>26.523</v>
+        <v>25.855</v>
       </c>
       <c r="E91">
-        <v>2.28</v>
+        <v>132.874</v>
       </c>
       <c r="F91">
-        <v>54.549</v>
+        <v>41.886</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2342,19 +2342,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>40.28</v>
+        <v>198.976</v>
       </c>
       <c r="C92">
-        <v>5.113</v>
+        <v>40.065</v>
       </c>
       <c r="D92">
-        <v>38.361</v>
+        <v>39.135</v>
       </c>
       <c r="E92">
-        <v>164.206</v>
+        <v>31.423</v>
       </c>
       <c r="F92">
-        <v>65.851</v>
+        <v>108.276</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2362,19 +2362,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>9.715</v>
+        <v>104.738</v>
       </c>
       <c r="C93">
-        <v>14.404</v>
+        <v>23.878</v>
       </c>
       <c r="D93">
-        <v>40.802</v>
+        <v>37.975</v>
       </c>
       <c r="E93">
-        <v>108.485</v>
+        <v>144.932</v>
       </c>
       <c r="F93">
-        <v>23.144</v>
+        <v>78.80800000000001</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2382,19 +2382,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>36.174</v>
+        <v>147.097</v>
       </c>
       <c r="C94">
-        <v>3.548</v>
+        <v>45.568</v>
       </c>
       <c r="D94">
-        <v>50.591</v>
+        <v>32.988</v>
       </c>
       <c r="E94">
-        <v>146.152</v>
+        <v>37.997</v>
       </c>
       <c r="F94">
-        <v>72.18600000000001</v>
+        <v>108.224</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2402,19 +2402,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>44.367</v>
+        <v>5.102</v>
       </c>
       <c r="C95">
-        <v>3.193</v>
+        <v>55.407</v>
       </c>
       <c r="D95">
-        <v>5.563</v>
+        <v>15.87</v>
       </c>
       <c r="E95">
-        <v>73.63800000000001</v>
+        <v>118.507</v>
       </c>
       <c r="F95">
-        <v>59.399</v>
+        <v>34.045</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2422,19 +2422,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>25.262</v>
+        <v>81.464</v>
       </c>
       <c r="C96">
-        <v>22.388</v>
+        <v>52.583</v>
       </c>
       <c r="D96">
-        <v>42.727</v>
+        <v>27.9</v>
       </c>
       <c r="E96">
-        <v>48.57</v>
+        <v>84.971</v>
       </c>
       <c r="F96">
-        <v>81.988</v>
+        <v>90.521</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2442,19 +2442,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>32.755</v>
+        <v>150.609</v>
       </c>
       <c r="C97">
-        <v>16.314</v>
+        <v>47.273</v>
       </c>
       <c r="D97">
-        <v>48.574</v>
+        <v>62.448</v>
       </c>
       <c r="E97">
-        <v>139.947</v>
+        <v>7.816</v>
       </c>
       <c r="F97">
-        <v>10.226</v>
+        <v>6.744</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2462,19 +2462,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6.412</v>
+        <v>181.519</v>
       </c>
       <c r="C98">
-        <v>32.371</v>
+        <v>27.204</v>
       </c>
       <c r="D98">
-        <v>30.552</v>
+        <v>71.324</v>
       </c>
       <c r="E98">
-        <v>34.095</v>
+        <v>109.628</v>
       </c>
       <c r="F98">
-        <v>57.898</v>
+        <v>129.253</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2482,19 +2482,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>23.472</v>
+        <v>18.402</v>
       </c>
       <c r="C99">
-        <v>35.465</v>
+        <v>31.938</v>
       </c>
       <c r="D99">
-        <v>1.472</v>
+        <v>60.017</v>
       </c>
       <c r="E99">
-        <v>153.067</v>
+        <v>59.673</v>
       </c>
       <c r="F99">
-        <v>39.621</v>
+        <v>106.109</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2502,19 +2502,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>50.129</v>
+        <v>42.615</v>
       </c>
       <c r="C100">
-        <v>37.837</v>
+        <v>35.709</v>
       </c>
       <c r="D100">
-        <v>27.017</v>
+        <v>26.398</v>
       </c>
       <c r="E100">
-        <v>1.771</v>
+        <v>133.223</v>
       </c>
       <c r="F100">
-        <v>55.137</v>
+        <v>42.47</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2522,19 +2522,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>66.629</v>
+        <v>359.902</v>
       </c>
       <c r="C101">
-        <v>8.864000000000001</v>
+        <v>90.104</v>
       </c>
       <c r="D101">
-        <v>67.79900000000001</v>
+        <v>84.05200000000001</v>
       </c>
       <c r="E101">
-        <v>353.844</v>
+        <v>63.154</v>
       </c>
       <c r="F101">
-        <v>156.433</v>
+        <v>145.562</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2542,19 +2542,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>15.45</v>
+        <v>190.223</v>
       </c>
       <c r="C102">
-        <v>24.899</v>
+        <v>53.641</v>
       </c>
       <c r="D102">
-        <v>72.81</v>
+        <v>81.663</v>
       </c>
       <c r="E102">
-        <v>233.766</v>
+        <v>291.576</v>
       </c>
       <c r="F102">
-        <v>54.639</v>
+        <v>105.711</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2562,19 +2562,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>58.96</v>
+        <v>265.88</v>
       </c>
       <c r="C103">
-        <v>5.98</v>
+        <v>101.975</v>
       </c>
       <c r="D103">
-        <v>91.127</v>
+        <v>70.93300000000001</v>
       </c>
       <c r="E103">
-        <v>314.605</v>
+        <v>76.16200000000001</v>
       </c>
       <c r="F103">
-        <v>171.699</v>
+        <v>145.592</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2582,19 +2582,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>73.211</v>
+        <v>9.406000000000001</v>
       </c>
       <c r="C104">
-        <v>5.615</v>
+        <v>124.749</v>
       </c>
       <c r="D104">
-        <v>10.145</v>
+        <v>34.451</v>
       </c>
       <c r="E104">
-        <v>158.891</v>
+        <v>238.461</v>
       </c>
       <c r="F104">
-        <v>141.674</v>
+        <v>45.479</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2602,19 +2602,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>41.821</v>
+        <v>147.451</v>
       </c>
       <c r="C105">
-        <v>38.27</v>
+        <v>118.752</v>
       </c>
       <c r="D105">
-        <v>76.29000000000001</v>
+        <v>60.298</v>
       </c>
       <c r="E105">
-        <v>105.023</v>
+        <v>171.047</v>
       </c>
       <c r="F105">
-        <v>195.389</v>
+        <v>121.44</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2622,19 +2622,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>53.818</v>
+        <v>272.829</v>
       </c>
       <c r="C106">
-        <v>27.581</v>
+        <v>106.986</v>
       </c>
       <c r="D106">
-        <v>86.578</v>
+        <v>134.096</v>
       </c>
       <c r="E106">
-        <v>301.231</v>
+        <v>15.106</v>
       </c>
       <c r="F106">
-        <v>24.232</v>
+        <v>9.111000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2642,19 +2642,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>10.63</v>
+        <v>328.947</v>
       </c>
       <c r="C107">
-        <v>54.964</v>
+        <v>60.801</v>
       </c>
       <c r="D107">
-        <v>54.408</v>
+        <v>153.081</v>
       </c>
       <c r="E107">
-        <v>74.274</v>
+        <v>219.993</v>
       </c>
       <c r="F107">
-        <v>138.087</v>
+        <v>173.539</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2662,19 +2662,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>38.884</v>
+        <v>33.608</v>
       </c>
       <c r="C108">
-        <v>59.904</v>
+        <v>72.378</v>
       </c>
       <c r="D108">
-        <v>2.359</v>
+        <v>129.297</v>
       </c>
       <c r="E108">
-        <v>329.016</v>
+        <v>119.803</v>
       </c>
       <c r="F108">
-        <v>94.57299999999999</v>
+        <v>142.524</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2682,19 +2682,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>81.91200000000001</v>
+        <v>77.345</v>
       </c>
       <c r="C109">
-        <v>64.146</v>
+        <v>80.13</v>
       </c>
       <c r="D109">
-        <v>47.823</v>
+        <v>56.423</v>
       </c>
       <c r="E109">
-        <v>3.575</v>
+        <v>267.542</v>
       </c>
       <c r="F109">
-        <v>130.941</v>
+        <v>57.013</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2702,19 +2702,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>67.41800000000001</v>
+        <v>360.346</v>
       </c>
       <c r="C110">
-        <v>8.284000000000001</v>
+        <v>89.374</v>
       </c>
       <c r="D110">
-        <v>67.02</v>
+        <v>84.126</v>
       </c>
       <c r="E110">
-        <v>353.27</v>
+        <v>62.29</v>
       </c>
       <c r="F110">
-        <v>157.053</v>
+        <v>144.847</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2722,19 +2722,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>16.149</v>
+        <v>189.636</v>
       </c>
       <c r="C111">
-        <v>25.509</v>
+        <v>52.754</v>
       </c>
       <c r="D111">
-        <v>72.02500000000001</v>
+        <v>81.217</v>
       </c>
       <c r="E111">
-        <v>233.116</v>
+        <v>292.1</v>
       </c>
       <c r="F111">
-        <v>54.848</v>
+        <v>106.167</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2742,19 +2742,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>59.697</v>
+        <v>266.591</v>
       </c>
       <c r="C112">
-        <v>6.705</v>
+        <v>102.161</v>
       </c>
       <c r="D112">
-        <v>92.015</v>
+        <v>70.786</v>
       </c>
       <c r="E112">
-        <v>314.215</v>
+        <v>75.61199999999999</v>
       </c>
       <c r="F112">
-        <v>171.705</v>
+        <v>145.301</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2762,19 +2762,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>73.563</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="C113">
-        <v>5.321</v>
+        <v>125.4</v>
       </c>
       <c r="D113">
-        <v>10.422</v>
+        <v>33.962</v>
       </c>
       <c r="E113">
-        <v>158.628</v>
+        <v>238.734</v>
       </c>
       <c r="F113">
-        <v>142.182</v>
+        <v>45.961</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2782,19 +2782,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>42.297</v>
+        <v>146.792</v>
       </c>
       <c r="C114">
-        <v>38.816</v>
+        <v>119.432</v>
       </c>
       <c r="D114">
-        <v>77.02800000000001</v>
+        <v>60.172</v>
       </c>
       <c r="E114">
-        <v>105.152</v>
+        <v>171.592</v>
       </c>
       <c r="F114">
-        <v>195.088</v>
+        <v>120.689</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2802,19 +2802,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>53.115</v>
+        <v>273.124</v>
       </c>
       <c r="C115">
-        <v>27.895</v>
+        <v>107.149</v>
       </c>
       <c r="D115">
-        <v>86.726</v>
+        <v>134.106</v>
       </c>
       <c r="E115">
-        <v>301.448</v>
+        <v>15.696</v>
       </c>
       <c r="F115">
-        <v>23.388</v>
+        <v>8.999000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2822,19 +2822,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>10.64</v>
+        <v>329.594</v>
       </c>
       <c r="C116">
-        <v>54.362</v>
+        <v>61.136</v>
       </c>
       <c r="D116">
-        <v>54.675</v>
+        <v>152.689</v>
       </c>
       <c r="E116">
-        <v>75.181</v>
+        <v>219.362</v>
       </c>
       <c r="F116">
-        <v>137.327</v>
+        <v>172.96</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2842,19 +2842,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>38.929</v>
+        <v>34.374</v>
       </c>
       <c r="C117">
-        <v>59.202</v>
+        <v>72.401</v>
       </c>
       <c r="D117">
-        <v>3.229</v>
+        <v>129.041</v>
       </c>
       <c r="E117">
-        <v>329.719</v>
+        <v>118.96</v>
       </c>
       <c r="F117">
-        <v>94.809</v>
+        <v>141.838</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2862,19 +2862,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>82.419</v>
+        <v>77.904</v>
       </c>
       <c r="C118">
-        <v>63.672</v>
+        <v>79.78100000000001</v>
       </c>
       <c r="D118">
-        <v>47.357</v>
+        <v>57.083</v>
       </c>
       <c r="E118">
-        <v>3.468</v>
+        <v>267.641</v>
       </c>
       <c r="F118">
-        <v>130.9</v>
+        <v>56.682</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2882,19 +2882,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>108.252</v>
+        <v>840.856</v>
       </c>
       <c r="C119">
-        <v>14.737</v>
+        <v>199.709</v>
       </c>
       <c r="D119">
-        <v>161.6</v>
+        <v>144.425</v>
       </c>
       <c r="E119">
-        <v>844.879</v>
+        <v>94.27</v>
       </c>
       <c r="F119">
-        <v>306.929</v>
+        <v>268.493</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2902,19 +2902,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>25.346</v>
+        <v>443.286</v>
       </c>
       <c r="C120">
-        <v>44.356</v>
+        <v>118.094</v>
       </c>
       <c r="D120">
-        <v>174.045</v>
+        <v>139.755</v>
       </c>
       <c r="E120">
-        <v>557.6369999999999</v>
+        <v>439.912</v>
       </c>
       <c r="F120">
-        <v>107.004</v>
+        <v>196.338</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2922,19 +2922,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>95.30800000000001</v>
+        <v>621.798</v>
       </c>
       <c r="C121">
-        <v>11.321</v>
+        <v>227.495</v>
       </c>
       <c r="D121">
-        <v>222.013</v>
+        <v>121.672</v>
       </c>
       <c r="E121">
-        <v>751.247</v>
+        <v>114.079</v>
       </c>
       <c r="F121">
-        <v>336.051</v>
+        <v>269.3</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2942,19 +2942,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>118.213</v>
+        <v>20.527</v>
       </c>
       <c r="C122">
-        <v>9.473000000000001</v>
+        <v>279.355</v>
       </c>
       <c r="D122">
-        <v>25.076</v>
+        <v>58.745</v>
       </c>
       <c r="E122">
-        <v>379.434</v>
+        <v>359.643</v>
       </c>
       <c r="F122">
-        <v>278.13</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2962,19 +2962,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>67.94</v>
+        <v>342.941</v>
       </c>
       <c r="C123">
-        <v>67.414</v>
+        <v>266.186</v>
       </c>
       <c r="D123">
-        <v>185.471</v>
+        <v>103.569</v>
       </c>
       <c r="E123">
-        <v>251.436</v>
+        <v>258.354</v>
       </c>
       <c r="F123">
-        <v>382.16</v>
+        <v>223.546</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2982,19 +2982,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>85.587</v>
+        <v>637.562</v>
       </c>
       <c r="C124">
-        <v>48.296</v>
+        <v>239.156</v>
       </c>
       <c r="D124">
-        <v>209.046</v>
+        <v>230.283</v>
       </c>
       <c r="E124">
-        <v>720.396</v>
+        <v>23.048</v>
       </c>
       <c r="F124">
-        <v>46.163</v>
+        <v>16.625</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3002,19 +3002,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>17.135</v>
+        <v>769.329</v>
       </c>
       <c r="C125">
-        <v>94.77</v>
+        <v>135.968</v>
       </c>
       <c r="D125">
-        <v>131.662</v>
+        <v>262.375</v>
       </c>
       <c r="E125">
-        <v>179.565</v>
+        <v>330.604</v>
       </c>
       <c r="F125">
-        <v>269.354</v>
+        <v>320.39</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3022,19 +3022,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>62.7</v>
+        <v>80.027</v>
       </c>
       <c r="C126">
-        <v>103.044</v>
+        <v>161.68</v>
       </c>
       <c r="D126">
-        <v>7.19</v>
+        <v>221.923</v>
       </c>
       <c r="E126">
-        <v>787.503</v>
+        <v>179.565</v>
       </c>
       <c r="F126">
-        <v>185.527</v>
+        <v>262.817</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3042,19 +3042,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>131.912</v>
+        <v>181.692</v>
       </c>
       <c r="C127">
-        <v>110.85</v>
+        <v>178.022</v>
       </c>
       <c r="D127">
-        <v>114.173</v>
+        <v>97.541</v>
       </c>
       <c r="E127">
-        <v>8.163</v>
+        <v>403.03</v>
       </c>
       <c r="F127">
-        <v>256.112</v>
+        <v>104.951</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3062,19 +3062,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>108.38</v>
+        <v>840.415</v>
       </c>
       <c r="C128">
-        <v>14.219</v>
+        <v>198.884</v>
       </c>
       <c r="D128">
-        <v>161.033</v>
+        <v>144.843</v>
       </c>
       <c r="E128">
-        <v>845.254</v>
+        <v>95.06399999999999</v>
       </c>
       <c r="F128">
-        <v>306.206</v>
+        <v>268.739</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3082,19 +3082,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>24.563</v>
+        <v>443.697</v>
       </c>
       <c r="C129">
-        <v>44.7</v>
+        <v>118.211</v>
       </c>
       <c r="D129">
-        <v>173.431</v>
+        <v>140.045</v>
       </c>
       <c r="E129">
-        <v>557.396</v>
+        <v>440.538</v>
       </c>
       <c r="F129">
-        <v>106.851</v>
+        <v>197.074</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3102,19 +3102,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>94.48399999999999</v>
+        <v>622.558</v>
       </c>
       <c r="C130">
-        <v>11.203</v>
+        <v>227.559</v>
       </c>
       <c r="D130">
-        <v>221.44</v>
+        <v>121.321</v>
       </c>
       <c r="E130">
-        <v>751.861</v>
+        <v>114.88</v>
       </c>
       <c r="F130">
-        <v>336.695</v>
+        <v>268.539</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3122,19 +3122,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>118.737</v>
+        <v>20.825</v>
       </c>
       <c r="C131">
-        <v>9.999000000000001</v>
+        <v>279.993</v>
       </c>
       <c r="D131">
-        <v>25.136</v>
+        <v>58.149</v>
       </c>
       <c r="E131">
-        <v>379.17</v>
+        <v>359.3</v>
       </c>
       <c r="F131">
-        <v>277.942</v>
+        <v>84.035</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3142,19 +3142,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>68.413</v>
+        <v>343.491</v>
       </c>
       <c r="C132">
-        <v>66.917</v>
+        <v>266.585</v>
       </c>
       <c r="D132">
-        <v>185.801</v>
+        <v>103.252</v>
       </c>
       <c r="E132">
-        <v>251.489</v>
+        <v>257.554</v>
       </c>
       <c r="F132">
-        <v>381.688</v>
+        <v>223.519</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3162,19 +3162,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>84.79000000000001</v>
+        <v>637.628</v>
       </c>
       <c r="C133">
-        <v>48.099</v>
+        <v>239.317</v>
       </c>
       <c r="D133">
-        <v>209.519</v>
+        <v>230.462</v>
       </c>
       <c r="E133">
-        <v>719.862</v>
+        <v>22.939</v>
       </c>
       <c r="F133">
-        <v>45.327</v>
+        <v>16.272</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3182,19 +3182,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>16.577</v>
+        <v>768.624</v>
       </c>
       <c r="C134">
-        <v>95.473</v>
+        <v>136.185</v>
       </c>
       <c r="D134">
-        <v>132.352</v>
+        <v>261.625</v>
       </c>
       <c r="E134">
-        <v>179.33</v>
+        <v>331.012</v>
       </c>
       <c r="F134">
-        <v>268.786</v>
+        <v>319.609</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3202,19 +3202,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>63.278</v>
+        <v>80.06100000000001</v>
       </c>
       <c r="C135">
-        <v>102.275</v>
+        <v>162.296</v>
       </c>
       <c r="D135">
-        <v>6.534</v>
+        <v>222.513</v>
       </c>
       <c r="E135">
-        <v>787.999</v>
+        <v>178.819</v>
       </c>
       <c r="F135">
-        <v>184.795</v>
+        <v>262.295</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3222,19 +3222,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>132.125</v>
+        <v>181.172</v>
       </c>
       <c r="C136">
-        <v>110.232</v>
+        <v>177.522</v>
       </c>
       <c r="D136">
-        <v>114.321</v>
+        <v>98.19199999999999</v>
       </c>
       <c r="E136">
-        <v>8.285</v>
+        <v>403.436</v>
       </c>
       <c r="F136">
-        <v>255.88</v>
+        <v>104.799</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3242,19 +3242,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>201.43</v>
+        <v>1916.745</v>
       </c>
       <c r="C137">
-        <v>29.515</v>
+        <v>326.12</v>
       </c>
       <c r="D137">
-        <v>374.565</v>
+        <v>214.263</v>
       </c>
       <c r="E137">
-        <v>1340.244</v>
+        <v>194.478</v>
       </c>
       <c r="F137">
-        <v>583.079</v>
+        <v>659.86</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3262,19 +3262,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>45.576</v>
+        <v>1011.894</v>
       </c>
       <c r="C138">
-        <v>91.41</v>
+        <v>193.595</v>
       </c>
       <c r="D138">
-        <v>403.565</v>
+        <v>207.401</v>
       </c>
       <c r="E138">
-        <v>884.146</v>
+        <v>901.0700000000001</v>
       </c>
       <c r="F138">
-        <v>203.271</v>
+        <v>483.341</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3282,19 +3282,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>175.613</v>
+        <v>1419.125</v>
       </c>
       <c r="C139">
-        <v>22.78</v>
+        <v>372.232</v>
       </c>
       <c r="D139">
-        <v>515.03</v>
+        <v>179.846</v>
       </c>
       <c r="E139">
-        <v>1191.9</v>
+        <v>234.85</v>
       </c>
       <c r="F139">
-        <v>640.691</v>
+        <v>659.814</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3302,19 +3302,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>220.595</v>
+        <v>47.463</v>
       </c>
       <c r="C140">
-        <v>20.361</v>
+        <v>457.743</v>
       </c>
       <c r="D140">
-        <v>58.314</v>
+        <v>86.59099999999999</v>
       </c>
       <c r="E140">
-        <v>601.492</v>
+        <v>735.25</v>
       </c>
       <c r="F140">
-        <v>529.157</v>
+        <v>206.304</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3322,19 +3322,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>127.008</v>
+        <v>783.141</v>
       </c>
       <c r="C141">
-        <v>137.242</v>
+        <v>435.995</v>
       </c>
       <c r="D141">
-        <v>431.499</v>
+        <v>153.149</v>
       </c>
       <c r="E141">
-        <v>398.779</v>
+        <v>527.1180000000001</v>
       </c>
       <c r="F141">
-        <v>727.082</v>
+        <v>548.812</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3342,19 +3342,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>158.108</v>
+        <v>1454.11</v>
       </c>
       <c r="C142">
-        <v>98.48399999999999</v>
+        <v>391.662</v>
       </c>
       <c r="D142">
-        <v>486.622</v>
+        <v>341.154</v>
       </c>
       <c r="E142">
-        <v>1141.689</v>
+        <v>46.516</v>
       </c>
       <c r="F142">
-        <v>86.834</v>
+        <v>39.916</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3362,19 +3362,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>31.039</v>
+        <v>1753.279</v>
       </c>
       <c r="C143">
-        <v>195.427</v>
+        <v>222.589</v>
       </c>
       <c r="D143">
-        <v>307.095</v>
+        <v>387.789</v>
       </c>
       <c r="E143">
-        <v>284.431</v>
+        <v>677.211</v>
       </c>
       <c r="F143">
-        <v>512.28</v>
+        <v>785.1799999999999</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3382,19 +3382,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>117.526</v>
+        <v>182.443</v>
       </c>
       <c r="C144">
-        <v>209.907</v>
+        <v>265.366</v>
       </c>
       <c r="D144">
-        <v>15.272</v>
+        <v>329.409</v>
       </c>
       <c r="E144">
-        <v>1248.935</v>
+        <v>366.324</v>
       </c>
       <c r="F144">
-        <v>352.124</v>
+        <v>644.331</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3402,19 +3402,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>245.279</v>
+        <v>413.377</v>
       </c>
       <c r="C145">
-        <v>226.165</v>
+        <v>290.848</v>
       </c>
       <c r="D145">
-        <v>265.568</v>
+        <v>144.832</v>
       </c>
       <c r="E145">
-        <v>13.013</v>
+        <v>825.203</v>
       </c>
       <c r="F145">
-        <v>487.203</v>
+        <v>257.259</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3422,19 +3422,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>201.912</v>
+        <v>1916.822</v>
       </c>
       <c r="C146">
-        <v>29.254</v>
+        <v>326.403</v>
       </c>
       <c r="D146">
-        <v>374.514</v>
+        <v>213.827</v>
       </c>
       <c r="E146">
-        <v>1339.498</v>
+        <v>194.393</v>
       </c>
       <c r="F146">
-        <v>583.129</v>
+        <v>660.242</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3442,19 +3442,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>45.299</v>
+        <v>1011.276</v>
       </c>
       <c r="C147">
-        <v>91.65600000000001</v>
+        <v>193.47</v>
       </c>
       <c r="D147">
-        <v>403.202</v>
+        <v>207.575</v>
       </c>
       <c r="E147">
-        <v>884.748</v>
+        <v>901.048</v>
       </c>
       <c r="F147">
-        <v>203.679</v>
+        <v>482.997</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3462,19 +3462,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>175.231</v>
+        <v>1418.485</v>
       </c>
       <c r="C148">
-        <v>23.081</v>
+        <v>372.069</v>
       </c>
       <c r="D148">
-        <v>514.74</v>
+        <v>179.515</v>
       </c>
       <c r="E148">
-        <v>1192.288</v>
+        <v>235.529</v>
       </c>
       <c r="F148">
-        <v>641.141</v>
+        <v>659.3819999999999</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3482,19 +3482,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>220.486</v>
+        <v>47.667</v>
       </c>
       <c r="C149">
-        <v>19.617</v>
+        <v>457.15</v>
       </c>
       <c r="D149">
-        <v>58.974</v>
+        <v>86.476</v>
       </c>
       <c r="E149">
-        <v>601.239</v>
+        <v>735.578</v>
       </c>
       <c r="F149">
-        <v>528.692</v>
+        <v>206.54</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3502,19 +3502,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>127.341</v>
+        <v>782.7329999999999</v>
       </c>
       <c r="C150">
-        <v>138.031</v>
+        <v>436.54</v>
       </c>
       <c r="D150">
-        <v>431.703</v>
+        <v>152.422</v>
       </c>
       <c r="E150">
-        <v>399.113</v>
+        <v>527.746</v>
       </c>
       <c r="F150">
-        <v>726.6079999999999</v>
+        <v>548.864</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3522,19 +3522,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>157.821</v>
+        <v>1453.941</v>
       </c>
       <c r="C151">
-        <v>99.188</v>
+        <v>391.711</v>
       </c>
       <c r="D151">
-        <v>487.056</v>
+        <v>340.53</v>
       </c>
       <c r="E151">
-        <v>1141.759</v>
+        <v>46.677</v>
       </c>
       <c r="F151">
-        <v>87.226</v>
+        <v>39.551</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3542,19 +3542,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>30.637</v>
+        <v>1753.097</v>
       </c>
       <c r="C152">
-        <v>195.714</v>
+        <v>222.938</v>
       </c>
       <c r="D152">
-        <v>307.262</v>
+        <v>387.499</v>
       </c>
       <c r="E152">
-        <v>285.228</v>
+        <v>677.332</v>
       </c>
       <c r="F152">
-        <v>511.719</v>
+        <v>784.455</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3562,19 +3562,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>116.923</v>
+        <v>183.016</v>
       </c>
       <c r="C153">
-        <v>210.547</v>
+        <v>264.748</v>
       </c>
       <c r="D153">
-        <v>15.845</v>
+        <v>328.796</v>
       </c>
       <c r="E153">
-        <v>1248.9</v>
+        <v>366.381</v>
       </c>
       <c r="F153">
-        <v>351.958</v>
+        <v>643.617</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3582,19 +3582,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>245.118</v>
+        <v>413.405</v>
       </c>
       <c r="C154">
-        <v>226.647</v>
+        <v>290.203</v>
       </c>
       <c r="D154">
-        <v>265.269</v>
+        <v>145.329</v>
       </c>
       <c r="E154">
-        <v>12.763</v>
+        <v>825.546</v>
       </c>
       <c r="F154">
-        <v>487.572</v>
+        <v>256.57</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3602,19 +3602,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>304.248</v>
+        <v>4239.055</v>
       </c>
       <c r="C155">
-        <v>51.823</v>
+        <v>600.499</v>
       </c>
       <c r="D155">
-        <v>618.002</v>
+        <v>408.509</v>
       </c>
       <c r="E155">
-        <v>3034.6</v>
+        <v>361.231</v>
       </c>
       <c r="F155">
-        <v>1032.552</v>
+        <v>1282.381</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3622,19 +3622,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>68.39400000000001</v>
+        <v>2236.771</v>
       </c>
       <c r="C156">
-        <v>161.177</v>
+        <v>355.894</v>
       </c>
       <c r="D156">
-        <v>665.587</v>
+        <v>396.529</v>
       </c>
       <c r="E156">
-        <v>2004.154</v>
+        <v>1674.213</v>
       </c>
       <c r="F156">
-        <v>360.332</v>
+        <v>938.246</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3642,19 +3642,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>264.418</v>
+        <v>3137.036</v>
       </c>
       <c r="C157">
-        <v>40.393</v>
+        <v>684.152</v>
       </c>
       <c r="D157">
-        <v>849.504</v>
+        <v>343.195</v>
       </c>
       <c r="E157">
-        <v>2700.539</v>
+        <v>437.197</v>
       </c>
       <c r="F157">
-        <v>1134.858</v>
+        <v>1281.374</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3662,19 +3662,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>332.484</v>
+        <v>105.257</v>
       </c>
       <c r="C158">
-        <v>34.852</v>
+        <v>840.596</v>
       </c>
       <c r="D158">
-        <v>96.864</v>
+        <v>165.552</v>
       </c>
       <c r="E158">
-        <v>1362.193</v>
+        <v>1366.743</v>
       </c>
       <c r="F158">
-        <v>936.3440000000001</v>
+        <v>401.032</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3682,19 +3682,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>191.791</v>
+        <v>1731.128</v>
       </c>
       <c r="C159">
-        <v>242.714</v>
+        <v>802.372</v>
       </c>
       <c r="D159">
-        <v>711.932</v>
+        <v>291.597</v>
       </c>
       <c r="E159">
-        <v>903.9299999999999</v>
+        <v>980.408</v>
       </c>
       <c r="F159">
-        <v>1287.022</v>
+        <v>1066.193</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3702,19 +3702,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>238.397</v>
+        <v>3215.453</v>
       </c>
       <c r="C160">
-        <v>174.259</v>
+        <v>720.3049999999999</v>
       </c>
       <c r="D160">
-        <v>803.1180000000001</v>
+        <v>650.732</v>
       </c>
       <c r="E160">
-        <v>2586.524</v>
+        <v>86.42100000000001</v>
       </c>
       <c r="F160">
-        <v>154.496</v>
+        <v>76.971</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3722,19 +3722,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>46.506</v>
+        <v>3877.234</v>
       </c>
       <c r="C161">
-        <v>344.389</v>
+        <v>409.643</v>
       </c>
       <c r="D161">
-        <v>506.58</v>
+        <v>740.696</v>
       </c>
       <c r="E161">
-        <v>645.8150000000001</v>
+        <v>1258.535</v>
       </c>
       <c r="F161">
-        <v>906.626</v>
+        <v>1524.519</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3742,19 +3742,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>176.547</v>
+        <v>404.327</v>
       </c>
       <c r="C162">
-        <v>370.594</v>
+        <v>486.933</v>
       </c>
       <c r="D162">
-        <v>25.845</v>
+        <v>628.325</v>
       </c>
       <c r="E162">
-        <v>2828.772</v>
+        <v>680.99</v>
       </c>
       <c r="F162">
-        <v>623.41</v>
+        <v>1250.852</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3762,19 +3762,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>369.545</v>
+        <v>914.292</v>
       </c>
       <c r="C163">
-        <v>399.003</v>
+        <v>534.099</v>
       </c>
       <c r="D163">
-        <v>437.732</v>
+        <v>277.091</v>
       </c>
       <c r="E163">
-        <v>28.849</v>
+        <v>1533.747</v>
       </c>
       <c r="F163">
-        <v>863.16</v>
+        <v>498.763</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3782,19 +3782,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>303.489</v>
+        <v>4238.87</v>
       </c>
       <c r="C164">
-        <v>51.314</v>
+        <v>601.157</v>
       </c>
       <c r="D164">
-        <v>618.453</v>
+        <v>408.338</v>
       </c>
       <c r="E164">
-        <v>3035.07</v>
+        <v>360.618</v>
       </c>
       <c r="F164">
-        <v>1031.988</v>
+        <v>1282.314</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3802,19 +3802,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>68.044</v>
+        <v>2236.353</v>
       </c>
       <c r="C165">
-        <v>160.837</v>
+        <v>356.086</v>
       </c>
       <c r="D165">
-        <v>665.761</v>
+        <v>396.005</v>
       </c>
       <c r="E165">
-        <v>2004.707</v>
+        <v>1673.547</v>
       </c>
       <c r="F165">
-        <v>359.738</v>
+        <v>938.318</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3822,19 +3822,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>264.365</v>
+        <v>3136.384</v>
       </c>
       <c r="C166">
-        <v>40.761</v>
+        <v>684.304</v>
       </c>
       <c r="D166">
-        <v>850.235</v>
+        <v>343.134</v>
       </c>
       <c r="E166">
-        <v>2700.592</v>
+        <v>437.253</v>
       </c>
       <c r="F166">
-        <v>1135.598</v>
+        <v>1280.9</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3842,19 +3842,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>333.049</v>
+        <v>105.158</v>
       </c>
       <c r="C167">
-        <v>34.564</v>
+        <v>840.967</v>
       </c>
       <c r="D167">
-        <v>96.26600000000001</v>
+        <v>165.686</v>
       </c>
       <c r="E167">
-        <v>1362.68</v>
+        <v>1367.261</v>
       </c>
       <c r="F167">
-        <v>936.873</v>
+        <v>401.338</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3862,19 +3862,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>192.374</v>
+        <v>1730.831</v>
       </c>
       <c r="C168">
-        <v>242.153</v>
+        <v>802.522</v>
       </c>
       <c r="D168">
-        <v>711.355</v>
+        <v>291.959</v>
       </c>
       <c r="E168">
-        <v>904.234</v>
+        <v>979.932</v>
       </c>
       <c r="F168">
-        <v>1286.354</v>
+        <v>1066.842</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3882,19 +3882,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>238.421</v>
+        <v>3215.002</v>
       </c>
       <c r="C169">
-        <v>173.606</v>
+        <v>720.843</v>
       </c>
       <c r="D169">
-        <v>802.582</v>
+        <v>650.515</v>
       </c>
       <c r="E169">
-        <v>2586.69</v>
+        <v>86.592</v>
       </c>
       <c r="F169">
-        <v>153.989</v>
+        <v>77.599</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3902,19 +3902,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>46.381</v>
+        <v>3877.107</v>
       </c>
       <c r="C170">
-        <v>344.397</v>
+        <v>410.173</v>
       </c>
       <c r="D170">
-        <v>506.02</v>
+        <v>741.356</v>
       </c>
       <c r="E170">
-        <v>645.756</v>
+        <v>1258.437</v>
       </c>
       <c r="F170">
-        <v>906.573</v>
+        <v>1525.07</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3922,19 +3922,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>177.149</v>
+        <v>404.018</v>
       </c>
       <c r="C171">
-        <v>370.458</v>
+        <v>486.351</v>
       </c>
       <c r="D171">
-        <v>25.69</v>
+        <v>628.331</v>
       </c>
       <c r="E171">
-        <v>2829.49</v>
+        <v>680.629</v>
       </c>
       <c r="F171">
-        <v>623.386</v>
+        <v>1250.722</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3942,19 +3942,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>370.264</v>
+        <v>914.759</v>
       </c>
       <c r="C172">
-        <v>398.413</v>
+        <v>534.265</v>
       </c>
       <c r="D172">
-        <v>437.72</v>
+        <v>277.329</v>
       </c>
       <c r="E172">
-        <v>29.273</v>
+        <v>1533.253</v>
       </c>
       <c r="F172">
-        <v>862.494</v>
+        <v>498.094</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3962,19 +3962,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>615.806</v>
+        <v>8116.751</v>
       </c>
       <c r="C173">
-        <v>83.214</v>
+        <v>1087.445</v>
       </c>
       <c r="D173">
-        <v>942.331</v>
+        <v>711.211</v>
       </c>
       <c r="E173">
-        <v>7622.511</v>
+        <v>863.831</v>
       </c>
       <c r="F173">
-        <v>2467.81</v>
+        <v>3180.166</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3982,19 +3982,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>138.192</v>
+        <v>4282.572</v>
       </c>
       <c r="C174">
-        <v>259.622</v>
+        <v>644.192</v>
       </c>
       <c r="D174">
-        <v>1014.686</v>
+        <v>689.8819999999999</v>
       </c>
       <c r="E174">
-        <v>5034.516</v>
+        <v>4008.05</v>
       </c>
       <c r="F174">
-        <v>860.119</v>
+        <v>2327.004</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4002,19 +4002,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>536.4589999999999</v>
+        <v>6005.97</v>
       </c>
       <c r="C175">
-        <v>65.483</v>
+        <v>1237.93</v>
       </c>
       <c r="D175">
-        <v>1295.52</v>
+        <v>597.726</v>
       </c>
       <c r="E175">
-        <v>6782.424</v>
+        <v>1046.797</v>
       </c>
       <c r="F175">
-        <v>2714.765</v>
+        <v>3177.198</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4022,19 +4022,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>675.484</v>
+        <v>201.323</v>
       </c>
       <c r="C176">
-        <v>56.081</v>
+        <v>1521.258</v>
       </c>
       <c r="D176">
-        <v>146.661</v>
+        <v>288.65</v>
       </c>
       <c r="E176">
-        <v>3422.185</v>
+        <v>3273.999</v>
       </c>
       <c r="F176">
-        <v>2239.994</v>
+        <v>994.972</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4042,19 +4042,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>389.914</v>
+        <v>3314.423</v>
       </c>
       <c r="C177">
-        <v>390.899</v>
+        <v>1451.628</v>
       </c>
       <c r="D177">
-        <v>1084.051</v>
+        <v>508.485</v>
       </c>
       <c r="E177">
-        <v>2270.703</v>
+        <v>2346.789</v>
       </c>
       <c r="F177">
-        <v>3076.341</v>
+        <v>2645.49</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4062,19 +4062,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>483.951</v>
+        <v>6156.402</v>
       </c>
       <c r="C178">
-        <v>280.265</v>
+        <v>1303.878</v>
       </c>
       <c r="D178">
-        <v>1222.971</v>
+        <v>1133.085</v>
       </c>
       <c r="E178">
-        <v>6496.488</v>
+        <v>207.045</v>
       </c>
       <c r="F178">
-        <v>368.291</v>
+        <v>192.041</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4082,19 +4082,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>94.312</v>
+        <v>7424.125</v>
       </c>
       <c r="C179">
-        <v>555.744</v>
+        <v>741.652</v>
       </c>
       <c r="D179">
-        <v>771.111</v>
+        <v>1290.994</v>
       </c>
       <c r="E179">
-        <v>1621.666</v>
+        <v>3013.681</v>
       </c>
       <c r="F179">
-        <v>2167.982</v>
+        <v>3782.39</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4102,19 +4102,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>359.327</v>
+        <v>773.586</v>
       </c>
       <c r="C180">
-        <v>597.92</v>
+        <v>880.201</v>
       </c>
       <c r="D180">
-        <v>39.021</v>
+        <v>1094.349</v>
       </c>
       <c r="E180">
-        <v>7105.783</v>
+        <v>1630.184</v>
       </c>
       <c r="F180">
-        <v>1490.613</v>
+        <v>3102.236</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4122,19 +4122,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>750.88</v>
+        <v>1751.345</v>
       </c>
       <c r="C181">
-        <v>643.272</v>
+        <v>966.74</v>
       </c>
       <c r="D181">
-        <v>667.078</v>
+        <v>482.565</v>
       </c>
       <c r="E181">
-        <v>73.173</v>
+        <v>3671.898</v>
       </c>
       <c r="F181">
-        <v>2062.445</v>
+        <v>1235.701</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4142,19 +4142,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>615.55</v>
+        <v>8117.287</v>
       </c>
       <c r="C182">
-        <v>83.655</v>
+        <v>1088.041</v>
       </c>
       <c r="D182">
-        <v>942.764</v>
+        <v>710.9160000000001</v>
       </c>
       <c r="E182">
-        <v>7621.965</v>
+        <v>864.071</v>
       </c>
       <c r="F182">
-        <v>2468.084</v>
+        <v>3179.772</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4162,19 +4162,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>137.538</v>
+        <v>4282.617</v>
       </c>
       <c r="C183">
-        <v>260.099</v>
+        <v>644.505</v>
       </c>
       <c r="D183">
-        <v>1014.956</v>
+        <v>689.888</v>
       </c>
       <c r="E183">
-        <v>5034.191</v>
+        <v>4008.595</v>
       </c>
       <c r="F183">
-        <v>859.496</v>
+        <v>2327.006</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4182,19 +4182,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>536.999</v>
+        <v>6006.173</v>
       </c>
       <c r="C184">
-        <v>65.672</v>
+        <v>1238.051</v>
       </c>
       <c r="D184">
-        <v>1295.464</v>
+        <v>597.2910000000001</v>
       </c>
       <c r="E184">
-        <v>6783.136</v>
+        <v>1046.736</v>
       </c>
       <c r="F184">
-        <v>2714.573</v>
+        <v>3176.684</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4202,19 +4202,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>676.087</v>
+        <v>200.779</v>
       </c>
       <c r="C185">
-        <v>56.568</v>
+        <v>1520.758</v>
       </c>
       <c r="D185">
-        <v>146.508</v>
+        <v>288.544</v>
       </c>
       <c r="E185">
-        <v>3422.466</v>
+        <v>3274.267</v>
       </c>
       <c r="F185">
-        <v>2239.912</v>
+        <v>995.504</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4222,19 +4222,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>389.757</v>
+        <v>3314.715</v>
       </c>
       <c r="C186">
-        <v>390.812</v>
+        <v>1452.122</v>
       </c>
       <c r="D186">
-        <v>1084.473</v>
+        <v>508.034</v>
       </c>
       <c r="E186">
-        <v>2270.82</v>
+        <v>2347.179</v>
       </c>
       <c r="F186">
-        <v>3075.632</v>
+        <v>2645.407</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4242,19 +4242,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>483.843</v>
+        <v>6156.965</v>
       </c>
       <c r="C187">
-        <v>279.805</v>
+        <v>1303.771</v>
       </c>
       <c r="D187">
-        <v>1223.479</v>
+        <v>1133.196</v>
       </c>
       <c r="E187">
-        <v>6497.172</v>
+        <v>207.023</v>
       </c>
       <c r="F187">
-        <v>368.718</v>
+        <v>191.566</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4262,19 +4262,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>94.738</v>
+        <v>7423.898</v>
       </c>
       <c r="C188">
-        <v>556.1130000000001</v>
+        <v>741.21</v>
       </c>
       <c r="D188">
-        <v>771.146</v>
+        <v>1291.547</v>
       </c>
       <c r="E188">
-        <v>1622.087</v>
+        <v>3013.774</v>
       </c>
       <c r="F188">
-        <v>2168.294</v>
+        <v>3781.825</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4282,19 +4282,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>359.772</v>
+        <v>773.847</v>
       </c>
       <c r="C189">
-        <v>597.615</v>
+        <v>879.942</v>
       </c>
       <c r="D189">
-        <v>39.073</v>
+        <v>1094.503</v>
       </c>
       <c r="E189">
-        <v>7105.592</v>
+        <v>1630.155</v>
       </c>
       <c r="F189">
-        <v>1491.256</v>
+        <v>3101.995</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4302,19 +4302,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>750.677</v>
+        <v>1750.945</v>
       </c>
       <c r="C190">
-        <v>642.568</v>
+        <v>967.1</v>
       </c>
       <c r="D190">
-        <v>666.369</v>
+        <v>482.363</v>
       </c>
       <c r="E190">
-        <v>73.86</v>
+        <v>3672.382</v>
       </c>
       <c r="F190">
-        <v>2062.962</v>
+        <v>1235.31</v>
       </c>
     </row>
   </sheetData>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0116750861243275</v>
+        <v>0.0006974617036431784</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02130688860603449</v>
+        <v>0.0009572104842164307</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4412,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.05188163863813125</v>
+        <v>0.008481238225092587</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4420,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004648408063628416</v>
+        <v>0.007033758779095622</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4428,7 +4428,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04169296270075459</v>
+        <v>0.006407420562372386</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4436,7 +4436,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06694484657768154</v>
+        <v>0.005180637744426771</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4444,7 +4444,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03603774951490106</v>
+        <v>0.003347759559534556</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4452,7 +4452,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.001440205514259415</v>
+        <v>0.002115781238686643</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4460,7 +4460,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.005487569488748872</v>
+        <v>0.0009821193809059973</v>
       </c>
     </row>
   </sheetData>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0116750861243275</v>
+        <v>0.0006974617036431784</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02130688860603449</v>
+        <v>0.0009572104842164307</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4502,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.05188163863813125</v>
+        <v>0.008481238225092587</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4510,7 +4510,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.004648408063628416</v>
+        <v>0.007033758779095622</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4518,7 +4518,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04169296270075459</v>
+        <v>0.006407420562372386</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4526,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06694484657768154</v>
+        <v>0.005180637744426771</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4534,7 +4534,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03603774951490106</v>
+        <v>0.003347759559534556</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4542,7 +4542,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.001440205514259415</v>
+        <v>0.002115781238686643</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4550,7 +4550,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.005487569488748872</v>
+        <v>0.0009821193809059973</v>
       </c>
     </row>
   </sheetData>
@@ -4576,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7428039634401578</v>
+        <v>0.4248150313931694</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7414878528721349</v>
+        <v>0.4133546712986902</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4592,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7295346209535265</v>
+        <v>0.7670998468743686</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4600,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.723548313704905</v>
+        <v>0.6783946697545088</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4608,7 +4608,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.738815805237268</v>
+        <v>0.4363879696300154</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4616,7 +4616,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7161553679813768</v>
+        <v>0.6292348536853229</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4624,7 +4624,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7174319936864191</v>
+        <v>0.6619536767230622</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4632,7 +4632,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6943382850895705</v>
+        <v>0.4478861405877366</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4640,7 +4640,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7274998257437435</v>
+        <v>0.4337387078324915</v>
       </c>
     </row>
   </sheetData>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7428039634401578</v>
+        <v>0.4248150313931694</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4674,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7414878528721349</v>
+        <v>0.4133546712986902</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4682,7 +4682,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7295346209535265</v>
+        <v>0.7670998468743686</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4690,7 +4690,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.723548313704905</v>
+        <v>0.6783946697545088</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4698,7 +4698,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.738815805237268</v>
+        <v>0.4363879696300154</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4706,7 +4706,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7161553679813768</v>
+        <v>0.6292348536853229</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4714,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7174319936864191</v>
+        <v>0.6619536767230622</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4722,7 +4722,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6943382850895705</v>
+        <v>0.4478861405877366</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4730,7 +4730,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7274998257437435</v>
+        <v>0.4337387078324915</v>
       </c>
     </row>
   </sheetData>
@@ -4788,19 +4788,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.041</v>
+        <v>0.317</v>
       </c>
       <c r="C3">
-        <v>0.268</v>
+        <v>0.255</v>
       </c>
       <c r="D3">
-        <v>0.076</v>
+        <v>0.027</v>
       </c>
       <c r="E3">
-        <v>0.738</v>
+        <v>0.71</v>
       </c>
       <c r="F3">
-        <v>0.746</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4808,19 +4808,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.192</v>
+        <v>0.877</v>
       </c>
       <c r="C4">
-        <v>0.41</v>
+        <v>0.017</v>
       </c>
       <c r="D4">
-        <v>0.173</v>
+        <v>0.395</v>
       </c>
       <c r="E4">
-        <v>0.998</v>
+        <v>0.526</v>
       </c>
       <c r="F4">
-        <v>0.528</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4828,19 +4828,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.545</v>
+        <v>0.774</v>
       </c>
       <c r="C5">
-        <v>0.123</v>
+        <v>0.469</v>
       </c>
       <c r="D5">
-        <v>0.914</v>
+        <v>0.732</v>
       </c>
       <c r="E5">
-        <v>0.541</v>
+        <v>0.744</v>
       </c>
       <c r="F5">
-        <v>0.898</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4848,19 +4848,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.643</v>
+        <v>0.121</v>
       </c>
       <c r="C6">
-        <v>0.611</v>
+        <v>0.957</v>
       </c>
       <c r="D6">
-        <v>0.456</v>
+        <v>0.024</v>
       </c>
       <c r="E6">
-        <v>0.505</v>
+        <v>0.082</v>
       </c>
       <c r="F6">
-        <v>0.477</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4868,19 +4868,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.626</v>
+        <v>0.598</v>
       </c>
       <c r="C7">
-        <v>0.005</v>
+        <v>0.438</v>
       </c>
       <c r="D7">
-        <v>0.752</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E7">
-        <v>0.417</v>
+        <v>0.953</v>
       </c>
       <c r="F7">
-        <v>0.111</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4888,19 +4888,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.113</v>
+        <v>0.309</v>
       </c>
       <c r="C8">
-        <v>0.364</v>
+        <v>0.747</v>
       </c>
       <c r="D8">
-        <v>0.232</v>
+        <v>0.88</v>
       </c>
       <c r="E8">
-        <v>0.675</v>
+        <v>0.437</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4908,19 +4908,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.215</v>
+        <v>0.887</v>
       </c>
       <c r="C9">
-        <v>0.328</v>
+        <v>0.675</v>
       </c>
       <c r="D9">
-        <v>0.973</v>
+        <v>0.183</v>
       </c>
       <c r="E9">
-        <v>0.855</v>
+        <v>0.004</v>
       </c>
       <c r="F9">
-        <v>0.378</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4928,19 +4928,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.482</v>
+        <v>0.709</v>
       </c>
       <c r="C10">
-        <v>0.624</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D10">
-        <v>0.739</v>
+        <v>0.063</v>
       </c>
       <c r="E10">
-        <v>0.004</v>
+        <v>0.71</v>
       </c>
       <c r="F10">
-        <v>0.415</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4948,19 +4948,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.046</v>
+        <v>0.65</v>
       </c>
       <c r="C11">
-        <v>0.249</v>
+        <v>0.45</v>
       </c>
       <c r="D11">
-        <v>0.08</v>
+        <v>0.586</v>
       </c>
       <c r="E11">
-        <v>0.896</v>
+        <v>0.347</v>
       </c>
       <c r="F11">
-        <v>0.296</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4968,19 +4968,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6919999999999999</v>
+        <v>0.367</v>
       </c>
       <c r="C12">
-        <v>0.182</v>
+        <v>0.353</v>
       </c>
       <c r="D12">
-        <v>0.13</v>
+        <v>0.265</v>
       </c>
       <c r="E12">
-        <v>0.953</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F12">
-        <v>0.956</v>
+        <v>0.995</v>
       </c>
     </row>
   </sheetData>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7518418992482249</v>
+        <v>0.4274148394211734</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9799156694097578</v>
+        <v>0.5786713512066977</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5022,7 +5022,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5799908870502478</v>
+        <v>0.3356199276039497</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5030,7 +5030,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5370476237044233</v>
+        <v>0.7843650504105839</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5038,7 +5038,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7358602753430694</v>
+        <v>0.4541144742623427</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5046,7 +5046,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4742490531944509</v>
+        <v>0.3044174862939283</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5054,7 +5054,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.326344659362462</v>
+        <v>0.7884726201972829</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5062,7 +5062,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7074872713737176</v>
+        <v>0.9645501131885872</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5070,7 +5070,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.88306300529376</v>
+        <v>0.5644038978351582</v>
       </c>
     </row>
   </sheetData>
@@ -5080,7 +5080,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5108,19 +5108,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.863</v>
+        <v>0.771</v>
       </c>
       <c r="C2">
-        <v>0.106</v>
+        <v>0.526</v>
       </c>
       <c r="D2">
-        <v>0.586</v>
+        <v>0.487</v>
       </c>
       <c r="E2">
-        <v>0.969</v>
+        <v>0.081</v>
       </c>
       <c r="F2">
-        <v>0.433</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5128,19 +5128,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.222</v>
+        <v>0.425</v>
       </c>
       <c r="C3">
-        <v>0.398</v>
+        <v>0.315</v>
       </c>
       <c r="D3">
-        <v>0.6870000000000001</v>
+        <v>0.478</v>
       </c>
       <c r="E3">
-        <v>0.64</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="F3">
-        <v>0.19</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5148,19 +5148,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.638</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="C4">
-        <v>0.048</v>
+        <v>0.556</v>
       </c>
       <c r="D4">
-        <v>0.931</v>
+        <v>0.416</v>
       </c>
       <c r="E4">
-        <v>0.878</v>
+        <v>0.12</v>
       </c>
       <c r="F4">
-        <v>0.716</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5168,19 +5168,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9320000000000001</v>
+        <v>0.037</v>
       </c>
       <c r="C5">
-        <v>0.079</v>
+        <v>0.707</v>
       </c>
       <c r="D5">
-        <v>0.122</v>
+        <v>0.218</v>
       </c>
       <c r="E5">
-        <v>0.445</v>
+        <v>0.482</v>
       </c>
       <c r="F5">
-        <v>0.655</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5188,19 +5188,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.535</v>
+        <v>0.314</v>
       </c>
       <c r="C6">
-        <v>0.599</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="D6">
-        <v>0.6909999999999999</v>
+        <v>0.365</v>
       </c>
       <c r="E6">
-        <v>0.257</v>
+        <v>0.307</v>
       </c>
       <c r="F6">
-        <v>0.861</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5208,19 +5208,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.572</v>
+        <v>0.58</v>
       </c>
       <c r="C7">
-        <v>0.427</v>
+        <v>0.615</v>
       </c>
       <c r="D7">
-        <v>0.82</v>
+        <v>0.776</v>
       </c>
       <c r="E7">
-        <v>0.858</v>
+        <v>0.017</v>
       </c>
       <c r="F7">
-        <v>0.15</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5228,19 +5228,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.083</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="C8">
-        <v>0.773</v>
+        <v>0.329</v>
       </c>
       <c r="D8">
-        <v>0.471</v>
+        <v>0.882</v>
       </c>
       <c r="E8">
-        <v>0.258</v>
+        <v>0.453</v>
       </c>
       <c r="F8">
-        <v>0.638</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5248,19 +5248,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.385</v>
+        <v>0.073</v>
       </c>
       <c r="C9">
-        <v>0.886</v>
+        <v>0.418</v>
       </c>
       <c r="D9">
-        <v>0.028</v>
+        <v>0.765</v>
       </c>
       <c r="E9">
-        <v>0.949</v>
+        <v>0.263</v>
       </c>
       <c r="F9">
-        <v>0.439</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5268,19 +5268,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.921</v>
+        <v>0.156</v>
       </c>
       <c r="C10">
-        <v>0.892</v>
+        <v>0.426</v>
       </c>
       <c r="D10">
-        <v>0.451</v>
+        <v>0.317</v>
       </c>
       <c r="E10">
-        <v>0.002</v>
+        <v>0.545</v>
       </c>
       <c r="F10">
-        <v>0.586</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5288,19 +5288,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.862</v>
+        <v>0.76</v>
       </c>
       <c r="C11">
-        <v>0.096</v>
+        <v>0.517</v>
       </c>
       <c r="D11">
-        <v>0.586</v>
+        <v>0.487</v>
       </c>
       <c r="E11">
-        <v>0.996</v>
+        <v>0.107</v>
       </c>
       <c r="F11">
-        <v>0.575</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5308,19 +5308,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.221</v>
+        <v>0.415</v>
       </c>
       <c r="C12">
-        <v>0.39</v>
+        <v>0.307</v>
       </c>
       <c r="D12">
-        <v>0.6870000000000001</v>
+        <v>0.478</v>
       </c>
       <c r="E12">
-        <v>0.662</v>
+        <v>0.579</v>
       </c>
       <c r="F12">
-        <v>0.233</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5328,19 +5328,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.637</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="C13">
-        <v>0.041</v>
+        <v>0.549</v>
       </c>
       <c r="D13">
-        <v>0.931</v>
+        <v>0.416</v>
       </c>
       <c r="E13">
-        <v>0.896</v>
+        <v>0.138</v>
       </c>
       <c r="F13">
-        <v>0.732</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5348,19 +5348,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.931</v>
+        <v>0.03</v>
       </c>
       <c r="C14">
-        <v>0.073</v>
+        <v>0.702</v>
       </c>
       <c r="D14">
-        <v>0.122</v>
+        <v>0.218</v>
       </c>
       <c r="E14">
-        <v>0.45</v>
+        <v>0.487</v>
       </c>
       <c r="F14">
-        <v>0.66</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5368,19 +5368,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.534</v>
+        <v>0.309</v>
       </c>
       <c r="C15">
-        <v>0.594</v>
+        <v>0.678</v>
       </c>
       <c r="D15">
-        <v>0.6909999999999999</v>
+        <v>0.365</v>
       </c>
       <c r="E15">
-        <v>0.282</v>
+        <v>0.331</v>
       </c>
       <c r="F15">
-        <v>0.864</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5388,19 +5388,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.571</v>
+        <v>0.576</v>
       </c>
       <c r="C16">
-        <v>0.424</v>
+        <v>0.612</v>
       </c>
       <c r="D16">
-        <v>0.82</v>
+        <v>0.776</v>
       </c>
       <c r="E16">
-        <v>0.863</v>
+        <v>0.022</v>
       </c>
       <c r="F16">
-        <v>0.152</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5408,19 +5408,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.083</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="C17">
-        <v>0.771</v>
+        <v>0.327</v>
       </c>
       <c r="D17">
-        <v>0.471</v>
+        <v>0.882</v>
       </c>
       <c r="E17">
-        <v>0.255</v>
+        <v>0.45</v>
       </c>
       <c r="F17">
-        <v>0.639</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5428,19 +5428,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.385</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C18">
-        <v>0.885</v>
+        <v>0.417</v>
       </c>
       <c r="D18">
-        <v>0.028</v>
+        <v>0.765</v>
       </c>
       <c r="E18">
-        <v>0.9370000000000001</v>
+        <v>0.252</v>
       </c>
       <c r="F18">
-        <v>0.44</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5448,19 +5448,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.921</v>
+        <v>0.156</v>
       </c>
       <c r="C19">
-        <v>0.892</v>
+        <v>0.426</v>
       </c>
       <c r="D19">
-        <v>0.451</v>
+        <v>0.317</v>
       </c>
       <c r="E19">
-        <v>0.002</v>
+        <v>0.545</v>
       </c>
       <c r="F19">
-        <v>0.586</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5468,19 +5468,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.896</v>
+        <v>0.99</v>
       </c>
       <c r="C20">
-        <v>0.112</v>
+        <v>0.64</v>
       </c>
       <c r="D20">
-        <v>0.631</v>
+        <v>0.5</v>
       </c>
       <c r="E20">
-        <v>1.758</v>
+        <v>0.209</v>
       </c>
       <c r="F20">
-        <v>1.146</v>
+        <v>1.417</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5488,19 +5488,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.229</v>
+        <v>0.537</v>
       </c>
       <c r="C21">
-        <v>0.486</v>
+        <v>0.377</v>
       </c>
       <c r="D21">
-        <v>0.739</v>
+        <v>0.491</v>
       </c>
       <c r="E21">
-        <v>1.173</v>
+        <v>1.011</v>
       </c>
       <c r="F21">
-        <v>0.45</v>
+        <v>1.035</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5508,19 +5508,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.662</v>
+        <v>0.727</v>
       </c>
       <c r="C22">
-        <v>0.045</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="D22">
-        <v>1.002</v>
+        <v>0.427</v>
       </c>
       <c r="E22">
-        <v>1.576</v>
+        <v>0.254</v>
       </c>
       <c r="F22">
-        <v>1.294</v>
+        <v>1.455</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5528,19 +5528,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.968</v>
+        <v>0.033</v>
       </c>
       <c r="C23">
-        <v>0.08699999999999999</v>
+        <v>0.876</v>
       </c>
       <c r="D23">
-        <v>0.131</v>
+        <v>0.224</v>
       </c>
       <c r="E23">
-        <v>0.787</v>
+        <v>0.838</v>
       </c>
       <c r="F23">
-        <v>1.158</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5548,19 +5548,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.555</v>
+        <v>0.402</v>
       </c>
       <c r="C24">
-        <v>0.749</v>
+        <v>0.847</v>
       </c>
       <c r="D24">
-        <v>0.744</v>
+        <v>0.375</v>
       </c>
       <c r="E24">
-        <v>0.515</v>
+        <v>0.59</v>
       </c>
       <c r="F24">
-        <v>1.512</v>
+        <v>1.204</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5568,19 +5568,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.594</v>
+        <v>0.754</v>
       </c>
       <c r="C25">
-        <v>0.534</v>
+        <v>0.765</v>
       </c>
       <c r="D25">
-        <v>0.882</v>
+        <v>0.797</v>
       </c>
       <c r="E25">
-        <v>1.505</v>
+        <v>0.043</v>
       </c>
       <c r="F25">
-        <v>0.268</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5588,19 +5588,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.08599999999999999</v>
+        <v>0.897</v>
       </c>
       <c r="C26">
-        <v>0.975</v>
+        <v>0.408</v>
       </c>
       <c r="D26">
-        <v>0.507</v>
+        <v>0.906</v>
       </c>
       <c r="E26">
-        <v>0.44</v>
+        <v>0.767</v>
       </c>
       <c r="F26">
-        <v>1.117</v>
+        <v>1.723</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5608,19 +5608,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.401</v>
+        <v>0.094</v>
       </c>
       <c r="C27">
-        <v>1.121</v>
+        <v>0.522</v>
       </c>
       <c r="D27">
-        <v>0.03</v>
+        <v>0.786</v>
       </c>
       <c r="E27">
-        <v>1.617</v>
+        <v>0.42</v>
       </c>
       <c r="F27">
-        <v>0.77</v>
+        <v>1.419</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5628,19 +5628,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.959</v>
+        <v>0.205</v>
       </c>
       <c r="C28">
-        <v>1.131</v>
+        <v>0.535</v>
       </c>
       <c r="D28">
-        <v>0.485</v>
+        <v>0.326</v>
       </c>
       <c r="E28">
-        <v>0.003</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="F28">
-        <v>1.023</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5648,19 +5648,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.234</v>
+        <v>2.501</v>
       </c>
       <c r="C29">
-        <v>0.197</v>
+        <v>0.659</v>
       </c>
       <c r="D29">
-        <v>0.842</v>
+        <v>0.891</v>
       </c>
       <c r="E29">
-        <v>4.506</v>
+        <v>0.396</v>
       </c>
       <c r="F29">
-        <v>2.055</v>
+        <v>2.527</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5668,19 +5668,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.316</v>
+        <v>1.353</v>
       </c>
       <c r="C30">
-        <v>0.847</v>
+        <v>0.388</v>
       </c>
       <c r="D30">
-        <v>0.985</v>
+        <v>0.874</v>
       </c>
       <c r="E30">
-        <v>2.998</v>
+        <v>1.865</v>
       </c>
       <c r="F30">
-        <v>0.741</v>
+        <v>1.825</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5688,19 +5688,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.913</v>
+        <v>1.838</v>
       </c>
       <c r="C31">
-        <v>0.08400000000000001</v>
+        <v>0.703</v>
       </c>
       <c r="D31">
-        <v>1.336</v>
+        <v>0.76</v>
       </c>
       <c r="E31">
-        <v>4.032</v>
+        <v>0.475</v>
       </c>
       <c r="F31">
-        <v>2.275</v>
+        <v>2.551</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5708,19 +5708,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.335</v>
+        <v>0.077</v>
       </c>
       <c r="C32">
-        <v>0.159</v>
+        <v>0.903</v>
       </c>
       <c r="D32">
-        <v>0.174</v>
+        <v>0.397</v>
       </c>
       <c r="E32">
-        <v>1.993</v>
+        <v>1.541</v>
       </c>
       <c r="F32">
-        <v>2.021</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -5728,19 +5728,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.768</v>
+        <v>1.018</v>
       </c>
       <c r="C33">
-        <v>1.307</v>
+        <v>0.873</v>
       </c>
       <c r="D33">
-        <v>0.992</v>
+        <v>0.669</v>
       </c>
       <c r="E33">
-        <v>1.308</v>
+        <v>1.094</v>
       </c>
       <c r="F33">
-        <v>2.668</v>
+        <v>2.107</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5748,19 +5748,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.822</v>
+        <v>1.916</v>
       </c>
       <c r="C34">
-        <v>0.9370000000000001</v>
+        <v>0.788</v>
       </c>
       <c r="D34">
-        <v>1.176</v>
+        <v>1.418</v>
       </c>
       <c r="E34">
-        <v>3.839</v>
+        <v>0.083</v>
       </c>
       <c r="F34">
-        <v>0.391</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5768,19 +5768,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.124</v>
+        <v>2.283</v>
       </c>
       <c r="C35">
-        <v>1.702</v>
+        <v>0.42</v>
       </c>
       <c r="D35">
-        <v>0.676</v>
+        <v>1.612</v>
       </c>
       <c r="E35">
-        <v>1.094</v>
+        <v>1.407</v>
       </c>
       <c r="F35">
-        <v>1.945</v>
+        <v>3.014</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5788,19 +5788,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.5580000000000001</v>
+        <v>0.243</v>
       </c>
       <c r="C36">
-        <v>1.957</v>
+        <v>0.538</v>
       </c>
       <c r="D36">
-        <v>0.039</v>
+        <v>1.399</v>
       </c>
       <c r="E36">
-        <v>4.114</v>
+        <v>0.767</v>
       </c>
       <c r="F36">
-        <v>1.31</v>
+        <v>2.483</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5808,19 +5808,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.327</v>
+        <v>0.529</v>
       </c>
       <c r="C37">
-        <v>1.975</v>
+        <v>0.551</v>
       </c>
       <c r="D37">
-        <v>0.646</v>
+        <v>0.58</v>
       </c>
       <c r="E37">
-        <v>-0.028</v>
+        <v>1.711</v>
       </c>
       <c r="F37">
-        <v>1.772</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5828,19 +5828,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.808</v>
+        <v>6.205</v>
       </c>
       <c r="C38">
-        <v>0.363</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="D38">
-        <v>1.198</v>
+        <v>1.634</v>
       </c>
       <c r="E38">
-        <v>11.751</v>
+        <v>0.792</v>
       </c>
       <c r="F38">
-        <v>4.049</v>
+        <v>4.881</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5848,19 +5848,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.464</v>
+        <v>3.355</v>
       </c>
       <c r="C39">
-        <v>1.555</v>
+        <v>0.406</v>
       </c>
       <c r="D39">
-        <v>1.401</v>
+        <v>1.602</v>
       </c>
       <c r="E39">
-        <v>7.815</v>
+        <v>3.7</v>
       </c>
       <c r="F39">
-        <v>1.423</v>
+        <v>3.513</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5868,19 +5868,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.339</v>
+        <v>4.561</v>
       </c>
       <c r="C40">
-        <v>0.158</v>
+        <v>0.736</v>
       </c>
       <c r="D40">
-        <v>1.901</v>
+        <v>1.393</v>
       </c>
       <c r="E40">
-        <v>10.512</v>
+        <v>0.946</v>
       </c>
       <c r="F40">
-        <v>4.457</v>
+        <v>4.902</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5888,19 +5888,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.959</v>
+        <v>0.188</v>
       </c>
       <c r="C41">
-        <v>0.296</v>
+        <v>0.945</v>
       </c>
       <c r="D41">
-        <v>0.247</v>
+        <v>0.727</v>
       </c>
       <c r="E41">
-        <v>5.188</v>
+        <v>3.054</v>
       </c>
       <c r="F41">
-        <v>3.951</v>
+        <v>1.491</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5908,19 +5908,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.128</v>
+        <v>2.526</v>
       </c>
       <c r="C42">
-        <v>2.401</v>
+        <v>0.914</v>
       </c>
       <c r="D42">
-        <v>1.412</v>
+        <v>1.227</v>
       </c>
       <c r="E42">
-        <v>3.407</v>
+        <v>2.174</v>
       </c>
       <c r="F42">
-        <v>5.233</v>
+        <v>4.046</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5928,19 +5928,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.208</v>
+        <v>4.758</v>
       </c>
       <c r="C43">
-        <v>1.724</v>
+        <v>0.825</v>
       </c>
       <c r="D43">
-        <v>1.673</v>
+        <v>2.599</v>
       </c>
       <c r="E43">
-        <v>10.005</v>
+        <v>0.167</v>
       </c>
       <c r="F43">
-        <v>0.72</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5948,19 +5948,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.185</v>
+        <v>5.671</v>
       </c>
       <c r="C44">
-        <v>3.127</v>
+        <v>0.44</v>
       </c>
       <c r="D44">
-        <v>0.961</v>
+        <v>2.955</v>
       </c>
       <c r="E44">
-        <v>2.84</v>
+        <v>2.787</v>
       </c>
       <c r="F44">
-        <v>3.8</v>
+        <v>5.788</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5968,19 +5968,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.822</v>
+        <v>0.605</v>
       </c>
       <c r="C45">
-        <v>3.595</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="D45">
-        <v>0.055</v>
+        <v>2.564</v>
       </c>
       <c r="E45">
-        <v>10.717</v>
+        <v>1.518</v>
       </c>
       <c r="F45">
-        <v>2.541</v>
+        <v>4.768</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5988,19 +5988,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.949</v>
+        <v>1.317</v>
       </c>
       <c r="C46">
-        <v>3.629</v>
+        <v>0.577</v>
       </c>
       <c r="D46">
-        <v>0.919</v>
+        <v>1.063</v>
       </c>
       <c r="E46">
-        <v>-0.08699999999999999</v>
+        <v>3.39</v>
       </c>
       <c r="F46">
-        <v>3.457</v>
+        <v>1.914</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6008,19 +6008,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4.424</v>
+        <v>14.277</v>
       </c>
       <c r="C47">
-        <v>0.457</v>
+        <v>1.851</v>
       </c>
       <c r="D47">
-        <v>4.175</v>
+        <v>4.208</v>
       </c>
       <c r="E47">
-        <v>22.036</v>
+        <v>1.941</v>
       </c>
       <c r="F47">
-        <v>11.076</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6028,19 +6028,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.137</v>
+        <v>7.719</v>
       </c>
       <c r="C48">
-        <v>1.959</v>
+        <v>1.088</v>
       </c>
       <c r="D48">
-        <v>4.882</v>
+        <v>4.124</v>
       </c>
       <c r="E48">
-        <v>14.654</v>
+        <v>9.048999999999999</v>
       </c>
       <c r="F48">
-        <v>3.861</v>
+        <v>7.881</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6048,19 +6048,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.279</v>
+        <v>10.494</v>
       </c>
       <c r="C49">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="D49">
-        <v>6.623</v>
+        <v>3.586</v>
       </c>
       <c r="E49">
-        <v>19.712</v>
+        <v>2.316</v>
       </c>
       <c r="F49">
-        <v>12.171</v>
+        <v>10.991</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6068,19 +6068,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>4.797</v>
+        <v>0.432</v>
       </c>
       <c r="C50">
-        <v>0.373</v>
+        <v>2.546</v>
       </c>
       <c r="D50">
-        <v>0.857</v>
+        <v>1.871</v>
       </c>
       <c r="E50">
-        <v>9.726000000000001</v>
+        <v>7.467</v>
       </c>
       <c r="F50">
-        <v>10.782</v>
+        <v>3.343</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6088,19 +6088,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2.765</v>
+        <v>5.812</v>
       </c>
       <c r="C51">
-        <v>3.025</v>
+        <v>2.463</v>
       </c>
       <c r="D51">
-        <v>4.921</v>
+        <v>3.159</v>
       </c>
       <c r="E51">
-        <v>6.388</v>
+        <v>5.319</v>
       </c>
       <c r="F51">
-        <v>14.295</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6108,19 +6108,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2.961</v>
+        <v>10.949</v>
       </c>
       <c r="C52">
-        <v>2.172</v>
+        <v>2.225</v>
       </c>
       <c r="D52">
-        <v>5.829</v>
+        <v>6.691</v>
       </c>
       <c r="E52">
-        <v>18.76</v>
+        <v>0.41</v>
       </c>
       <c r="F52">
-        <v>1.927</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6128,19 +6128,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.46</v>
+        <v>13.05</v>
       </c>
       <c r="C53">
-        <v>3.939</v>
+        <v>1.188</v>
       </c>
       <c r="D53">
-        <v>3.347</v>
+        <v>7.607</v>
       </c>
       <c r="E53">
-        <v>5.323</v>
+        <v>6.813</v>
       </c>
       <c r="F53">
-        <v>10.367</v>
+        <v>12.976</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6148,19 +6148,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2.019</v>
+        <v>1.393</v>
       </c>
       <c r="C54">
-        <v>4.529</v>
+        <v>1.522</v>
       </c>
       <c r="D54">
-        <v>0.19</v>
+        <v>6.6</v>
       </c>
       <c r="E54">
-        <v>20.094</v>
+        <v>3.709</v>
       </c>
       <c r="F54">
-        <v>6.917</v>
+        <v>10.689</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6168,19 +6168,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.778</v>
+        <v>3.031</v>
       </c>
       <c r="C55">
-        <v>4.572</v>
+        <v>1.56</v>
       </c>
       <c r="D55">
-        <v>3.201</v>
+        <v>2.736</v>
       </c>
       <c r="E55">
-        <v>-0.166</v>
+        <v>8.287000000000001</v>
       </c>
       <c r="F55">
-        <v>9.427</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6188,19 +6188,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>10.126</v>
+        <v>33.399</v>
       </c>
       <c r="C56">
-        <v>1.887</v>
+        <v>3.881</v>
       </c>
       <c r="D56">
-        <v>7.944</v>
+        <v>9.862</v>
       </c>
       <c r="E56">
-        <v>43.133</v>
+        <v>4.534</v>
       </c>
       <c r="F56">
-        <v>20.511</v>
+        <v>23.933</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6208,19 +6208,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.957</v>
+        <v>18.057</v>
       </c>
       <c r="C57">
-        <v>5.221</v>
+        <v>2.281</v>
       </c>
       <c r="D57">
-        <v>8.988</v>
+        <v>9.664999999999999</v>
       </c>
       <c r="E57">
-        <v>28.594</v>
+        <v>21.13</v>
       </c>
       <c r="F57">
-        <v>6.982</v>
+        <v>17.206</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6228,19 +6228,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>8.352</v>
+        <v>24.55</v>
       </c>
       <c r="C58">
-        <v>1.147</v>
+        <v>4.152</v>
       </c>
       <c r="D58">
-        <v>11.884</v>
+        <v>8.404</v>
       </c>
       <c r="E58">
-        <v>38.397</v>
+        <v>5.41</v>
       </c>
       <c r="F58">
-        <v>22.529</v>
+        <v>23.993</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6248,19 +6248,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>11.034</v>
+        <v>1.01</v>
       </c>
       <c r="C59">
-        <v>1.263</v>
+        <v>5.341</v>
       </c>
       <c r="D59">
-        <v>1.312</v>
+        <v>4.385</v>
       </c>
       <c r="E59">
-        <v>19.456</v>
+        <v>17.435</v>
       </c>
       <c r="F59">
-        <v>19.118</v>
+        <v>7.298</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6268,19 +6268,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6.3</v>
+        <v>13.597</v>
       </c>
       <c r="C60">
-        <v>7.675</v>
+        <v>5.167</v>
       </c>
       <c r="D60">
-        <v>9.208</v>
+        <v>7.404</v>
       </c>
       <c r="E60">
-        <v>12.996</v>
+        <v>12.421</v>
       </c>
       <c r="F60">
-        <v>25.995</v>
+        <v>19.799</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6288,19 +6288,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7.653</v>
+        <v>25.615</v>
       </c>
       <c r="C61">
-        <v>5.294</v>
+        <v>4.669</v>
       </c>
       <c r="D61">
-        <v>10.5</v>
+        <v>15.681</v>
       </c>
       <c r="E61">
-        <v>36.751</v>
+        <v>0.958</v>
       </c>
       <c r="F61">
-        <v>3.366</v>
+        <v>1.541</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6308,19 +6308,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.446</v>
+        <v>30.53</v>
       </c>
       <c r="C62">
-        <v>10.72</v>
+        <v>2.493</v>
       </c>
       <c r="D62">
-        <v>6.628</v>
+        <v>17.827</v>
       </c>
       <c r="E62">
-        <v>9.84</v>
+        <v>15.908</v>
       </c>
       <c r="F62">
-        <v>18.499</v>
+        <v>28.325</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6328,19 +6328,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5.48</v>
+        <v>3.259</v>
       </c>
       <c r="C63">
-        <v>11.433</v>
+        <v>3.194</v>
       </c>
       <c r="D63">
-        <v>0.476</v>
+        <v>15.467</v>
       </c>
       <c r="E63">
-        <v>39.603</v>
+        <v>8.66</v>
       </c>
       <c r="F63">
-        <v>12.774</v>
+        <v>23.333</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6348,19 +6348,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>11.763</v>
+        <v>7.091</v>
       </c>
       <c r="C64">
-        <v>12.431</v>
+        <v>3.275</v>
       </c>
       <c r="D64">
-        <v>5.606</v>
+        <v>6.412</v>
       </c>
       <c r="E64">
-        <v>0.031</v>
+        <v>19.35</v>
       </c>
       <c r="F64">
-        <v>17.138</v>
+        <v>9.365</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6368,19 +6368,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>21.803</v>
+        <v>40.433</v>
       </c>
       <c r="C65">
-        <v>1.907</v>
+        <v>11.764</v>
       </c>
       <c r="D65">
-        <v>20.554</v>
+        <v>10.284</v>
       </c>
       <c r="E65">
-        <v>78.858</v>
+        <v>5.188</v>
       </c>
       <c r="F65">
-        <v>24.921</v>
+        <v>29.79</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6388,19 +6388,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4.643</v>
+        <v>21.861</v>
       </c>
       <c r="C66">
-        <v>5.269</v>
+        <v>6.924</v>
       </c>
       <c r="D66">
-        <v>22.558</v>
+        <v>10.079</v>
       </c>
       <c r="E66">
-        <v>52.112</v>
+        <v>24.191</v>
       </c>
       <c r="F66">
-        <v>8.541</v>
+        <v>21.409</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6408,19 +6408,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>18.704</v>
+        <v>29.721</v>
       </c>
       <c r="C67">
-        <v>1.158</v>
+        <v>12.585</v>
       </c>
       <c r="D67">
-        <v>28.815</v>
+        <v>8.763999999999999</v>
       </c>
       <c r="E67">
-        <v>69.85899999999999</v>
+        <v>6.191</v>
       </c>
       <c r="F67">
-        <v>27.517</v>
+        <v>29.864</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6428,19 +6428,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>23.836</v>
+        <v>1.226</v>
       </c>
       <c r="C68">
-        <v>1.277</v>
+        <v>16.182</v>
       </c>
       <c r="D68">
-        <v>3.308</v>
+        <v>4.573</v>
       </c>
       <c r="E68">
-        <v>35.606</v>
+        <v>19.96</v>
       </c>
       <c r="F68">
-        <v>23.066</v>
+        <v>9.066000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6448,19 +6448,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>13.71</v>
+        <v>16.463</v>
       </c>
       <c r="C69">
-        <v>7.75</v>
+        <v>15.657</v>
       </c>
       <c r="D69">
-        <v>23.667</v>
+        <v>7.721</v>
       </c>
       <c r="E69">
-        <v>23.727</v>
+        <v>14.219</v>
       </c>
       <c r="F69">
-        <v>31.603</v>
+        <v>24.639</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6468,19 +6468,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>17.367</v>
+        <v>31.01</v>
       </c>
       <c r="C70">
-        <v>5.346</v>
+        <v>14.151</v>
       </c>
       <c r="D70">
-        <v>26.751</v>
+        <v>16.352</v>
       </c>
       <c r="E70">
-        <v>66.878</v>
+        <v>1.094</v>
       </c>
       <c r="F70">
-        <v>3.97</v>
+        <v>1.895</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6488,19 +6488,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3.499</v>
+        <v>36.96</v>
       </c>
       <c r="C71">
-        <v>10.827</v>
+        <v>7.569</v>
       </c>
       <c r="D71">
-        <v>16.784</v>
+        <v>18.59</v>
       </c>
       <c r="E71">
-        <v>17.224</v>
+        <v>18.212</v>
       </c>
       <c r="F71">
-        <v>22.481</v>
+        <v>35.26</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6508,19 +6508,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>12.765</v>
+        <v>3.948</v>
       </c>
       <c r="C72">
-        <v>11.547</v>
+        <v>9.69</v>
       </c>
       <c r="D72">
-        <v>0.5620000000000001</v>
+        <v>16.129</v>
       </c>
       <c r="E72">
-        <v>72.687</v>
+        <v>9.912000000000001</v>
       </c>
       <c r="F72">
-        <v>15.521</v>
+        <v>29.042</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6528,19 +6528,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>26.124</v>
+        <v>8.587</v>
       </c>
       <c r="C73">
-        <v>12.553</v>
+        <v>9.936</v>
       </c>
       <c r="D73">
-        <v>14.554</v>
+        <v>6.686</v>
       </c>
       <c r="E73">
-        <v>0.667</v>
+        <v>22.153</v>
       </c>
       <c r="F73">
-        <v>20.857</v>
+        <v>11.641</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -6548,19 +6548,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>26.349</v>
+        <v>99.45699999999999</v>
       </c>
       <c r="C74">
-        <v>3.751</v>
+        <v>20.146</v>
       </c>
       <c r="D74">
-        <v>29.438</v>
+        <v>10.54</v>
       </c>
       <c r="E74">
-        <v>189.638</v>
+        <v>18.037</v>
       </c>
       <c r="F74">
-        <v>90.58199999999999</v>
+        <v>34.692</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -6568,19 +6568,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5.735</v>
+        <v>53.136</v>
       </c>
       <c r="C75">
-        <v>10.495</v>
+        <v>11.961</v>
       </c>
       <c r="D75">
-        <v>32.008</v>
+        <v>10.332</v>
       </c>
       <c r="E75">
-        <v>125.281</v>
+        <v>83.34699999999999</v>
       </c>
       <c r="F75">
-        <v>31.495</v>
+        <v>25.016</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -6588,19 +6588,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>22.786</v>
+        <v>73.345</v>
       </c>
       <c r="C76">
-        <v>2.432</v>
+        <v>22.403</v>
       </c>
       <c r="D76">
-        <v>40.536</v>
+        <v>8.977</v>
       </c>
       <c r="E76">
-        <v>168.453</v>
+        <v>21.598</v>
       </c>
       <c r="F76">
-        <v>99.51300000000001</v>
+        <v>34.775</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6608,19 +6608,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>28.844</v>
+        <v>2.742</v>
       </c>
       <c r="C77">
-        <v>2.422</v>
+        <v>27.988</v>
       </c>
       <c r="D77">
-        <v>4.582</v>
+        <v>4.677</v>
       </c>
       <c r="E77">
-        <v>85.253</v>
+        <v>68.20399999999999</v>
       </c>
       <c r="F77">
-        <v>82.27500000000001</v>
+        <v>10.621</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -6628,19 +6628,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>16.559</v>
+        <v>40.829</v>
       </c>
       <c r="C78">
-        <v>15.882</v>
+        <v>26.925</v>
       </c>
       <c r="D78">
-        <v>33.563</v>
+        <v>7.908</v>
       </c>
       <c r="E78">
-        <v>56.453</v>
+        <v>48.982</v>
       </c>
       <c r="F78">
-        <v>113.401</v>
+        <v>28.751</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -6648,19 +6648,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>21.063</v>
+        <v>75.697</v>
       </c>
       <c r="C79">
-        <v>11.267</v>
+        <v>24.435</v>
       </c>
       <c r="D79">
-        <v>38.004</v>
+        <v>16.755</v>
       </c>
       <c r="E79">
-        <v>161.284</v>
+        <v>3.912</v>
       </c>
       <c r="F79">
-        <v>14.006</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -6668,19 +6668,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4.218</v>
+        <v>91.35299999999999</v>
       </c>
       <c r="C80">
-        <v>22.593</v>
+        <v>13.311</v>
       </c>
       <c r="D80">
-        <v>23.856</v>
+        <v>19.053</v>
       </c>
       <c r="E80">
-        <v>40.179</v>
+        <v>62.496</v>
       </c>
       <c r="F80">
-        <v>80.18899999999999</v>
+        <v>41.188</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -6688,19 +6688,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>15.412</v>
+        <v>9.535</v>
       </c>
       <c r="C81">
-        <v>24.439</v>
+        <v>16.617</v>
       </c>
       <c r="D81">
-        <v>0.887</v>
+        <v>16.527</v>
       </c>
       <c r="E81">
-        <v>175.949</v>
+        <v>34.091</v>
       </c>
       <c r="F81">
-        <v>54.952</v>
+        <v>33.873</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -6708,19 +6708,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>31.783</v>
+        <v>21.577</v>
       </c>
       <c r="C82">
-        <v>26.309</v>
+        <v>17.781</v>
       </c>
       <c r="D82">
-        <v>20.806</v>
+        <v>6.856</v>
       </c>
       <c r="E82">
-        <v>1.804</v>
+        <v>76.139</v>
       </c>
       <c r="F82">
-        <v>75.804</v>
+        <v>13.528</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -6728,19 +6728,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>40.834</v>
+        <v>160.926</v>
       </c>
       <c r="C83">
-        <v>6.453</v>
+        <v>50.039</v>
       </c>
       <c r="D83">
-        <v>94.58</v>
+        <v>44.917</v>
       </c>
       <c r="E83">
-        <v>491.609</v>
+        <v>31.731</v>
       </c>
       <c r="F83">
-        <v>149.876</v>
+        <v>37.286</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -6748,19 +6748,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>9.196999999999999</v>
+        <v>85.485</v>
       </c>
       <c r="C84">
-        <v>18.847</v>
+        <v>29.763</v>
       </c>
       <c r="D84">
-        <v>102.02</v>
+        <v>43.688</v>
       </c>
       <c r="E84">
-        <v>324.521</v>
+        <v>146.644</v>
       </c>
       <c r="F84">
-        <v>52.156</v>
+        <v>26.903</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -6768,19 +6768,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>35.611</v>
+        <v>118.783</v>
       </c>
       <c r="C85">
-        <v>4.616</v>
+        <v>56.407</v>
       </c>
       <c r="D85">
-        <v>129.998</v>
+        <v>37.945</v>
       </c>
       <c r="E85">
-        <v>437.032</v>
+        <v>38.165</v>
       </c>
       <c r="F85">
-        <v>164.346</v>
+        <v>37.368</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -6788,19 +6788,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>44.65</v>
+        <v>4.304</v>
       </c>
       <c r="C86">
-        <v>4.152</v>
+        <v>69.342</v>
       </c>
       <c r="D86">
-        <v>14.654</v>
+        <v>18.581</v>
       </c>
       <c r="E86">
-        <v>220.806</v>
+        <v>119.954</v>
       </c>
       <c r="F86">
-        <v>135.948</v>
+        <v>11.434</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -6808,19 +6808,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>25.643</v>
+        <v>65.98699999999999</v>
       </c>
       <c r="C87">
-        <v>28.598</v>
+        <v>66.169</v>
       </c>
       <c r="D87">
-        <v>108.443</v>
+        <v>32.398</v>
       </c>
       <c r="E87">
-        <v>146.284</v>
+        <v>86.07599999999999</v>
       </c>
       <c r="F87">
-        <v>187.072</v>
+        <v>30.919</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -6828,19 +6828,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>32.472</v>
+        <v>122.22</v>
       </c>
       <c r="C88">
-        <v>20.401</v>
+        <v>59.713</v>
       </c>
       <c r="D88">
-        <v>122.32</v>
+        <v>71.648</v>
       </c>
       <c r="E88">
-        <v>418.948</v>
+        <v>7.29</v>
       </c>
       <c r="F88">
-        <v>22.775</v>
+        <v>2.367</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -6848,19 +6848,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6.495</v>
+        <v>147.428</v>
       </c>
       <c r="C89">
-        <v>40.408</v>
+        <v>33.597</v>
       </c>
       <c r="D89">
-        <v>76.98699999999999</v>
+        <v>81.75700000000001</v>
       </c>
       <c r="E89">
-        <v>104.384</v>
+        <v>110.365</v>
       </c>
       <c r="F89">
-        <v>132.027</v>
+        <v>44.286</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -6868,19 +6868,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>23.771</v>
+        <v>15.206</v>
       </c>
       <c r="C90">
-        <v>43.842</v>
+        <v>40.44</v>
       </c>
       <c r="D90">
-        <v>3.961</v>
+        <v>69.28</v>
       </c>
       <c r="E90">
-        <v>457.784</v>
+        <v>60.13</v>
       </c>
       <c r="F90">
-        <v>90.718</v>
+        <v>36.415</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -6888,19 +6888,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>49.493</v>
+        <v>34.73</v>
       </c>
       <c r="C91">
-        <v>47.178</v>
+        <v>44.421</v>
       </c>
       <c r="D91">
-        <v>66.816</v>
+        <v>30.025</v>
       </c>
       <c r="E91">
-        <v>4.695</v>
+        <v>134.319</v>
       </c>
       <c r="F91">
-        <v>125.212</v>
+        <v>14.543</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -6908,19 +6908,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>93.05</v>
+        <v>480.51</v>
       </c>
       <c r="C92">
-        <v>15.296</v>
+        <v>110.335</v>
       </c>
       <c r="D92">
-        <v>213.532</v>
+        <v>60.299</v>
       </c>
       <c r="E92">
-        <v>494.99</v>
+        <v>31.98</v>
       </c>
       <c r="F92">
-        <v>276.873</v>
+        <v>123.646</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -6928,19 +6928,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>21.013</v>
+        <v>253.65</v>
       </c>
       <c r="C93">
-        <v>46.71</v>
+        <v>65.34</v>
       </c>
       <c r="D93">
-        <v>230.134</v>
+        <v>58.538</v>
       </c>
       <c r="E93">
-        <v>326.75</v>
+        <v>147.812</v>
       </c>
       <c r="F93">
-        <v>96.42</v>
+        <v>90.17100000000001</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6948,19 +6948,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>81.129</v>
+        <v>355.207</v>
       </c>
       <c r="C94">
-        <v>11.577</v>
+        <v>125.334</v>
       </c>
       <c r="D94">
-        <v>293.59</v>
+        <v>50.886</v>
       </c>
       <c r="E94">
-        <v>440.039</v>
+        <v>38.467</v>
       </c>
       <c r="F94">
-        <v>303.996</v>
+        <v>123.999</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6968,19 +6968,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>101.858</v>
+        <v>11.907</v>
       </c>
       <c r="C95">
-        <v>10.362</v>
+        <v>153.955</v>
       </c>
       <c r="D95">
-        <v>33.178</v>
+        <v>24.783</v>
       </c>
       <c r="E95">
-        <v>222.322</v>
+        <v>120.909</v>
       </c>
       <c r="F95">
-        <v>251.215</v>
+        <v>38.759</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6988,19 +6988,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>58.595</v>
+        <v>196.149</v>
       </c>
       <c r="C96">
-        <v>70.325</v>
+        <v>146.754</v>
       </c>
       <c r="D96">
-        <v>245.698</v>
+        <v>43.397</v>
       </c>
       <c r="E96">
-        <v>147.29</v>
+        <v>86.762</v>
       </c>
       <c r="F96">
-        <v>345.394</v>
+        <v>102.857</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -7008,19 +7008,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>73.318</v>
+        <v>364.438</v>
       </c>
       <c r="C97">
-        <v>50.385</v>
+        <v>132.007</v>
       </c>
       <c r="D97">
-        <v>277.103</v>
+        <v>96.17700000000001</v>
       </c>
       <c r="E97">
-        <v>421.827</v>
+        <v>7.352</v>
       </c>
       <c r="F97">
-        <v>41.507</v>
+        <v>7.626</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -7028,19 +7028,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>14.462</v>
+        <v>439.735</v>
       </c>
       <c r="C98">
-        <v>99.95399999999999</v>
+        <v>74.83199999999999</v>
       </c>
       <c r="D98">
-        <v>174.743</v>
+        <v>109.686</v>
       </c>
       <c r="E98">
-        <v>105.101</v>
+        <v>111.242</v>
       </c>
       <c r="F98">
-        <v>243.494</v>
+        <v>147.43</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7048,19 +7048,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>54.248</v>
+        <v>45.653</v>
       </c>
       <c r="C99">
-        <v>107.632</v>
+        <v>89.279</v>
       </c>
       <c r="D99">
-        <v>8.738</v>
+        <v>92.88200000000001</v>
       </c>
       <c r="E99">
-        <v>460.936</v>
+        <v>60.605</v>
       </c>
       <c r="F99">
-        <v>167.329</v>
+        <v>120.979</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7068,19 +7068,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>113.154</v>
+        <v>103.788</v>
       </c>
       <c r="C100">
-        <v>115.933</v>
+        <v>98.241</v>
       </c>
       <c r="D100">
-        <v>151.247</v>
+        <v>40.458</v>
       </c>
       <c r="E100">
-        <v>4.728</v>
+        <v>135.389</v>
       </c>
       <c r="F100">
-        <v>231.323</v>
+        <v>48.269</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7088,19 +7088,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>102.336</v>
+        <v>1076.33</v>
       </c>
       <c r="C101">
-        <v>22.569</v>
+        <v>127.236</v>
       </c>
       <c r="D101">
-        <v>243.488</v>
+        <v>69.42</v>
       </c>
       <c r="E101">
-        <v>1695.102</v>
+        <v>99.414</v>
       </c>
       <c r="F101">
-        <v>449.423</v>
+        <v>391.121</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -7108,19 +7108,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>23.095</v>
+        <v>568.197</v>
       </c>
       <c r="C102">
-        <v>69.521</v>
+        <v>75.384</v>
       </c>
       <c r="D102">
-        <v>262.385</v>
+        <v>67.35599999999999</v>
       </c>
       <c r="E102">
-        <v>1119.406</v>
+        <v>460.532</v>
       </c>
       <c r="F102">
-        <v>156.653</v>
+        <v>286.267</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7128,19 +7128,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>89.187</v>
+        <v>796.567</v>
       </c>
       <c r="C103">
-        <v>17.312</v>
+        <v>144.673</v>
       </c>
       <c r="D103">
-        <v>334.764</v>
+        <v>58.525</v>
       </c>
       <c r="E103">
-        <v>1508.251</v>
+        <v>119.97</v>
       </c>
       <c r="F103">
-        <v>493.717</v>
+        <v>391.275</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -7148,19 +7148,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>111.998</v>
+        <v>26.638</v>
       </c>
       <c r="C104">
-        <v>15.235</v>
+        <v>177.75</v>
       </c>
       <c r="D104">
-        <v>37.89</v>
+        <v>28.442</v>
       </c>
       <c r="E104">
-        <v>760.954</v>
+        <v>375.95</v>
       </c>
       <c r="F104">
-        <v>407.652</v>
+        <v>122.269</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -7168,19 +7168,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>64.45</v>
+        <v>439.65</v>
       </c>
       <c r="C105">
-        <v>104.683</v>
+        <v>169.41</v>
       </c>
       <c r="D105">
-        <v>280.229</v>
+        <v>49.897</v>
       </c>
       <c r="E105">
-        <v>504.817</v>
+        <v>269.564</v>
       </c>
       <c r="F105">
-        <v>560.414</v>
+        <v>325.293</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -7188,19 +7188,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>80.57599999999999</v>
+        <v>816.482</v>
       </c>
       <c r="C106">
-        <v>75.071</v>
+        <v>152.345</v>
       </c>
       <c r="D106">
-        <v>316.062</v>
+        <v>110.692</v>
       </c>
       <c r="E106">
-        <v>1444.765</v>
+        <v>23.577</v>
       </c>
       <c r="F106">
-        <v>67.27</v>
+        <v>23.644</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -7208,19 +7208,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>15.869</v>
+        <v>984.655</v>
       </c>
       <c r="C107">
-        <v>148.675</v>
+        <v>86.404</v>
       </c>
       <c r="D107">
-        <v>199.318</v>
+        <v>126.164</v>
       </c>
       <c r="E107">
-        <v>360.587</v>
+        <v>346.199</v>
       </c>
       <c r="F107">
-        <v>394.907</v>
+        <v>465.571</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -7228,19 +7228,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>59.624</v>
+        <v>102.382</v>
       </c>
       <c r="C108">
-        <v>160.047</v>
+        <v>103.07</v>
       </c>
       <c r="D108">
-        <v>10</v>
+        <v>106.896</v>
       </c>
       <c r="E108">
-        <v>1579.872</v>
+        <v>187.505</v>
       </c>
       <c r="F108">
-        <v>271.452</v>
+        <v>382.036</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -7248,19 +7248,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>124.427</v>
+        <v>232.205</v>
       </c>
       <c r="C109">
-        <v>172.356</v>
+        <v>113.326</v>
       </c>
       <c r="D109">
-        <v>172.463</v>
+        <v>46.64</v>
       </c>
       <c r="E109">
-        <v>16.086</v>
+        <v>421.767</v>
       </c>
       <c r="F109">
-        <v>375.588</v>
+        <v>152.46</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -7268,19 +7268,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>312.317</v>
+        <v>2322.233</v>
       </c>
       <c r="C110">
-        <v>31.9</v>
+        <v>274.096</v>
       </c>
       <c r="D110">
-        <v>323.878</v>
+        <v>194.682</v>
       </c>
       <c r="E110">
-        <v>4587.441</v>
+        <v>166.838</v>
       </c>
       <c r="F110">
-        <v>1435.822</v>
+        <v>622.139</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -7288,19 +7288,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>70.148</v>
+        <v>1225.495</v>
       </c>
       <c r="C111">
-        <v>98.785</v>
+        <v>162.424</v>
       </c>
       <c r="D111">
-        <v>348.925</v>
+        <v>188.954</v>
       </c>
       <c r="E111">
-        <v>3029.809</v>
+        <v>773.165</v>
       </c>
       <c r="F111">
-        <v>500.381</v>
+        <v>455.249</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -7308,19 +7308,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>272.094</v>
+        <v>1718.551</v>
       </c>
       <c r="C112">
-        <v>24.722</v>
+        <v>312.083</v>
       </c>
       <c r="D112">
-        <v>445.285</v>
+        <v>163.68</v>
       </c>
       <c r="E112">
-        <v>4081.832</v>
+        <v>201.668</v>
       </c>
       <c r="F112">
-        <v>1579.167</v>
+        <v>621.992</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -7328,19 +7328,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>342.435</v>
+        <v>57.59</v>
       </c>
       <c r="C113">
-        <v>21.517</v>
+        <v>383.446</v>
       </c>
       <c r="D113">
-        <v>50.395</v>
+        <v>79.07599999999999</v>
       </c>
       <c r="E113">
-        <v>2059.505</v>
+        <v>631.165</v>
       </c>
       <c r="F113">
-        <v>1303.121</v>
+        <v>194.492</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -7348,19 +7348,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>197.54</v>
+        <v>948.395</v>
       </c>
       <c r="C114">
-        <v>148.746</v>
+        <v>365.832</v>
       </c>
       <c r="D114">
-        <v>372.696</v>
+        <v>139.175</v>
       </c>
       <c r="E114">
-        <v>1366.469</v>
+        <v>452.662</v>
       </c>
       <c r="F114">
-        <v>1789.987</v>
+        <v>517.329</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -7368,19 +7368,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>245.53</v>
+        <v>1761.512</v>
       </c>
       <c r="C115">
-        <v>106.659</v>
+        <v>328.594</v>
       </c>
       <c r="D115">
-        <v>420.389</v>
+        <v>310.202</v>
       </c>
       <c r="E115">
-        <v>3909.798</v>
+        <v>39.744</v>
       </c>
       <c r="F115">
-        <v>214.302</v>
+        <v>37.42</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7388,19 +7388,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>47.931</v>
+        <v>2124.137</v>
       </c>
       <c r="C116">
-        <v>211.347</v>
+        <v>186.705</v>
       </c>
       <c r="D116">
-        <v>265.091</v>
+        <v>353.197</v>
       </c>
       <c r="E116">
-        <v>975.91</v>
+        <v>581.203</v>
       </c>
       <c r="F116">
-        <v>1261.409</v>
+        <v>740.064</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -7408,19 +7408,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>182.178</v>
+        <v>221.311</v>
       </c>
       <c r="C117">
-        <v>227.462</v>
+        <v>222.185</v>
       </c>
       <c r="D117">
-        <v>13.331</v>
+        <v>299.529</v>
       </c>
       <c r="E117">
-        <v>4276.293</v>
+        <v>314.609</v>
       </c>
       <c r="F117">
-        <v>867.227</v>
+        <v>607.235</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -7428,19 +7428,199 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>380.616</v>
+        <v>500.887</v>
       </c>
       <c r="C118">
-        <v>244.859</v>
+        <v>243.896</v>
       </c>
       <c r="D118">
-        <v>229.358</v>
+        <v>131.762</v>
       </c>
       <c r="E118">
-        <v>43.9</v>
+        <v>708.201</v>
       </c>
       <c r="F118">
-        <v>1199.951</v>
+        <v>242.193</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>3877.881</v>
+      </c>
+      <c r="C119">
+        <v>486.288</v>
+      </c>
+      <c r="D119">
+        <v>302.873</v>
+      </c>
+      <c r="E119">
+        <v>503.213</v>
+      </c>
+      <c r="F119">
+        <v>1897.852</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>2046.219</v>
+      </c>
+      <c r="C120">
+        <v>288.106</v>
+      </c>
+      <c r="D120">
+        <v>293.877</v>
+      </c>
+      <c r="E120">
+        <v>2334.503</v>
+      </c>
+      <c r="F120">
+        <v>1388.686</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>2869.586</v>
+      </c>
+      <c r="C121">
+        <v>553.626</v>
+      </c>
+      <c r="D121">
+        <v>254.592</v>
+      </c>
+      <c r="E121">
+        <v>609.544</v>
+      </c>
+      <c r="F121">
+        <v>1896.298</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>96.16500000000001</v>
+      </c>
+      <c r="C122">
+        <v>680.2910000000001</v>
+      </c>
+      <c r="D122">
+        <v>122.964</v>
+      </c>
+      <c r="E122">
+        <v>1906.738</v>
+      </c>
+      <c r="F122">
+        <v>593.634</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>1583.592</v>
+      </c>
+      <c r="C123">
+        <v>649.106</v>
+      </c>
+      <c r="D123">
+        <v>216.526</v>
+      </c>
+      <c r="E123">
+        <v>1366.857</v>
+      </c>
+      <c r="F123">
+        <v>1578.648</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>2941.4</v>
+      </c>
+      <c r="C124">
+        <v>583.035</v>
+      </c>
+      <c r="D124">
+        <v>482.57</v>
+      </c>
+      <c r="E124">
+        <v>120.453</v>
+      </c>
+      <c r="F124">
+        <v>114.442</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>3547.018</v>
+      </c>
+      <c r="C125">
+        <v>331.479</v>
+      </c>
+      <c r="D125">
+        <v>549.638</v>
+      </c>
+      <c r="E125">
+        <v>1755.244</v>
+      </c>
+      <c r="F125">
+        <v>2257.32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>369.568</v>
+      </c>
+      <c r="C126">
+        <v>393.85</v>
+      </c>
+      <c r="D126">
+        <v>466.018</v>
+      </c>
+      <c r="E126">
+        <v>949.5549999999999</v>
+      </c>
+      <c r="F126">
+        <v>1851.514</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>836.586</v>
+      </c>
+      <c r="C127">
+        <v>432.475</v>
+      </c>
+      <c r="D127">
+        <v>205.236</v>
+      </c>
+      <c r="E127">
+        <v>2138.645</v>
+      </c>
+      <c r="F127">
+        <v>737.607</v>
       </c>
     </row>
   </sheetData>
